--- a/data/28-03-22/data_transform.xlsx
+++ b/data/28-03-22/data_transform.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,45 +451,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>host</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uid</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>leng title</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>leng contents</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>token title</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>token contents</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>top 1 words contents</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>top 2 words contents</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>top 3 words contents</t>
         </is>
@@ -498,486 +503,531 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>arias pide juicio de responsabilidades para áñez y lamenta que se siga alimentando la confrontación</t>
+          <t>un extraditable fue liberado en 2019 en un operativo realizado en el aeródromo la cruceña</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">el proceso se reanudará el 4 de abril tras varios incidentes en su instalación el alcalde de la paz dice que la expresidenta evitó la confrontación  exigió este lunes juicio de responsabilidades para la expresidenta jeanine áñez y lamentó que se siga alimentando el odio ella merece un juicio de responsabilidades y no un juicio ordinario yo creo que deberíamos acabar esta cosa debería llevársela a un juicio de responsabilidades  ñez militares y policías son acusados por los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución ella evitó que hubiera una conflagración y deberíamos estar agradecidos exigió este lunes juicio de responsabilidades para la expresidenta jeanine áñez y lamentó que se siga alimentando el odio ella merece un juicio de responsabilidades y no un juicio ordinario yo creo que deberíamos acabar esta cosa debería llevársela a un juicio de responsabilidades  ñez militares y policías son acusados por los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución ella evitó que hubiera una conflagración y deberíamos estar agradecidos         </t>
+          <t>fueron capturados 13 hombres entre ellos el extraditable rolin gonzalo parada gutiérrez el resto de los aprehendidos quedaron libres porque la felcn no presentó pruebas también devolvieron las avionetas  se capturó a 14 hombres entre ellos un extraditable solicitado por brasil por delito de tráfico internacional de drogas por esa razón los 13 capturados fueron liberados y las avionetas que habían sido precintadas se devolvieron  de la misma forma todos salieron libres por órdenes del entonces jefe nacional de la felcn maximiliano dávila pérez hoy preso en la cárcel de san pedro de la paz traficantes liberados  general de la felcn coronel edwin pérez mendieta y participaron la jefatura departamental de felcn de santa cruz los grupos gisuqoriente giaeforiente y umoparoriente sin pruebas tras el operativo e informó que el resultado fue negativo es decir que no hallaron restos de droga las naves fueron devueltas a sus propietarios el extraditable en el grupo mientras se completaban los trámites para hacer efectiva la extradición quién es rolín gonzalo parada el reporte señalaba que esta persona era buscada desde 2013 en brasil en junio de 2013 rolín gonzalo estuvo en campo grande mato grosso do sul brasil para actividades de la organización habiéndose encontrado con sus amigos iván fernández carvalho y adalto martins ferreira cayó preso y salió libre  la exautoridad informó que rolín gonzalo paradaalias de ‘federi’ fue capturado cuando caminaba por la zona de equipetrol él pesaba una notificación roja de interpol de brasil acusado por tráfico internacional de drogas y asociación criminal  por daño calificado asociación delictuosa amenazas coacción allanamiento y robo agravado en la propiedad ‘la colita’ agentes de la felcn que pidieron anonimato se preguntaron ¿qué hacía en el aeródromo el extraditable   fiscalía abrió investigación  del extraditable rolín gonzalo parada en este aeródromo sus vínculos con los 13 hombres que fueron capturados en el lugar entre ellos figuraban rolín gonzalo parada gutiérrez pedro montenegro paz tres avionetas aterrizan en el aeródromo le cambiaron de nombre y se observa alto tráfico según registros de la dirección general de aeronáutica civil dgac el aeródromo ubicado  se llamaba aeródromo mundaka pero cambió de nombre y ahora se llama aeroparque la cruceña  realizan investigaciones en torno a un megaoperativo realizado en julio de 2019 se capturó a 14 hombres entre ellos un extraditable solicitado por brasil por delito de tráfico internacional de drogas por esa razón los 13 capturados fueron liberados y las avionetas que habían sido precintadas se devolvieron  de la misma forma todos salieron libres por órdenes del entonces jefe nacional de la felcn maximiliano dávila pérez hoy preso en la cárcel de san pedro de la paz traficantes liberados  general de la felcn coronel edwin pérez mendieta y participaron la jefatura departamental de felcn de santa cruz los grupos gisuqoriente giaeforiente y umoparoriente sin pruebas tras el operativo e informó que el resultado fue negativo es decir que no hallaron restos de droga las naves fueron devueltas a sus propietarios el extraditable en el grupo mientras se completaban los trámites para hacer efectiva la extradición quién es rolín gonzalo parada el reporte señalaba que esta persona era buscada desde 2013 en brasil en junio de 2013 rolín gonzalo estuvo en campo grande mato grosso do sul brasil para actividades de la organización habiéndose encontrado con sus amigos iván fernández carvalho y adalto martins ferreira cayó preso y salió libre  la exautoridad informó que rolín gonzalo paradaalias de ‘federi’ fue capturado cuando caminaba por la zona de equipetrol él pesaba una notificación roja de interpol de brasil acusado por tráfico internacional de drogas y asociación criminal  por daño calificado asociación delictuosa amenazas coacción allanamiento y robo agravado en la propiedad ‘la colita’ agentes de la felcn que pidieron anonimato se preguntaron ¿qué hacía en el aeródromo el extraditable   fiscalía abrió investigación  del extraditable rolín gonzalo parada en este aeródromo sus vínculos con los 13 hombres que fueron capturados en el lugar entre ellos figuraban rolín gonzalo parada gutiérrez pedro montenegro paz tres avionetas aterrizan en el aeródromo le cambiaron de nombre y se observa alto tráfico según registros de la dirección general de aeronáutica civil dgac el aeródromo ubicado  se llamaba aeródromo mundaka pero cambió de nombre y ahora se llama aeroparque la cruceña  realizan investigaciones en torno a un megaoperativo realizado en julio de 2019  asimismo en una audiencia se hizo conocer al juzgador que al menos 10 avionetas precintadas durante el operativo con sospechas de haber sido usadas para el transporte de cocaína de alta pureza fueron sometidas al aspirado pero tras una pericia realizada por especialistas químicos s según romero era buscado para su extradición a brasil por ser considerado un capo narcotraficante dijo que se lo capturó gracias a a investigaciones desarrolladas por el centro regional de inteligencia antinarcóticos cerian señaló que era parte de una célula criminal y que sobre   cerca de cotoca opera desde 2014 el aeroparque cuenta con varios hangares a lo largo de la pista de tierra de 580 metros de largo por 18 de ancho autorizado por la dgac con el registro 023 en el ingreso al aeródromo un letrero informa de que todas las operaciones tienen el control de la felcn y de la dgac además del aeropuerto de el trompillo y de viru viru policías de la felcn afirman que este aeródromo presenta un alto tráfico aéreo desde sus inicios el deber evidenció que en menos de una hora aterrizaron tres avionetas en la pista de este aeródromo luego en tierra las naves fueron escoltadas hasta sus hangares por civiles de pantalones cortos en sus motocicletas el director nacional de la felcn coronel josé maría velasco informó que se   aseguró que en esta gestión no se permitirá actos irregulares pero que ese aeródromo está bajo control asimismo en una audiencia se hizo conocer al juzgador que al menos 10 avionetas precintadas durante el operativo con sospechas de haber sido usadas para el transporte de cocaína de alta pureza fueron sometidas al aspirado pero tras una pericia realizada por especialistas químicos s según romero era buscado para su extradición a brasil por ser considerado un capo narcotraficante dijo que se lo capturó gracias a a investigaciones desarrolladas por el centro regional de inteligencia antinarcóticos cerian señaló que era parte de una célula criminal y que sobre   cerca de cotoca opera desde 2014 el aeroparque cuenta con varios hangares a lo largo de la pista de tierra de 580 metros de largo por 18 de ancho autorizado por la dgac con el registro 023 en el ingreso al aeródromo un letrero informa de que todas las operaciones tienen el control de la felcn y de la dgac además del aeropuerto de el trompillo y de viru viru policías de la felcn afirman que este aeródromo presenta un alto tráfico aéreo desde sus inicios el deber evidenció que en menos de una hora aterrizaron tres avionetas en la pista de este aeródromo luego en tierra las naves fueron escoltadas hasta sus hangares por civiles de pantalones cortos en sus motocicletas el director nacional de la felcn coronel josé maría velasco informó que se   aseguró que en esta gestión no se permitirá actos irregulares pero que ese aeródromo está bajo control</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/arias-pide-juicio-de-responsabilidades-para-anez-y-lamenta-que-se-siga-alimentando-la-confrontacion_272487</t>
+          <t>https://eldeber.com.bo/pais/un-extraditable-fue-liberado-en-2019-en-un-operativo-realizado-en-el-aerodromo-la-crucena_272401</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>a9c9aca11bb857aacbe2a8cd2753e977</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>99</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>d2f108fa076d5f3e80c52302f8bbccaa</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>1121</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7448</v>
       </c>
       <c r="I2" t="n">
-        <v>101</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>('juicio', 8)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>708</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>('responsabilidades', 6)</t>
+          <t>('aeródromo', 18)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>('ella', 4)</t>
+          <t>('felcn', 15)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>('fueron', 11)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">familiares de aprehendidos en ‘la cruceña’ descartan vínculos con el narcotráfico </t>
+          <t>andrónico confía en la “solidez” de los argumentos bolivianos en el juicio por el silala</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">entre los aprehendidos hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas y asociación delictuosa en confabulación  los familiares y abogados de los investigados llegaron hasta las instalaciones de la fuerza especial de lucha contra el narcotráfico felcn  mecánico de aviación yo no conozco al señor que lo contrató pero sé que mi hijo trabaja honestamente  36 varones y dos mujeres  gróver soleto guzmán ulises ruiz dayer y el brasileño lópez da silva junior  los jueces serán quienes determinen su situación jurídica en los próximos días recibieron a los policías con disparos hallaron sustancias químicas armas de fuego y fue recién entonces que llamaron a efectivos y fiscales antidrogas los familiares y abogados de los investigados llegaron hasta las instalaciones de la fuerza especial de lucha contra el narcotráfico felcn  mecánico de aviación yo no conozco al señor que lo contrató pero sé que mi hijo trabaja honestamente  36 varones y dos mujeres  gróver soleto guzmán ulises ruiz dayer y el brasileño lópez da silva junior  los jueces serán quienes determinen su situación jurídica en los próximos días recibieron a los policías con disparos hallaron sustancias químicas armas de fuego y fue recién entonces que llamaron a efectivos y fiscales antidrogas </t>
+          <t xml:space="preserve"> el titular del senado informó que el presidente de la cámara baja acompañará a la comitiva a la haya el 1 de abril se inician los alegatos orales en el proceso iniciado por chile  los argumentos bolivianos en el litigio por las aguas del silala ante la corte internacional de justicia si el afluente fue canalizado de forma artificial o se trata de un río de curso internacional nosotros estamos seguros que los orígenes de las aguas son manantiales el presidente de la cámara baja freddy mamani acompañará la comitiva oficial las declaraciones la asamblea legislativa no puede estar al margen de este proceso el canciller rogelio mayta encabezará la delegación los argumentos bolivianos en el litigio por las aguas del silala ante la corte internacional de justicia si el afluente fue canalizado de forma artificial o se trata de un río de curso internacional nosotros estamos seguros que los orígenes de las aguas son manantiales el presidente de la cámara baja freddy mamani acompañará la comitiva oficial las declaraciones la asamblea legislativa no puede estar al margen de este proceso el canciller rogelio mayta encabezará la delegación </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/familiares-de-aprehendidos-en-la-crucena-descartan-vinculos-con-el-narcotrafico_272459</t>
+          <t>https://eldeber.com.bo/pais/andronico-confia-en-la-solidez-de-los-argumentos-bolivianos-en-el-juicio-por-el-silala_272488</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bacb07c78fe96fd7ea38cd8591bbc242</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>82</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>bba8c76c9a34b144219e48d9caaf58e9</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>1337</v>
+        <v>88</v>
       </c>
       <c r="H3" t="n">
+        <v>1145</v>
+      </c>
+      <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
-        <v>131</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>('36', 3)</t>
-        </is>
+      <c r="J3" t="n">
+        <v>101</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>('varones', 3)</t>
+          <t>('aguas', 4)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>('mujeres', 3)</t>
+          <t>('internacional', 4)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>('presidente', 3)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>documentos vinculan a familia mundaka con aeródromo la cruceña pero su vocero asegura que los terrenos fueron vendidos</t>
+          <t>arias pide juicio de responsabilidades para áñez y lamenta que se siga alimentando la confrontación</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mundaka obtuvo la certificación para la pista de la dgac pero los predios donde fueron construidos los hangares tienen distintos propietarios que se encargan de la operación de la pista de acuerdo con su vocero    certificado de inscripción y operación que indican que la pista de aeródromo “apartarme de la administración de los predios de la urbanización” nosotros denunciar y evitar toda clase de ilícitos  a pista fue certificada por la familia mundaka transacciones de compraventa realizadas “hace muchos años” de esos terrenos  administración para el mantenimiento de la pista  certificado de inscripción y operación que indican que la pista de aeródromo “apartarme de la administración de los predios de la urbanización” nosotros denunciar y evitar toda clase de ilícitos  a pista fue certificada por la familia mundaka transacciones de compraventa realizadas “hace muchos años” de esos terrenos  administración para el mantenimiento de la pista  dirección general de aeronáutica civil dgac dio a conocer documentos  como el  la cruceña donde fue realizado un megaoperativo con secuestro de sustancias controladas y armas además de la aprehensión de 38 personas el domingo pasado es de propiedad o es explotada por iber león gorena y maría jesús león mundaka el documento está fechado el 28 de octubre de 2021 y fue emitido por la dgac dirección general de aeronáutica civil dgac dio a conocer documentos  como el  la cruceña donde fue realizado un megaoperativo con secuestro de sustancias controladas y armas además de la aprehensión de 38 personas el domingo pasado es de propiedad o es explotada por iber león gorena y maría jesús león mundaka el documento está fechado el 28 de octubre de 2021 y fue emitido por la dgac</t>
+          <t xml:space="preserve">el proceso se reanudará el 4 de abril tras varios incidentes en su instalación el alcalde de la paz dice que la expresidenta evitó la confrontación  exigió este lunes juicio de responsabilidades para la expresidenta jeanine áñez y lamentó que se siga alimentando el odio ella merece un juicio de responsabilidades y no un juicio ordinario yo creo que deberíamos acabar esta cosa debería llevársela a un juicio de responsabilidades  ñez militares y policías son acusados por los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución ella evitó que hubiera una conflagración y deberíamos estar agradecidos exigió este lunes juicio de responsabilidades para la expresidenta jeanine áñez y lamentó que se siga alimentando el odio ella merece un juicio de responsabilidades y no un juicio ordinario yo creo que deberíamos acabar esta cosa debería llevársela a un juicio de responsabilidades  ñez militares y policías son acusados por los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución ella evitó que hubiera una conflagración y deberíamos estar agradecidos         </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/documentos-vinculan-a-familia-mundaka-con-aerodromo-la-crucena-pero-su-vocero-asegura-que-los-terren_272483</t>
+          <t>https://eldeber.com.bo/pais/arias-pide-juicio-de-responsabilidades-para-anez-y-lamenta-que-se-siga-alimentando-la-confrontacion_272487</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60206f610cf848b960e081d689070725</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>118</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>a9c9aca11bb857aacbe2a8cd2753e977</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>1731</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>1121</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>('pista', 8)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>99</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>('mundaka', 5)</t>
+          <t>('juicio', 8)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>('dgac', 5)</t>
+          <t>('responsabilidades', 6)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>('ella', 4)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tribunal fija para el 4 de abril la reanudación del juicio contra la expresidenta jeanine áñez</t>
+          <t>concejala terrazas “la anulación del segundo contrato de aseo urbano ha sido un gol a la corrupción”</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cuatro exuniformados fueron declarados rebeldes y se instruyó su aprehensión la exjefa de estado sufrió un colapso nervioso y se dispuso un receso hasta que fuera estabilizada  reanudación del juicio contra jeanine áñez dentro del caso denominado “golpe ii” problemas técnicos gritos e interrupciones que dificultaron el proceso que debería ser público declarar en rebeldía y ordenar la aprehensión de williams kaliman excomandante de las fuerzas armadas no se ha atendido la situación médica y crítica que padece la expresidenta jeanine áñez momento del incidente en la reinstalación del procedimiento se ingresará a la fase de incidentes y excepciones reflejan una actitud obstaculizadora y contraria al derecho constitucional a contar con decisiones judiciales presunta comisión de los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes exige una pena de 10 años de cárcel contra áñez escuchando a la procuraduría instruyendo al tribunal cómo debía llevar el proceso ilegal tuit de su hija reanudación del juicio contra jeanine áñez dentro del caso denominado “golpe ii” problemas técnicos gritos e interrupciones que dificultaron el proceso que debería ser público declarar en rebeldía y ordenar la aprehensión de williams kaliman excomandante de las fuerzas armadas no se ha atendido la situación médica y crítica que padece la expresidenta jeanine áñez momento del incidente en la reinstalación del procedimiento se ingresará a la fase de incidentes y excepciones reflejan una actitud obstaculizadora y contraria al derecho constitucional a contar con decisiones judiciales presunta comisión de los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes exige una pena de 10 años de cárcel contra áñez escuchando a la procuraduría instruyendo al tribunal cómo debía llevar el proceso ilegal tuit de su hija </t>
+          <t xml:space="preserve"> la concejala de comunidad autonómica dijo que existe un daño económico menor al municipio considera que los funcionarios involucrados deben ser procesados conozca en detalle sus observaciones   la anulación del segundo contrato del servicio de aseo urbano ha sido “un gol a la corrupción”  el viernes de la anterior semana el alcalde jhonny fernández anuló la licitación para la adjudicación del servicio de aseo urbano “no están administrando su casa sino los recursos de más de un millón de ciudadanos” violación del decreto supremo 181  ley municipal de aseo urbano no modificación de la metodología de selección transferencia de residuos sólidos    la anulación del segundo contrato del servicio de aseo urbano ha sido “un gol a la corrupción”  el viernes de la anterior semana el alcalde jhonny fernández anuló la licitación para la adjudicación del servicio de aseo urbano “no están administrando su casa sino los recursos de más de un millón de ciudadanos” violación del decreto supremo 181  ley municipal de aseo urbano no modificación de la metodología de selección transferencia de residuos sólidos    “los funcionarios que han hecho estos procesos deben responderle al pueblo y a las leyes por la mentira y por el engaño que le estaban queriendo hacer a santa cruz” aseveró terrazas que espera que el tercer contrato no caiga en la vulneración de la norma en la parcialización de una empresa y que los profesionales actúen con pulcritud y profesionalidad porque  en la anterior licitación la metodología para evaluar a la empresa era de menor costo en esta segunda licitación una enmienda establece un incremento de más de 45 millones de dólares en el primer contrato en el sector a y b además de un incremento de más de bs 17 millones en el tercer contrato del relleno sanitario  contempla la poda de pasto para la empresa con experiencia el costo estipulado en el contrato anulado era de más de bs 114 millones la secretaria de equipamiento social se encarga del mantenimiento de las áreas verdes   no estaba garantizado en este proceso de licitación pese a estar incluida en las especificaciones técnicas del requerimiento de servicio estaba como una posibilidad a modificarse en el tiempo del contrato la norma establece que los únicos puntos que se pueden modificar una vez aprobado el contrato es el plazo y costo del mismo “los funcionarios que han hecho estos procesos deben responderle al pueblo y a las leyes por la mentira y por el engaño que le estaban queriendo hacer a santa cruz” aseveró terrazas que espera que el tercer contrato no caiga en la vulneración de la norma en la parcialización de una empresa y que los profesionales actúen con pulcritud y profesionalidad porque  en la anterior licitación la metodología para evaluar a la empresa era de menor costo en esta segunda licitación una enmienda establece un incremento de más de 45 millones de dólares en el primer contrato en el sector a y b además de un incremento de más de bs 17 millones en el tercer contrato del relleno sanitario  contempla la poda de pasto para la empresa con experiencia el costo estipulado en el contrato anulado era de más de bs 114 millones la secretaria de equipamiento social se encarga del mantenimiento de las áreas verdes   no estaba garantizado en este proceso de licitación pese a estar incluida en las especificaciones técnicas del requerimiento de servicio estaba como una posibilidad a modificarse en el tiempo del contrato la norma establece que los únicos puntos que se pueden modificar una vez aprobado el contrato es el plazo y costo del mismo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/tribunal-fija-para-el-4-de-abril-la-reanudacion-del-juicio-contra-la-expresidenta-jeanine-anez_272482</t>
+          <t>https://eldeber.com.bo/santa-cruz/concejala-terrazas-la-anulacion-del-segundo-contrato-de-aseo-urbano-ha-sido-un-gol-a-la-corrupcion_272472</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3230b8d8f66e132f0464f57e77c40815</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>94</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>fefbfb5c6e32af9a68e6bf05c13e69c7</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>1894</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3570</v>
       </c>
       <c r="I5" t="n">
-        <v>174</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>('áñez', 6)</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>315</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>('contra', 4)</t>
+          <t>('contrato', 14)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>('jeanine', 4)</t>
+          <t>('licitación', 8)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>('servicio', 6)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>andrónico confía en la “solidez” de los argumentos bolivianos en el juicio por el silala</t>
+          <t>covid19 en bolivia se aplicaron 1175615 dosis con esquema completo a niños de 5 a 11 años</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el titular del senado informó que el presidente de la cámara baja acompañará a la comitiva a la haya el 1 de abril se inician los alegatos orales en el proceso iniciado por chile  los argumentos bolivianos en el litigio por las aguas del silala ante la corte internacional de justicia si el afluente fue canalizado de forma artificial o se trata de un río de curso internacional nosotros estamos seguros que los orígenes de las aguas son manantiales el presidente de la cámara baja freddy mamani acompañará la comitiva oficial las declaraciones la asamblea legislativa no puede estar al margen de este proceso el canciller rogelio mayta encabezará la delegación los argumentos bolivianos en el litigio por las aguas del silala ante la corte internacional de justicia si el afluente fue canalizado de forma artificial o se trata de un río de curso internacional nosotros estamos seguros que los orígenes de las aguas son manantiales el presidente de la cámara baja freddy mamani acompañará la comitiva oficial las declaraciones la asamblea legislativa no puede estar al margen de este proceso el canciller rogelio mayta encabezará la delegación </t>
+          <t>los nuevos contagios de esta jornada son santa cruz 16 cochabamba 7 la paz 39 chuquisaca 2 tarija 1 potosí 10 oruro 0 beni 0 y pando 0  aplicaron 1175615 dosis con esquema completo a niños de 5 a 11 años aplicaron 13064425 dosis entre la primera segunda tercera unidosis  el reporte establece que se aplicó 720865 primeras dosis y 454750 segundas dosis a niños de 5 a 11 años el total de las vacunas gestionadas y adquiridas por el gobierno nacional alcanza a 23815500 dosis casos nuevos se realizaron 2500 pruebas de las que 75 dieron resultado positivo y 2425 fueron descartadas el acumulado nacional de pacientes recuperados hasta esta jornada asciende a 831184 el registro de pacientes recuperados por departamento es el siguiente 104 en santa cruz los nuevos contagios de esta jornada son santa cruz 16 cochabamba 7 la paz 39   no se registraron personas fallecidas a causa del coronavirus  aplicaron 1175615 dosis con esquema completo a niños de 5 a 11 años aplicaron 13064425 dosis entre la primera segunda tercera unidosis  el reporte establece que se aplicó 720865 primeras dosis y 454750 segundas dosis a niños de 5 a 11 años el total de las vacunas gestionadas y adquiridas por el gobierno nacional alcanza a 23815500 dosis casos nuevos se realizaron 2500 pruebas de las que 75 dieron resultado positivo y 2425 fueron descartadas el acumulado nacional de pacientes recuperados hasta esta jornada asciende a 831184 el registro de pacientes recuperados por departamento es el siguiente 104 en santa cruz los nuevos contagios de esta jornada son santa cruz 16 cochabamba 7 la paz 39   no se registraron personas fallecidas a causa del coronavirus   el reporte de vacunación contra el covid19 establece que hasta la fecha se   según datos divulgados este domingo por el ministerio de salud y deportes a través de un boletín de prensa el reporte de vacunación contra el covid19 establece que hasta la fecha se   según datos divulgados este domingo por el ministerio de salud y deportes a través de un boletín de prensa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/andronico-confia-en-la-solidez-de-los-argumentos-bolivianos-en-el-juicio-por-el-silala_272488</t>
+          <t>https://eldeber.com.bo/coronavirus/covid-19-en-bolivia-se-aplicaron-1175615-dosis-con-esquema-completo-a-ninos-de-5-a-11-anos_272424</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bba8c76c9a34b144219e48d9caaf58e9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15367c5179b9bb77e7401629b48e3748</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>1145</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2024</v>
       </c>
       <c r="I6" t="n">
-        <v>103</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>('aguas', 4)</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>210</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>('internacional', 4)</t>
+          <t>('dosis', 10)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>('presidente', 3)</t>
+          <t>('nuevos', 5)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>('jornada', 5)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">indígenas piden al gobierno revertir todas las tierras entregadas sin permiso de los lugareños </t>
+          <t>tras cancelar procesos de licitación del aseo urbano emacruz trabajará en un solo contrato por dos años con nuevos costos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>representantes de comunidades originarias de san josé de chiquitos lugar de la reunión y guarayos dan un plazo de máximo 15 días para que autoridades nacionales puedan reunirse con ellos en abril se reúnen en san ignacio de velasco  el gobierno a lo largo de 15 años cometió el abuso de entregar tierras chiquitanas sin consultar con ellos los indígenas  s menos del 5 por ciento de las tierras entregadas ha sido para gente de santa cruz” el gobierno a lo largo de 15 años cometió el abuso de entregar tierras chiquitanas sin consultar con ellos los indígenas  s menos del 5 por ciento de las tierras entregadas ha sido para gente de santa cruz”  en un breve contacto con el deber radio el dirigente cívico explicó  que  egún sus datos en todos los pueblos de la chiquitania se han entregado terrenos a cerca de 2500 comunidades que no son de santa cruz  “es un atropello pero los pueblos se están levantando ya no aceptan  más avasallamientos   sostuvo serrate a tiempo de recordar que el artículo 43 de la ley inra estipula que la tierra es para quienes viven y trabajan en el lugar  para abril fue fijado un nuevo cabildo a realizarse en san ignacio de velasco están convocadas las 6 comunidades indígenas de la mancomunidad chiquitana en un breve contacto con el deber radio el dirigente cívico explicó  que  egún sus datos en todos los pueblos de la chiquitania se han entregado terrenos a cerca de 2500 comunidades que no son de santa cruz  “es un atropello pero los pueblos se están levantando ya no aceptan  más avasallamientos   sostuvo serrate a tiempo de recordar que el artículo 43 de la ley inra estipula que la tierra es para quienes viven y trabajan en el lugar  para abril fue fijado un nuevo cabildo a realizarse en san ignacio de velasco están convocadas las 6 comunidades indígenas de la mancomunidad chiquitana</t>
+          <t xml:space="preserve">la nueva titular de emacruz andrea hoyos dijo que en la página oficial del sicoes están los documentos se trabajará en un solo contrato para el recojo de residuos en toda la ciudad se deja fuera la poda de árboles y de pasto  andrea hoyos gerente de emacruz al cabo de tres días de la cancelación del segundo contrato explicó que la ciudad ya no se dividirá en dos sectores a y b para el servicio de recojo de la basura ahora será una licitación para todo el servicio urbano se realizará una reingeniería de costos debido a que el tiempo de duración del contrato es de 2 años  vea el video andrea hoyos gerente de emacruz al cabo de tres días de la cancelación del segundo contrato explicó que la ciudad ya no se dividirá en dos sectores a y b para el servicio de recojo de la basura ahora será una licitación para todo el servicio urbano se realizará una reingeniería de costos debido a que el tiempo de duración del contrato es de 2 años  vea el video  la funcionaria municipal durante su primera semana de gestión   por otro lado ya no será incluido el servicio de poda de árboles y de pasto pese a que figura en el actual contrato con vega solvi otro cambio importante anunciado por hoyos es que  en el segundo contrato se establecía un monto de bs 278 millones por un periodo de 8 años “se ha procedido a la cancelación total no es una anulación de los procesos de contratación ya se puede verificar la documentación en el sicoes sistema de contratación estatal”  precisó con papeles en mano se refiere a la cancelación de la licitación pública internacional del sector a y b y a la cancelación del proceso de disposición final de residuos  la funcionaria municipal durante su primera semana de gestión   por otro lado ya no será incluido el servicio de poda de árboles y de pasto pese a que figura en el actual contrato con vega solvi otro cambio importante anunciado por hoyos es que  en el segundo contrato se establecía un monto de bs 278 millones por un periodo de 8 años “se ha procedido a la cancelación total no es una anulación de los procesos de contratación ya se puede verificar la documentación en el sicoes sistema de contratación estatal”  precisó con papeles en mano se refiere a la cancelación de la licitación pública internacional del sector a y b y a la cancelación del proceso de disposición final de residuos </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/indigenas-piden-al-gobierno-revertir-todas-las-tierras-entregadas-sin-permiso-de-los-lugarenos_272457</t>
+          <t>https://eldeber.com.bo/santa-cruz/tras-cancelar-procesos-de-licitacion-del-aseo-urbano-emacruz-trabajara-en-un-solo-contrato-por-dos-a_272493</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2fba24ed83f1b98e84bf041d277e0349</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>95</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f731cefbeafcb960dcbe8b4038e0d48d</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>1831</v>
+        <v>121</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>2336</v>
       </c>
       <c r="I7" t="n">
-        <v>180</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>('comunidades', 5)</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>210</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>('san', 4)</t>
+          <t>('contrato', 9)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>('tierras', 4)</t>
+          <t>('cancelación', 8)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>('servicio', 6)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>allanan oficinas administrativas de la uagrm por el caso ‘becas fantasmas’</t>
+          <t>30 años de prisión para mujer que estranguló a su hija en la paz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>la fiscalía investiga una denuncia de supuestas 2000 becas fantasmas en la universidad estatal cruceña la policía allanó las oficinas de auditoría interna y recursos humanos  allanamiento en las oficinas administrativas  supuestas 2000 becas fantasmas un hecho que representa un desfalco de bs 40 millones   revisión minuciosa de documentación y equipos electrónicos informe oficial  vea el video entre los principales involucrados estarían funcionarios y dirigentes estudiantiles  la investigación va desde el 2012 hasta el 2021 allanamiento en las oficinas administrativas  supuestas 2000 becas fantasmas un hecho que representa un desfalco de bs 40 millones   revisión minuciosa de documentación y equipos electrónicos informe oficial  vea el video entre los principales involucrados estarían funcionarios y dirigentes estudiantiles  la investigación va desde el 2012 hasta el 2021  la denuncia fue presentada el mes pasado por el universitario peter beckhauser quien precisó que  pero prefirió no mencionar ningún nombre hasta que avance la investigación  cuando las máximas autoridades de la uagrm eran saúl rosas y osvaldo ulloa sin embargo beckhauser aclaró que hasta ahora ninguno de los dos figura como directo involucrado la denuncia fue presentada el mes pasado por el universitario peter beckhauser quien precisó que  pero prefirió no mencionar ningún nombre hasta que avance la investigación  cuando las máximas autoridades de la uagrm eran saúl rosas y osvaldo ulloa sin embargo beckhauser aclaró que hasta ahora ninguno de los dos figura como directo involucrado</t>
+          <t>fue el tribunal 8° de sentencia de la ciudad de la paz el que ordenó la sentencia de 30 años de cárcel sin derecho a indulto para la acusada pena que deberá cumplir en el penal paceño de miraflores   recibió la pena máxima por el delito de infanticidio este domingo   ordenó la sentencia de 30 años de cárcel sin derecho  menor tuvo una muerte violenta y no natural como aseguraba la madre el abuelo materno de la víctima que presentó la denuncia por el hecho   la niña se encontraba con su madre  la niña fue vista por una vecina y uno de sus tíos maternos determinó que la causa de muerte de la niña fue por anoxia cerebral  recibió la pena máxima por el delito de infanticidio este domingo   ordenó la sentencia de 30 años de cárcel sin derecho  menor tuvo una muerte violenta y no natural como aseguraba la madre el abuelo materno de la víctima que presentó la denuncia por el hecho   la niña se encontraba con su madre  la niña fue vista por una vecina y uno de sus tíos maternos determinó que la causa de muerte de la niña fue por anoxia cerebral  jenny clarivel aliaga flores de 24 años la víctima es su hija de cuatro años de edad que perdió la vida a causa de un estrangulamiento el pasado 10 de enero en el distrito de palcas en la paz fue el tribunal 8° de sentencia de la ciudad de la paz quien  a indulto para la acusada pena que deberá cumplir en el penal paceño de miraflores  “los elementos más importantes de prueba que expuso la fiscalía en juicio oral fueron el protocolo de autopsia que establece que la  acta de inspección técnica ocular que devela que la progenitora era la única persona que estaba con la niña antes de su muerte además del informe complementario de la autopsia de las muestras biológicas extraídas al cuerpo de la infante entre otros elementos que demostraron que la mujer le quitó la vida a su hija” indicó william alave laura fiscal departamental de la paz fue  el 11 de enero y los agentes de la policía llegaron a la zona el valle de la ánimas en el distrito de palca en la paz para levantar el cadáver de una menor de cuatro años con señales de violencia según la investigación de la policía el 10 de enero día que ocurrió el crimen quien declaró que la menor se encontraba delicada de salud con tos y que probablemente las causas de su muerte fueron “naturales” “a primeras horas de ese día   posteriormente la madre llegó a las 0900 horas junto a su cuñada para cocinar y tras almorzar ambas se durmieron con la niña después en horas de la tarde la cuñada salió de la habitación rumbo a una cancha momento que es aprovechado por la madre para quitarle la vida a su hija luego indicó a sus familiares que la niña murió producto de la tos que tenía señaló la fiscal del caso dubravka jordán la autopsia médico legal realizado por el instituto de investigaciones forenses idif   broncoaspiración infiltración hemorrágica en bifurcación de carótida derecho compatible con estrangulación jenny clarivel aliaga flores de 24 años la víctima es su hija de cuatro años de edad que perdió la vida a causa de un estrangulamiento el pasado 10 de enero en el distrito de palcas en la paz fue el tribunal 8° de sentencia de la ciudad de la paz quien  a indulto para la acusada pena que deberá cumplir en el penal paceño de miraflores  “los elementos más importantes de prueba que expuso la fiscalía en juicio oral fueron el protocolo de autopsia que establece que la  acta de inspección técnica ocular que devela que la progenitora era la única persona que estaba con la niña antes de su muerte además del informe complementario de la autopsia de las muestras biológicas extraídas al cuerpo de la infante entre otros elementos que demostraron que la mujer le quitó la vida a su hija” indicó william alave laura fiscal departamental de la paz fue  el 11 de enero y los agentes de la policía llegaron a la zona el valle de la ánimas en el distrito de palca en la paz para levantar el cadáver de una menor de cuatro años con señales de violencia según la investigación de la policía el 10 de enero día que ocurrió el crimen quien declaró que la menor se encontraba delicada de salud con tos y que probablemente las causas de su muerte fueron “naturales” “a primeras horas de ese día   posteriormente la madre llegó a las 0900 horas junto a su cuñada para cocinar y tras almorzar ambas se durmieron con la niña después en horas de la tarde la cuñada salió de la habitación rumbo a una cancha momento que es aprovechado por la madre para quitarle la vida a su hija luego indicó a sus familiares que la niña murió producto de la tos que tenía señaló la fiscal del caso dubravka jordán la autopsia médico legal realizado por el instituto de investigaciones forenses idif   broncoaspiración infiltración hemorrágica en bifurcación de carótida derecho compatible con estrangulación</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/allanan-oficinas-administrativas-de-la-uagrm-por-el-caso-becas-fantasmas_272484</t>
+          <t>https://eldeber.com.bo/pais/30-anos-de-prision-para-mujer-que-estrangulo-a-su-hija-en-la-paz_272429</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ce59b2793374676badc00d32c8fe4d73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>74</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>d36942061e9e40caf6129b5edf3f1727</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>1577</v>
+        <v>64</v>
       </c>
       <c r="H8" t="n">
+        <v>4805</v>
+      </c>
+      <c r="I8" t="n">
         <v>7</v>
       </c>
-      <c r="I8" t="n">
-        <v>145</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>('investigación', 4)</t>
-        </is>
+      <c r="J8" t="n">
+        <v>451</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>('beckhauser', 4)</t>
+          <t>('niña', 12)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>('denuncia', 3)</t>
+          <t>('paz', 9)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>('años', 9)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>segip asegura que una de las cédulas de perovic no figura en el sistema y se suma a la investigación</t>
+          <t>gobernación da plazo de 24 horas al gobierno para que emita resolución que permita contratar personal para el hospital de montero</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">perovic habría tramitado una cédula para extranjero y posteriormente otra de boliviano por su enlace matrimonial con la exalcaldesa angélica sosa su defensa responsabiliza a funcionarios del segip por no registrar la cédula en el sistema  alpacino mojica informó que la entidad pública está colaborando en la investigación y que una de las cédulas no figura en el sistema  la cédula con el número sin extensión no figura en el sistema del servicio general de identificación personal segip demanda penal   a nadie le vamos a permitir que tenga una doble identidad” si existen irregularidades y estas tuvieran participación de funcionarios del segip también se iniciará un proceso vamos a pedir cárcel para todos los que hayan cometido algún delito  la responsabilidad de que una de las cédulas no aparezca en el registro del segip sería netamente responsabilidad de los funcionarios de esta institución el señor perovic ingresa a bolivia hace 30 años en su condición de argentino por lo tanto tramita su residencia temporal alpacino mojica informó que la entidad pública está colaborando en la investigación y que una de las cédulas no figura en el sistema  la cédula con el número sin extensión no figura en el sistema del servicio general de identificación personal segip demanda penal   a nadie le vamos a permitir que tenga una doble identidad” si existen irregularidades y estas tuvieran participación de funcionarios del segip también se iniciará un proceso vamos a pedir cárcel para todos los que hayan cometido algún delito  la responsabilidad de que una de las cédulas no aparezca en el registro del segip sería netamente responsabilidad de los funcionarios de esta institución el señor perovic ingresa a bolivia hace 30 años en su condición de argentino por lo tanto tramita su residencia temporal     </t>
+          <t>en caso de no tener respuestas el secretario de salud viajará a la paz y acudirá al despacho del presidente para exigir una explicación  resolución biministerial la gobernación da un plazo de 24 horas para que el gobierno brinde una respuesta voy a pedirle si puede darnos respuesta en las próximas 24 horas si no me veré obligado a ir a la ciudad de la paz  ítems a los trabajadores administrativos del nosocomio “son 60 administrativos que necesita el hospital para ponerlo en marcha en una primera fase   la resolución estaría lista en el transcurso de esa semana resolución biministerial la gobernación da un plazo de 24 horas para que el gobierno brinde una respuesta voy a pedirle si puede darnos respuesta en las próximas 24 horas si no me veré obligado a ir a la ciudad de la paz  ítems a los trabajadores administrativos del nosocomio “son 60 administrativos que necesita el hospital para ponerlo en marcha en una primera fase   la resolución estaría lista en el transcurso de esa semana   a exigir personalmente una respuesta al despacho del presidente  por qué la inoperancia de los ministerios de salud y economía” dijo pacheco  a exigir personalmente una respuesta al despacho del presidente  por qué la inoperancia de los ministerios de salud y economía” dijo pacheco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/segip-asegura-que-una-de-las-cedulas-de-perovic-no-figura-en-el-sistema-y-se-suma-a-la-investigacion_272473</t>
+          <t>https://eldeber.com.bo/salud-y-bienestar/gobernacion-da-plazo-de-24-horas-al-gobierno-para-que-emita-resolucion-que-permita-contratar-persona_272502</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6e4de5b16d4b2dc94b50f5b3a798733d</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>d7ebaf382748b1886e7ee66ce87bd610</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>1811</v>
+        <v>129</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>1281</v>
       </c>
       <c r="I9" t="n">
-        <v>156</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>('segip', 7)</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>118</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>('funcionarios', 5)</t>
+          <t>('respuesta', 6)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>('sistema', 5)</t>
+          <t>('resolución', 4)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>('24', 4)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cochabamba policía investiga muerte de una niña que llegó al hospital con signos de violencia</t>
+          <t>inédita reunión de israel y países árabes para abordar el acuerdo nuclear con irán</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> este viernes una madre y el padrastro llevaron el cuerpo sin vida de una niña de 1 año y 9 meses a un hospital de la zona sur de cochabamba ambos explicaron que la menor se había caído de una fuente la policía tras evidenciar que la niña tenía signos de violencia de larga data los arrestó a ambos con fines investigativos según información de los medios de comunicación la niña fue llevada al centro de salud de cerro verde cerca de las 0800 horas de hoy el servicio de emergencia realizó el examen correspondiente y no encontró signos vitales por lo que se realizó maniobras de resucitación sin resultados «al no encontrarse signos vitales se le realiza la resucitación cardiopulmonar por parte del médico de turno pero no fue factible porque no tuvimos una respuesta favorable se le diagnosticó un tec grave y sospecha de fractura de base de cráneo» informó la responsable del hospital la médico jaqueline mamani a red uno los médicos encontraron un hematoma a nivel de la cabeza en la región parietal además un ojo que estaba equimótico y edematizado había lesiones en el lado izquierdo y también un edema y equimosis hasta la región mandibular «el padre refiere que la menor se cayó de una altura de más o menos un metro él dijo que se cayó de la fuente y no se despertó al llegar la menor al hospital ya estaba sin signos vitales sin respuesta alguna» afirmó la responsable del hospital al tratarse de una menor de edad el servicio médico comunicó el hecho a la defensoría y a la felcc quienes llegaron al lugar y retiraron el cuerpo según red uno la fiscal departamental de cochabamba nuria gonzales informó que el ministerio público tomó conocimiento del caso y envió personal para los exámenes correspondientes «la menor en el examen físico registra lesiones de data antigua y una posible situación de agresión sexual por lo cual toda actividad investigativa se está desplegando» dijo gonzales el director de la fuerza especial de lucha contra el crimen felcc ronald tapia informó que el cuerpo de la niña presentaba lesiones de data antigua de hace siete u ocho días a nivel del rostro aparentemente por una caída «estamos a la espera de la autopsia el resultado nos ayudará a determinar lo que podría haber pasado con la menor momentáneamente y con fines investigativos tenemos a dos personas arrestadas que es la mamá y el padrastro posteriormente se determinará la situación legal de ambos» argumentó tapia /hnf/</t>
+          <t xml:space="preserve">el secretario de estado estadounidense antony blinken afirmó que su país está comprometido y decidido a que irán nunca obtenga una bomba nuclear  el secretario de estado estadounidense antony blinken y los jefes de la diplomacia de israel después de condenar unánimemente el ataque terrorista de la noche anterior en la ciudad israelí de hadera es un nuevo rostro de medio oriente blinken afirmó que su país está comprometido y decidido a que irán nunca obtenga una bomba nuclear los países de la región comparten temores y exigen muchas respuestas  la cumbre se produce en un momento en que estados unidos y sus aliados europeos el secretario de estado estadounidense antony blinken y los jefes de la diplomacia de israel después de condenar unánimemente el ataque terrorista de la noche anterior en la ciudad israelí de hadera es un nuevo rostro de medio oriente blinken afirmó que su país está comprometido y decidido a que irán nunca obtenga una bomba nuclear los países de la región comparten temores y exigen muchas respuestas  la cumbre se produce en un momento en que estados unidos y sus aliados europeos </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/25/cochabamba-policia-investiga-muerte-de-una-nina-que-llego-al-hospital-con-signos-de-violencia/</t>
+          <t>https://eldeber.com.bo/rfi/inedita-reunion-de-israel-y-paises-arabes-para-abordar-el-acuerdo-nuclear-con-iran_272443</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5cba75a780eb856f0ecd14d3aecead15</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>93</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>879e2a4cc45c725545800329e6f078d1</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>2426</v>
+        <v>82</v>
       </c>
       <c r="H10" t="n">
+        <v>1114</v>
+      </c>
+      <c r="I10" t="n">
         <v>9</v>
       </c>
-      <c r="I10" t="n">
-        <v>222</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>('menor', 6)</t>
-        </is>
+      <c r="J10" t="n">
+        <v>106</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>('niña', 4)</t>
+          <t>('blinken', 5)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>('hospital', 4)</t>
+          <t>('secretario', 3)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>('estado', 3)</t>
         </is>
       </c>
     </row>
@@ -999,37 +1049,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>e0974bf85905d47b914601317644150a</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>107</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2438</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>11</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>221</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>('juicio', 5)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>('oral', 4)</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>('tribunal', 4)</t>
         </is>
@@ -1038,270 +1093,295 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>los contagios de covid19 en bolivia se reducen en un 31%</t>
+          <t>sedes de santa cruz exige al gobierno que cumpla con los 234 ítems</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el gobierno de bolivia registró en la doceava semana epidemiológica una reducción del 31 por ciento con 1595 casos de covid19 lo cual hace un total de 901292 casos en todo este tiempo desde el inicio de la pandemia sólo los departamentos de la paz y potosí registraron incremento de contagios en la reciente semana la letalidad en cuanto a casos de coronavirus se mantiene en el rango del 07 por ciento durante una conferencia de prensa el ministro de salud jeyson auza informó que siete departamentos registraron una disminución de casos oruro 30% santa cruz 7% beni 13% pando 78% cochabamba 29% chuquisaca 29% y tarija 37% asimismo en la sede de gobierno se registró 393 casos con un incremento del siete por ciento mientras que en potosí un 22% el titular de salud atribuyó el incremento de casos a la falta de aplicación de medidas de bioseguridad por lo cual recomendó continuar con los cuidados y los esquemas completos de vacunación “bolivia mantiene una letalidad de 07% en la cuarta ola una de las más bajas de la región” manifestó el ministro quien señaló que el plan nacional de vacunación superó los 13 millones de dosis aplicadas según auza con el esquema completo se inmunizó a 47 millones de personas con la unidosis a 994961 con dosis de refuerzo a 12 millones la cobertura llegó al 653% en primeras dosis y 534% en segundas respectivamente durante la reciente semana se reportaron cinco fallecidos en todo el país haciendo un total de 21487 personas que perdieron la vida a nivel nacional desde el inicio de la pandemia /mdcb</t>
+          <t xml:space="preserve"> son 234 ítems que el servicio departamental de salud sedes de santa cruz exigió este lunes al gobierno de luis arce que comprometió en dotarlos luego de ser obtenidos mediante un concurso de méritos y examen de competencia convocado por el ministerio de salud hace más de un año el director del sedes erwin viruez explicó que recibieron una nota del ministerio de salud en el sentido de que no reconoce el mencionado concurso de méritos y competencias para médicos enfermeras y bioquímicos “el ministerio hoy lunes no quiere concluir con este proceso y emitir los memorándums para estos colegas profesionales que han ganado estos concursos de méritos y examen de competencia” indicó viruez es la tercera vez desde el viernes que la gobernación reclama al gobierno por falta de atención pedimos que cumpla con nuestros pedidos a través de un tribunal de garantías manifestó instó al ministerio que concluya el proceso con la emisión de los memorándums para estos ganadores del concurso / svl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/los-contagios-de-covid-19-en-bolivia-se-reducen-en-un-31/</t>
+          <t>https://lapatria.bo/2022/03/28/sedes-de-santa-cruz-exige-al-gobierno-que-cumpla-con-los-234-items/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5ec446c2ec1594c0c80bc9a3b0e6c1bb</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>56</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>787aeb7194c4359ed325035cea1f0bad</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>1543</v>
+        <v>66</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>991</v>
       </c>
       <c r="I12" t="n">
-        <v>148</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>('semana', 3)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>89</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>('ciento', 3)</t>
+          <t>('ministerio', 4)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>('incremento', 3)</t>
+          <t>('salud', 3)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>('concurso', 3)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sergio perovic cuenta con doble identificación y no descartan ampliar las investigaciones en su contra</t>
+          <t>aprehendidos en la cruceña no tienen vínculos con el narcotráfico según familiares</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> su defensa explica que cuenta con dos cédulas de identidad ya que al llegar a bolivia tramitó una cédula para extranjero y posteriormente otra de boliviano por matrimonio con angélica sosa   sergio adolfo perovic esposo de la exalcaldesa interina angélica sosa   cuenta con doble identificación personal una con número y extensión nacional y otra con cifras distintas y sin aclaración de extensión  delito de legitimación de ganancias ilícitas   la doble identificación podría agravar su situación jurídica servicio general de identificación personal segip mediante un requerimiento fiscal   se constató que perovic registró cuatro inmuebles con la cédula de identidad de extranjero mala fe su defendido cuenta con dos cédulas de identidad ya que al llegar a bolivia tramitó una cédula tramita una cédula de extranjero con la cual adquiere los cuatro bienes que están registrados en derechos reales luego hace unos ocho años recién tramita una cédula como boliviano nacional sería la que actualmente ocupa perovic en bolivia el mes pasado perovic viajó a salta argentina del esquema de pago a 800 personas que nunca prestaron servicios en la alcaldía  sergio adolfo perovic esposo de la exalcaldesa interina angélica sosa   cuenta con doble identificación personal una con número y extensión nacional y otra con cifras distintas y sin aclaración de extensión  delito de legitimación de ganancias ilícitas   la doble identificación podría agravar su situación jurídica servicio general de identificación personal segip mediante un requerimiento fiscal   se constató que perovic registró cuatro inmuebles con la cédula de identidad de extranjero mala fe su defendido cuenta con dos cédulas de identidad ya que al llegar a bolivia tramitó una cédula tramita una cédula de extranjero con la cual adquiere los cuatro bienes que están registrados en derechos reales luego hace unos ocho años recién tramita una cédula como boliviano nacional sería la que actualmente ocupa perovic en bolivia el mes pasado perovic viajó a salta argentina del esquema de pago a 800 personas que nunca prestaron servicios en la alcaldía    perovic acusado por el caso ‘prestín’  retorno   perovic acusado por el caso ‘prestín’  retorno</t>
+          <t xml:space="preserve"> los aprehendidos el domingo precedente en el aeródromo la cruceña no tienen vínculos con el narcotráfico afirmaron este lunes sus familiares quienes junto a sus abogados se presentaron en dependencias de la fuerza especial de lucha contra el narcotráfico felcn con el fin de conocer su situación legal afirmaron que solo cumplían con sus funciones laborales luego del megaoperativo policial realizado el domingo en el aeroparque conocido también como mondaca ubicado en el municipio de cotoca que dejó como saldo 38 personas aprehendidas 66 avionetas incautadas y 29 hangares intervenidos el padre de uno de los aprehendidos indicó que su hijo es mecánico de aviación el joven habría egresado el 2020 y recién hace algunos meses ingresó a trabajar con estas personas aseguró que su hijo nunca cometió ningún tipo de delito y es inocente “él es mecánico en aviación tiene una esposa y un niño y de paso nos apoya económicamente yo no conozco al señor que lo contrató pero sé que mi hijo trabaja honestamente deseamos que se solucione lo más pronto posible este tema” indicó el papá a la red unitel entre los aprehendidos hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas y asociación delictuosa en confabulación tipificado en el artículo 53 de la ley 1008 de régimen de la coca y sustancias controladas sin embargo tres de los aprehendidos identificados como gróver soleto guzmán ulises ruiz dayer y el brasileño lópez da silva junior tienen procesos abiertos por narcotráfico el ministro de gobierno eduardo del castillo señaló que los jueces serán quienes determinen su situación jurídica en los próximos días el operativo se registró la madrugada del domingo 27 de marzo y fue realizado por el grupo de operaciones tácticas de la policía boliviana junto a representantes del ministerio público al ser descubiertos los que estaban en el lugar recibieron a los policías con disparos quienes respondieron de la misma forma una vez que se aprendió a estas personas hubo una requisa a todos los hangares en el que hallaron sustancias químicas y armas de fuego /abh</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/sergio-perovic-cuenta-con-doble-identificacion-y-no-descartan-ampliar-las-investigaciones-en-su-cont_272452</t>
+          <t>https://lapatria.bo/2022/03/28/aprehendidos-en-la-crucena-no-tienen-vinculos-con-el-narcotrafico-segun-familiares/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>dc4c813c864f943196858d82a7fd011c</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>102</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0be6295542ccd529b2797c4dafb5c29b</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>2211</v>
+        <v>82</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>2132</v>
       </c>
       <c r="I13" t="n">
-        <v>216</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>('perovic', 10)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>199</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>('cédula', 9)</t>
+          <t>('aprehendidos', 4)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>('identificación', 6)</t>
+          <t>('domingo', 3)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>('narcotráfico', 3)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>encanto gana el óscar a mejor película animada</t>
+          <t>desde hoy someten a juicio a áñez por la vía ordinaria será virtual</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">la película de walt disney está ambientada en colombia y fue un éxito de crítica y taquilla  </t>
+          <t>será a las 900 el ministro de justicia iván lima adelantó que espera chicanas de la defensa de áñez que a su vez señaló que si los niños ya pueden ir a clases con más razón este juicio debe ser presencial  a las 900 de la mañana a la audiencia de inicio del juicio enadora en los días previos a asumir  exigirá al juez “la presencialidad adelante audiencias virtuales dentro de poco habrá gran poder en la paz no hay excusa el juicio puede y debe llevarse adelante presencial procuraduría de la fiscalía general decidido a lograr un juicio estoy seguro que este lunes volveremos a tener excepciones ni meses debería durar semanas porque es un caso bien sólido el tribunal accedió y el de hoy será un nuevo intento prever sí dos delitos que determinarán una sanción abogado esté al lado de su defendida” hecho para generar una sentencia objetiva con un a las 900 de la mañana a la audiencia de inicio del juicio enadora en los días previos a asumir  exigirá al juez “la presencialidad adelante audiencias virtuales dentro de poco habrá gran poder en la paz no hay excusa el juicio puede y debe llevarse adelante presencial procuraduría de la fiscalía general decidido a lograr un juicio estoy seguro que este lunes volveremos a tener excepciones ni meses debería durar semanas porque es un caso bien sólido el tribunal accedió y el de hoy será un nuevo intento prever sí dos delitos que determinarán una sanción abogado esté al lado de su defendida” hecho para generar una sentencia objetiva con un   “más delicado aún los niños ya han retornado a las clases presenciales    mente”    incidentes obstáculos legales que impidan algo que es fundamental discutir el fondo de los hechos que se están juzgando establecer si hubo una sucesión constitucional o hubo un golpe de estado el objetivo de ellos es retrasar el juicio” denunció  “más delicado aún los niños ya han retornado a las clases presenciales    mente”    incidentes obstáculos legales que impidan algo que es fundamental discutir el fondo de los hechos que se están juzgando establecer si hubo una sucesión constitucional o hubo un golpe de estado el objetivo de ellos es retrasar el juicio” denunció</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/tendencias/encanto-gana-el-oscar-a-mejor-pelicula-animada_272418</t>
+          <t>https://eldeber.com.bo/pais/desde-hoy-someten-a-juicio-a-anez-por-la-via-ordinaria-sera-virtual_272428</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9062e50a3802fca6ab2148b77e7403b5</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>46</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>030982386980ac6054223ecccc77ac22</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>2160</v>
       </c>
       <c r="I14" t="n">
         <v>8</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>('película', 1)</t>
-        </is>
+      <c r="J14" t="n">
+        <v>215</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>('walt', 1)</t>
+          <t>('juicio', 7)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>('disney', 1)</t>
+          <t>('adelante', 4)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>('hubo', 4)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>will smith golpea al comediante chris rock en la ceremonia y recoge su premio entre lágrimas</t>
+          <t>con un ajustado resultado en un referéndum el gobierno uruguayo logra mantener su ley clave</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">will smith golpeó a rock y le dijo que mantuviera el nombre de su esposa “fuera de su boca” después de que el comediante se burlara de jada pinkett por su cabeza rapada  </t>
+          <t xml:space="preserve">la luc que entró en vigencia en julio de 2020 tiene en total 476 artículos sobre áreas tan diversas como seguridad educación vivienda y economía que reflejan los principales puntos del programa de gobierno de la coalición oficialista  más de 26 millones de uruguayos estaban llamados a sufragar para mantener o derogar 135 de los 476 artículos de la ley de urgente consideración luc la opción sí a favor de derogar alcanzó el 488% de los votos válidos mientras que la papeleta del no una etapa superada una ley que queda firme d el sí tiene motivos para festejar porque tuvo una votación muy buena   la oposición logra capitalizar la elección saldrá fortalecida la luc que entró en vigencia en julio de 2020 tiene en total 476 artículos sobre áreas tan diversas como seguridad educación vivienda y economía el referéndum fue impulsado por organizaciones sociales la central sindical pitcnt y el opositor frente amplio izquierda dada la heterogeneidad y complejidad de asuntos tratados  más de 26 millones de uruguayos estaban llamados a sufragar para mantener o derogar 135 de los 476 artículos de la ley de urgente consideración luc la opción sí a favor de derogar alcanzó el 488% de los votos válidos mientras que la papeleta del no una etapa superada una ley que queda firme d el sí tiene motivos para festejar porque tuvo una votación muy buena   la oposición logra capitalizar la elección saldrá fortalecida la luc que entró en vigencia en julio de 2020 tiene en total 476 artículos sobre áreas tan diversas como seguridad educación vivienda y economía el referéndum fue impulsado por organizaciones sociales la central sindical pitcnt y el opositor frente amplio izquierda dada la heterogeneidad y complejidad de asuntos tratados  </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/will-smith-golpea-al-comediante-chris-rock-en-la-ceremonia-y-recoge-su-premio-entre-lagrimas_272438</t>
+          <t>https://eldeber.com.bo/rfi/con-un-ajustado-resultado-en-un-referendum-el-gobierno-uruguayo-logra-mantener-su-ley-clave_272446</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>559301bb359197ac18d2f660441d567f</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>92</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3d3ce832e7f3c0b01b8c9b588b2597be</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>1737</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>('will', 1)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>182</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>('smith', 1)</t>
+          <t>('luc', 5)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>('golpeó', 1)</t>
+          <t>('tiene', 5)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>('476', 5)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vitali klitschko el ex boxeador convertido en alcalde de kiev</t>
+          <t>tropas rusas concentran estrategia militar en el donbás</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">desde el inicio del conflicto el alcalde de kiev ha multiplicado los mensajes en las redes sociales para animar a los ucranianos a resistir  cambió los guantes de boxeo por las armas para defender su ciudad el alcalde de kiev vitali klitschko vitali klitschko mira el teléfono que sostiene a distancia mientras se dirige al pueblo de kiev desde el inicio del conflicto el alcalde de kiev ha multiplicado los mensajes en las redes sociales para animar a los ucranianos a resistir una barbilla de acero” antes de entrar en política vitali klitschko era uno de los boxeadores más dotados de su generación con su hermano wladimir ganó todos los títulos e impuso su ley en los cuadriláteros en la década de 2000 uno de los líderes de maidán la carrera política de vitali klitschko despegaría realmente con el maidán alcaldes en primera línea después de maidán vitali klitschko se planteó ser candidato a la presidencia hoy a los 51 años vitali klitschko al igual que su hermano se ha incorporado a las tropas de reserva del ejército ucraniano cambió los guantes de boxeo por las armas para defender su ciudad el alcalde de kiev vitali klitschko vitali klitschko mira el teléfono que sostiene a distancia mientras se dirige al pueblo de kiev desde el inicio del conflicto el alcalde de kiev ha multiplicado los mensajes en las redes sociales para animar a los ucranianos a resistir una barbilla de acero” antes de entrar en política vitali klitschko era uno de los boxeadores más dotados de su generación con su hermano wladimir ganó todos los títulos e impuso su ley en los cuadriláteros en la década de 2000 uno de los líderes de maidán la carrera política de vitali klitschko despegaría realmente con el maidán alcaldes en primera línea después de maidán vitali klitschko se planteó ser candidato a la presidencia hoy a los 51 años vitali klitschko al igual que su hermano se ha incorporado a las tropas de reserva del ejército ucraniano </t>
+          <t xml:space="preserve">las fuerzas invasoras avanzan al este desde járkov y mariúpol para cercar al ejercito ucraniano que se encuentra en esa zona   las fuerzas rusas han concentrado su estrategia en el donbás  es así como rusia pretende rodear a las fuerzas ucranianas que están peleando en el donbás  el análisis de londres recuerda hoy 27032022 que el frente bélico en el norte de ucrania  creo que se celebrará un referéndum en el territorio de la república en las negociaciones que se llevan a cabo entre rusia y ucrania para un alto el fuego   las fuerzas rusas han concentrado su estrategia en el donbás  es así como rusia pretende rodear a las fuerzas ucranianas que están peleando en el donbás  el análisis de londres recuerda hoy 27032022 que el frente bélico en el norte de ucrania  creo que se celebrará un referéndum en el territorio de la república en las negociaciones que se llevan a cabo entre rusia y ucrania para un alto el fuego  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/rfi/vitali-klitschko-el-ex-boxeador-convertido-en-alcalde-de-kiev_272448</t>
+          <t>https://eldeber.com.bo/dw/tropas-rusas-concentran-estrategia-militar-en-el-donbas_272373</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>de30ee421ee1873ca112e0a774bd99b2</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>61</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>76817fe4078502be75fc3fd5c1538e54</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>1935</v>
+        <v>55</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>928</v>
       </c>
       <c r="I16" t="n">
-        <v>180</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>('vitali', 12)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>81</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>('klitschko', 12)</t>
+          <t>('fuerzas', 5)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>('kiev', 7)</t>
+          <t>('donbás', 4)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>('rusia', 4)</t>
         </is>
       </c>
     </row>
@@ -1323,37 +1403,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>a9f3f2be6d761c3652e5d0abbd652e92</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>68</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1373</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>7</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>128</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>('desde', 5)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>('central', 5)</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>('chernóbil', 5)</t>
         </is>
@@ -1362,270 +1447,295 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rusia y ucrania kiev acusa a moscú de llevarse miles de civiles de mariúpol a su territorio</t>
+          <t>nayib bukele casi 600 capturas en solo dos días en el salvador</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">el gobierno de kiev acusa a moscú de trasladar a 40000 ucranianos a territorio controlado por sus tropas en contra de su voluntad  miles atrapados por voluntad y por la fuerza miles atrapados por voluntad y por la fuerza </t>
+          <t>si la comunidad internacional está preocupada por sus angelitos vengan y tráiganles comida expresó el presidente porque dijo no quitará presupuesto en las escuelas para darle de comer a estos terroristas  presidente de el salvador nayib bukele  régimen de excepción restringiendo las libertades civiles y ampliando los poderes de la policía  el gobierno atribuye a las pandillas de ms13 y de   haber desatado una ola de violencia en el país  pandilleros les toca el cementerio cárcel o la cama de un hospital  para la inmensa mayoría de personas la vida continúa normal decretar emergencia máxima en todas las cárceles donde permanecen más de 17000 de los 70000 miembros de las pandillas ms13 y barrio 18   si la comunidad internacional está preocupada por sus angelitos vengan y tráiganles comida gobierno proteja a la población con medidas sostenibles y respetuosas de los ddhh el departamento del tesoro de estados unidos sancionó a dos funcionarios de su g obierno por presuntamente haber negociado con pandillas mandatario es señalado por sus opositores de tener actitudes autoritarias presidente de el salvador nayib bukele  régimen de excepción restringiendo las libertades civiles y ampliando los poderes de la policía  el gobierno atribuye a las pandillas de ms13 y de   haber desatado una ola de violencia en el país  pandilleros les toca el cementerio cárcel o la cama de un hospital  para la inmensa mayoría de personas la vida continúa normal decretar emergencia máxima en todas las cárceles donde permanecen más de 17000 de los 70000 miembros de las pandillas ms13 y barrio 18   si la comunidad internacional está preocupada por sus angelitos vengan y tráiganles comida gobierno proteja a la población con medidas sostenibles y respetuosas de los ddhh el departamento del tesoro de estados unidos sancionó a dos funcionarios de su g obierno por presuntamente haber negociado con pandillas mandatario es señalado por sus opositores de tener actitudes autoritarias  ﻿ ﻿</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/rusia-y-ucrania-kiev-acusa-a-moscu-de-llevarse-miles-de-civiles-de-mariupol-a-su-territorio_272395</t>
+          <t>https://eldeber.com.bo/dw/nayib-bukele-casi-600-capturas-en-solo-dos-dias-en-el-salvador_272449</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>901e17add6081f6dad675fadccb03540</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>91</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>198f9c81dc518ab14bb1d2b7b9f8da4f</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>1981</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>('voluntad', 3)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>177</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>('miles', 2)</t>
+          <t>('pandillas', 6)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>('atrapados', 2)</t>
+          <t>('gobierno', 4)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>('ms13', 4)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>la extraordinaria belleza de pilbara el sitio de australia con algunas de las formaciones más antiguas de la tierra</t>
+          <t>el torneo apertura de la división profesional se reanudará el viernes con dos partidos</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        con una antigüedad de alrededor de 3600 millones de años la región de pilbara en australia occidental alberga la evidencia fosilizada de las formas de vida más antiguas de la tierra        </t>
+          <t>nacional potosíaurora y bloomingalways ready son los encuentros programados para el viernes por la séptima fecha en el reinicio del campeonato   días y horarios de las próximas fechas del torneo apertura de la división profesional en potosí por el grupo a nacional recibirá la visita de aurora blooming y always ready que se jugará desde las 2030 la séptima fecha continuará el sábado con cuatro encuentros viernes 1 de abril sábado 2 de abril domingo 3 de abril viernes 8 de abril sábado 9 de abril domingo 10 de abril lunes 11 de abril  días y horarios de las próximas fechas del torneo apertura de la división profesional en potosí por el grupo a nacional recibirá la visita de aurora blooming y always ready que se jugará desde las 2030 la séptima fecha continuará el sábado con cuatro encuentros viernes 1 de abril sábado 2 de abril domingo 3 de abril viernes 8 de abril sábado 9 de abril domingo 10 de abril lunes 11 de abril  la comisión de competiciones de la federación boliviana de fútbol fbf definió  que va desde la séptima jornada hasta la fecha número 14 que es la última el viernes 1 de abril se reanudará el campeonato con dos partidos   a partir de las 1800 el partido se jugará en el estadio víctor agustín ugarte una vez finalizado el cotejo en la villa imperial se dará paso al choque entre   en el estadio tahuichi aguilera de santa cruz este partido corresponde a la serie b  y proseguirá el domingo con otros dos nacional p 1800 aurora blooming 2030 always ready real sc 1500 oriente p ‘u’ de vinto 1500 independiente wilstermann 1715 real tomayapo ‘u’ de sucre 1930 plamaflor guabirá 1500 the strongest bolívar 1715 royal pari always ready 1500 ‘u’ de vinto royal pari 1500 independiente palmaflor 1500 real sc bolívar 1715 wilstermann oriente p 1930 nacional p ‘u’ de sucre 1500 guabirá real tomayapo 1715 blooming aurora 1830 the strongest la comisión de competiciones de la federación boliviana de fútbol fbf definió  que va desde la séptima jornada hasta la fecha número 14 que es la última el viernes 1 de abril se reanudará el campeonato con dos partidos   a partir de las 1800 el partido se jugará en el estadio víctor agustín ugarte una vez finalizado el cotejo en la villa imperial se dará paso al choque entre   en el estadio tahuichi aguilera de santa cruz este partido corresponde a la serie b  y proseguirá el domingo con otros dos nacional p 1800 aurora blooming 2030 always ready real sc 1500 oriente p ‘u’ de vinto 1500 independiente wilstermann 1715 real tomayapo ‘u’ de sucre 1930 plamaflor guabirá 1500 the strongest bolívar 1715 royal pari always ready 1500 ‘u’ de vinto royal pari 1500 independiente palmaflor 1500 real sc bolívar 1715 wilstermann oriente p 1930 nacional p ‘u’ de sucre 1500 guabirá real tomayapo 1715 blooming aurora 1830 the strongest</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/la-extraordinaria-belleza-de-pilbara-el-sitio-de-australia-con-algunas-de-las-formaciones-mas-antigu_272331</t>
+          <t>https://eldeber.com.bo/futbol/el-torneo-apertura-de-la-division-profesional-se-reanudara-el-viernes-con-dos-partidos_272480</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f0eccbf22106f05983527f75afd36fd6</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>115</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>f47a2d62992a2be5ea5c7350e9e42cf1</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>2798</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>('antigüedad', 1)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>325</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>('alrededor', 1)</t>
+          <t>('abril', 16)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>('3600', 1)</t>
+          <t>('1500', 14)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>('p', 8)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rusia no suministraremos gas gratis</t>
+          <t>roxana lizárraga denuncia violación a sus derechos y arremete contra fiscales</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> es evidente y se puede afirmar que no suministraremos gas gratis dijo el portavoz del kremlin en rusia dmitri peskov durante una rueda de prensa realizada este lunes tras el acuerdo de los países del g7 que no pagarán en rublos el suministro de gas ruso el kremlin insistió hoy que en la situación actual de su país no puede dedicarse a la caridad según peskov ese comportamiento no es ni posible ni conveniente para moscú que afronta múltiples sanciones impuestas por occidente todas las modalidades de pago en rublos para el suministro de gas natural a europa están siendo elaboradas y luego se determinará el plazo fijo para esta forma de pago detalló peskov la noticia causo inquietud en occidente después que el presidente vladimir putin dio la orden de que cancelen los suministros de gas en rublos en un congreso de los países miembros de la g7 anunciaron que no estaban dispuestos a comprar el combustible si había que realizar el pago en rublos rusos según peskov el 31 de marzo es la fecha límite para el pago del combustible en moneda rusa posteriormente se brindará el informe de gazprom al presidente putin sobre las medidas que asumirá para transferir el pago en rublos</t>
+          <t xml:space="preserve"> luego de ser declarada rebelde en el caso por el envío de armamento no letal desde ecuador la exministra de comunicación del gobierno transitorio roxana lizárraga denunció este lunes que sufre la violación a sus derechos humanos e hizo acusaciones contra el fiscal general juan lanchipa y el fiscal departamental de la paz william alave mediante un comunicado escrito lizárraga consideró que existe una “vendetta” del fiscal alave debido a la forma en que fue removido del cargo anteriormente william alave fue fiscal departamental hasta febrero de 2020 periodo del gobierno transitorio cuando fue cambiado por marco cossío en abril de 2021 después de asumir otro gobierno alave fue designado nuevamente en el cargo que ocupa en la actualidad asimismo lizárraga dirigiéndose a alave afirmó que se equivoca al perseguirla porque el fiscal general juan lanchipa fue quien negoció la fiscalía de la paz y otras con el gobierno transitorio en específico los entonces ministros yerko nuñez y arturo murillo incluso aseveró que en ese entonces lanchipa tenía un trabajo cercano con murillo y núñez “debo señalar al s william alave que se equivoca al perseguirme lanchipa ofreció las fiscalías de distrito de la paz y santa cruz al sr nuñez y al sr arturo murillo se mantuvo al actual fiscal general ya que se puso a disposición del gobierno transitorio e inició un trabajo cercano con arturo murillo y yerko nuñez sic” señala el comunicado de lizárraga publicado en redes sociales según la exministra durante el gobierno transitorio lanchipa pidió tiempo para entregar la fiscalía de la paz a gente de confianza de nuñez mientras que las fiscalías de cochabamba y santa cruz eran para arturo murillo según reporte de la red erbol la exautoridad declaró que no es casualidad que el fiscal eddy flores la haya imputado puesto que según afirmó es de confianza de alave además acusó a flores de dirigir una persecución en contra de su exesposo y padre de sus hijas junto con el abogado de juan ramón quintana la exministra de comunicación consideró que sufre una “tremenda violación” a sus derechos con la declaratoria en rebeldía en su contra ratificó que se encuentra fuera del país y aseveró que este mes envió un memorial al juzgado del caso para indicar dónde puede ser ubicada y notificada sin embargo igual se emitió la rebeldía asimismo aseveró que al estar en el exterior no es válido en su contra un edicto de alcance nacional denuncio además que no fue notificada de manera deliberada para que esté ausente en audiencia y se le declare rebelde lizárraga está imputada por presuntamente facilitar el ingreso de armamento no letal enviado de ecuador a bolivia en 2019 según la fiscalía el 15 de noviembre de 2019 en una reunión en la cual habría participado con arturo murillo fernando lópez y jeanine añez en palacio de gobierno lizárraga habría tomado contacto con un personal policial de ecuador y se habría acordado que se envíen equipos antimotín como gases lacrimógenos y otros que fueron ingresados a bolivia de manera presuntamente ilegal /mdcb</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/rusia-no-suministraremos-gas-gratis/</t>
+          <t>https://lapatria.bo/2022/03/28/roxana-lizarraga-denuncia-violacion-a-sus-derechos-y-arremete-contra-fiscales/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9fac8c815997a8df9da41ae5354299e6</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>35</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>07590943a0c5ec7bcf67958e816d8dc3</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>1184</v>
+        <v>77</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3052</v>
       </c>
       <c r="I20" t="n">
-        <v>112</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>('rublos', 5)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>290</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>('pago', 5)</t>
+          <t>('gobierno', 7)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>('gas', 4)</t>
+          <t>('fiscal', 7)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>('alave', 7)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rally vuelta a marbán aprehenden a corredor que atropelló a un menor</t>
+          <t>rusia no suministraremos gas gratis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el motociclista que atropelló a un menor de edad en el rally vuelta a marbán fue aprehendido informó el director de tránsito del beni coronel marcos céspedes el conductor fue identificado como antonio chemo cuellar de 33 años de edad arrolló al menor la tarde de este domingo cuando cruzaba la ruta del rally en la población de sachojere la competencia fue organizada por novena vez por la asociación beniana de motociclismo y sus representantes aseguraron que están al pendiente del estado de salud tanto del menor como del motociclista céspedes detalló que el conductor sufrió un tec leve y fractura de falange de tercer grado en la mano derecha y está internado en una clínica privada reportó la red erbol “él chemo también se encuentra internado pero además se encuentra aprehendido por disposición del ministerio público” señaló el diagnóstico del menor es reservado sin embargo se conoce que fue intervenido quirúrgicamente en el hospital obrero sufrió un fuerte golpe en la cabeza y tiene una de sus piernas fracturadas el caso fue clasificado por la dirección de tránsito como atropello a peatón en competencia deportiva “sí se debe investigar porque hay lesiones gravísimas o graves y obviamente en el transcurso de la investigación se van a determinar las situaciones que se vayan a seguir posteriormente no porque nosotros hayamos visto que no hay responsabilidad se va a dejar de investigar se tiene que investigar y si el caso amerita obviamente se va a archivar y se va a rechazar” manifestó el coronel /jdlf/</t>
+          <t xml:space="preserve"> es evidente y se puede afirmar que no suministraremos gas gratis dijo el portavoz del kremlin en rusia dmitri peskov durante una rueda de prensa realizada este lunes tras el acuerdo de los países del g7 que no pagarán en rublos el suministro de gas ruso el kremlin insistió hoy que en la situación actual de su país no puede dedicarse a la caridad según peskov ese comportamiento no es ni posible ni conveniente para moscú que afronta múltiples sanciones impuestas por occidente todas las modalidades de pago en rublos para el suministro de gas natural a europa están siendo elaboradas y luego se determinará el plazo fijo para esta forma de pago detalló peskov la noticia causo inquietud en occidente después que el presidente vladimir putin dio la orden de que cancelen los suministros de gas en rublos en un congreso de los países miembros de la g7 anunciaron que no estaban dispuestos a comprar el combustible si había que realizar el pago en rublos rusos según peskov el 31 de marzo es la fecha límite para el pago del combustible en moneda rusa posteriormente se brindará el informe de gazprom al presidente putin sobre las medidas que asumirá para transferir el pago en rublos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/21/rally-vuelta-a-marban-aprehenden-a-corredor-que-atropello-a-un-menor/</t>
+          <t>https://lapatria.bo/2022/03/28/rusia-no-suministraremos-gas-gratis/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>38627075644f3e58c9cf8ae402d5652e</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>68</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9fac8c815997a8df9da41ae5354299e6</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>1524</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>1184</v>
       </c>
       <c r="I21" t="n">
-        <v>133</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>('menor', 4)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>112</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>('investigar', 3)</t>
+          <t>('rublos', 5)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>('motociclista', 2)</t>
+          <t>('pago', 5)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>('gas', 4)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>emiratos árabes unidos el mercado energético necesita del petróleo ruso</t>
+          <t>grupos de personas llegan hasta el penal de miraflores mientras se desarrolla el juicio de áñez</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el mercado energético necesita del petróleo ruso indicó la mañana de hoy el ministro de energía de emiratos árabes unidos suhail al mazrouei durante el foro global de energía del consejo atlántico en dubái actualmente ningún productor es capaz de sustituir la producción de diez millones de barriles diarios de petróleo “dejando de lado la política este volumen es necesario hoy en día a no ser que alguien esté dispuesto a venir y traer diez millones de barriles no vemos a nadie que pueda sustituir a rusia” afirmó al mazrouei al mismo tiempo el ministro reiteró la necesidad de mantener estable el mercado energético y que si bien su país trata de subir la producción hasta cinco millones de barriles ello no significa que planee emprender similares pasos a los de rusia estados unidos europa japón y otras naciones instaron a los países del golfo pérsico a aumentar la producción y los suministros de crudo a fin de sustituir el petróleo ruso y bajar los precios que subieron por encima de 100 dólares por barril indicó el ministro suhail al mazrouei asimismo dijo que a mediados de marzo el primer ministro británico boris johnson visitó emiratos árabes unidos y arabia saudita en un intento de convencer a sus líderes de que bombearan más crudo / svl</t>
+          <t xml:space="preserve"> gente identificada como víctimas de senkata y sacaba además de otras decenas de personas llegaron hasta el penal de miraflores demandando 30 años de cárcel para jeanine áñez mientras se desarrolla el juicio denominado “golpe de estado ii” en uno de los ambientes del penal la exmandataria se presentó junto con su defensa legal de manera virtual ante el tribunal 1º de sentencia anticorrupción de la paz áñez vestía bufanda campera y una polera con su fotografía estampada en ella además de un barbijo según informó la agencia boliviana de información afuera del penal decenas de personas con pancartas se asentaron al mismo tiempo que pedían a gritos “30 años para áñez” algunos portaban carteles con las fotografías de los fallecidos en las zonas de senkata y sacaba en el alto el 15 de noviembre de 2019 a tres días de la asunción de áñez al poder denunciaron en sacaba la muerte de 11 personas y otras 120 heridas esto durante las protestas que seguían activas en el país después de la renuncia de evo morales el 19 de noviembre se presentó un caso similar en senkata donde se reportaron otros 11 civiles fallecidos y 78 heridos la comisión interamericana de derechos humanos calificó ambos acontecimientos como “masacres” el caso “golpe de estado ii” se inició la presente jornada está enfocado en las acciones de jeanine áñez cuando era la segunda vicepresidente del senado y asumió posteriormente la presidencia del país mientras se desarrollaba el juicio áñez presentó una descompensación ante las dificultades para respirar que presentaba la exmandataria se instruyó un receso para que el equipo médico del penal realizara la revisión correspondiente los médicos determinaron que la acusada sufrió un ataque de ansiedad / lmpt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/emiratos-arabes-unidos-el-mercado-energetico-necesita-del-petroleo-ruso/</t>
+          <t>https://lapatria.bo/2022/03/28/grupos-de-personas-llegan-hasta-el-penal-de-miraflores-mientras-se-desarrolla-el-juicio-de-anez/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>64b8ebf69993a391040edb39b6fe5c5b</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>71</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>c526ba3970f16f7c500fc0d399fe4975</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>1257</v>
+        <v>95</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>1736</v>
       </c>
       <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>('ministro', 4)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>165</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>('petróleo', 3)</t>
+          <t>('áñez', 5)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>('unidos', 3)</t>
+          <t>('penal', 4)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>('senkata', 3)</t>
         </is>
       </c>
     </row>
@@ -1647,37 +1757,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>2022/03/26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>99786ea273c5645ee5b640ff762c5e73</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>63</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>708</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>63</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>('obras', 2)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>('readecuación', 2)</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>('ambientes', 2)</t>
         </is>
@@ -1686,3024 +1801,3304 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>policía aprehende a vladimir irahola villanueva presunto feminicida de vania</t>
+          <t>universidad y torre fuerte lideran el torneo de la primera a</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la policía informó que luego de un trabajo investigativo en poblaciones fronterizas del beni se ha logrado aprehender a vladimir irahola villanueva principal acusado del feminicidio de su pareja vania trujillo crimen ocurrido en febrero en la ciudad de la paz “informamos a la población que después de un arduo trabajo investigativo en poblaciones fronterizas del beni nuestros servidores policiales procedieron a la aprehensión de vladimir irahola villanueva principal acusado del feminicidio de su esposa vania trujillo” se lee en el comunicado de la policía en sus redes sociales el caso cobró relevancia después de que la activista maría galindo protestó en el estado mayor y la fiscalía reclamando que se había dejado escapar a vladimir irahola presunto autor del feminicidio de vania trujillo el feminicidio se registró el 18 de febrero según las investigaciones el autor del crimen quiso fingir que la víctima había fallecido por ingerir una sustancia tóxica pero se evidenció que fue estrangulada el padre del presunto feminicida de profesión militar fue aprehendido y enviado a la cárcel acusado de haber ayudado a escapar a su hijo con el pasar de los días las investigaciones se volcaron al beni donde vive un amigo del principal sospechoso quien aparentemente sabía del crimen y cobijó al presunto feminicida por lo cual fue aprehendido vladimir irahola se comunicó con su amigo moisés quien se encontraba en beni y le contó que le quitó la vida a su pareja el amigo le pidió fotos y ambos se enviaron audios “por eso que se llega a estas conversaciones y se tiene la aprehensión de moisés vaquero que sería el amigo a quien denominaba ‘yunta o bro’” afirmo la coordinadora de la fiscalía de la paz nilda calle vania trujillo fue asesinada el 18 de febrero en la zona de bajo san antonio de la ciudad de la paz presuntamente en manos de su concubino vladimir de quien se presume que le puso en la boca un líquido usado para limpiar hornos y de esa forma hacer creer que la joven se suicidó sin embargo tras la autopsia se develó que el deceso fue por estrangulamiento /hnf/</t>
+          <t xml:space="preserve">son los únicos equipos que han ganado en las dos primeras fechas del campeonato oficial de la asociación cruceña de fútbol  universidad y torre fuerte lucen imparables  torre fuerte goleó a magisterio por 40   real américa y cooper igualaron a un gol por lado  oriente petrolero se impuso a florida por 20 argentinos juniors superó a 24 de septiembre por 43 descansó ciudad nueva santa cruz lea también fútbol el torneo apertura de la división profesional se reanudará el viernes con dos partidos nacional potosíaurora y bloomingalways ready son los encuentros programados para el viernes por la séptima fecha en el reinicio del campeonato lea también fútbol fred cree que brasil no debe desperdiciar energías en la paz el mediocampista de la verdeamarilla habló en rueda de prensa en la previa del partido contra la verde por la última fecha de las eliminatorias al mundial catar 2022 universidad y torre fuerte lucen imparables  torre fuerte goleó a magisterio por 40   real américa y cooper igualaron a un gol por lado  oriente petrolero se impuso a florida por 20 argentinos juniors superó a 24 de septiembre por 43 descansó ciudad nueva santa cruz lea también fútbol el torneo apertura de la división profesional se reanudará el viernes con dos partidos nacional potosíaurora y bloomingalways ready son los encuentros programados para el viernes por la séptima fecha en el reinicio del campeonato lea también fútbol fred cree que brasil no debe desperdiciar energías en la paz el mediocampista de la verdeamarilla habló en rueda de prensa en la previa del partido contra la verde por la última fecha de las eliminatorias al mundial catar 2022  la segunda fecha de la primera rueda denominada etapa de clasificación del campeonato oficial de la primera a de la asociación cruceña de fútbol acf se jugó el domingo   pues son los únicos equipos que han logrado ganar sus dos partidos y por ende encabezan la tabla de posiciones en el estadio de universidad  y en el choque de fondo la u sometió a calleja por 20 en el estadio municipal del distrito 5  mientras que a continuación destroyers debutó en el torneo había descansado en la primera fecha con triunfo sobre esperanza por 21 en el estadio municipal virgen de luján  y después ferroviario y el torno empataron sin apertura del marcador finalmente en el estadio municipal andrés ibáñez del distrito 8  en esta fecha  la segunda fecha de la primera rueda denominada etapa de clasificación del campeonato oficial de la primera a de la asociación cruceña de fútbol acf se jugó el domingo   pues son los únicos equipos que han logrado ganar sus dos partidos y por ende encabezan la tabla de posiciones en el estadio de universidad  y en el choque de fondo la u sometió a calleja por 20 en el estadio municipal del distrito 5  mientras que a continuación destroyers debutó en el torneo había descansado en la primera fecha con triunfo sobre esperanza por 21 en el estadio municipal virgen de luján  y después ferroviario y el torno empataron sin apertura del marcador finalmente en el estadio municipal andrés ibáñez del distrito 8  en esta fecha </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/23/policia-aprehende-a-vladimir-irahola-villanueva-presunto-feminicida-de-vania/</t>
+          <t>https://eldeber.com.bo/futbol/universidad-y-torre-fuerte-lideran-el-torneo-de-la-primera-a_272485</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>57e927df02d32b98814406604e0e832f</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>76</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>58b457c7a11a781e59e9746eeeeb149c</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>2086</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>3100</v>
       </c>
       <c r="I24" t="n">
-        <v>195</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>('vladimir', 5)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>298</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>('beni', 4)</t>
+          <t>('fecha', 10)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>('irahola', 4)</t>
+          <t>('estadio', 8)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>('fútbol', 7)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>leche de tigre una curiosa coincidencia</t>
+          <t>fred cree que brasil no debe desperdiciar energías en la paz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">lo cierto es que la leche de tigre ni es solo leche aunque sí la lleva ni es de tigre es más la receta y los ingredientes en ella pueden variar mucho de país a país hoy te presentamos el caso de perú y bolivia  leche de tigre boliviana ingredientes preparación nota leche de tigre peruana ingredientes preparación nota leche de tigre boliviana ingredientes preparación nota leche de tigre peruana ingredientes preparación nota </t>
+          <t>el mediocampista de la verdeamarilla habló en rueda de prensa en la previa del partido contra la verde por la última fecha de las eliminatorias al mundial catar 2022  fred mediocampista de la selección brasileña “inteligentes y no desperdiciar energías”  se refirió también a las ausencias obligadas que tendrá brasil tite tiene grandes jugadores para reemplazar a ambos futbolistas  “es claro que coloco a brasil como favorito en catar brasil 42 puntos encabeza la tabla de posiciones de las eliminatorias  martes 29 de marzo fred mediocampista de la selección brasileña “inteligentes y no desperdiciar energías”  se refirió también a las ausencias obligadas que tendrá brasil tite tiene grandes jugadores para reemplazar a ambos futbolistas  “es claro que coloco a brasil como favorito en catar brasil 42 puntos encabeza la tabla de posiciones de las eliminatorias  martes 29 de marzo   anticipa que el partido ante bolivia será difícil pero que la verdeamarilla se encuentra preparada para hacer un buen partido en la paz el cotejo se jugará este martes desde las 1930 en el estadio hernando siles en el marco de la última fecha de las eliminatorias al mundial catar 2022 el jugador del manchester united inglés expresó que la altura de la ciudad de la paz complicará las cosas para brasil pero considera que deben ser  jugando a poco más de 3600 metros sobre el nivel del mar frederico rodrigues que el 5 de marzo cumplió 29 años   neymar y vinicius junior no jugarán ante la verde por acumulación de tarjetas amarillas a su criterio el dt  y entre los que nombró están a fabinho artur bruno guimaraes y joedson no pasó desapercibida la frase que lanzó refiriéndose a que brasil es favorito para ganar el mundial catar 2022   somos pentacampeones del mundo y tenemos condiciones para realizar una gran copa” aseguró fred sudamericanas seguido de argentina 38 ecuador 25 uruguay 25 perú 21 colombia 20 chile 19 paraguay 16 bolivia 15 y venezuela 10 las cuatro primeras selecciones ya tienen el boleto asegurado para el mundial catar 2022 bolivia 1930 brasil perú 1930 paraguay ecuador 1930 argentina venezuela 1930 colombia chile 1930 uruguay  anticipa que el partido ante bolivia será difícil pero que la verdeamarilla se encuentra preparada para hacer un buen partido en la paz el cotejo se jugará este martes desde las 1930 en el estadio hernando siles en el marco de la última fecha de las eliminatorias al mundial catar 2022 el jugador del manchester united inglés expresó que la altura de la ciudad de la paz complicará las cosas para brasil pero considera que deben ser  jugando a poco más de 3600 metros sobre el nivel del mar frederico rodrigues que el 5 de marzo cumplió 29 años   neymar y vinicius junior no jugarán ante la verde por acumulación de tarjetas amarillas a su criterio el dt  y entre los que nombró están a fabinho artur bruno guimaraes y joedson no pasó desapercibida la frase que lanzó refiriéndose a que brasil es favorito para ganar el mundial catar 2022   somos pentacampeones del mundo y tenemos condiciones para realizar una gran copa” aseguró fred sudamericanas seguido de argentina 38 ecuador 25 uruguay 25 perú 21 colombia 20 chile 19 paraguay 16 bolivia 15 y venezuela 10 las cuatro primeras selecciones ya tienen el boleto asegurado para el mundial catar 2022 bolivia 1930 brasil perú 1930 paraguay ecuador 1930 argentina venezuela 1930 colombia chile 1930 uruguay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/edicion-impresa/leche-de-tigre-una-curiosa-coincidencia_272337</t>
+          <t>https://eldeber.com.bo/futbol/fred-cree-que-brasil-no-debe-desperdiciar-energias-en-la-paz_272453</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8990d8deb767e51a96b665521d246fff</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>39</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>bb55e87165c5314d09cef4958fc37a0f</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>427</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3403</v>
       </c>
       <c r="I25" t="n">
-        <v>47</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>('leche', 6)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>355</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>('tigre', 6)</t>
+          <t>('brasil', 12)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>('ingredientes', 5)</t>
+          <t>('1930', 12)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>('catar', 9)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tropas rusas concentran estrategia militar en el donbás</t>
+          <t>la fascinante historia de alice ball la científica estadounidense que desarrolló el primer tratamiento efectivo contra la lepra</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">las fuerzas invasoras avanzan al este desde járkov y mariúpol para cercar al ejercito ucraniano que se encuentra en esa zona   las fuerzas rusas han concentrado su estrategia en el donbás  es así como rusia pretende rodear a las fuerzas ucranianas que están peleando en el donbás  el análisis de londres recuerda hoy 27032022 que el frente bélico en el norte de ucrania  creo que se celebrará un referéndum en el territorio de la república en las negociaciones que se llevan a cabo entre rusia y ucrania para un alto el fuego   las fuerzas rusas han concentrado su estrategia en el donbás  es así como rusia pretende rodear a las fuerzas ucranianas que están peleando en el donbás  el análisis de londres recuerda hoy 27032022 que el frente bélico en el norte de ucrania  creo que se celebrará un referéndum en el territorio de la república en las negociaciones que se llevan a cabo entre rusia y ucrania para un alto el fuego  </t>
+          <t xml:space="preserve">        la científica logró un método exitoso para aliviar los síntomas de la lepra —más tarde conocido como el método ball— que se usó en miles de personas infectadas durante más de 30 años        </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/dw/tropas-rusas-concentran-estrategia-militar-en-el-donbas_272373</t>
+          <t>https://eldeber.com.bo/bbc/la-fascinante-historia-de-alice-ball-la-cientifica-estadounidense-que-desarrollo-el-primer-tratamien_272344</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>76817fe4078502be75fc3fd5c1538e54</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>55</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6806b402bdd44541ec15a9479eeaa333</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>928</v>
+        <v>127</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="I26" t="n">
-        <v>83</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>('fuerzas', 5)</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>19</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>('donbás', 4)</t>
+          <t>('método', 2)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>('rusia', 4)</t>
+          <t>('científica', 1)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>('logró', 1)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fred cree que brasil no debe desperdiciar energías en la paz</t>
+          <t>perú colombia y chile se juegan a todo o nada por el repechaje a catar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>el mediocampista de la verdeamarilla habló en rueda de prensa en la previa del partido contra la verde por la última fecha de las eliminatorias al mundial catar 2022  fred mediocampista de la selección brasileña “inteligentes y no desperdiciar energías”  se refirió también a las ausencias obligadas que tendrá brasil tite tiene grandes jugadores para reemplazar a ambos futbolistas  “es claro que coloco a brasil como favorito en catar brasil 42 puntos encabeza la tabla de posiciones de las eliminatorias  martes 29 de marzo fred mediocampista de la selección brasileña “inteligentes y no desperdiciar energías”  se refirió también a las ausencias obligadas que tendrá brasil tite tiene grandes jugadores para reemplazar a ambos futbolistas  “es claro que coloco a brasil como favorito en catar brasil 42 puntos encabeza la tabla de posiciones de las eliminatorias  martes 29 de marzo   anticipa que el partido ante bolivia será difícil pero que la verdeamarilla se encuentra preparada para hacer un buen partido en la paz el cotejo se jugará este martes desde las 1930 en el estadio hernando siles en el marco de la última fecha de las eliminatorias al mundial catar 2022 el jugador del manchester united inglés expresó que la altura de la ciudad de la paz complicará las cosas para brasil pero considera que deben ser  jugando a poco más de 3600 metros sobre el nivel del mar frederico rodrigues que el 5 de marzo cumplió 29 años   neymar y vinicius junior no jugarán ante la verde por acumulación de tarjetas amarillas a su criterio el dt  y entre los que nombró están a fabinho artur bruno guimaraes y joedson no pasó desapercibida la frase que lanzó refiriéndose a que brasil es favorito para ganar el mundial catar 2022   somos pentacampeones del mundo y tenemos condiciones para realizar una gran copa” aseguró fred sudamericanas seguido de argentina 38 ecuador 25 uruguay 25 perú 21 colombia 20 chile 19 paraguay 16 bolivia 15 y venezuela 10 las cuatro primeras selecciones ya tienen el boleto asegurado para el mundial catar 2022 bolivia 1930 brasil perú 1930 paraguay ecuador 1930 argentina venezuela 1930 colombia chile 1930 uruguay  anticipa que el partido ante bolivia será difícil pero que la verdeamarilla se encuentra preparada para hacer un buen partido en la paz el cotejo se jugará este martes desde las 1930 en el estadio hernando siles en el marco de la última fecha de las eliminatorias al mundial catar 2022 el jugador del manchester united inglés expresó que la altura de la ciudad de la paz complicará las cosas para brasil pero considera que deben ser  jugando a poco más de 3600 metros sobre el nivel del mar frederico rodrigues que el 5 de marzo cumplió 29 años   neymar y vinicius junior no jugarán ante la verde por acumulación de tarjetas amarillas a su criterio el dt  y entre los que nombró están a fabinho artur bruno guimaraes y joedson no pasó desapercibida la frase que lanzó refiriéndose a que brasil es favorito para ganar el mundial catar 2022   somos pentacampeones del mundo y tenemos condiciones para realizar una gran copa” aseguró fred sudamericanas seguido de argentina 38 ecuador 25 uruguay 25 perú 21 colombia 20 chile 19 paraguay 16 bolivia 15 y venezuela 10 las cuatro primeras selecciones ya tienen el boleto asegurado para el mundial catar 2022 bolivia 1930 brasil perú 1930 paraguay ecuador 1930 argentina venezuela 1930 colombia chile 1930 uruguay</t>
+          <t>las tres selecciones tienen chance de terminar en el quinto lugar de la tabla de posiciones y por ende jugar el repechaje pero solo perú depende de sí misma  perú colombia y chile se jugarán el martes a todo o nada  en junio contra el quinto clasificado de asia perú  perú más cerca  perú es el único que depende de sí mismo en caso de empate la blanquirroja deberá esperar no la tendrá sencilla ante paraguay  el delantero andré carrillo quien padece un esguince en la rodilla  ¿demasiado tarde?  colombia tiene menos opciones  el triunfo 30 ante la eliminada bolivia  los cafeteros apuestan todo a su nueva figura  si empata dependerá de una derrota de perú para ir a la repesca  con la soga al cuello  chile es el que está más complicado entre los tres si vence a la celeste deberá esperar  in gloria para la generación dorada  arropados en la bombonera y el maracaná  las selecciones de brasil 42 puntos y argentina 38 vienen de marcar territorio  ambos astros fueron arropados  messi igual que su compañero del psg ángel di maría transformó en idilio su fría relación con el público argentino  la torcida brasileña dejó en claro en el maracaná su sentimiento incondicional con neymar stán en dificultades para afrontar a toda orquesta la última jornada eliminatoria el líder brasil deberá trepar a la altura de la paz 3600 msnm la albiceleste viaja a guayaquil donde le espera un ecuador con deseos de celebrar  perú colombia y chile se jugarán el martes a todo o nada  en junio contra el quinto clasificado de asia perú  perú más cerca  perú es el único que depende de sí mismo en caso de empate la blanquirroja deberá esperar no la tendrá sencilla ante paraguay  el delantero andré carrillo quien padece un esguince en la rodilla  ¿demasiado tarde?  colombia tiene menos opciones  el triunfo 30 ante la eliminada bolivia  los cafeteros apuestan todo a su nueva figura  si empata dependerá de una derrota de perú para ir a la repesca  con la soga al cuello  chile es el que está más complicado entre los tres si vence a la celeste deberá esperar  in gloria para la generación dorada  arropados en la bombonera y el maracaná  las selecciones de brasil 42 puntos y argentina 38 vienen de marcar territorio  ambos astros fueron arropados  messi igual que su compañero del psg ángel di maría transformó en idilio su fría relación con el público argentino  la torcida brasileña dejó en claro en el maracaná su sentimiento incondicional con neymar stán en dificultades para afrontar a toda orquesta la última jornada eliminatoria el líder brasil deberá trepar a la altura de la paz 3600 msnm la albiceleste viaja a guayaquil donde le espera un ecuador con deseos de celebrar    para lograr el derecho a jugar el repechaje a catar la única vía disponible en sudamérica tras distribuirse entre brasil argentina ecuador y uruguay los cuatro cupos directos al mundial 2022  antes de imaginar el partido único de repesca  quinto 21 puntos colombia sexto 20 puntos y chile séptimo 19 puntos deben enfocarse en una muy complicada última fecha del premundial hacer cuentas y encomendarse  y el que tiene más opciones con un triunfo a paraguay el martes en lima estará en la repesca la vía por la que clasificó a rusia2018 de la mano de su actual entrenador el argentino ricardo gareca tras 36 años sin acudir a una cita máxima  a que colombia 20 no le gane a domicilio a venezuela y chile 19 no haga lo propio ante uruguay en santiago la selección inca amiga de las hazañas  que pese a estar eliminada le ganó con autoridad por 31 la fecha pasada a ecuador aunque el equipo de gustavo alfaro de todos modos logró la clasificación  la baja de una de las principales figuras de perú   izquierda es otro escollo que pondrá a prueba la mística del equipo del tigre gareca con un ojo en lima  y puede quedar mascullando bronca por acordarse tarde de asumir una actitud más ofensiva en el premundial  el jueves en la anteúltima fecha terminó con una increíble racha de siete encuentros sin triunfos y sin anotar el delantero luis díaz el jugador del liverpool abrió el camino para un contundente 30 a bolivia el jueves enterrando el maleficio goleador del equipo de reinaldo rueda de mínima colombia está obligada a mantener la senda ganadora el martes contra la débil venezuela porque   aspirantes al repechaje séptima con 19 puntos le debe ganar sí o sí a uruguay que llega a santiago envalentonado por su clasificación en la fecha pasada  pero aún  una serie de combinaciones favorables para no padecer una segunda eliminación mundialista consecutiva y además podría significar una despedida s  liderada por arturo vidal y alexis sánchez que le dio a chile sus dos únicos títulos en la historia las copas américa de 2015 y 2016 clasificadas hace varias fechas  en la anteúltima jornada ante chile 40 y venezuela 30 con despedidas a toda orquesta de sus ídolos neymar y lionel messi como nunca en rio de janeiro y buenos aires luego de los abucheos que sufrieron en parís debido a la eliminación del psg en la liga de campeones  autores del tercero y segundo gol argentinos recibieron una impresionante ovación en la bombonera al concluir el partido tal vez el último del ídolo jugando con la albiceleste en su país el capitán de 34 años  sobre todo tras haber logrado la copa américa en 2021 en brasil luego de 28 años de sequía albiceleste a su vez   que se divirtió e hizo divertir a sus compañeros en una nueva exhibición de la seleçao contra chile 40 pero las dos potencias sudamericanas que tienen un partido pendiente entre ellos en el premundial e  para visitar a la eliminada bolivia siempre una amenaza en su territorio en tanto  por todo lo alto ante su gente la clasificación a catar  para lograr el derecho a jugar el repechaje a catar la única vía disponible en sudamérica tras distribuirse entre brasil argentina ecuador y uruguay los cuatro cupos directos al mundial 2022  antes de imaginar el partido único de repesca  quinto 21 puntos colombia sexto 20 puntos y chile séptimo 19 puntos deben enfocarse en una muy complicada última fecha del premundial hacer cuentas y encomendarse  y el que tiene más opciones con un triunfo a paraguay el martes en lima estará en la repesca la vía por la que clasificó a rusia2018 de la mano de su actual entrenador el argentino ricardo gareca tras 36 años sin acudir a una cita máxima  a que colombia 20 no le gane a domicilio a venezuela y chile 19 no haga lo propio ante uruguay en santiago la selección inca amiga de las hazañas  que pese a estar eliminada le ganó con autoridad por 31 la fecha pasada a ecuador aunque el equipo de gustavo alfaro de todos modos logró la clasificación  la baja de una de las principales figuras de perú   izquierda es otro escollo que pondrá a prueba la mística del equipo del tigre gareca con un ojo en lima  y puede quedar mascullando bronca por acordarse tarde de asumir una actitud más ofensiva en el premundial  el jueves en la anteúltima fecha terminó con una increíble racha de siete encuentros sin triunfos y sin anotar el delantero luis díaz el jugador del liverpool abrió el camino para un contundente 30 a bolivia el jueves enterrando el maleficio goleador del equipo de reinaldo rueda de mínima colombia está obligada a mantener la senda ganadora el martes contra la débil venezuela porque   aspirantes al repechaje séptima con 19 puntos le debe ganar sí o sí a uruguay que llega a santiago envalentonado por su clasificación en la fecha pasada  pero aún  una serie de combinaciones favorables para no padecer una segunda eliminación mundialista consecutiva y además podría significar una despedida s  liderada por arturo vidal y alexis sánchez que le dio a chile sus dos únicos títulos en la historia las copas américa de 2015 y 2016 clasificadas hace varias fechas  en la anteúltima jornada ante chile 40 y venezuela 30 con despedidas a toda orquesta de sus ídolos neymar y lionel messi como nunca en rio de janeiro y buenos aires luego de los abucheos que sufrieron en parís debido a la eliminación del psg en la liga de campeones  autores del tercero y segundo gol argentinos recibieron una impresionante ovación en la bombonera al concluir el partido tal vez el último del ídolo jugando con la albiceleste en su país el capitán de 34 años  sobre todo tras haber logrado la copa américa en 2021 en brasil luego de 28 años de sequía albiceleste a su vez   que se divirtió e hizo divertir a sus compañeros en una nueva exhibición de la seleçao contra chile 40 pero las dos potencias sudamericanas que tienen un partido pendiente entre ellos en el premundial e  para visitar a la eliminada bolivia siempre una amenaza en su territorio en tanto  por todo lo alto ante su gente la clasificación a catar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/futbol/fred-cree-que-brasil-no-debe-desperdiciar-energias-en-la-paz_272453</t>
+          <t>https://eldeber.com.bo/futbol/peru-colombia-y-chile-se-juegan-a-todo-o-nada-por-el-repechaje-a-catar_272462</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>bb55e87165c5314d09cef4958fc37a0f</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>60</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0460625464050cf8236e5b0558a56117</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>3403</v>
+        <v>70</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>8690</v>
       </c>
       <c r="I27" t="n">
-        <v>355</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>('brasil', 12)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>855</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>('1930', 12)</t>
+          <t>('chile', 14)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>('catar', 9)</t>
+          <t>('perú', 13)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>('colombia', 10)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>grupos armados toman tierras en sitios ‘estratégicos’ para el narcotráfico</t>
+          <t>estos son los nominados al óscar en las principales categorías</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">en la chiquitania decidieron organizarse para “desarticular” a esas organizaciones irregulares que operan en la región particularmente en guarayos advierten de la intención del mas de consolidar su “influencia geopolítica” en santa cruz  predios donde se hallaron factorías de cocaína y helicópteros que habían sido empleados para transportar esa droga ilícita amental del inra adalberto rojas se reunió con ese grupo el funcionario dijo entonces que no estaba al tanto del bullado incidente esas tierras y tras esa pugna el 20 de marzo un joven de 22 años perdió la vida por un disparo con arma de fuego  y validar nuestro derecho propietario” reclamó óscar mario justiniano presidente de la cámara agropecuaria del oriente cao de manera irregular por el medio físico del avasallamiento o del control de ciertas comunidades actúan en grupos de nueve personas como células están entrenados” afirmó en muchos sectores nos hemos encontrado con coca mecanizada” “en muchos casos los avasalladores instalan infraestructura como tinglados para almacenar insumos   en el departamento de santa cruz una región que es responsable de la producción del 70% de los alimentos del país predios donde se hallaron factorías de cocaína y helicópteros que habían sido empleados para transportar esa droga ilícita amental del inra adalberto rojas se reunió con ese grupo el funcionario dijo entonces que no estaba al tanto del bullado incidente esas tierras y tras esa pugna el 20 de marzo un joven de 22 años perdió la vida por un disparo con arma de fuego  y validar nuestro derecho propietario” reclamó óscar mario justiniano presidente de la cámara agropecuaria del oriente cao de manera irregular por el medio físico del avasallamiento o del control de ciertas comunidades actúan en grupos de nueve personas como células están entrenados” afirmó en muchos sectores nos hemos encontrado con coca mecanizada” “en muchos casos los avasalladores instalan infraestructura como tinglados para almacenar insumos   en el departamento de santa cruz una región que es responsable de la producción del 70% de los alimentos del país </t>
+          <t>hoy desde las 2000 vuelve la gala más esperada del cine en bolivia se verá a través de tnt  óscar 2000 3 categorías   duna belfast   regina hall amy schumer y wanda sykes samuel l jackson hasta zoë kravitz principales categorías de la 94ª edición  *mejor actor *mejor actriz *mejor película internacional  *mejor documental  *películas con seis o más nominaciones óscar 2000 3 categorías   duna belfast   regina hall amy schumer y wanda sykes samuel l jackson hasta zoë kravitz principales categorías de la 94ª edición  *mejor actor *mejor actriz *mejor película internacional  *mejor documental  *películas con seis o más nominaciones  las actrices  conducirán la gala de los óscar después de tres años sin presentador y los premios serán entregados por estrellas de todos los tiempos desde   nominados en las  de los premios de la academia que serán entregados esta noche en los ángeles las actrices  conducirán la gala de los óscar después de tres años sin presentador y los premios serán entregados por estrellas de todos los tiempos desde   nominados en las  de los premios de la academia que serán entregados esta noche en los ángeles</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/grupos-armados-toman-tierras-en-sitios-estrategicos-para-el-narcotrafico_272405</t>
+          <t>https://eldeber.com.bo/escenas/estos-son-los-nominados-al-oscar-en-las-principales-categorias_272348</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7404ce5bd6b936536ad93fc49c76cb33</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>74</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f18e4e973092c1a7e3c335f2dc8a5ddc</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>2108</v>
+        <v>62</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>1140</v>
       </c>
       <c r="I28" t="n">
-        <v>199</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>('muchos', 4)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>119</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>('esas', 3)</t>
+          <t>('*mejor', 8)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>('región', 3)</t>
+          <t>('óscar', 4)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>('categorías', 4)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>universidad y torre fuerte lideran el torneo de la primera a</t>
+          <t xml:space="preserve">contagios de covid19 bajan un 31% 44 municipios vacunaron a más del 80% de su población </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">son los únicos equipos que han ganado en las dos primeras fechas del campeonato oficial de la asociación cruceña de fútbol  universidad y torre fuerte lucen imparables  torre fuerte goleó a magisterio por 40   real américa y cooper igualaron a un gol por lado  oriente petrolero se impuso a florida por 20 argentinos juniors superó a 24 de septiembre por 43 descansó el equipo de ciudad nueva santa cruz lea también fútbol el torneo apertura de la división profesional se reanudará el viernes con dos partidos nacional potosíaurora y bloomingalways ready son los encuentros programados para el viernes por la séptima fecha en el reinicio del campeonato universidad y torre fuerte lucen imparables  torre fuerte goleó a magisterio por 40   real américa y cooper igualaron a un gol por lado  oriente petrolero se impuso a florida por 20 argentinos juniors superó a 24 de septiembre por 43 descansó el equipo de ciudad nueva santa cruz lea también fútbol el torneo apertura de la división profesional se reanudará el viernes con dos partidos nacional potosíaurora y bloomingalways ready son los encuentros programados para el viernes por la séptima fecha en el reinicio del campeonato  la segunda fecha de la primera rueda denominada etapa de clasificación del campeonato oficial de la primera a de la asociación cruceña de fútbol acf se jugó el domingo  en las primeras jornadas de competencia pues son los únicos equipos que han logrado ganar sus dos partidos y por ende encabezan la tabla de posiciones en el estadio de universidad  y en el choque de fondo la ú sometió a calleja por 20 en el estadio municipal del distrito 5  mientras que en el compromiso de segunda hora destroyers debutó en el torneo había descansado en la primera fecha con triunfo sobre esperanza por 21 en el estadio municipal virgen de luján  y después ferroviario y el el torno empataron sin apertura del marcador finalmente en el estadio municipal andrés ibáñez del distrito 8  en esta fecha  la segunda fecha de la primera rueda denominada etapa de clasificación del campeonato oficial de la primera a de la asociación cruceña de fútbol acf se jugó el domingo  en las primeras jornadas de competencia pues son los únicos equipos que han logrado ganar sus dos partidos y por ende encabezan la tabla de posiciones en el estadio de universidad  y en el choque de fondo la ú sometió a calleja por 20 en el estadio municipal del distrito 5  mientras que en el compromiso de segunda hora destroyers debutó en el torneo había descansado en la primera fecha con triunfo sobre esperanza por 21 en el estadio municipal virgen de luján  y después ferroviario y el el torno empataron sin apertura del marcador finalmente en el estadio municipal andrés ibáñez del distrito 8  en esta fecha </t>
+          <t xml:space="preserve"> el ministerio de salud presentó los datos correspondientes a la semana epidemiológica 12 potosí y la paz registran un alza y los otros siete departamentos un descenso   los contagios con covid19 bajaron un 31 por ciento en la semana epidemiológica 12 en los pasados siete días se registraron 1595 casos y 12246 recuperados hoy más que nunca es cuando debemos redoblar los esfuerzos santa cruz menos 7 por ciento beni menos 13 por ciento pando menos 78 por ciento el reporte las dosis aplicadas llegan a 13062659 de las cuales 6074507 son primeras 4784783 segundas 138 entre el 40 y el 59 por ciento 60 entre un 20 y un  39 por ciento y dos localidades tienen un alcance muy bajo la cuarta dosis está disponible para toda la población que requiere dicho refuerzo los contagios con covid19 bajaron un 31 por ciento en la semana epidemiológica 12 en los pasados siete días se registraron 1595 casos y 12246 recuperados hoy más que nunca es cuando debemos redoblar los esfuerzos santa cruz menos 7 por ciento beni menos 13 por ciento pando menos 78 por ciento el reporte las dosis aplicadas llegan a 13062659 de las cuales 6074507 son primeras 4784783 segundas 138 entre el 40 y el 59 por ciento 60 entre un 20 y un  39 por ciento y dos localidades tienen un alcance muy bajo la cuarta dosis está disponible para toda la población que requiere dicho refuerzo </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/futbol/universidad-y-torre-fuerte-lideran-el-torneo-de-la-primera-a_272485</t>
+          <t>https://eldeber.com.bo/pais/contagios-de-covid-19-bajan-un-31-44-municipios-vacunaron-a-mas-del-80-de-su-poblacion_272451</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>58b457c7a11a781e59e9746eeeeb149c</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>60</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9e9340c4af1c5e7067ea3de52c5ce585</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>2754</v>
+        <v>88</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>1356</v>
       </c>
       <c r="I29" t="n">
-        <v>272</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>('fecha', 8)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>137</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>('estadio', 8)</t>
+          <t>('ciento', 12)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>('primera', 6)</t>
+          <t>('dosis', 4)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>('semana', 3)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>perú colombia y chile se juegan a todo o nada por el repechaje a catar</t>
+          <t>la ciudad perdida encabeza las taquillas en américa del norte el fin de semana de los oscar</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las tres selecciones tienen chance de terminar en el quinto lugar de la tabla de posiciones y por ende jugar el repechaje pero solo perú depende de sí misma  perú colombia y chile se jugarán el martes a todo o nada  en junio contra el quinto clasificado de asia perú  perú más cerca  perú es el único que depende de sí mismo en caso de empate la blanquirroja deberá esperar no la tendrá sencilla ante paraguay  el delantero andré carrillo quien padece un esguince en la rodilla  ¿demasiado tarde?  colombia tiene menos opciones  el triunfo 30 ante la eliminada bolivia  los cafeteros apuestan todo a su nueva figura  si empata dependerá de una derrota de perú para ir a la repesca  con la soga al cuello  chile es el que está más complicado entre los tres si vence a la celeste deberá esperar  in gloria para la generación dorada  arropados en la bombonera y el maracaná  las selecciones de brasil 42 puntos y argentina 38 vienen de marcar territorio  ambos astros fueron arropados  messi igual que su compañero del psg ángel di maría transformó en idilio su fría relación con el público argentino  la torcida brasileña dejó en claro en el maracaná su sentimiento incondicional con neymar stán en dificultades para afrontar a toda orquesta la última jornada eliminatoria el líder brasil deberá trepar a la altura de la paz 3600 msnm la albiceleste viaja a guayaquil donde le espera un ecuador con deseos de celebrar  perú colombia y chile se jugarán el martes a todo o nada  en junio contra el quinto clasificado de asia perú  perú más cerca  perú es el único que depende de sí mismo en caso de empate la blanquirroja deberá esperar no la tendrá sencilla ante paraguay  el delantero andré carrillo quien padece un esguince en la rodilla  ¿demasiado tarde?  colombia tiene menos opciones  el triunfo 30 ante la eliminada bolivia  los cafeteros apuestan todo a su nueva figura  si empata dependerá de una derrota de perú para ir a la repesca  con la soga al cuello  chile es el que está más complicado entre los tres si vence a la celeste deberá esperar  in gloria para la generación dorada  arropados en la bombonera y el maracaná  las selecciones de brasil 42 puntos y argentina 38 vienen de marcar territorio  ambos astros fueron arropados  messi igual que su compañero del psg ángel di maría transformó en idilio su fría relación con el público argentino  la torcida brasileña dejó en claro en el maracaná su sentimiento incondicional con neymar stán en dificultades para afrontar a toda orquesta la última jornada eliminatoria el líder brasil deberá trepar a la altura de la paz 3600 msnm la albiceleste viaja a guayaquil donde le espera un ecuador con deseos de celebrar    para lograr el derecho a jugar el repechaje a catar la única vía disponible en sudamérica tras distribuirse entre brasil argentina ecuador y uruguay los cuatro cupos directos al mundial 2022  antes de imaginar el partido único de repesca  quinto 21 puntos colombia sexto 20 puntos y chile séptimo 19 puntos deben enfocarse en una muy complicada última fecha del premundial hacer cuentas y encomendarse  y el que tiene más opciones con un triunfo a paraguay el martes en lima estará en la repesca la vía por la que clasificó a rusia2018 de la mano de su actual entrenador el argentino ricardo gareca tras 36 años sin acudir a una cita máxima  a que colombia 20 no le gane a domicilio a venezuela y chile 19 no haga lo propio ante uruguay en santiago la selección inca amiga de las hazañas  que pese a estar eliminada le ganó con autoridad por 31 la fecha pasada a ecuador aunque el equipo de gustavo alfaro de todos modos logró la clasificación  la baja de una de las principales figuras de perú   izquierda es otro escollo que pondrá a prueba la mística del equipo del tigre gareca con un ojo en lima  y puede quedar mascullando bronca por acordarse tarde de asumir una actitud más ofensiva en el premundial  el jueves en la anteúltima fecha terminó con una increíble racha de siete encuentros sin triunfos y sin anotar el delantero luis díaz el jugador del liverpool abrió el camino para un contundente 30 a bolivia el jueves enterrando el maleficio goleador del equipo de reinaldo rueda de mínima colombia está obligada a mantener la senda ganadora el martes contra la débil venezuela porque   aspirantes al repechaje séptima con 19 puntos le debe ganar sí o sí a uruguay que llega a santiago envalentonado por su clasificación en la fecha pasada  pero aún  una serie de combinaciones favorables para no padecer una segunda eliminación mundialista consecutiva y además podría significar una despedida s  liderada por arturo vidal y alexis sánchez que le dio a chile sus dos únicos títulos en la historia las copas américa de 2015 y 2016 clasificadas hace varias fechas  en la anteúltima jornada ante chile 40 y venezuela 30 con despedidas a toda orquesta de sus ídolos neymar y lionel messi como nunca en rio de janeiro y buenos aires luego de los abucheos que sufrieron en parís debido a la eliminación del psg en la liga de campeones  autores del tercero y segundo gol argentinos recibieron una impresionante ovación en la bombonera al concluir el partido tal vez el último del ídolo jugando con la albiceleste en su país el capitán de 34 años  sobre todo tras haber logrado la copa américa en 2021 en brasil luego de 28 años de sequía albiceleste a su vez   que se divirtió e hizo divertir a sus compañeros en una nueva exhibición de la seleçao contra chile 40 pero las dos potencias sudamericanas que tienen un partido pendiente entre ellos en el premundial e  para visitar a la eliminada bolivia siempre una amenaza en su territorio en tanto  por todo lo alto ante su gente la clasificación a catar  para lograr el derecho a jugar el repechaje a catar la única vía disponible en sudamérica tras distribuirse entre brasil argentina ecuador y uruguay los cuatro cupos directos al mundial 2022  antes de imaginar el partido único de repesca  quinto 21 puntos colombia sexto 20 puntos y chile séptimo 19 puntos deben enfocarse en una muy complicada última fecha del premundial hacer cuentas y encomendarse  y el que tiene más opciones con un triunfo a paraguay el martes en lima estará en la repesca la vía por la que clasificó a rusia2018 de la mano de su actual entrenador el argentino ricardo gareca tras 36 años sin acudir a una cita máxima  a que colombia 20 no le gane a domicilio a venezuela y chile 19 no haga lo propio ante uruguay en santiago la selección inca amiga de las hazañas  que pese a estar eliminada le ganó con autoridad por 31 la fecha pasada a ecuador aunque el equipo de gustavo alfaro de todos modos logró la clasificación  la baja de una de las principales figuras de perú   izquierda es otro escollo que pondrá a prueba la mística del equipo del tigre gareca con un ojo en lima  y puede quedar mascullando bronca por acordarse tarde de asumir una actitud más ofensiva en el premundial  el jueves en la anteúltima fecha terminó con una increíble racha de siete encuentros sin triunfos y sin anotar el delantero luis díaz el jugador del liverpool abrió el camino para un contundente 30 a bolivia el jueves enterrando el maleficio goleador del equipo de reinaldo rueda de mínima colombia está obligada a mantener la senda ganadora el martes contra la débil venezuela porque   aspirantes al repechaje séptima con 19 puntos le debe ganar sí o sí a uruguay que llega a santiago envalentonado por su clasificación en la fecha pasada  pero aún  una serie de combinaciones favorables para no padecer una segunda eliminación mundialista consecutiva y además podría significar una despedida s  liderada por arturo vidal y alexis sánchez que le dio a chile sus dos únicos títulos en la historia las copas américa de 2015 y 2016 clasificadas hace varias fechas  en la anteúltima jornada ante chile 40 y venezuela 30 con despedidas a toda orquesta de sus ídolos neymar y lionel messi como nunca en rio de janeiro y buenos aires luego de los abucheos que sufrieron en parís debido a la eliminación del psg en la liga de campeones  autores del tercero y segundo gol argentinos recibieron una impresionante ovación en la bombonera al concluir el partido tal vez el último del ídolo jugando con la albiceleste en su país el capitán de 34 años  sobre todo tras haber logrado la copa américa en 2021 en brasil luego de 28 años de sequía albiceleste a su vez   que se divirtió e hizo divertir a sus compañeros en una nueva exhibición de la seleçao contra chile 40 pero las dos potencias sudamericanas que tienen un partido pendiente entre ellos en el premundial e  para visitar a la eliminada bolivia siempre una amenaza en su territorio en tanto  por todo lo alto ante su gente la clasificación a catar</t>
+          <t xml:space="preserve">con sandra bullock y channing tatum en los papeles estelares la ciudad perdida ganó un estimado de 31 millones de dólares entre viernes y domingo  confirmando la vuelta del público femenino a las salas y la recuperación continua de hollywood después de la pandemia de covid19 la ciudad perdida han sido mujeres según hollywood reporter romance que complace al público comedia y aventura ya ha funcionado y está funcionando nuevamente la película de superhéroes batman de warner bros que lideraba las taquillas el fin de semana pasado se ubicó segunda  una animación oscura sobre un estudiante convertido en hechicero que lucha contra un espíritu maldito confirmando la vuelta del público femenino a las salas y la recuperación continua de hollywood después de la pandemia de covid19 la ciudad perdida han sido mujeres según hollywood reporter romance que complace al público comedia y aventura ya ha funcionado y está funcionando nuevamente la película de superhéroes batman de warner bros que lideraba las taquillas el fin de semana pasado se ubicó segunda  una animación oscura sobre un estudiante convertido en hechicero que lucha contra un espíritu maldito </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/futbol/peru-colombia-y-chile-se-juegan-a-todo-o-nada-por-el-repechaje-a-catar_272462</t>
+          <t>https://eldeber.com.bo/tendencias/la-ciudad-perdida-encabeza-las-taquillas-en-america-del-norte-el-fin-de-semana-de-los-oscar_272386</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0460625464050cf8236e5b0558a56117</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>70</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>fe13837ac1c9028f4f247a936765b3ff</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>8690</v>
+        <v>91</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>1161</v>
       </c>
       <c r="I30" t="n">
-        <v>855</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>('chile', 14)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>109</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>('perú', 13)</t>
+          <t>('público', 4)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>('colombia', 10)</t>
+          <t>('hollywood', 4)</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>('ciudad', 3)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>recuperan segunda caja negra de accidente aéreo en china</t>
+          <t>kylie jenner anuncia el cambio de nombre de su pequeño hijo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">la segunda caja negra del avión de pasajeros que se accidentó esta semana en china con 132 personas a bordo fue recuperada el domingo y podría ayudar a despejar el misterio de la vertiginosa caída de la aeronave   se accidentó en una colina boscosa de wuzhou sur tras una caída vertiginosa de varios kilómetros en pocos minutos cilindro naranja  el peor accidente aéreo desde 1994 en china donde la segur  declaró el domingo liu xiaodong director del departamento de comunicación de china eastern citado por xinhua  los trabajadores intentan recuperar los restos humanos y trozos del avión para continuar la investigación el avión perdió en un minuto 21250 pies de altura 6477 metros tras una breve recuperación cayó de nuevo 4625 pies 1410 metros  se accidentó en una colina boscosa de wuzhou sur tras una caída vertiginosa de varios kilómetros en pocos minutos cilindro naranja  el peor accidente aéreo desde 1994 en china donde la segur  declaró el domingo liu xiaodong director del departamento de comunicación de china eastern citado por xinhua  los trabajadores intentan recuperar los restos humanos y trozos del avión para continuar la investigación el avión perdió en un minuto 21250 pies de altura 6477 metros tras una breve recuperación cayó de nuevo 4625 pies 1410 metros </t>
+          <t xml:space="preserve">la hermana menor de las kardashian afirma que el nombre del pequeño no iba con su personalidad  la hermana más pequeña de las kardashian anunció un cambio de nombre para su hijo para vuestra información el nombre de nuestro hijo ya no es wolf lo cierto es que no sentíamos que encajara con él lo comparto simplemente porque sigo viendo w  por todas partes la hermana más pequeña de las kardashian anunció un cambio de nombre para su hijo para vuestra información el nombre de nuestro hijo ya no es wolf lo cierto es que no sentíamos que encajara con él lo comparto simplemente porque sigo viendo w  por todas partes </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/mundo/recuperan-segunda-caja-negra-de-accidente-aereo-en-china_272391</t>
+          <t>https://eldeber.com.bo/sociales/kylie-jenner-anuncia-el-cambio-de-nombre-de-su-pequeno-hijo_272236</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>26/3/2022</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>014cdd0138ac12dc6996a846a2f8209b</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>a382c6a67fc016e2704758be2ad1e2e1</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>59</v>
+      </c>
+      <c r="H31" t="n">
+        <v>616</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
         <v>56</v>
       </c>
-      <c r="G31" t="n">
-        <v>1283</v>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-      <c r="I31" t="n">
-        <v>134</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>('avión', 5)</t>
-        </is>
-      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>('china', 5)</t>
+          <t>('nombre', 5)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>('pies', 4)</t>
+          <t>('hijo', 4)</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>('hermana', 3)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bolsonaro advierte de lucha entre el bien contra el mal en elecciones de brasil</t>
+          <t>desayuno en 5 minutos</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nuestro enemigo no es externo es interno no es una lucha de izquierda contra derecha es una lucha del bien contra el mal y vamos a vencer dijo el mandatario ultraderechista en el encuentro nacional desarrollado en brasilia por el partido liberal   por el partido liberal pl en referencia a su posible rival en las elecciones de octubre el expresidente luiz inácio lula da silva a veces me revuelve el estómago tener que jugar dentro de las cuatro líneas de la carta magna pero juré y no de la boca para afuera respetar la constitución la vigilancia sobre el proceso electoral llegó incluso al festival lollapalooza que cierra este domingo en sao paulo por el partido liberal pl en referencia a su posible rival en las elecciones de octubre el expresidente luiz inácio lula da silva a veces me revuelve el estómago tener que jugar dentro de las cuatro líneas de la carta magna pero juré y no de la boca para afuera respetar la constitución la vigilancia sobre el proceso electoral llegó incluso al festival lollapalooza que cierra este domingo en sao paulo </t>
+          <t xml:space="preserve">dos recetas perfectas para los que no disponen de mucho tiempo por las mañanas solo necesitarás un poco de avena leche o tu bebida vegetal favorita y algunas frutas para darle más sabor ¡apunta las indicaciones!   d esayunos y las recetas fáciles ¡apunta las indicaciones! puré de avena clásico ingredientes preparación puré de avena con chocolate ingredientes preparación ideas divertidas  d esayunos y las recetas fáciles ¡apunta las indicaciones! puré de avena clásico ingredientes preparación puré de avena con chocolate ingredientes preparación ideas divertidas  para los amantes de los  queremos compartirles estas dos recetas que además de riquísimas son extremadamente fáciles perfectas para los que no disponen de mucho tiempo por las mañanas solo necesitarás un poco de avena leche o tu bebida vegetal favorita y algunas frutas para darle más sabor  para los amantes de los  queremos compartirles estas dos recetas que además de riquísimas son extremadamente fáciles perfectas para los que no disponen de mucho tiempo por las mañanas solo necesitarás un poco de avena leche o tu bebida vegetal favorita y algunas frutas para darle más sabor </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/mundo/bolsonaro-advierte-de-lucha-entre-el-bien-contra-el-mal-en-elecciones-de-brasil_272393</t>
+          <t>https://eldeber.com.bo/edicion-impresa/desayuno-en-5-minutos_272341</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>d97cb41b7db02c95cf889bd047c4b329</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>79</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>25e7d8f9ef4e14a95c3ae121a3fff4f0</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>1056</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>1151</v>
       </c>
       <c r="I32" t="n">
-        <v>105</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>('partido', 3)</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>109</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>('liberal', 3)</t>
+          <t>('avena', 7)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>('lucha', 2)</t>
+          <t>('recetas', 5)</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>('fáciles', 4)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ven un presidente “atado” frente a protestas sociales</t>
+          <t>hay 38 detenidos 66 avionetas incautadas y 29 hangares precintados en aeródromo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">el comandante de la policía esperó una instrucción para poder habilitar las rutas interrumpidas por sectores sociales   el sector demandó garantías para transitar y condiciones en favor de la seguridad jurídica del país  manifestó luis fernando menacho secretario de desarrollo económico de la gobernación de santa cruz “al parecer tenemos un primer ministro y un presidente de gobierno donde el primer ministro dirige las políticas generales de gobernanza la administradora boliviana de carreteras abc llegó a reportar siete bloqueos por conflictos sociales datos escenario pérdidas siete bloqueos  el sector demandó garantías para transitar y condiciones en favor de la seguridad jurídica del país  manifestó luis fernando menacho secretario de desarrollo económico de la gobernación de santa cruz “al parecer tenemos un primer ministro y un presidente de gobierno donde el primer ministro dirige las políticas generales de gobernanza la administradora boliviana de carreteras abc llegó a reportar siete bloqueos por conflictos sociales datos escenario pérdidas siete bloqueos </t>
+          <t xml:space="preserve">policías anticorrupción y miembros del ministerio público allanaron el aeroparque la cruceña hubo fuego cruzado tres aprehendidos tienen antecedentes de narcotráfico la intervención responde a una indagación por denuncias contra policías antidrogas  un megaoperativo policial realizado ayer en aeroparque la cruceña ubicado en el municipio de cotoca dejó como saldo 38 personas aprehendidas 66 avionetas incautadas y 29 hangares precintados  al verse descubiertos quienes estaban en el lugar recibieron a los policías con disparos y estos respondieron de la misma forma hubo una requisa hangar por hangar hallaron sustancias químicas y fue recién entonces que llamaron a efectivos y fiscales antidrogas el ministro explicó que la operación está en el marco de una pesquisa anticorrupción por la liberación de 13 detenidos y la devolución de avionetas hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas sobre el operativo el ministro de gobierno dijo que algunas de estas naves estaban sin matrícula otras con la matrícula clonada como las aeronaves con el número cp2490  este informe es preliminar por lo que la resolución final se la dará a conocer cuando las demás unidades policiales concluyan el trabajo de campo que se encuentran realizando   familiares y abogados de algunos de los aprehendidos se acercaron a los predios de la felcn para conocer la situación legal de estas personas un megaoperativo policial realizado ayer en aeroparque la cruceña ubicado en el municipio de cotoca dejó como saldo 38 personas aprehendidas 66 avionetas incautadas y 29 hangares precintados  al verse descubiertos quienes estaban en el lugar recibieron a los policías con disparos y estos respondieron de la misma forma hubo una requisa hangar por hangar hallaron sustancias químicas y fue recién entonces que llamaron a efectivos y fiscales antidrogas el ministro explicó que la operación está en el marco de una pesquisa anticorrupción por la liberación de 13 detenidos y la devolución de avionetas hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas sobre el operativo el ministro de gobierno dijo que algunas de estas naves estaban sin matrícula otras con la matrícula clonada como las aeronaves con el número cp2490  este informe es preliminar por lo que la resolución final se la dará a conocer cuando las demás unidades policiales concluyan el trabajo de campo que se encuentran realizando   familiares y abogados de algunos de los aprehendidos se acercaron a los predios de la felcn para conocer la situación legal de estas personas </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/ven-un-presidente-atado-frente-a-protestas-sociales_272406</t>
+          <t>https://eldeber.com.bo/santa-cruz/hay-38-detenidos-66-avionetas-incautadas-y-29-hangares-precintados-en-aerodromo_272437</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4114e8617f46a17ea037f0d30f3cd970</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>53</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>67fb64b997c43c81fbc2497158339d6f</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>1079</v>
+        <v>79</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>2668</v>
       </c>
       <c r="I33" t="n">
-        <v>106</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>('primer', 4)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>238</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>('ministro', 4)</t>
+          <t>('policías', 4)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>('siete', 4)</t>
+          <t>('personas', 4)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>('avionetas', 4)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>en las trancas hay un tarifario para que el contrabando pase sin control</t>
+          <t>china confina shanghái ante el importante repunte de los casos de coronavirus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>un informe dice que están involucrados policías que son llamados los ‘tranqueros’ y que cobran para que camiones pasen sin control en challapata las mafias llegan a pagar bs 2500 por motorizado  el más alto es el puesto de challapata en oruro donde los contrabandistas pagan a policías 2500 bolivianos para que un camión pueda pasar  el deber accedió a un informe militar que revela el nexo entre contrabandistas y policías el pago más alto es el de challapata localidad que volvió a convertirse en el núcleo del contrabando  “cada camión cargado con mercadería de contrabando paga determinadas sumas de dinero  el documento también revela una red de policías que tienen contactos con clanes familiares  pagan por destinos un policía relata que a estos uniformados se los conoce como “tranqueros esos puestos son cotizados por los policías en oruro los “tranqueros” según el reporte militar en su mayoría son suboficiales y sargentos ya en 2019 se dio a conocer que un centenar de policías de oruro estaban implicados en una estructura ilegal que en el informe militar se identifican 19 puestos de control dominados por los “tranqueros”  varios pagos los clanes son dirigidos por los hijos de líderes denuncias contra mafias el más alto es el puesto de challapata en oruro donde los contrabandistas pagan a policías 2500 bolivianos para que un camión pueda pasar  el deber accedió a un informe militar que revela el nexo entre contrabandistas y policías el pago más alto es el de challapata localidad que volvió a convertirse en el núcleo del contrabando  “cada camión cargado con mercadería de contrabando paga determinadas sumas de dinero  el documento también revela una red de policías que tienen contactos con clanes familiares  pagan por destinos un policía relata que a estos uniformados se los conoce como “tranqueros esos puestos son cotizados por los policías en oruro los “tranqueros” según el reporte militar en su mayoría son suboficiales y sargentos ya en 2019 se dio a conocer que un centenar de policías de oruro estaban implicados en una estructura ilegal que en el informe militar se identifican 19 puestos de control dominados por los “tranqueros”  varios pagos los clanes son dirigidos por los hijos de líderes denuncias contra mafias  el mundo del contrabando tiene sus propias reglas sus equipos tecnológicos y hasta su propio tarifario en las trancas de control las mafias que en su mayoría son clanes familiares “acordaron” con uniformados una escala de precios para que puedan pasar su mercadería  hay 19 trancas en el departamento de oruro que tienen un precio para dejar pasar mercadería ilegal el mundo del contrabando tiene sus propias reglas sus equipos tecnológicos y hasta su propio tarifario en las trancas de control las mafias que en su mayoría son clanes familiares “acordaron” con uniformados una escala de precios para que puedan pasar su mercadería  hay 19 trancas en el departamento de oruro que tienen un precio para dejar pasar mercadería ilegal</t>
+          <t xml:space="preserve">la mayoría de los 25 millones de habitantes de shanghai ya se han sometido a las pruebas en las últimas semanas  shanghái divide la ciudad en dos y confina su parte este para frenar el repunte de la variante ómicron de coronavirus shanghái se ha divido en dos este y oeste a lo largo del rio huangpu donde se concentra el mayor número de infecciones los puentes y autovías que comunican las dos partes de la ciudad permanecerán cerrados shanghái se describe a menudo como la puerta de entrada al este de china por su acceso al mar de la china orienta el anuncio se produce cuando las escuelas y algunas residencias ya han sido cerradas durante los últimos días el hashtag ¿por qué china no puede levantar las medidas de seguridad sanitaria como los países extranjeros? shanghái divide la ciudad en dos y confina su parte este para frenar el repunte de la variante ómicron de coronavirus shanghái se ha divido en dos este y oeste a lo largo del rio huangpu donde se concentra el mayor número de infecciones los puentes y autovías que comunican las dos partes de la ciudad permanecerán cerrados shanghái se describe a menudo como la puerta de entrada al este de china por su acceso al mar de la china orienta el anuncio se produce cuando las escuelas y algunas residencias ya han sido cerradas durante los últimos días el hashtag ¿por qué china no puede levantar las medidas de seguridad sanitaria como los países extranjeros? </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/en-las-trancas-hay-un-tarifario-para-que-el-contrabando-pase-sin-control_272404</t>
+          <t>https://eldeber.com.bo/rfi/china-confina-shanghai-ante-el-importante-repunte-de-los-casos-de-coronavirus_272444</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9a019a848bd5e033d2bd4e41653591c7</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>72</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3ff9a7961dac010f99f655cac388f301</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>2987</v>
+        <v>77</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>1425</v>
       </c>
       <c r="I34" t="n">
-        <v>273</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>('policías', 11)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>125</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>('son', 9)</t>
+          <t>('shanghái', 6)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>('oruro', 8)</t>
+          <t>('china', 6)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>('ciudad', 4)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>balacera entre narcotraficantes deja 19 muertos en méxico</t>
+          <t>¿qué es la demencia vascular y en qué se diferencia del alzhéimer?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> al menos 19 personas murieron tras un tiroteo ocurrido la noche del domingo en michuacán en el centro del país de méxico la fiscalía general estatal fge indicó que la causa de los enfrentamientos fue la rivalidad que existen entre grupos de narcotraficantes rivales que habitan en el lugar la fiscalía de michoacán confirmó a los medios locales la muerte de 16 varones y tres mujeres así como la brutalidad del atentado que dejó un número indeterminado de heridos según las declaraciones de los vecinos del lugar el tiroteo comenzó a las 2230 horas cuando un grupo de civiles vestidos con trajes militares y equipados con armas largas irrumpió en el lugar y abrió fuego contra los asistentes a un palenque clandestino donde se realizan pelea de gallos la unidad de servicios periciales y escena del crimen uspec se desplazó al lugar donde se halló los 19 cadáveres todos ellos con disparos de armas de fuego asimismo la secretaría de seguridad de michoacán durante una entrevista con los medios mexicanos informó que hasta el lugar de la masacre se desplazaron soldados del ejército y la guardia nacional que participaron en una operación coordinada para localizar a los autores por su parte los vecinos del lugar difundieron videos de los sucesos en sus redes sociales que permitieron escuchar las decenas de balazos en el enfrentamiento el estado de michoacán y el vecino guanajuato son dos de los que más violencia registran en méxico debido a la guerra entre grupos rivales involucrados en el tráfico de drogas y otras actividades ilegales como el comercio de combustibles robado michoacán también es la mayor región productora de aguacates del mundo y las amenazas proferidas vía telefónica el pasado mes contra un inspector estadounidense en la zona provocaron que estados unidos suspendiera las exportaciones mexicanas de ese fruto durante más de una semana en ese estado un grupo armado asesinó entre diez a 17 personas durante un velorio en febrero según reportes de prensa en un ataque atribuido al enfrentamiento entre bandas rivales / svl</t>
+          <t xml:space="preserve">la demencia vascular es el segundo tipo más extendido de demencia después del alzhéimer y aunque muchos de sus síntomas pueden ser similares no tienen la misma causa ni progresión  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/balacera-entre-narcotraficantes-deja-19-muertos-en-mexico/</t>
+          <t>https://eldeber.com.bo/bbc/que-es-la-demencia-vascular-y-en-que-se-diferencia-del-alzheimer_272442</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>79066b965afab380c55765c23bedd249</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>57</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2a82cd08cd07816b0138d6c1eb5e05dc</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>2051</v>
+        <v>66</v>
       </c>
       <c r="H35" t="n">
+        <v>181</v>
+      </c>
+      <c r="I35" t="n">
         <v>6</v>
       </c>
-      <c r="I35" t="n">
-        <v>184</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>('lugar', 6)</t>
-        </is>
+      <c r="J35" t="n">
+        <v>17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>('michoacán', 4)</t>
+          <t>('demencia', 2)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>('rivales', 3)</t>
+          <t>('vascular', 1)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>('segundo', 1)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>en afganistán prohíben a las mujeres viajar solas en avión</t>
+          <t>aprehenden en la quiaca a sujeto que tenía en su poder a una adolescente reportada como desaparecida</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> los talibanes ordenaron a las aerolíneas en afganistán que impidan a las mujeres tomar vuelos a menos que estén acompañadas por un varón de su familia la determinación fue adoptada desde el jueves anterior sin embargo esta información se hizo de conocimiento público en recientes horas esta es una nueva restricción a las libertades de las afganas vulneradas en los siete meses que lleva el grupo islamista en el gobierno desde su regreso al poder el 15 de agosto los talibanes impusieron numerosas restricciones a las libertades de las mujeres a menudo aplicadas localmente según las autoridades regionales del ministerio para la promoción de la virtud y la prevención del vicio asimismo desde el movimiento islamista radical se prometió que ejercería una versión más tolerante del rígido código de comportamiento que su gobierno impuso cuando estuvo en el poder entre 1996 y 2001 según reporte de la agencia afp pero desde agosto devastaron dos décadas de avances en los derechos de las mujeres afganas dejándolas fuera de la mayoría de los puestos públicos y vetándolas de la educación secundaria además se les exige que vistan de acuerdo con una estricta interpretación del corán estas nuevas medidas contra los desplazamientos se suscitaron después que la semana anterior los talibanes cerraran las escuelas secundarias para mujeres horas después que se permitiera su reapertura por primera vez desde su llegada al poder dos funcionarios de las aerolíneas ariana afghan y kam air manifestaron el domingo por la noche que los talibanes les ordenaron no permitir que las mujeres viajaran solas sin un acompañante varón miembro de su familia mediante una carta enviada por un alto cargo de ariana afghan al personal de la aerolínea tras la reunión con los talibanes se confirmó que las nuevas instrucciones se aplican a todos los vuelos «ninguna mujer puede viajar en un vuelo local o internacional sin un familiar que sea hombre» indica el documento los talibanes ya prohibieron a las mujeres realizar viajes solas por carretera entre ciudades si el trayecto excedía los 72 kilómetros sin embargo hasta ahora sí podían viajar en avión todavía no está claro si esta directiva también se aplica a las mujeres extranjeras los medios locales informaron que una mujer afgana con un pasaporte estadounidense fue impedida de abordar un avión la semana precedente esta semana las asociaciones de defensa de los derechos de las mujeres en afganistán tienen previsto manifestarse si no se abren las escuelas /mdcb</t>
+          <t>en conferencia de prensa el director de la fuerza especial de lucha contra el crimen de oruro coronel yerco rejas informó sobre la aprehensión de gabriel alejandro puente gutiérrez que mantenía una relación con una menor de edad de 16 años  en la quiaca ciudad argentina en la frontera con bolivia donde fue hallado en compañía de lmmr y migraciones de bolivia logramos dar con el paradero de gabriel puente y la menor de edad él es mayor de edad y mantenía una relación sentimental con la adolescente desaparecida en la quiaca ciudad argentina en la frontera con bolivia donde fue hallado en compañía de lmmr y migraciones de bolivia logramos dar con el paradero de gabriel puente y la menor de edad él es mayor de edad y mantenía una relación sentimental con la adolescente desaparecida  la fiscalía especializada en violencia sexual trata de personas y justicia penal juvenil de oruro había emitido este sábado la orden de aprehensión y notificación roja internacional en contra de gabriel alejandro puente gutiérrez acusado por el delito de trata de personas ante el temor de que hubiera salido del país   quien había salido de su domicilio para encontrarse con él al promediar las 2300 horas del pasado 18 de marzo la fiscalía especializada en violencia sexual trata de personas y justicia penal juvenil de oruro había emitido este sábado la orden de aprehensión y notificación roja internacional en contra de gabriel alejandro puente gutiérrez acusado por el delito de trata de personas ante el temor de que hubiera salido del país   quien había salido de su domicilio para encontrarse con él al promediar las 2300 horas del pasado 18 de marzo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/en-afganistan-prohiben-a-las-mujeres-viajar-solas-en-avion/</t>
+          <t>https://eldeber.com.bo/pais/aprehenden-en-la-quiaca-a-sujeto-que-tenia-en-su-poder-a-una-adolescente-reportada-como-desaparecida_272398</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7fa2f7cd36fcbb81b74c4afea5234476</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>58</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>211bf342d78aae92dacc1c8f16339e0b</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>2507</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>1649</v>
       </c>
       <c r="I36" t="n">
-        <v>217</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>('mujeres', 8)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>163</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>('talibanes', 6)</t>
+          <t>('gabriel', 5)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>('desde', 5)</t>
+          <t>('puente', 5)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>('edad', 5)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>áñez enfrenta hasta 10 años de cárcel en juicio ordinario que comienza este lunes</t>
+          <t>comida reconfortante</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la exmandataria jeanine áñez podría recibir hasta 10 años de cárcel en caso de que el tribunal 1º de sentencia anticorrupción de la paz la encuentra culpable en el juicio que comienza la presente jornada no obstante el abogado macelo valdez de la parte acusadora manifestó a la televisora atb que se pedirán 20 años de cárcel para la expresidente la fiscalía general del estado acusó a áñez de asumir la presidencia de forma “inconstitucional” además de no cumplir las layes durante su periodo de gobierno que comenzó en noviembre de 2019 en el caso denominado “golpe de estado ii” áñez fue acusada por resoluciones contrarias a la constitución política del estado y las leyes e incumplimiento de deberes “la servidora o el servidor público o autoridad que dictare resoluciones u órdenes contrarias a la constitución o a las leyes o ejecutare o hiciere ejecutar dichas resoluciones u órdenes será sancionado con la privación de libertad de cinco 5 a diez 10 años” establece el artículo 153 del código penal este proceso contra la exmandataria en el que también incluyeron al exalto mando de las fuerzas armadas y el estado mayor de la policía de su gestión fue catalogado la jornada precedente como histórico por el ministro de justicia iván lima la autoridad indicó que el proceso no debería extenderse sin embargo advirtió que lo más probable es que la defensa legal de áñez presente una serie de impedimentos y chicanas legales para aplazar el tiempo debido del proceso en este caso están implicados el excomandante en jefe de las fuerzas armadas williams kaliman el exjefe del estado mayor flavio gustavo arce el excomandante del ejército pastor mendieta el excomandante de la fuerza aérea boliviana gonzalo terceros y el excomandante de la armada palmiro jarjury según informó la agencia boliviana de información no obstante tanto terceros como jarjuri aceptaron su culpa por la comisión de los delitos de resoluciones contrarias a la constitución y a las leyes e incumplimiento de deberes en grado de complicidad ambos fueron sentenciados en juicio abreviado a tres años de cárcel en los penales de patacamaya la paz y palmasola santa cruz respectivamente jeanine áñez está en prisión desde el 13 de marzo de 2021 al momento de ser aprehendida se vio a la exmandataria con equipaje preparado y un pasaporte por lo que se presumió que su intención era salir del país bajo ese argumento se le dio detención preventiva / lmpt</t>
+          <t xml:space="preserve">existen platos que tanto al cocinarlos como al probarlos son capaces de proporcionarnos emociones y una sensación de bienestar te compartimos algunas de sus recetas  ese tipo de comida que nos reconforta tanto el cuerpo como el espíritu  yo cocino  pasta con tomate ingredientes preparación coliflor gratinada ingredientes preparación escondidinho ingredientes para las papas preparación ese tipo de comida que nos reconforta tanto el cuerpo como el espíritu  yo cocino  pasta con tomate ingredientes preparación coliflor gratinada ingredientes preparación escondidinho ingredientes para las papas preparación  ﻿ °c  °c  ﻿ °c  °c </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/anez-enfrenta-hasta-10-anos-de-carcel-en-juicio-ordinario-que-comienza-este-lunes/</t>
+          <t>https://eldeber.com.bo/edicion-impresa/comida-reconfortante_272339</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5f433bd956c3c9c54246b8ee2b173345</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>81</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8e666cb68e51fbf36b9360bdd222d215</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>2429</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>630</v>
       </c>
       <c r="I37" t="n">
-        <v>224</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>('áñez', 5)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>60</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>('estado', 5)</t>
+          <t>('ingredientes', 6)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>('resoluciones', 4)</t>
+          <t>('preparación', 6)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>('°c', 4)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">en desaguadero amplían horario de atención a transportistas tras ocho días de bloqueo </t>
+          <t>mexicanísimo comida que tienes que probar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hasta el mediodía del sábado se atendió el ingreso de 463 camiones a territorio boliviano con mercancía de importación  luego de ocho días de bloqueo las autoridades de la aduana de bolivia y de perú decidieron ampliar el horario de atención a operadores de transporte este acuerdo se logró gracias a gestiones de la presidenta ejecutiva de la aduana nacional de bolivia anb karina serrudo  el centro binacional de atención en frontera cebaf de perú que atenderán hasta las 0200 en hora peruana y 0300 en hora boliviana hasta el mediodía del sábado 26 de marzo se atendió el ingreso de 463 camiones a territorio boliviano con mercancía de importación estas arduas labores de logística gestionadas por la aduana nacional están resultando un éxito la medida de extensión de horarios será evaluada este domingo de acuerdo a la cantidad de motorizados  luego de ocho días de bloqueo las autoridades de la aduana de bolivia y de perú decidieron ampliar el horario de atención a operadores de transporte este acuerdo se logró gracias a gestiones de la presidenta ejecutiva de la aduana nacional de bolivia anb karina serrudo  el centro binacional de atención en frontera cebaf de perú que atenderán hasta las 0200 en hora peruana y 0300 en hora boliviana hasta el mediodía del sábado 26 de marzo se atendió el ingreso de 463 camiones a territorio boliviano con mercancía de importación estas arduas labores de logística gestionadas por la aduana nacional están resultando un éxito la medida de extensión de horarios será evaluada este domingo de acuerdo a la cantidad de motorizados    internacional en desaguadero hasta las 0300 de la madrugada con la finalidad de facilitar la importación y exportación de mercancías por esa ruta señala un reporte de la agencia abi  internacional en desaguadero hasta las 0300 de la madrugada con la finalidad de facilitar la importación y exportación de mercancías por esa ruta señala un reporte de la agencia abi</t>
+          <t xml:space="preserve">lo bueno nunca pasa de moda por eso te compartimos dos recetas muy famosas de la cocina mexicana  quesadilla de pollo ingredientes condimentos preparación quesadilla de carne ingredientes condimentos preparación tip quesadilla de pollo ingredientes condimentos preparación quesadilla de carne ingredientes condimentos preparación tip </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/economia/en-desaguadero-amplian-horario-de-atencion-a-transportistas-tras-ocho-dias-de-bloqueo_272347</t>
+          <t>https://eldeber.com.bo/edicion-impresa/mexicanisimo-comida-que-tienes-que-probar_272338</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>a314e32a0c29f73c1f5133702f16204e</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>86</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5ea6edae32353fc76c7dda0036a077e4</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>1944</v>
+        <v>41</v>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>334</v>
       </c>
       <c r="I38" t="n">
-        <v>176</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>('aduana', 6)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>34</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>('importación', 5)</t>
+          <t>('quesadilla', 4)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>('bolivia', 4)</t>
+          <t>('ingredientes', 4)</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>('condimentos', 4)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>la fascinante historia de alice ball la científica estadounidense que desarrolló el primer tratamiento efectivo contra la lepra</t>
+          <t>leche de tigre una curiosa coincidencia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        la científica logró un método exitoso para aliviar los síntomas de la lepra —más tarde conocido como el método ball— que se usó en miles de personas infectadas durante más de 30 años        </t>
+          <t xml:space="preserve">lo cierto es que la leche de tigre ni es solo leche aunque sí la lleva ni es de tigre es más la receta y los ingredientes en ella pueden variar mucho de país a país hoy te presentamos el caso de perú y bolivia  leche de tigre boliviana ingredientes preparación nota leche de tigre peruana ingredientes preparación nota leche de tigre boliviana ingredientes preparación nota leche de tigre peruana ingredientes preparación nota </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/la-fascinante-historia-de-alice-ball-la-cientifica-estadounidense-que-desarrollo-el-primer-tratamien_272344</t>
+          <t>https://eldeber.com.bo/edicion-impresa/leche-de-tigre-una-curiosa-coincidencia_272337</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6806b402bdd44541ec15a9479eeaa333</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>127</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8990d8deb767e51a96b665521d246fff</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="I39" t="n">
-        <v>19</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>('método', 2)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>('científica', 1)</t>
+          <t>('leche', 6)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>('logró', 1)</t>
+          <t>('tigre', 6)</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>('ingredientes', 5)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>aprehenden en la quiaca a sujeto que tenía en su poder a una adolescente reportada como desaparecida</t>
+          <t>eeuu goleó 51 a la ya eliminada panamá y acaricia el billete a catar 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>en conferencia de prensa el director de la fuerza especial de lucha contra el crimen de oruro coronel yerco rejas informó sobre la aprehensión de gabriel alejandro puente gutiérrez que mantenía una relación con una menor de edad de 16 años  en la quiaca ciudad argentina en la frontera con bolivia donde fue hallado en compañía de lmmr y migraciones de bolivia logramos dar con el paradero de gabriel puente y la menor de edad él es mayor de edad y mantenía una relación sentimental con la adolescente desaparecida en la quiaca ciudad argentina en la frontera con bolivia donde fue hallado en compañía de lmmr y migraciones de bolivia logramos dar con el paradero de gabriel puente y la menor de edad él es mayor de edad y mantenía una relación sentimental con la adolescente desaparecida  la fiscalía especializada en violencia sexual trata de personas y justicia penal juvenil de oruro había emitido este sábado la orden de aprehensión y notificación roja internacional en contra de gabriel alejandro puente gutiérrez acusado por el delito de trata de personas ante el temor de que hubiera salido del país   quien había salido de su domicilio para encontrarse con él al promediar las 2300 horas del pasado 18 de marzo la fiscalía especializada en violencia sexual trata de personas y justicia penal juvenil de oruro había emitido este sábado la orden de aprehensión y notificación roja internacional en contra de gabriel alejandro puente gutiérrez acusado por el delito de trata de personas ante el temor de que hubiera salido del país   quien había salido de su domicilio para encontrarse con él al promediar las 2300 horas del pasado 18 de marzo</t>
+          <t>con un triplete de su estrella christian pulisic el equipo estadounidense se impuso a la selección de rolando blackburn y dio un paso de gigante hacia el mundial   estados unidos goleó este domingo 51 a panamá  pulisic delantero del chelsea  estados unidos se mantiene en el segundo lugar  en una noche en la que necesitábamos conseguir una victoria contundente lo hicimos solo tiene que evitar una catastrófica goleada  el primero en clasificar mientras méxico ostenta el tercer billete  costa rica con 22 unidades ocupa la cuarta plaza panamá por su parte se queda en el quinto puesto con 18 unidades  un abatido thomas christiansen yo ya he demostrado que quiero quedarme  triplete de pulisic  disfrutó el domingo de su mejor noche de las eliminatorias  pulisic que convirtió un penal  se elevó por encima de los centrales panameños  el joven punta jesús ferreira nacido en colombia puso el 30  panamá se fue al descanso totalmente noqueada pulisic completó su hat trick  p ulisic fue sustituido en el minuto 71  aníbal godoy logró el gol de consolación para panamá  estados unidos goleó este domingo 51 a panamá  pulisic delantero del chelsea  estados unidos se mantiene en el segundo lugar  en una noche en la que necesitábamos conseguir una victoria contundente lo hicimos solo tiene que evitar una catastrófica goleada  el primero en clasificar mientras méxico ostenta el tercer billete  costa rica con 22 unidades ocupa la cuarta plaza panamá por su parte se queda en el quinto puesto con 18 unidades  un abatido thomas christiansen yo ya he demostrado que quiero quedarme  triplete de pulisic  disfrutó el domingo de su mejor noche de las eliminatorias  pulisic que convirtió un penal  se elevó por encima de los centrales panameños  el joven punta jesús ferreira nacido en colombia puso el 30  panamá se fue al descanso totalmente noqueada pulisic completó su hat trick  p ulisic fue sustituido en el minuto 71  aníbal godoy logró el gol de consolación para panamá   con un triplete de su estrella christian pulisic  y dio un paso de gigante hacia el mundial de catar2022 mientras la selección centroamericana se quedó fuera de la pelea por los boletos  convirtió dos goles de penal en los minutos 17 y 45 y otro en el 65 mientras paul arriola en el 23 y jesús ferreira en el 27 anotaron también para estados unidos mientras aníbal godoy descontó para panamá en el 86  con esta goleada ante su afición en orlando florida de las eliminatorias de la concacaf con 25 puntos y tiene casi en su mano uno de los tres boletos directos de la concacaf  se felicitó el seleccionador gregg berhalter panamá estaba luchando por su vida y los chicos hicieron un gran trabajo el equipo norteamericano   perder por al menos 6 goles en la última jornada ante costa rica en san josé para celebrar el pase el líder canadá 28 puntos gran sorpresa de las eliminatorias fue este domingo con 25 puntos   que da derecho a un repechaje ante un equipo de oceanía y ya no tiene opciones ni siquiera de alcanzar el cupo del repechaje frustrando el sueño de clasificar a su segundo mundial después del de rusia2018  seleccionador panameño reconoció que la eliminación ha hecho mucho daño y tardarán en reponerse de ella pero expresó su voluntad de seguir al mando del equipo  así se lo he hecho saber a la federación incluso a mis agentes que no recibieran ofertas de nadie porque mi primera opción es panamá vamos a ver cómo va más no puedo decir afirmó el ex jugador hispanodanés todavía traumado por el fracaso de la clasificación a rusia2018 estados unidos  ante una versión muy floja de panamá el juego se le puso de cara al equipo local con la primera diana de  cometido por michael murillo con un manotazo en la cara sobre el central walker zimmerman poco después fue paul arriola quien con su 170 m de estatura  para peinar la pelota a la escuadra sin tiempo para la reacción panameña  al alcanzar un rechace en el área rival y remachar a placer  con el cuarto gol estadounidense anotado de nuevo por pulisic tras otro penal por manotazo de godoy a miles robinson esta vez con una espectacular diana en la que compensó un mal control en el área con un caño a andrés andrade y un remate cruzado inalcanzable para luis mejía después de sostener varios enfrentamientos con jugadores panameños y ver una tarjeta amarilla  entre una gran ovación del público del explora stadium en medio del festejo estadounidense  al cabecear un centro de falta desde la derecha de eric davis con un triplete de su estrella christian pulisic  y dio un paso de gigante hacia el mundial de catar2022 mientras la selección centroamericana se quedó fuera de la pelea por los boletos  convirtió dos goles de penal en los minutos 17 y 45 y otro en el 65 mientras paul arriola en el 23 y jesús ferreira en el 27 anotaron también para estados unidos mientras aníbal godoy descontó para panamá en el 86  con esta goleada ante su afición en orlando florida de las eliminatorias de la concacaf con 25 puntos y tiene casi en su mano uno de los tres boletos directos de la concacaf  se felicitó el seleccionador gregg berhalter panamá estaba luchando por su vida y los chicos hicieron un gran trabajo el equipo norteamericano   perder por al menos 6 goles en la última jornada ante costa rica en san josé para celebrar el pase el líder canadá 28 puntos gran sorpresa de las eliminatorias fue este domingo con 25 puntos   que da derecho a un repechaje ante un equipo de oceanía y ya no tiene opciones ni siquiera de alcanzar el cupo del repechaje frustrando el sueño de clasificar a su segundo mundial después del de rusia2018  seleccionador panameño reconoció que la eliminación ha hecho mucho daño y tardarán en reponerse de ella pero expresó su voluntad de seguir al mando del equipo  así se lo he hecho saber a la federación incluso a mis agentes que no recibieran ofertas de nadie porque mi primera opción es panamá vamos a ver cómo va más no puedo decir afirmó el ex jugador hispanodanés todavía traumado por el fracaso de la clasificación a rusia2018 estados unidos  ante una versión muy floja de panamá el juego se le puso de cara al equipo local con la primera diana de  cometido por michael murillo con un manotazo en la cara sobre el central walker zimmerman poco después fue paul arriola quien con su 170 m de estatura  para peinar la pelota a la escuadra sin tiempo para la reacción panameña  al alcanzar un rechace en el área rival y remachar a placer  con el cuarto gol estadounidense anotado de nuevo por pulisic tras otro penal por manotazo de godoy a miles robinson esta vez con una espectacular diana en la que compensó un mal control en el área con un caño a andrés andrade y un remate cruzado inalcanzable para luis mejía después de sostener varios enfrentamientos con jugadores panameños y ver una tarjeta amarilla  entre una gran ovación del público del explora stadium en medio del festejo estadounidense  al cabecear un centro de falta desde la derecha de eric davis</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/aprehenden-en-la-quiaca-a-sujeto-que-tenia-en-su-poder-a-una-adolescente-reportada-como-desaparecida_272398</t>
+          <t>https://eldeber.com.bo/futbol/eeuu-goleo-5-1-a-la-ya-eliminada-panama-y-acaricia-el-billete-a-catar-2022_272450</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>211bf342d78aae92dacc1c8f16339e0b</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>100</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>24b09b117cfa11dac7efc8d9ade20255</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>1649</v>
+        <v>73</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>6946</v>
       </c>
       <c r="I40" t="n">
-        <v>163</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>('gabriel', 5)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>685</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>('puente', 5)</t>
+          <t>('panamá', 16)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>('edad', 5)</t>
+          <t>('pulisic', 13)</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>('equipo', 9)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>estos son los nominados al óscar en las principales categorías</t>
+          <t>sebastián yatra 4 cosas que quizás no sabías de la estrella colombiana del pop que también ha conquistado hollywood</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hoy desde las 2000 vuelve la gala más esperada del cine en bolivia se verá a través de tnt  óscar 2000 3 categorías   duna belfast   regina hall amy schumer y wanda sykes samuel l jackson hasta zoë kravitz principales categorías de la 94ª edición  *mejor actor *mejor actriz *mejor película internacional  *mejor documental  *películas con seis o más nominaciones óscar 2000 3 categorías   duna belfast   regina hall amy schumer y wanda sykes samuel l jackson hasta zoë kravitz principales categorías de la 94ª edición  *mejor actor *mejor actriz *mejor película internacional  *mejor documental  *películas con seis o más nominaciones  las actrices  conducirán la gala de los óscar después de tres años sin presentador y los premios serán entregados por estrellas de todos los tiempos desde   nominados en las  de los premios de la academia que serán entregados esta noche en los ángeles las actrices  conducirán la gala de los óscar después de tres años sin presentador y los premios serán entregados por estrellas de todos los tiempos desde   nominados en las  de los premios de la academia que serán entregados esta noche en los ángeles</t>
+          <t xml:space="preserve">        el cantante que cuenta con casi 40 millones de seguidores en sus redes sociales dio voz a la canción dos oruguitas que fue compuesta por el boricua lin manuel mirando y está nominada al oscar        1 creció en miami 1 creció en miami </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/escenas/estos-son-los-nominados-al-oscar-en-las-principales-categorias_272348</t>
+          <t>https://eldeber.com.bo/tendencias/sebastian-yatra-4-cosas-que-quizas-no-sabias-de-la-estrella-colombiana-del-pop-que-tambien-ha-conqui_272030</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>24/3/2022</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>f18e4e973092c1a7e3c335f2dc8a5ddc</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>62</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1a9c5428a98e3e9053854f4751810a19</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>1140</v>
+        <v>115</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="I41" t="n">
-        <v>119</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>('*mejor', 8)</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>('óscar', 4)</t>
+          <t>('1', 2)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>('categorías', 4)</t>
+          <t>('creció', 2)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>('miami', 2)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kylie jenner anuncia el cambio de nombre de su pequeño hijo</t>
+          <t>normas falta de granos y bloqueos ahogan producción en tres regiones</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">la hermana menor de las kardashian afirma que el nombre del pequeño no iba con su personalidad  la hermana más pequeña de las kardashian anunció un cambio de nombre para su hijo para vuestra información el nombre de nuestro hijo ya no es wolf lo cierto es que no sentíamos que encajara con él lo comparto simplemente porque sigo viendo w  por todas partes la hermana más pequeña de las kardashian anunció un cambio de nombre para su hijo para vuestra información el nombre de nuestro hijo ya no es wolf lo cierto es que no sentíamos que encajara con él lo comparto simplemente porque sigo viendo w  por todas partes </t>
+          <t xml:space="preserve">limitación de maíz condiciona carga animal en granjas avícolas de mairana y las brechas en santa cruz arroceros de beni registran pérdidas millonarias cañeros se reúnen con gobierno sin conseguir resultados  además condicionan la cosecha de arroz y soya en zonas productivas de santa cruz beni y cochabamba  ocasiona que el pollo y el huevo se acumulen en las granjas y luego se tenga que bajar el precio para poder venderlos instó al gobierno a importar maíz alertando que si no acelera este proceso más adelante el país puede sufrir una ruptura en la provisión porque perjuicios en el agro según el presidente de la asociación de productores agrícolas de beni adepab david pérez un promedio de 200 camiones cargados de arroz  se reunió con los ministros de desarrollo productivo y de desarrollo rural y tierras néstor huanca y remmy gonzales además condicionan la cosecha de arroz y soya en zonas productivas de santa cruz beni y cochabamba  ocasiona que el pollo y el huevo se acumulen en las granjas y luego se tenga que bajar el precio para poder venderlos instó al gobierno a importar maíz alertando que si no acelera este proceso más adelante el país puede sufrir una ruptura en la provisión porque perjuicios en el agro según el presidente de la asociación de productores agrícolas de beni adepab david pérez un promedio de 200 camiones cargados de arroz  se reunió con los ministros de desarrollo productivo y de desarrollo rural y tierras néstor huanca y remmy gonzales </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/sociales/kylie-jenner-anuncia-el-cambio-de-nombre-de-su-pequeno-hijo_272236</t>
+          <t>https://eldeber.com.bo/economia/normas-falta-de-granos-y-bloqueos-ahogan-produccion-en-tres-regiones_272410</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>a382c6a67fc016e2704758be2ad1e2e1</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>59</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>56e82b044ed56c6d2c4bb51cdbc757de</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>616</v>
+        <v>68</v>
       </c>
       <c r="H42" t="n">
+        <v>1480</v>
+      </c>
+      <c r="I42" t="n">
         <v>7</v>
       </c>
-      <c r="I42" t="n">
-        <v>56</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>('nombre', 5)</t>
-        </is>
+      <c r="J42" t="n">
+        <v>143</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>('hijo', 4)</t>
+          <t>('beni', 5)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>('hermana', 3)</t>
+          <t>('arroz', 4)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>('desarrollo', 4)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gabriela martins comparte conmovedor video de su hermano marcelo y su padre</t>
+          <t>tres bellezas del ‘plan’ que luchan por sus sueños</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">cuando presumo a mi hermano es para compartir con todos ustedes lo grandioso que es él escribió junto a un video en el que el futbolista cuida a su padre enfermo   marcelo martins  mauro martins de salud espero de corazón que me puedan ayudar a orar y a tener mucha fe necesita con urgencia un trasplante de hígado  conmovedor momento de su hermano futbolista y su padre acaricia besa y abraza cuando presumo a mi hermano que por cierto lo hago con mucho orgullo es para compartir con todos ustedes lo grandioso que es él marcelo martins  mauro martins de salud espero de corazón que me puedan ayudar a orar y a tener mucha fe necesita con urgencia un trasplante de hígado  conmovedor momento de su hermano futbolista y su padre acaricia besa y abraza cuando presumo a mi hermano que por cierto lo hago con mucho orgullo es para compartir con todos ustedes lo grandioso que es él </t>
+          <t xml:space="preserve">la historia de karina landívar leidy bonilla y tamara prinson apenas empieza tras ganar el miss andrés ibáñez    plan tres mil ciudadela karina landívar leidy camila bonilla y tamara prinson reinas de belleza de 2022 estudian comunicación social  tamara   cantante miss andrés ibáñez  luz karina landívar  tomar riesgos vecinos  humildes amables y trabajadores srta andrés ibáñez leidy camila bonilla 18 años gente trabajadora buena y solidaria miss distrito cantante y compositora tamy prinson oficial  disponible en youtube el ‘plan’  plan tres mil ciudadela karina landívar leidy camila bonilla y tamara prinson reinas de belleza de 2022 estudian comunicación social  tamara   cantante miss andrés ibáñez  luz karina landívar  tomar riesgos vecinos  humildes amables y trabajadores srta andrés ibáñez leidy camila bonilla 18 años gente trabajadora buena y solidaria miss distrito cantante y compositora tamy prinson oficial  disponible en youtube el ‘plan’  a pesar de que se desempeña como modelo jamás imaginó  ganar un concurso de belleza la corona de miss distrito recayó en  sheila tamara prinson de 21 años  dentro del concurso también obtuvo el título de  miss silueta  a pesar de que se desempeña como modelo jamás imaginó  ganar un concurso de belleza la corona de miss distrito recayó en  sheila tamara prinson de 21 años  dentro del concurso también obtuvo el título de  miss silueta </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/sociales/gabriela-martins-comparte-conmovedor-video-de-su-hermano-marcelo-y-su-padre_272345</t>
+          <t>https://eldeber.com.bo/sociales/tres-bellezas-del-plan-que-luchan-por-sus-suenos_272166</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>25/3/2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>03adaf99fc93fcd2ec5813dbbd3f6719</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>75</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>140e86344d1d167c43ab7b8ec63c3f78</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>880</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>1398</v>
       </c>
       <c r="I43" t="n">
-        <v>92</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>('hermano', 5)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>157</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>('martins', 4)</t>
+          <t>('miss', 9)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>('cuando', 3)</t>
+          <t>('karina', 5)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>('landívar', 5)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ana lucía y alberto tienen una boda de revista</t>
+          <t>vitali klitschko el ex boxeador convertido en alcalde de kiev</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">después de una década de noviazgo ana lucía gutiérrez y alberto sottocorno se unieron en matrimonio en una noche encantadora  ana lucía gutiérrez alberto sottocorno enamorar por 10 años encantadora museo de historia y la religiosa en la iglesia la macarena  180 invitados  ana lucía gutiérrez alberto sottocorno enamorar por 10 años encantadora museo de historia y la religiosa en la iglesia la macarena  180 invitados  </t>
+          <t xml:space="preserve">desde el inicio del conflicto el alcalde de kiev ha multiplicado los mensajes en las redes sociales para animar a los ucranianos a resistir  cambió los guantes de boxeo por las armas para defender su ciudad el alcalde de kiev vitali klitschko vitali klitschko mira el teléfono que sostiene a distancia mientras se dirige al pueblo de kiev desde el inicio del conflicto el alcalde de kiev ha multiplicado los mensajes en las redes sociales para animar a los ucranianos a resistir una barbilla de acero” antes de entrar en política vitali klitschko era uno de los boxeadores más dotados de su generación con su hermano wladimir ganó todos los títulos e impuso su ley en los cuadriláteros en la década de 2000 uno de los líderes de maidán la carrera política de vitali klitschko despegaría realmente con el maidán alcaldes en primera línea después de maidán vitali klitschko se planteó ser candidato a la presidencia hoy a los 51 años vitali klitschko al igual que su hermano se ha incorporado a las tropas de reserva del ejército ucraniano cambió los guantes de boxeo por las armas para defender su ciudad el alcalde de kiev vitali klitschko vitali klitschko mira el teléfono que sostiene a distancia mientras se dirige al pueblo de kiev desde el inicio del conflicto el alcalde de kiev ha multiplicado los mensajes en las redes sociales para animar a los ucranianos a resistir una barbilla de acero” antes de entrar en política vitali klitschko era uno de los boxeadores más dotados de su generación con su hermano wladimir ganó todos los títulos e impuso su ley en los cuadriláteros en la década de 2000 uno de los líderes de maidán la carrera política de vitali klitschko despegaría realmente con el maidán alcaldes en primera línea después de maidán vitali klitschko se planteó ser candidato a la presidencia hoy a los 51 años vitali klitschko al igual que su hermano se ha incorporado a las tropas de reserva del ejército ucraniano </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/sociales/ana-lucia-y-alberto-tienen-una-boda-de-revista_272278</t>
+          <t>https://eldeber.com.bo/rfi/vitali-klitschko-el-ex-boxeador-convertido-en-alcalde-de-kiev_272448</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3b22c1dbea93f58e9309159adbad5499</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>46</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>de30ee421ee1873ca112e0a774bd99b2</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>420</v>
+        <v>61</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>1935</v>
       </c>
       <c r="I44" t="n">
-        <v>44</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>('ana', 3)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>180</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>('lucía', 3)</t>
+          <t>('vitali', 12)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>('gutiérrez', 3)</t>
+          <t>('klitschko', 12)</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>('kiev', 7)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>la magnífica interpretación de munasquechay por la guitarra de piraí vaca</t>
+          <t>liliana colanzi “la ciencia ficción permite que me proyecte como escritora”</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el guitarrista cruceño grabó la canción de los kjarkas desde el taller de lorgio vaca próximamente presentará una trilogía camba   piraí vaca repertorio exquisito  munasquechay que significa mi buen amor mágicamente  guitarra  videoclip ya está disponible en youtube elmer y gonzalo hermosa  la rueda  trilogía camba el guajojó jumechi y lamento yuqui  piraí vaca repertorio exquisito  munasquechay que significa mi buen amor mágicamente  guitarra  videoclip ya está disponible en youtube elmer y gonzalo hermosa  la rueda  trilogía camba el guajojó jumechi y lamento yuqui  y el orgullo boliviano tenía que estar en él  ​ y el orgullo boliviano tenía que estar en él  ​</t>
+          <t>la escritora boliviana ganó el premio ribera del duero con ustedes brillan en lo oscuro obra que reúne seis relatos en los que busca las grietas en lo cotidiano a través del fantástico el horror y la ciencia ficción   liliana colanzi con el que resultó la ganadora del vii premio ribera del duero rosa montero marta sanz y cristian crusat  el jurado de este premio anteriormente fue obtenido por nombres consagrado ustedes brillan en lo oscuro  quedó entre los cinco finalista  los seres humanos tenemos vidas muy breves pero el tiempo del planeta es enorme extenso y fascinante   hay un relato ambientado en una colonia que mantiene tradiciones  se refieren a las consecuencias de los deshechos radiactivos en los que colanzi deja marcada su preocupación sobre el tema “estos cuentos los comencé a escribir en 2017 el paisaje para mi es más que un trasfondo para poner personaje  e s como esas miniaturas de las que salen muchos elementos a veces contradictorios  no todos los cuentos del libro son especulativos colanzi admite que hay cuestiones que se repiten en su obra “nuestro mundo muerto se escribió a partir de una vena realista mi primer libro eran historias de jovencitos perdidos  liliana colanzi con el que resultó la ganadora del vii premio ribera del duero rosa montero marta sanz y cristian crusat  el jurado de este premio anteriormente fue obtenido por nombres consagrado ustedes brillan en lo oscuro  quedó entre los cinco finalista  los seres humanos tenemos vidas muy breves pero el tiempo del planeta es enorme extenso y fascinante   hay un relato ambientado en una colonia que mantiene tradiciones  se refieren a las consecuencias de los deshechos radiactivos en los que colanzi deja marcada su preocupación sobre el tema “estos cuentos los comencé a escribir en 2017 el paisaje para mi es más que un trasfondo para poner personaje  e s como esas miniaturas de las que salen muchos elementos a veces contradictorios  no todos los cuentos del libro son especulativos colanzi admite que hay cuestiones que se repiten en su obra “nuestro mundo muerto se escribió a partir de una vena realista mi primer libro eran historias de jovencitos perdidos  los restos de un accidente nuclear un viaje por la amazonia boliviana devastada por la extracción del caucho una cueva en oaxaca méxico que refleja la inmensidad del tiempo por sobre la vida  ustedes brillan en lo oscuro libro de la boliviana  de relatos dotado con 25000 euros aproximadamente 27000 dólares es una obra “de gran originalidad y potencia expresiva que construye mundos extraños aunando las claves de ciencia ficción y realismo para llevar a cabo una crítica que nos sitúa ante el desconsuelo y la inquietud de la vida” de acuerdo con   convocado por  la editorial española páginas de espuma  se trata de uno de los galardones literarios más prestigiosos de las letras en español que  s como  guadalupe nettel samanta schweblin y marcos giralt torrente   en esta ocasión  ustedes brillan en lo oscuro está conformado por  seis cuentos unidos en torno a un interés de la autora por abordar el tiempo desde diferentes aspectos por ejemplo “hay un cuento situado en una cueva a lo largo de lo largo de los siglos porque me interesaba entender el tiempo a una escala humana entonces  e imaginar cómo sería el planeta en el futuro” menciona colanzi  por otro lado y rechaza el progreso y cualquier influencia externa en especial aquella que tenga que ver con los avances tecnológicos  hay dos cuentos que   especialmente en el accidente radiológico de goiania brasil en 1987 en el que dos recolectores de chatarra ingresaron en un hospital abandonado desmantelaron equipos médicos para tratar el cáncer y vendieron esta chatarra provocando involuntariamente una contaminación con cesio un material alcalino que tuvo consecuencias terribles a la población   algunos los tenía listos pero con la pandemia los volví a leer y los reescribí casi por completo todos están situados en américa latina y aunque en algunos casos no nombro lugares específicos son bastantes reconocibles como el amazonas boliviano o oaxaca méxico mi imaginación ha estado rondando estos lugares de latinoamérica especialmente de bolivia   el paisaje es un elemento activo que tiene una historia muchas veces olvidada que me interesa reactivar” explica la autora  colanzi defiende la capacidad que tiene el cuento como género de crear mundos con historias complejas en pocas páginas “el cuento  me lleva a lugares sin salida  pero que crean un todo la forma breve es un espacio en el que puedes juntar elementos disímiles y hacerlos dialogar” asegura  aclara que  ciencia ficción horror o fantástico sino que también está la cuestión de lo extraño y lo onírico como elementos que distorsionan lo real  al echar una mirada al camino recorrido en estos últimos 12 años desde vacaciones permanentes 2010 y nuestro mundo muerto 2016 hasta ustedes brillan en lo oscuro   a pesar de que los modos narrativos que utiliza hoy son diferentes  mientras que gran parte de los cuentos que escribo ahora exploran la ciencia ficción el horror y el fantástico sin embargo veo que hay cosas que estaban presentes en vacaciones permanentes que me siguen convocando hasta el día de hoy   y muchos de los personajes de mis cuentos actuales son también adolescentes me interesa mucho esta etapa de la vida que es tan intensa y está llena de descubrimientos” concluye los restos de un accidente nuclear un viaje por la amazonia boliviana devastada por la extracción del caucho una cueva en oaxaca méxico que refleja la inmensidad del tiempo por sobre la vida  ustedes brillan en lo oscuro libro de la boliviana  de relatos dotado con 25000 euros aproximadamente 27000 dólares es una obra “de gran originalidad y potencia expresiva que construye mundos extraños aunando las claves de ciencia ficción y realismo para llevar a cabo una crítica que nos sitúa ante el desconsuelo y la inquietud de la vida” de acuerdo con   convocado por  la editorial española páginas de espuma  se trata de uno de los galardones literarios más prestigiosos de las letras en español que  s como  guadalupe nettel samanta schweblin y marcos giralt torrente   en esta ocasión  ustedes brillan en lo oscuro está conformado por  seis cuentos unidos en torno a un interés de la autora por abordar el tiempo desde diferentes aspectos por ejemplo “hay un cuento situado en una cueva a lo largo de lo largo de los siglos porque me interesaba entender el tiempo a una escala humana entonces  e imaginar cómo sería el planeta en el futuro” menciona colanzi  por otro lado y rechaza el progreso y cualquier influencia externa en especial aquella que tenga que ver con los avances tecnológicos  hay dos cuentos que   especialmente en el accidente radiológico de goiania brasil en 1987 en el que dos recolectores de chatarra ingresaron en un hospital abandonado desmantelaron equipos médicos para tratar el cáncer y vendieron esta chatarra provocando involuntariamente una contaminación con cesio un material alcalino que tuvo consecuencias terribles a la población   algunos los tenía listos pero con la pandemia los volví a leer y los reescribí casi por completo todos están situados en américa latina y aunque en algunos casos no nombro lugares específicos son bastantes reconocibles como el amazonas boliviano o oaxaca méxico mi imaginación ha estado rondando estos lugares de latinoamérica especialmente de bolivia   el paisaje es un elemento activo que tiene una historia muchas veces olvidada que me interesa reactivar” explica la autora  colanzi defiende la capacidad que tiene el cuento como género de crear mundos con historias complejas en pocas páginas “el cuento  me lleva a lugares sin salida  pero que crean un todo la forma breve es un espacio en el que puedes juntar elementos disímiles y hacerlos dialogar” asegura  aclara que  ciencia ficción horror o fantástico sino que también está la cuestión de lo extraño y lo onírico como elementos que distorsionan lo real  al echar una mirada al camino recorrido en estos últimos 12 años desde vacaciones permanentes 2010 y nuestro mundo muerto 2016 hasta ustedes brillan en lo oscuro   a pesar de que los modos narrativos que utiliza hoy son diferentes  mientras que gran parte de los cuentos que escribo ahora exploran la ciencia ficción el horror y el fantástico sin embargo veo que hay cosas que estaban presentes en vacaciones permanentes que me siguen convocando hasta el día de hoy   y muchos de los personajes de mis cuentos actuales son también adolescentes me interesa mucho esta etapa de la vida que es tan intensa y está llena de descubrimientos” concluye</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/escenas/la-magnifica-interpretacion-de-munasquechay-por-la-guitarra-de-pirai-vaca_272355</t>
+          <t>https://eldeber.com.bo/tendencias/liliana-colanzi-la-ciencia-ficcion-permite-que-me-proyecte-como-escritora_272121</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>25/3/2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>d37b6c9e2ee7e81ff67502585c9b3a27</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>73</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ad97eddb0f4f3dd1cf4f575e0ed823a0</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>671</v>
+        <v>75</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>8621</v>
       </c>
       <c r="I45" t="n">
-        <v>73</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>('vaca', 3)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>795</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>('trilogía', 3)</t>
+          <t>('cuentos', 12)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>('camba', 3)</t>
+          <t>('colanzi', 10)</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>('ustedes', 9)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>la ciudad perdida encabeza las taquillas en américa del norte el fin de semana de los oscar</t>
+          <t>los contagios de covid19 en bolivia se reducen en un 31%</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">con sandra bullock y channing tatum en los papeles estelares la ciudad perdida ganó un estimado de 31 millones de dólares entre viernes y domingo  confirmando la vuelta del público femenino a las salas y la recuperación continua de hollywood después de la pandemia de covid19 la ciudad perdida han sido mujeres según hollywood reporter romance que complace al público comedia y aventura ya ha funcionado y está funcionando nuevamente la película de superhéroes batman de warner bros que lideraba las taquillas el fin de semana pasado se ubicó segunda  una animación oscura sobre un estudiante convertido en hechicero que lucha contra un espíritu maldito confirmando la vuelta del público femenino a las salas y la recuperación continua de hollywood después de la pandemia de covid19 la ciudad perdida han sido mujeres según hollywood reporter romance que complace al público comedia y aventura ya ha funcionado y está funcionando nuevamente la película de superhéroes batman de warner bros que lideraba las taquillas el fin de semana pasado se ubicó segunda  una animación oscura sobre un estudiante convertido en hechicero que lucha contra un espíritu maldito </t>
+          <t xml:space="preserve"> el gobierno de bolivia registró en la doceava semana epidemiológica una reducción del 31 por ciento con 1595 casos de covid19 lo cual hace un total de 901292 casos en todo este tiempo desde el inicio de la pandemia sólo los departamentos de la paz y potosí registraron incremento de contagios en la reciente semana la letalidad en cuanto a casos de coronavirus se mantiene en el rango del 07 por ciento durante una conferencia de prensa el ministro de salud jeyson auza informó que siete departamentos registraron una disminución de casos oruro 30% santa cruz 7% beni 13% pando 78% cochabamba 29% chuquisaca 29% y tarija 37% asimismo en la sede de gobierno se registró 393 casos con un incremento del siete por ciento mientras que en potosí un 22% el titular de salud atribuyó el incremento de casos a la falta de aplicación de medidas de bioseguridad por lo cual recomendó continuar con los cuidados y los esquemas completos de vacunación “bolivia mantiene una letalidad de 07% en la cuarta ola una de las más bajas de la región” manifestó el ministro quien señaló que el plan nacional de vacunación superó los 13 millones de dosis aplicadas según auza con el esquema completo se inmunizó a 47 millones de personas con la unidosis a 994961 con dosis de refuerzo a 12 millones la cobertura llegó al 653% en primeras dosis y 534% en segundas respectivamente durante la reciente semana se reportaron cinco fallecidos en todo el país haciendo un total de 21487 personas que perdieron la vida a nivel nacional desde el inicio de la pandemia /mdcb</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/tendencias/la-ciudad-perdida-encabeza-las-taquillas-en-america-del-norte-el-fin-de-semana-de-los-oscar_272386</t>
+          <t>https://lapatria.bo/2022/03/28/los-contagios-de-covid-19-en-bolivia-se-reducen-en-un-31/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/28</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fe13837ac1c9028f4f247a936765b3ff</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>91</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5ec446c2ec1594c0c80bc9a3b0e6c1bb</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>1161</v>
+        <v>56</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>1543</v>
       </c>
       <c r="I46" t="n">
-        <v>111</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>('público', 4)</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>148</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>('hollywood', 4)</t>
+          <t>('semana', 3)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>('ciudad', 3)</t>
+          <t>('ciento', 3)</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>('incremento', 3)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>juliana barrientos la pianista boliviana que conquista las redes</t>
+          <t>balacera entre narcotraficantes deja 19 muertos en méxico</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">bella con 24 años alista una gira de conciertos fuera de nuestras fronteras en sus redes hoy también grita por la paz en ucrania la tierra de su familia  juliana barrientos gaidrikh ama la música clásica teclas de un piano pianista cochabambina   azul y amarillo ucrania la tierra de su familia materna abuela la música  guía de su madre natalia gaidrikh ex unión soviética habla español inglés ruso y ucraniano juan pablo manzanero hijo del ‘rey del bolero’ gira de conciertos familia en ucrania jarkov  invadido por el ejército ruso ucrania merece paz ha sido un país que ha sufrido mucho en su historia no queda de nada de su ciudad se reúnen en el sector antibombas de lo que un día fue una estación de metro bombardean a quienes tratan de escapar hogar fijo para la pareja de ucranianos muchas personas se solidaricen con ellos juliana barrientos gaidrikh ama la música clásica teclas de un piano pianista cochabambina   azul y amarillo ucrania la tierra de su familia materna abuela la música  guía de su madre natalia gaidrikh ex unión soviética habla español inglés ruso y ucraniano juan pablo manzanero hijo del ‘rey del bolero’ gira de conciertos familia en ucrania jarkov  invadido por el ejército ruso ucrania merece paz ha sido un país que ha sufrido mucho en su historia no queda de nada de su ciudad se reúnen en el sector antibombas de lo que un día fue una estación de metro bombardean a quienes tratan de escapar hogar fijo para la pareja de ucranianos muchas personas se solidaricen con ellos </t>
+          <t xml:space="preserve"> al menos 19 personas murieron tras un tiroteo ocurrido la noche del domingo en michuacán en el centro del país de méxico la fiscalía general estatal fge indicó que la causa de los enfrentamientos fue la rivalidad que existen entre grupos de narcotraficantes rivales que habitan en el lugar la fiscalía de michoacán confirmó a los medios locales la muerte de 16 varones y tres mujeres así como la brutalidad del atentado que dejó un número indeterminado de heridos según las declaraciones de los vecinos del lugar el tiroteo comenzó a las 2230 horas cuando un grupo de civiles vestidos con trajes militares y equipados con armas largas irrumpió en el lugar y abrió fuego contra los asistentes a un palenque clandestino donde se realizan pelea de gallos la unidad de servicios periciales y escena del crimen uspec se desplazó al lugar donde se halló los 19 cadáveres todos ellos con disparos de armas de fuego asimismo la secretaría de seguridad de michoacán durante una entrevista con los medios mexicanos informó que hasta el lugar de la masacre se desplazaron soldados del ejército y la guardia nacional que participaron en una operación coordinada para localizar a los autores por su parte los vecinos del lugar difundieron videos de los sucesos en sus redes sociales que permitieron escuchar las decenas de balazos en el enfrentamiento el estado de michoacán y el vecino guanajuato son dos de los que más violencia registran en méxico debido a la guerra entre grupos rivales involucrados en el tráfico de drogas y otras actividades ilegales como el comercio de combustibles robado michoacán también es la mayor región productora de aguacates del mundo y las amenazas proferidas vía telefónica el pasado mes contra un inspector estadounidense en la zona provocaron que estados unidos suspendiera las exportaciones mexicanas de ese fruto durante más de una semana en ese estado un grupo armado asesinó entre diez a 17 personas durante un velorio en febrero según reportes de prensa en un ataque atribuido al enfrentamiento entre bandas rivales / svl</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/sociales/juliana-barrientos-la-pianista-boliviana-que-conquista-las-redes_272275</t>
+          <t>https://lapatria.bo/2022/03/28/balacera-entre-narcotraficantes-deja-19-muertos-en-mexico/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>dc678397b42635e2009461fd778e46dc</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>64</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>79066b965afab380c55765c23bedd249</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>1512</v>
+        <v>57</v>
       </c>
       <c r="H47" t="n">
+        <v>2051</v>
+      </c>
+      <c r="I47" t="n">
         <v>6</v>
       </c>
-      <c r="I47" t="n">
-        <v>160</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>('ucrania', 7)</t>
-        </is>
+      <c r="J47" t="n">
+        <v>183</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>('familia', 5)</t>
+          <t>('lugar', 6)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>('música', 4)</t>
+          <t>('michoacán', 4)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>('rivales', 3)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>aprehendidos en megaoperativo de aeródromo la cruceña se encuentran en la felcn</t>
+          <t>evangélicos piden incluir pregunta sobre la religión que profesa cada boliviano en el censo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> se conoce que los aprehendidos están prestando declaraciones informativas y se espera que a las 1800 de este domingo el ministro de gobierno brinde un informe oficial desde el lugar  dependencias de la fuerza especial de lucha contra el narcotráfico felcn se espera que a las 1800 el ministro de gobierno eduardo del castillo brinde un informe oficial familiares y abogados de estas personas se hicieron presentes en las oficinas  fueron intervenidos cuatro hangares y requisadas 67 aeronaves  dependencias de la fuerza especial de lucha contra el narcotráfico felcn se espera que a las 1800 el ministro de gobierno eduardo del castillo brinde un informe oficial familiares y abogados de estas personas se hicieron presentes en las oficinas  fueron intervenidos cuatro hangares y requisadas 67 aeronaves   alrededor de 30 personas aprehendidas en el megaoperativo realizado por efectivos de la policía anticorrupción y autoridades de la fiscalía en el aeródromo la cruceña ubicado en el municipio de cotoca fueron llevadas a   en el 4to anillo y avenida paraguá al promediar las 1545 de este domingo se conoce que los aprehendidos están prestando declaraciones informativas y   desde el lugar el ministro junto al fiscal departamental róger mariaca participaron en esta acción  de la felcn a la espera de tener novedades sobre su aprehensión pues algunos de ellos serían guardias de seguridad cumpliendo su trabajo el operativo en el que se secuestraron armas se llevó a cabo durante la madrugada de este domingo cuando extraoficialmente se informó de que hubo un cruce de fuego con los detenidos tras el ingreso sorpresa de las fuerzas del orden alrededor de 30 personas aprehendidas en el megaoperativo realizado por efectivos de la policía anticorrupción y autoridades de la fiscalía en el aeródromo la cruceña ubicado en el municipio de cotoca fueron llevadas a   en el 4to anillo y avenida paraguá al promediar las 1545 de este domingo se conoce que los aprehendidos están prestando declaraciones informativas y   desde el lugar el ministro junto al fiscal departamental róger mariaca participaron en esta acción  de la felcn a la espera de tener novedades sobre su aprehensión pues algunos de ellos serían guardias de seguridad cumpliendo su trabajo el operativo en el que se secuestraron armas se llevó a cabo durante la madrugada de este domingo cuando extraoficialmente se informó de que hubo un cruce de fuego con los detenidos tras el ingreso sorpresa de las fuerzas del orden</t>
+          <t xml:space="preserve"> que incluya la consulta sobre religión que practica cada boliviano en el censo de población y vivienda previsto para el 16 de noviembre fue el pedido del consejo nacional cristiano de las iglesias evangélicas de bolivia que realizó este lunes al gobierno asimismo el presidente de dicho consejo luis aruquipa manifestó que con esta iniciativa de preguntar el dogma de fe que profesan los bolivianos se pretende conocer cuántas personas creen en jesucristo y así evitar que sean discriminadas en la toma de decisiones estatales “necesitamos saber cuántos católicos hay cuántos cristianos evangélicos hay con 90% más del 95% de judeocristianos en bolivia bolivia dejaría de ser un estado laico y nos convertiremos en un estado judeocristiano” declaró aruquipa de esa manera el pastor afirmó que en el censo de 2012 se omitió esa pregunta por la baja cantidad de personas que no practican un dogma de fe “no queremos ser discriminados no queremos que nos aparten de las decisiones” recalcó el líder evangélico finalmente explicó que en la actualidad se toman decisiones a nivel estatal y se emiten leyes que marginan y discriminan a su sector como ejemplo mencionó la ley municipal de la paz que obliga a portar carnet de vacunación anticovid /mdcb</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/aprehendidos-en-megaoperativo-de-aerodromo-la-crucena-se-encuentran-en-la-felcn_272390</t>
+          <t>https://lapatria.bo/2022/03/28/evangelicos-piden-incluir-pregunta-sobre-la-religion-que-profesa-cada-boliviano-en-el-censo/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/28</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>aee4443d869609d3f441e9658cd6ce73</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>79</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>51be14e36b1efd0e2bc368ff1487673f</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>2488</v>
+        <v>91</v>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>1246</v>
       </c>
       <c r="I48" t="n">
-        <v>224</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>('espera', 5)</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>114</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>('domingo', 5)</t>
+          <t>('bolivia', 3)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>('ministro', 5)</t>
+          <t>('censo', 2)</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>('consejo', 2)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hay 38 detenidos 66 avionetas incautadas y 29 hangares precintados en aeródromo</t>
+          <t>bolivia registra 184 casos positivos de covid19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">policías anticorrupción y miembros del ministerio público allanaron el aeroparque la cruceña hubo fuego cruzado tres aprehendidos tienen antecedentes de narcotráfico la intervención responde a una indagación por denuncias contra policías antidrogas  un megaoperativo policial realizado ayer en aeroparque la cruceña ubicado en el municipio de cotoca dejó como saldo 38 personas aprehendidas 66 avionetas incautadas y 29 hangares precintados  al verse descubiertos quienes estaban en el lugar recibieron a los policías con disparos y estos respondieron de la misma forma hubo una requisa hangar por hangar hallaron sustancias químicas y fue recién entonces que llamaron a efectivos y fiscales antidrogas el ministro explicó que la operación está en el marco de una pesquisa anticorrupción por la liberación de 13 detenidos y la devolución de avionetas hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas sobre el operativo el ministro de gobierno dijo que algunas de estas naves estaban sin matrícula otras con la matrícula clonada como las aeronaves con el número cp2490  este informe es preliminar por lo que la resolución final se la dará a conocer cuando las demás unidades policiales concluyan el trabajo de campo que se encuentran realizando   familiares y abogados de algunos de los aprehendidos se acercaron a los predios de la felcn para conocer la situación legal de estas personas un megaoperativo policial realizado ayer en aeroparque la cruceña ubicado en el municipio de cotoca dejó como saldo 38 personas aprehendidas 66 avionetas incautadas y 29 hangares precintados  al verse descubiertos quienes estaban en el lugar recibieron a los policías con disparos y estos respondieron de la misma forma hubo una requisa hangar por hangar hallaron sustancias químicas y fue recién entonces que llamaron a efectivos y fiscales antidrogas el ministro explicó que la operación está en el marco de una pesquisa anticorrupción por la liberación de 13 detenidos y la devolución de avionetas hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas sobre el operativo el ministro de gobierno dijo que algunas de estas naves estaban sin matrícula otras con la matrícula clonada como las aeronaves con el número cp2490  este informe es preliminar por lo que la resolución final se la dará a conocer cuando las demás unidades policiales concluyan el trabajo de campo que se encuentran realizando   familiares y abogados de algunos de los aprehendidos se acercaron a los predios de la felcn para conocer la situación legal de estas personas </t>
+          <t xml:space="preserve"> la desescalada de casos persiste en el país al igual que el incremento de pacientes recuperados con 1963 registrados la presente jornada además de no reportarse decesos por el virus en bolivia se registraron 184 casos positivos de coronavirus este sábado según los datos del ministerio de salud y deportes santa cruz 33 cochabamba 18 la paz 107 chuquisaca cinco tarija uno potosí 18 oruro dos beni ninguno y pando ninguno total el país registra hasta el momento un total de 901292 casos positivos de coronavirus de los cuales 829710 son pacientes recuperados el número de decesos asciende a 21487 y actualmente hay 50095 casos activos vacunados el reporte de vacunación diario del ministerio de salud detalla que hasta la fecha 6074507 personas recibieron la primera dosis de éstas 4784783 tienen la segunda y 1208408 la tercera además 994961 ciudadanos cuentan con la vacuna janssen de una sola dosis desde la cartera de salud y deportes anuncian que hasta el sábado se aplicaron 13062659 dosis de las vacunas sputnikv astrazeneca sinopharm pfizer y janssen en todo el territorio nacional</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/hay-38-detenidos-66-avionetas-incautadas-y-29-hangares-precintados-en-aerodromo_272437</t>
+          <t>https://lapatria.bo/2022/03/26/bolivia-registra-184-casos-positivos-de-covid-19/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/26</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>67fb64b997c43c81fbc2497158339d6f</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>79</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0577f82b653a440188bea2ca0351b10d</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>2668</v>
+        <v>47</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>1090</v>
       </c>
       <c r="I49" t="n">
-        <v>240</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>('policías', 4)</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>104</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>('personas', 4)</t>
+          <t>('salud', 3)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>('avionetas', 4)</t>
+          <t>('dosis', 3)</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>('país', 2)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>trabajadores de la siderúrgica mutún bloquean el ingreso a la planta y van al paro indefinido</t>
+          <t>aduana extiende horario de atención a operadores hasta las 0300 horas en desaguadero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la mejora salarial es la principal demanda los trabajadores piden una reunión con funcionarios de la empresa china sinosteel para llegar a un acuerdo de no ser escuchados la cor no descarta bloquear la frontera y la carretera hacia santa cruz  luego de más seis horas de reunión realizar un paro con bloqueo en solidaridad con los trabajadores  d eterminó un paro movilizado con bloqueo en la entrada de la planta siderúrgica mutún indefinido  gilbert córdova debido al incumplimiento de la empresa sinosteel del pliego petitorio presentado por los trabajadores que piden una mejora salarial  las bases determinaron haya un solo punto de bloqueo ubicado en la entrada de la siderúrgica y que la medida sea indefinida los bloqueos se van a extender a la frontera y a la carretera hacia santa cruz  hoy más de 40 trabajadores se encuentran bloqueando el ingreso a la siderúrgica luego de más seis horas de reunión realizar un paro con bloqueo en solidaridad con los trabajadores  d eterminó un paro movilizado con bloqueo en la entrada de la planta siderúrgica mutún indefinido  gilbert córdova debido al incumplimiento de la empresa sinosteel del pliego petitorio presentado por los trabajadores que piden una mejora salarial  las bases determinaron haya un solo punto de bloqueo ubicado en la entrada de la siderúrgica y que la medida sea indefinida los bloqueos se van a extender a la frontera y a la carretera hacia santa cruz  hoy más de 40 trabajadores se encuentran bloqueando el ingreso a la siderúrgica   ayer por la tarde la central obrera regional cor de puerto suárez determinó como lo adelantó el deber  que construyen la planta siderúrgica mutún santa cruz en su pronunciamiento la cor de la provincia germán busch  que se lleva desde la medianoche del lunes 28 de marzo  secretario ejecutivo de la cor de puerto suárez reiteró que la medida de presión se realiza  córdova explicó que a un principio la medida iba a ser por 48 horas con tres puntos de bloqueo pero que luego de la reunión  por el momento que  el dirigente alertó que de no lograr una reunión con funcionarios de sinosteel con capacidad de decisión  desde tempranas horas de  lo que ha frenado los trabajos que se estaban realizando con normalidad hasta el domingo 27 de marzo  ayer por la tarde la central obrera regional cor de puerto suárez determinó como lo adelantó el deber  que construyen la planta siderúrgica mutún santa cruz en su pronunciamiento la cor de la provincia germán busch  que se lleva desde la medianoche del lunes 28 de marzo  secretario ejecutivo de la cor de puerto suárez reiteró que la medida de presión se realiza  córdova explicó que a un principio la medida iba a ser por 48 horas con tres puntos de bloqueo pero que luego de la reunión  por el momento que  el dirigente alertó que de no lograr una reunión con funcionarios de sinosteel con capacidad de decisión  desde tempranas horas de  lo que ha frenado los trabajos que se estaban realizando con normalidad hasta el domingo 27 de marzo</t>
+          <t xml:space="preserve"> el horario de atención a operadores en el sector de desaguadero se extiende hasta las tres de la madrugada del domingo para facilitar la importación y exportación de mercancía en esta ruta y facilitar el flujo vehicular esta determinación se logró gracias a las gestiones realizadas por la presidente ejecutiva de la aduana nacional an karina serrudo miranda juntamente el superintendente nacional de aduanas de perú luis enrique vera castillo las entidades que decidieron sumarse a la ampliación de horario son el servicio nacional de sanidad agropecuaria e inocuidad alimentaria senasag la dirección general de migración la superintendencia nacional de aduanas y de administración tributaria sunat de perú y el centro binacional de atención en frontera cebaf de perú informaron desde la institución aduanera hasta el medio día de la presente jornada la an registró el ingreso de 463 camiones a territorio boliviano con mercancía de exportación en horas de la tarde el proceso de exportación se agilizó un total de 436 camiones de carga ingresaron con normalidad a perú durante las siguientes horas continuarán los turnos para el ingreso y la salida del transporte pesado en la ruta con la finalidad de evitar el congestionamiento y acelerar los procesos tanto de la aduana boliviana como la de su par peruana la an calificó como un éxito las labores logísticas gestionadas pues el descongestionamiento en la carretera desaguadero es evidente en tanto el tránsito de los motorizados de comercio exterior se restableció los resultados de la extensión de horario serán evaluados el domingo de acuerdo a la cantidad de motorizados que continúen a la espera de pasar la frontera entre bolivia y perú con base en ese dato se determinará sí es necesario ampliar la extensión de horario por más días el congestionamiento del flujo vehicular en ese sector se debió a un bloqueo instalado por los comunarios de la provincia ingavi quienes mantuvieron la medida de presión por ocho días continuos exigiendo la construcción de la carretera doble vía río secodesaguadero / lmpt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/economia/trabajadores-de-la-siderurgica-mutun-bloquean-el-ingreso-a-la-planta-y-van-al-paro-indefinido_272455</t>
+          <t>https://lapatria.bo/2022/03/26/aduana-extiende-horario-de-atencion-a-operadores-hasta-las-0300-horas-en-desaguadero/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/26</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9e39f5f9f1b4593b07f5311c2c222ca7</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>93</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>abb876b15918cd2a472317f5c1e903a1</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>2999</v>
+        <v>84</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>2067</v>
       </c>
       <c r="I50" t="n">
-        <v>276</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>('bloqueo', 8)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>182</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>('siderúrgica', 8)</t>
+          <t>('perú', 5)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>('trabajadores', 7)</t>
+          <t>('horario', 4)</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>('nacional', 4)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ucrania contabiliza 17000 soldados rusos muertos y heridos durante la guerra</t>
+          <t>ine adelanta que solo puede coordinar transporte e infraestructura para el censo con alcaldías y gobernaciones</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> al menos 17 mil son los soldados rusos muertos y heridos desde el comienzo de la invasión rusa de ucrania la información fue brindada desde el estado mayor de las fuerzas armadas ucranianas ente que contabilizó este lunes la mencionada cifra al comunicar el número de bajas totales no se precisó cuántos murieron entre el 24 de febrero y el 28 de marzo las tropas rusas perdieron además 586 tanques1694 vehículos blindados de combate 302 sistemas de artillería 95 sistemas de lanzamiento múltiple de cohetes mlrs y 54 sistemas de defensa antiaérea según el listado publicado en redes sociales y citado por la agencia ucraniana ukrinform además rusia perdió 123 aviones 127 helicópteros 1150 vehículos siete buques 73 camiones cisterna de combustible 66 vehículos aéreos no tripulados tácticos operativos 21 equipos especiales y cuatro lanzamisiles de esa manera en el comunicado señala que los datos se actualizan constantemente y que el cálculo se complica «por la alta intensidad de las hostilidades» el viernes anterior el estado mayor del ejército ruso cifró en 1351 los soldados rusos muertos y en 3825 los heridos desde el inicio de la denominada por moscú «operación militar especial» en moscú el ministerio de defensa ruso informó este lunes que en las recientes 24 horas la aviación y la defensa antiaérea derribaron otros cinco aviones de combate ucranianos y 19 drones «la aviación y la defensa antiaérea de la fuerza aeroespacial de rusia derribaron en el aire cuatro aviones de combate su24 de la fuerza aérea de ucrania en la provincia de chernígov … un caza su27 ucraniano fue derribado cerca de la ciudad de kramatorsk en donetsk» indicó el portavoz de la institución ígor konashenkov durante una comparecencia ante la prensa además añadió que fueron destruidos en un día 19 aviones no tripulados así como cinco proyectiles disparados de un lanzacohetes múltiple en la provincia de jerson en el sur de ucrania según reporte de la agencia de noticias rusa sputnik /mdcb</t>
+          <t xml:space="preserve"> desde el instituto nacional de estadísticas ine aseguraron que no pueden transferir a gobernaciones y alcaldías tareas que son exclusivas de la institución con relación al censo de población y vivienda 2022 lo único que pueden delegar es infraestructura física y transporte “el ine no puede transferir el levantamiento procesamiento y publicación de los datos del censo a ninguna entidad subnacional la coordinación con las entidades territoriales autónomas para el censo será para que apoyen con infraestructura física y de transporte y promoviendo el censo en función a los lineamientos que el ine defina” dijeron funcionarios del ine según informó la agencia de noticias fides de acuerdo con la entidad que prepara el relevamiento de la información la constitución política del estado cpe establece que los censos oficiales son una competencia privativa del nivel central la ley 1405 de estadísticas oficiales del estado plurinacional indica que “esa competencia privativa la realiza a través del ine que tiene entre sus funciones fundamentales levantar procesar y publicar con carácter de exclusividad los censos oficiales de población y vivienda del país” para la elaboración del censo de población y vivienda 2022 previsto para el 16 de noviembre todos los municipios capitales incluyendo el alto pretendieron participar aportando información técnica mapas cartográficos y otros datos con la intención de “transparentar” el proceso la semana pasada el director ejecutivo de la asociación de municipalidades de bolivia amb alfonso lema declaró “urge que se lleve el censo de manera transparente con información cartográfica actualizada y en lo posible generar la participación de los gobiernos municipales en lo que será la boleta censal porque estamos en proceso de planificación e información” el alcalde de la paz iván arias es otro de los partidarios de que los subgobiernos participen en el proceso previo al empadronamiento el domingo declaró “si no hay concertación si no hay confiablidad en los datos del censo 2022 y si se hace sin consulta va a ser un motivo más de confrontación entre los bolivianos” mientras tanto el ine trabaja en la socialización del censo de población y vivienda además de la actualización cartográfica estadística datos que se requieren para determinar cuántas viviendas existen en áreas amanzanadas y en las áreas dispersas en todo el territorio nacional para posteriormente determinar el número de agentes censales y jefes jurisdiccionales necesarios / lmpt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/ucrania-contabiliza-17-000-soldados-rusos-muertos-y-heridos-durante-la-guerra/</t>
+          <t>https://lapatria.bo/2022/03/28/ine-adelanta-que-solo-puede-coordinar-transporte-e-infraestructura-para-el-censo-con-alcaldias-y-gobernaciones/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>6e12bef7cd6fc333acade34abc6fe36e</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>76</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6957bccd7d208adbf3d82c1e6e07d3f0</t>
+        </is>
       </c>
       <c r="G51" t="n">
-        <v>1985</v>
+        <v>110</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>2499</v>
       </c>
       <c r="I51" t="n">
-        <v>197</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>('defensa', 4)</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="J51" t="n">
+        <v>212</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>('aviones', 4)</t>
+          <t>('censo', 8)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>('desde', 3)</t>
+          <t>('ine', 6)</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>('población', 4)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>la paz envían a la cárcel a militar acusado de ayudar a escapar a su hijo presunto feminicida de vania</t>
+          <t>santa cruz falta de espacio para neonatos en terapia intensiva de maternidad es crítica hay bebés en sillones</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el teniente coronel del ejército iván li padre del presunto feminicida de vania t b fue enviado a la cárcel de san pedro de la ciudad de la paz con detención preventiva mientras duran las investigaciones del caso el plazo de la detención preventiva es de cinco meses mientras se realiza la investigación informó el coronel jhonny vega director de la fuerza especial de lucha contra la violencia felcv “el militar está acusado de autoría mediata en el caso puesto que habría ayudado a la fuga de su hijo” indicó el coronel vega el caso de feminicidio de vania fue registrado el 18 de febrero según la investigación el presunto autor vladimir iv hijo del militar detenido habría dicho que la víctima falleció por ingerir una sustancia tóxica pero se evidenció que fue estrangulada el pasado viernes el militar fue aprehendido y se realizó un allanamiento en su domicilio en la cual se secuestraron dos celulares informó el coronel vega la policía continúa en la búsqueda del prófugo vladimir iv /hnf/</t>
+          <t xml:space="preserve"> el servicio de terapia intensiva para neonatos de la maternidad percy boland en santa cruz está saturado el espacio es tan insuficiente que hasta tres recién nacidos deben compartir una servocuna el director del hospital mario herbas manifestó su preocupación por la situación que consideró como una emergencia pues pueden desatarse brotes de infecciones en los bebés lo que representaría una responsabilidad médicolegal para todo su equipo desde la gobernación de ese departamento informaron que 17 recién nacidos ya fueron trasladados a otros centros médicos de segundo nivel sin embargo esta medida es solo paliativa pues a criterio de herbas lo que se necesita es un nuevo hospital materno infantil reportó el diario el deber la jornada precedente el secretario de salud fernando pacheco solicitó al ministerio de salud la firma de un convenio que permita a los centros médicos privados dar atenciones del sistema único de salud sus especialmente a los bebés que requieren terapia intensiva los médicos que trabajan en la maternidad percy boland lamentaron que los recién nacidos deban compartir las servocunas pues no cuentan con el espacio ni los recursos necesarios para brindarles la atención que requieren un bebé que entra a terapia intensiva neonatal es prematuro requiere un tratamiento cuidadoso sin embargo debe compartir el espacio con al menos otros dos pacientes que un recién nacido comparta la cervocuna es potencialmente peligroso pues otra de las razones por las que los bebés requieren cuidados intensivos son las defensas bajas lo que los vuelve mucho más propensos a contraer cualquier infección los pacientes que salen de terapia intensiva y necesitan cuidados intermedios tampoco tienen un espacio al cual llegar es por eso que el hospital tubo que habilitar incluso sillones para atender a los recién nacidos que lo requieren debido a la precariedad y la falta de espacio en el centro de salud el personal médico debe redoblar sus esfuerzos para atender a los pacientes pues al tratarse de recién nacidos requieren de cuidados muy delicados como ayuda para respirar / lmpt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/21/la-paz-envian-a-la-carcel-a-militar-acusado-de-ayudar-a-escapar-a-su-hijo-presunto-feminicida-de-vania/</t>
+          <t>https://lapatria.bo/2022/03/26/santa-cruz-falta-de-espacio-para-neonatos-en-terapia-intensiva-de-maternidad-es-critica-hay-bebes-en-sillones/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>2022/03/26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>101ab6d3a2944285f73df6c296524788</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>102</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3f1e863fb92161ecd3c6abe033120f02</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>999</v>
+        <v>109</v>
       </c>
       <c r="H52" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I52" t="n">
         <v>11</v>
       </c>
-      <c r="I52" t="n">
-        <v>98</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>('coronel', 4)</t>
-        </is>
+      <c r="J52" t="n">
+        <v>191</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>('caso', 3)</t>
+          <t>('recién', 6)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>('vega', 3)</t>
+          <t>('espacio', 5)</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>('nacidos', 5)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>aduana extiende horario de atención a operadores hasta las 0300 horas en desaguadero</t>
+          <t>rodaria comercializa en bolivia la renovada camioneta zna rich 6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el horario de atención a operadores en el sector de desaguadero se extiende hasta las tres de la madrugada del domingo para facilitar la importación y exportación de mercancía en esta ruta y facilitar el flujo vehicular esta determinación se logró gracias a las gestiones realizadas por la presidente ejecutiva de la aduana nacional an karina serrudo miranda juntamente el superintendente nacional de aduanas de perú luis enrique vera castillo las entidades que decidieron sumarse a la ampliación de horario son el servicio nacional de sanidad agropecuaria e inocuidad alimentaria senasag la dirección general de migración la superintendencia nacional de aduanas y de administración tributaria sunat de perú y el centro binacional de atención en frontera cebaf de perú informaron desde la institución aduanera hasta el medio día de la presente jornada la an registró el ingreso de 463 camiones a territorio boliviano con mercancía de exportación en horas de la tarde el proceso de exportación se agilizó un total de 436 camiones de carga ingresaron con normalidad a perú durante las siguientes horas continuarán los turnos para el ingreso y la salida del transporte pesado en la ruta con la finalidad de evitar el congestionamiento y acelerar los procesos tanto de la aduana boliviana como la de su par peruana la an calificó como un éxito las labores logísticas gestionadas pues el descongestionamiento en la carretera desaguadero es evidente en tanto el tránsito de los motorizados de comercio exterior se restableció los resultados de la extensión de horario serán evaluados el domingo de acuerdo a la cantidad de motorizados que continúen a la espera de pasar la frontera entre bolivia y perú con base en ese dato se determinará sí es necesario ampliar la extensión de horario por más días el congestionamiento del flujo vehicular en ese sector se debió a un bloqueo instalado por los comunarios de la provincia ingavi quienes mantuvieron la medida de presión por ocho días continuos exigiendo la construcción de la carretera doble vía río secodesaguadero / lmpt</t>
+          <t>zna rich 6 es la más robusta y económica de su tipo ideal para personas diferentes que buscan seguridad y confort  rodaria        zna rich                 zna rich 6 rodaria zhengzhou nissan automobile rodaria ltda  zna dongfeng randon    zna rich 6 la transmisión es manual de cinco velocidades + reversa mcpherson estabilidad superior gracias al sistema de control de estabilidad esp representan un sistema de seguridad activo que mejora la visibilidad del vehículo detalles exteriores cromados de lujo en los jaladores de puertas y retrovisores on garantía de seis años o 150000 kilómetros respalda y garantiza rodaria ltda rodaria        zna rich                 zna rich 6 rodaria zhengzhou nissan automobile rodaria ltda  zna dongfeng randon    zna rich 6 la transmisión es manual de cinco velocidades + reversa mcpherson estabilidad superior gracias al sistema de control de estabilidad esp representan un sistema de seguridad activo que mejora la visibilidad del vehículo detalles exteriores cromados de lujo en los jaladores de puertas y retrovisores on garantía de seis años o 150000 kilómetros respalda y garantiza rodaria ltda  en el marco de la expoauto 2022 la empresa automotriz  presento al mercado boliviano la renovada  apta para personas diferentes que merecen una camioneta extraordinaria en el marco de la expoauto 2022 la empresa automotriz  presento al mercado boliviano la renovada  apta para personas diferentes que merecen una camioneta extraordinaria</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/26/aduana-extiende-horario-de-atencion-a-operadores-hasta-las-0300-horas-en-desaguadero/</t>
+          <t>https://eldeber.com.bo/te-puede-interesar/rodaria-comercializa-en-bolivia-la-renovada-camioneta-zna-rich-6_272046</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>24/3/2022</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>abb876b15918cd2a472317f5c1e903a1</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>84</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>64e66f4bfb11650214bddda3ce7688cd</t>
+        </is>
       </c>
       <c r="G53" t="n">
-        <v>2067</v>
+        <v>64</v>
       </c>
       <c r="H53" t="n">
+        <v>1477</v>
+      </c>
+      <c r="I53" t="n">
         <v>8</v>
       </c>
-      <c r="I53" t="n">
-        <v>183</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>('perú', 5)</t>
-        </is>
+      <c r="J53" t="n">
+        <v>154</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>('horario', 4)</t>
+          <t>('zna', 9)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>('nacional', 4)</t>
+          <t>('rodaria', 8)</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>('rich', 7)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>exfuncionario de la cns fue aprehendido por la policía acusado de estafar ofreciendo cargos</t>
+          <t>morbius la nueva leyenda de marvel se apoderará de la gran pantalla</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> un hombre identificado como mauricio p r fue aprehendido por efectivos de la policía boliviana quien es acusado de presuntamente estafar a varias personas ofreciéndoles cargos en la caja nacional de salud cns a cambio de dinero informó el ministro de gobierno eduardo del castillo a los medios de comunicación “el señor oscar u m la señora mayra r c el señor isael g r y el señor josé luis c g habrían denunciado que existiría un exfuncionario de la caja nacional de salud que estaba cobrando distintas cantidades de dinero para incorporarlos y que presten servicios al interior de la caja nacional de salud la policía boliviana realizó el operativo correspondiente logrando la aprehensión de este exfuncionario” informó del castillo el ministro presentó este lunes a mauricio p r quien es exfuncionario de la unidad de recursos humanos de la cns y presuntamente cobraba distintas cantidades de dinero para incorporar a las víctimas a dicha institución durante el operativo policial se secuestraron distintas cantidades de dinero entre dólares y bolivianos además de dos equipos de telefonía móvil y documentación que servirá para el proceso de investigación este ciudadano cobraba entre bs 5000 y 22000 a sus víctimas “le pedimos a todo el pueblo boliviano que acuda a las instancias correspondientes para ver si tenemos sujetos como estos que se quieren aprovechar de la buena fe de las y los ciudadanos bolivianos” aseveró del castillo /hnf/</t>
+          <t xml:space="preserve">esta película de acción y ciencia ficción tiene una duración de 108 minutos y es un spinoff de uno de los villanos más conocidos de spiderman se estrena el 31 de marzo  michael morbius llega a la gran pantalla el jueves 31 de marzo  ¿se sobrepondrá el bien al mal o acaso morbius sucumbirá antes sus nuevas y misteriosas necesidades? cuando morbius descubre su bestia interior ésta le aterra y como tiene miedo sus poderes también le aterran el viaje de morbius consiste en aceptar que seguirá siendo la persona que solía ser e s un spinoff de uno de los villanos más conocidos de spiderman michael morbius llega a la gran pantalla el jueves 31 de marzo  ¿se sobrepondrá el bien al mal o acaso morbius sucumbirá antes sus nuevas y misteriosas necesidades? cuando morbius descubre su bestia interior ésta le aterra y como tiene miedo sus poderes también le aterran el viaje de morbius consiste en aceptar que seguirá siendo la persona que solía ser e s un spinoff de uno de los villanos más conocidos de spiderman  ﻿    ﻿   </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/21/exfuncionario-de-la-cns-fue-aprehendido-por-la-policia-acusado-de-estafar-ofreciendo-cargos/</t>
+          <t>https://eldeber.com.bo/te-puede-interesar/morbius-la-nueva-leyenda-de-marvel-se-apoderara-de-la-gran-pantalla_272469</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ceeb8df104b6ed583966bfc82015fc8c</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>91</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0654202577783c2a52421bcec276202b</t>
+        </is>
       </c>
       <c r="G54" t="n">
-        <v>1445</v>
+        <v>67</v>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>1023</v>
       </c>
       <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>('r', 4)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>103</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>('dinero', 4)</t>
+          <t>('morbius', 8)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>('caja', 3)</t>
+          <t>('tiene', 3)</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>('spinoff', 3)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>covid19 en oruro se detectan dos nuevos casos no se reportan decesos</t>
+          <t>juliana barrientos la pianista boliviana que conquista las redes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la jornada del 26 de marzo oruro mostró de nuevo una cifra mínima de casos positivos de coronavirus dos en total la tendencia de cero decesos también continuó se cumplieron 18 días sin reportar fallecidos por el virus el reporte del servicio departamental de salud sedes señaló que los dos casos confirmados corresponden al municipio de oruro al igual que las tres personas recuperadas que figuran en el reporte además se descartaron 266 casos total hasta el momento el departamento de oruro registra un total de 35549 casos positivos de coronavirus y 34136 pacientes recuperados actualmente hay 87 casos activos contagios sumados los contagios de la jornada la capital suma 35549 casos positivos de coronavirus seguida huanuni con 1512 casos callapata 1143 machacamarca 392 caracollo 359 sabaya 288 turco 266 salinas de garci mendoza 238 antequera 218 y eucaliptos con 214 casos curahuara de carangas se mantiene con 196 casos al igual que huari con 185 positivos huachacalla 163 santiago de andamarca 154 pazña 149 corque 133 pampa aullagas 103 el choro 87 quillacas 83 en tanto totora 67 huayllamarca 66 soracachi 56 esmeralda 43 yunguyo de litoral 37 belén de andamarca 28 choquecota 26 cruz de machacamarca 26 escara 23 chipaya 21 coipasa 15 la rivera cinco carangas y todos santos uno recuperados ya son 34136 pacientes recuperados en el municipio de oruro huanuni 1469 challapata 1081 machacamarca 374 caracollo 335 sabaya 284 turco 264 salinas de garci mendoza 233 antequera 212 eucaliptus 202 toledo 201 poopó 194 curahuara de carangas se mantiene con 178 pacientes recuperados huari 177 huachacalla 157 santiago de andamarca 148 pazña 146 corque 131 pampa aullagas 101 el choro 87 quillacas 80 huayllamarca 65 finalmente totora 62 soracachi 55 esmeralda 42 yunguyo de litoral 36 belén de andamarca 28 choquecota 25 cruz de machacamarca 24 escara 23 chipaya 21 coipasa 15 la rivera cinco todos santos uno y finalmente carangas uno</t>
+          <t xml:space="preserve">bella con 24 años alista una gira de conciertos fuera de nuestras fronteras en sus redes hoy también grita por la paz en ucrania la tierra de su familia  juliana barrientos gaidrikh ama la música clásica teclas de un piano pianista cochabambina   azul y amarillo ucrania la tierra de su familia materna abuela la música  guía de su madre natalia gaidrikh ex unión soviética habla español inglés ruso y ucraniano juan pablo manzanero hijo del ‘rey del bolero’ gira de conciertos familia en ucrania jarkov  invadido por el ejército ruso ucrania merece paz ha sido un país que ha sufrido mucho en su historia no queda de nada de su ciudad se reúnen en el sector antibombas de lo que un día fue una estación de metro bombardean a quienes tratan de escapar hogar fijo para la pareja de ucranianos muchas personas se solidaricen con ellos juliana barrientos gaidrikh ama la música clásica teclas de un piano pianista cochabambina   azul y amarillo ucrania la tierra de su familia materna abuela la música  guía de su madre natalia gaidrikh ex unión soviética habla español inglés ruso y ucraniano juan pablo manzanero hijo del ‘rey del bolero’ gira de conciertos familia en ucrania jarkov  invadido por el ejército ruso ucrania merece paz ha sido un país que ha sufrido mucho en su historia no queda de nada de su ciudad se reúnen en el sector antibombas de lo que un día fue una estación de metro bombardean a quienes tratan de escapar hogar fijo para la pareja de ucranianos muchas personas se solidaricen con ellos </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/26/covid-19-en-oruro-se-detectan-dos-nuevos-casos-no-se-reportan-decesos/</t>
+          <t>https://eldeber.com.bo/sociales/juliana-barrientos-la-pianista-boliviana-que-conquista-las-redes_272275</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>832d0bf674f94b758670c4d51bf045ea</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>68</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>dc678397b42635e2009461fd778e46dc</t>
+        </is>
       </c>
       <c r="G55" t="n">
-        <v>1940</v>
+        <v>64</v>
       </c>
       <c r="H55" t="n">
+        <v>1512</v>
+      </c>
+      <c r="I55" t="n">
         <v>6</v>
       </c>
-      <c r="I55" t="n">
-        <v>225</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>('oruro', 4)</t>
-        </is>
+      <c r="J55" t="n">
+        <v>160</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>('positivos', 4)</t>
+          <t>('ucrania', 7)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>('recuperados', 4)</t>
+          <t>('familia', 5)</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>('música', 4)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>gobierno peruano pide a la oea presenciar debate de moción de vacancia de pedro castillo</t>
+          <t>pinturas coral apoyó en la restauración del mercado 4 de noviembre aportando color y protección</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> desde el gobierno peruano solicitaron la jornada precedente la presencia de funcionarios de la organización de los estados americanos oea para presenciar el debate de moción de vacancia del presidente pedro castillo el congreso escuchará el 28 de marzo la defensa del mandatario para tratar el tema de su destitución en una misiva enviada por el canciller césar landa a la presidenta del congreso maría carmen alva se solicitó que se acepte la presencia de testigos de la oea con el motivo de que el debate se desarrolle con trasparencia ante la ciudadanía y la comunidad internacional en la carta se expresó la importancia de este acontecimiento pues para landa depende de este proceso la gobernabilidad de perú y la vigencia de la democracia no solo en ese país sino en todo el continente el canciller pidió la presencia de tres funcionarios específicos de la oea para que presencien el debate en el pleno del congreso el representante de ese ente en el perú miguel ángel trinidad el secretario de asuntos jurídicos jean miguel arrighi y la secretaria de acceso a derechos y equidad maricarmen plata el partido opositor “avanza país” cuestionó esta petición a la presidencia del congreso pues consideraron que no hay precedentes para incluir a la oea como veedores en un proceso como la vacancia según informó el portal de noticias deutsche welle por su parte el primer ministro aníbal torres destacó el pronunciamiento de la comisión interamericana de derechos humanos cidh quienes expresaron el viernes reciente su preocupación por la situación política en perú y el impacto que podría tener en los derechos humanos «la vacancia presidencial debe llevarse a cabo conforme al debido proceso constitucional y fundarse en conductas señaladas con precisión que doten a este proceso de objetividad imparcialidad y garantías del debido proceso a fin de asegurar que sea un recurso que no se use para afectar el orden democrático constituido y los derechos políticos de los y las peruanas» informó la comisión en un comunicado el lunes 28 de marzo el congreso escuchará la defensa de pedro castillo ante la acusación por una supuesta «incapacidad moral permanente» posteriormente se votará el pedido de destitución presentado por varios grupos de ultraderecha que aparentemente no cuentan con los 87 votos necesarios para hacer a abandonar el cargo al presidente / lmpt</t>
+          <t xml:space="preserve">a dos meses del incendio en el mercado 4 de noviembre pinturas coral contribuyó en la transformación y nueva puesta en valor de este emblemático espacio de la comunidad de santa cruz   pinturas coral transformación del mercado 4 de noviembre llenando de color y vida los locales el apoyo se enmarca dentro de la iniciativa “vení al color” de la marca coral compromiso y la responsabilidad que implica la protección de un simbólico espacio acerca de pinturas coral bolivia coral marca del grupo akzonobel  su fábrica localizada en el parque industrial desde 1994 en la paz y cochabamba también se pueden encontrar sus productos en gladymar visite las cuentas de coral en redes sociales acerca de akzonobel propósito de people planet paint personas planeta pintura nombres como coral dulux international sikkens e interpon entre muchas otras pinturas coral transformación del mercado 4 de noviembre llenando de color y vida los locales el apoyo se enmarca dentro de la iniciativa “vení al color” de la marca coral compromiso y la responsabilidad que implica la protección de un simbólico espacio acerca de pinturas coral bolivia coral marca del grupo akzonobel  su fábrica localizada en el parque industrial desde 1994 en la paz y cochabamba también se pueden encontrar sus productos en gladymar visite las cuentas de coral en redes sociales acerca de akzonobel propósito de people planet paint personas planeta pintura nombres como coral dulux international sikkens e interpon entre muchas otras  una vez más   una marca del grupo akzonobel participa activamente en la   devolviéndole su color y atractivo la pintura además de otorgar protección tiene el poder de transformar e impactar en las comunidades con el uso del color revitalizando espacios emblemáticos y valiosos para las comunidades            una vez más   una marca del grupo akzonobel participa activamente en la   devolviéndole su color y atractivo la pintura además de otorgar protección tiene el poder de transformar e impactar en las comunidades con el uso del color revitalizando espacios emblemáticos y valiosos para las comunidades           </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/26/gobierno-peruano-pide-a-la-oea-presenciar-debate-de-mocion-de-vacancia-de-pedro-castillo/</t>
+          <t>https://eldeber.com.bo/te-puede-interesar/pinturas-coral-apoyo-en-la-restauracion-del-mercado-4-de-noviembre-aportando-color-y-proteccion_272174</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>25/3/2022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4c8b311107f359a09f787328ed22add5</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>88</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>849779555b550d3ca37a252584be5b6a</t>
+        </is>
       </c>
       <c r="G56" t="n">
-        <v>2367</v>
+        <v>95</v>
       </c>
       <c r="H56" t="n">
+        <v>2113</v>
+      </c>
+      <c r="I56" t="n">
         <v>10</v>
       </c>
-      <c r="I56" t="n">
-        <v>207</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>('congreso', 5)</t>
-        </is>
+      <c r="J56" t="n">
+        <v>195</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>('proceso', 5)</t>
+          <t>('coral', 13)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>('oea', 4)</t>
+          <t>('color', 6)</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>('marca', 6)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>santa cruz falta de espacio para neonatos en terapia intensiva de maternidad es crítica hay bebés en sillones</t>
+          <t>covid19 en oruro se detectan dos nuevos casos no se reportan decesos</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el servicio de terapia intensiva para neonatos de la maternidad percy boland en santa cruz está saturado el espacio es tan insuficiente que hasta tres recién nacidos deben compartir una servocuna el director del hospital mario herbas manifestó su preocupación por la situación que consideró como una emergencia pues pueden desatarse brotes de infecciones en los bebés lo que representaría una responsabilidad médicolegal para todo su equipo desde la gobernación de ese departamento informaron que 17 recién nacidos ya fueron trasladados a otros centros médicos de segundo nivel sin embargo esta medida es solo paliativa pues a criterio de herbas lo que se necesita es un nuevo hospital materno infantil reportó el diario el deber la jornada precedente el secretario de salud fernando pacheco solicitó al ministerio de salud la firma de un convenio que permita a los centros médicos privados dar atenciones del sistema único de salud sus especialmente a los bebés que requieren terapia intensiva los médicos que trabajan en la maternidad percy boland lamentaron que los recién nacidos deban compartir las servocunas pues no cuentan con el espacio ni los recursos necesarios para brindarles la atención que requieren un bebé que entra a terapia intensiva neonatal es prematuro requiere un tratamiento cuidadoso sin embargo debe compartir el espacio con al menos otros dos pacientes que un recién nacido comparta la cervocuna es potencialmente peligroso pues otra de las razones por las que los bebés requieren cuidados intensivos son las defensas bajas lo que los vuelve mucho más propensos a contraer cualquier infección los pacientes que salen de terapia intensiva y necesitan cuidados intermedios tampoco tienen un espacio al cual llegar es por eso que el hospital tubo que habilitar incluso sillones para atender a los recién nacidos que lo requieren debido a la precariedad y la falta de espacio en el centro de salud el personal médico debe redoblar sus esfuerzos para atender a los pacientes pues al tratarse de recién nacidos requieren de cuidados muy delicados como ayuda para respirar / lmpt</t>
+          <t xml:space="preserve"> la jornada del 26 de marzo oruro mostró de nuevo una cifra mínima de casos positivos de coronavirus dos en total la tendencia de cero decesos también continuó se cumplieron 18 días sin reportar fallecidos por el virus el reporte del servicio departamental de salud sedes señaló que los dos casos confirmados corresponden al municipio de oruro al igual que las tres personas recuperadas que figuran en el reporte además se descartaron 266 casos total hasta el momento el departamento de oruro registra un total de 35549 casos positivos de coronavirus y 34136 pacientes recuperados actualmente hay 87 casos activos contagios sumados los contagios de la jornada la capital suma 35549 casos positivos de coronavirus seguida huanuni con 1512 casos callapata 1143 machacamarca 392 caracollo 359 sabaya 288 turco 266 salinas de garci mendoza 238 antequera 218 y eucaliptos con 214 casos curahuara de carangas se mantiene con 196 casos al igual que huari con 185 positivos huachacalla 163 santiago de andamarca 154 pazña 149 corque 133 pampa aullagas 103 el choro 87 quillacas 83 en tanto totora 67 huayllamarca 66 soracachi 56 esmeralda 43 yunguyo de litoral 37 belén de andamarca 28 choquecota 26 cruz de machacamarca 26 escara 23 chipaya 21 coipasa 15 la rivera cinco carangas y todos santos uno recuperados ya son 34136 pacientes recuperados en el municipio de oruro huanuni 1469 challapata 1081 machacamarca 374 caracollo 335 sabaya 284 turco 264 salinas de garci mendoza 233 antequera 212 eucaliptus 202 toledo 201 poopó 194 curahuara de carangas se mantiene con 178 pacientes recuperados huari 177 huachacalla 157 santiago de andamarca 148 pazña 146 corque 131 pampa aullagas 101 el choro 87 quillacas 80 huayllamarca 65 finalmente totora 62 soracachi 55 esmeralda 42 yunguyo de litoral 36 belén de andamarca 28 choquecota 25 cruz de machacamarca 24 escara 23 chipaya 21 coipasa 15 la rivera cinco todos santos uno y finalmente carangas uno</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/26/santa-cruz-falta-de-espacio-para-neonatos-en-terapia-intensiva-de-maternidad-es-critica-hay-bebes-en-sillones/</t>
+          <t>https://lapatria.bo/2022/03/26/covid-19-en-oruro-se-detectan-dos-nuevos-casos-no-se-reportan-decesos/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>2022/03/26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>3f1e863fb92161ecd3c6abe033120f02</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>109</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>832d0bf674f94b758670c4d51bf045ea</t>
+        </is>
       </c>
       <c r="G57" t="n">
-        <v>2100</v>
+        <v>68</v>
       </c>
       <c r="H57" t="n">
-        <v>11</v>
+        <v>1940</v>
       </c>
       <c r="I57" t="n">
-        <v>192</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>('recién', 6)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>224</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>('espacio', 5)</t>
+          <t>('oruro', 4)</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>('nacidos', 5)</t>
+          <t>('positivos', 4)</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>('recuperados', 4)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>entre angustia y tristeza se viven los últimos días en el hogar teresa de los andes</t>
+          <t>gobierno peruano pide a la oea presenciar debate de moción de vacancia de pedro castillo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">este centro cierra sus puertas el 31 de marzo y las 89 personas entre 19 y 57años que viven en el lugar serán trasladadas a otros hogares una veintena queson los que tienen discapacidad leve son los que más sufren con este cambio  rabajadora social de ese lugar y de inmediato en silencio deja c ella ya ha vivido en carne propia el cambio de hogar están tratando de abrir espacios para reubicarlos en otros centros unas 25 personas son las que más entienden lo que sucede porque muchos enfrentan angustia y tristeza destrezas que desarrollaron donde muestra un jarrón con una variedad de flores s rondas y alerta a través de señas cuando observa algo extraño   algunas trabajadoras incluso amamantaron cuando era solo un adolescente y se adaptó rápidamente con daños más severos una crisis de años rabajadora social de ese lugar y de inmediato en silencio deja c ella ya ha vivido en carne propia el cambio de hogar están tratando de abrir espacios para reubicarlos en otros centros unas 25 personas son las que más entienden lo que sucede porque muchos enfrentan angustia y tristeza destrezas que desarrollaron donde muestra un jarrón con una variedad de flores s rondas y alerta a través de señas cuando observa algo extraño   algunas trabajadoras incluso amamantaron cuando era solo un adolescente y se adaptó rápidamente con daños más severos una crisis de años        intentan enseñarles a lidiar con la separación que tendrán que enfrentar        “tranquilos hermanos todo estará bien” les dice  ahora merodea los distintos espacios del hogar como si fuera el encargado de brindar la bienvenida           intentan enseñarles a lidiar con la separación que tendrán que enfrentar        “tranquilos hermanos todo estará bien” les dice  ahora merodea los distintos espacios del hogar como si fuera el encargado de brindar la bienvenida    </t>
+          <t xml:space="preserve"> desde el gobierno peruano solicitaron la jornada precedente la presencia de funcionarios de la organización de los estados americanos oea para presenciar el debate de moción de vacancia del presidente pedro castillo el congreso escuchará el 28 de marzo la defensa del mandatario para tratar el tema de su destitución en una misiva enviada por el canciller césar landa a la presidenta del congreso maría carmen alva se solicitó que se acepte la presencia de testigos de la oea con el motivo de que el debate se desarrolle con trasparencia ante la ciudadanía y la comunidad internacional en la carta se expresó la importancia de este acontecimiento pues para landa depende de este proceso la gobernabilidad de perú y la vigencia de la democracia no solo en ese país sino en todo el continente el canciller pidió la presencia de tres funcionarios específicos de la oea para que presencien el debate en el pleno del congreso el representante de ese ente en el perú miguel ángel trinidad el secretario de asuntos jurídicos jean miguel arrighi y la secretaria de acceso a derechos y equidad maricarmen plata el partido opositor “avanza país” cuestionó esta petición a la presidencia del congreso pues consideraron que no hay precedentes para incluir a la oea como veedores en un proceso como la vacancia según informó el portal de noticias deutsche welle por su parte el primer ministro aníbal torres destacó el pronunciamiento de la comisión interamericana de derechos humanos cidh quienes expresaron el viernes reciente su preocupación por la situación política en perú y el impacto que podría tener en los derechos humanos «la vacancia presidencial debe llevarse a cabo conforme al debido proceso constitucional y fundarse en conductas señaladas con precisión que doten a este proceso de objetividad imparcialidad y garantías del debido proceso a fin de asegurar que sea un recurso que no se use para afectar el orden democrático constituido y los derechos políticos de los y las peruanas» informó la comisión en un comunicado el lunes 28 de marzo el congreso escuchará la defensa de pedro castillo ante la acusación por una supuesta «incapacidad moral permanente» posteriormente se votará el pedido de destitución presentado por varios grupos de ultraderecha que aparentemente no cuentan con los 87 votos necesarios para hacer a abandonar el cargo al presidente / lmpt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/entre-angustia-y-tristeza-se-viven-los-ultimos-dias-en-el-hogar-teresa-de-los-andes_272403</t>
+          <t>https://lapatria.bo/2022/03/26/gobierno-peruano-pide-a-la-oea-presenciar-debate-de-mocion-de-vacancia-de-pedro-castillo/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/26</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>656e93f9119ae98cb7bf54d2d5f82ad7</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>83</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4c8b311107f359a09f787328ed22add5</t>
+        </is>
       </c>
       <c r="G58" t="n">
-        <v>1843</v>
+        <v>88</v>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>2367</v>
       </c>
       <c r="I58" t="n">
-        <v>184</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>('hogar', 4)</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="J58" t="n">
+        <v>207</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>('espacios', 4)</t>
+          <t>('congreso', 5)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>('cuando', 4)</t>
+          <t>('proceso', 5)</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>('oea', 4)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">contagios de covid19 bajan un 31% 44 municipios vacunaron a más del 80% de su población </t>
+          <t>exfuncionario de la cns fue aprehendido por la policía acusado de estafar ofreciendo cargos</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el ministerio de salud presentó los datos correspondientes a la semana epidemiológica 12 potosí y la paz registran un alza y los otros siete departamentos un descenso   los contagios con covid19 bajaron un 31 por ciento en la semana epidemiológica 12 en los pasados siete días se registraron 1595 casos y 12246 recuperados hoy más que nunca es cuando debemos redoblar los esfuerzos santa cruz menos 7 por ciento beni menos 13 por ciento pando menos 78 por ciento el reporte las dosis aplicadas llegan a 13062659 de las cuales 6074507 son primeras 4784783 segundas 138 entre el 40 y el 59 por ciento 60 entre un 20 y un  39 por ciento y dos localidades tienen un alcance muy bajo la cuarta dosis está disponible para toda la población que requiere dicho refuerzo los contagios con covid19 bajaron un 31 por ciento en la semana epidemiológica 12 en los pasados siete días se registraron 1595 casos y 12246 recuperados hoy más que nunca es cuando debemos redoblar los esfuerzos santa cruz menos 7 por ciento beni menos 13 por ciento pando menos 78 por ciento el reporte las dosis aplicadas llegan a 13062659 de las cuales 6074507 son primeras 4784783 segundas 138 entre el 40 y el 59 por ciento 60 entre un 20 y un  39 por ciento y dos localidades tienen un alcance muy bajo la cuarta dosis está disponible para toda la población que requiere dicho refuerzo </t>
+          <t xml:space="preserve"> un hombre identificado como mauricio p r fue aprehendido por efectivos de la policía boliviana quien es acusado de presuntamente estafar a varias personas ofreciéndoles cargos en la caja nacional de salud cns a cambio de dinero informó el ministro de gobierno eduardo del castillo a los medios de comunicación “el señor oscar u m la señora mayra r c el señor isael g r y el señor josé luis c g habrían denunciado que existiría un exfuncionario de la caja nacional de salud que estaba cobrando distintas cantidades de dinero para incorporarlos y que presten servicios al interior de la caja nacional de salud la policía boliviana realizó el operativo correspondiente logrando la aprehensión de este exfuncionario” informó del castillo el ministro presentó este lunes a mauricio p r quien es exfuncionario de la unidad de recursos humanos de la cns y presuntamente cobraba distintas cantidades de dinero para incorporar a las víctimas a dicha institución durante el operativo policial se secuestraron distintas cantidades de dinero entre dólares y bolivianos además de dos equipos de telefonía móvil y documentación que servirá para el proceso de investigación este ciudadano cobraba entre bs 5000 y 22000 a sus víctimas “le pedimos a todo el pueblo boliviano que acuda a las instancias correspondientes para ver si tenemos sujetos como estos que se quieren aprovechar de la buena fe de las y los ciudadanos bolivianos” aseveró del castillo /hnf/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/contagios-de-covid-19-bajan-un-31-44-municipios-vacunaron-a-mas-del-80-de-su-poblacion_272451</t>
+          <t>https://lapatria.bo/2022/03/21/exfuncionario-de-la-cns-fue-aprehendido-por-la-policia-acusado-de-estafar-ofreciendo-cargos/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/21</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9e9340c4af1c5e7067ea3de52c5ce585</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>88</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ceeb8df104b6ed583966bfc82015fc8c</t>
+        </is>
       </c>
       <c r="G59" t="n">
-        <v>1356</v>
+        <v>91</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>1445</v>
       </c>
       <c r="I59" t="n">
-        <v>139</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>('ciento', 12)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>135</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>('dosis', 4)</t>
+          <t>('dinero', 4)</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>('semana', 3)</t>
+          <t>('caja', 3)</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>('nacional', 3)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>este domingo se registraron solo 16 nuevos casos de covid19 en santa cruz</t>
+          <t>los principios de empoderamiento de las mujeres cumplen un año en bolivia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>en lo que va de 2022 se han reportado 102189 casos de acuerdo con el sedes la vacunación en la jornada llegó a 769 personas  uevos de covid19 en el departamento de santa cruz fue de solo 16 pero no se reportó ningún fallecido  acumulados de 2022 son 102189 la inmunización de la jornada llegó a 769 personas en santa cruz  según el sedes el 57% de la población objetivo ya ha recibido su primera dosis uevos de covid19 en el departamento de santa cruz fue de solo 16 pero no se reportó ningún fallecido  acumulados de 2022 son 102189 la inmunización de la jornada llegó a 769 personas en santa cruz  según el sedes el 57% de la población objetivo ya ha recibido su primera dosis  este domingo 27 la cifra de casos n   el informe epidemiológico diario del servicio departamental de salud sedes indica además que 104 personas se recuperaron y vencieron al coronavirus a la fecha los casos de coronavirus    en la capital cruceña se habían habilitado tres puestos de vacunación que funcionaron hasta el mediodía  en tanto que el 45% la segunda las dosis únicas representan el 16% mientras que la tercera dosis solo la ha recibido el 13%  as autoridades del sedes insisten constantemente en acudir a los centros de vacunación para completar el esquema completo de las dosis y a no aflojar las medidas de bioseguridad en especial con los escolares que han vuelto a las clases presenciales este domingo 27 la cifra de casos n   el informe epidemiológico diario del servicio departamental de salud sedes indica además que 104 personas se recuperaron y vencieron al coronavirus a la fecha los casos de coronavirus    en la capital cruceña se habían habilitado tres puestos de vacunación que funcionaron hasta el mediodía  en tanto que el 45% la segunda las dosis únicas representan el 16% mientras que la tercera dosis solo la ha recibido el 13%  as autoridades del sedes insisten constantemente en acudir a los centros de vacunación para completar el esquema completo de las dosis y a no aflojar las medidas de bioseguridad en especial con los escolares que han vuelto a las clases presenciales</t>
+          <t xml:space="preserve">en el país las mujeres ocupan el 319% de los cargos directivos en empresas pequeñas el 108% en las empresas medianas y el 42% en empresas grandes   una iniciativa de cainco y onu mujeres que ayuda a las empresas a promover la equidad de género  todavía persiste una predominancia masculina a la hora de traducir esa educación en oportunidades laborales  tres de cada diez investigadores científicos ya son mujeres diversas empresas en el país tomaron cartas en el asunto alineándose a la agenda de desarrollo sostenible contamos con un 29% de mujeres que ocupan un cargo de jerarquía entre los directivos de la empresa la primera mujer en llegar a un cargo de jerarquía dentro del sector de las telecomunicaciones en bolivia  una iniciativa de cainco y onu mujeres que ayuda a las empresas a promover la equidad de género  todavía persiste una predominancia masculina a la hora de traducir esa educación en oportunidades laborales  tres de cada diez investigadores científicos ya son mujeres diversas empresas en el país tomaron cartas en el asunto alineándose a la agenda de desarrollo sostenible contamos con un 29% de mujeres que ocupan un cargo de jerarquía entre los directivos de la empresa la primera mujer en llegar a un cargo de jerarquía dentro del sector de las telecomunicaciones en bolivia </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/este-domingo-se-registraron-solo-16-nuevos-casos-de-covid-19-en-santa-cruz_272407</t>
+          <t>https://eldeber.com.bo/te-puede-interesar/los-principios-de-empoderamiento-de-las-mujeres-cumplen-un-ano-en-bolivia_272216</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>25/3/2022</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>d7a8471475478bf76384db654e9fe046</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>f39837ec70c479789e77567fd363d97f</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
         <v>73</v>
       </c>
-      <c r="G60" t="n">
-        <v>2087</v>
-      </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>1303</v>
       </c>
       <c r="I60" t="n">
-        <v>189</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>('dosis', 8)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>114</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>('sedes', 7)</t>
+          <t>('mujeres', 7)</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>('vacunación', 5)</t>
+          <t>('empresas', 7)</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>('cargo', 4)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>¿qué es la demencia vascular y en qué se diferencia del alzhéimer?</t>
+          <t>los traficantes que se hacen pasar por falsos voluntarios para captar refugiadas ucranianas</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">la demencia vascular es el segundo tipo más extendido de demencia después del alzhéimer y aunque muchos de sus síntomas pueden ser similares no tienen la misma causa ni progresión  </t>
+          <t xml:space="preserve">para depredadores sexuales y traficantes de personas conflictos como los de ucrania son una oportunidad para cazar a refugiadas y menores de edad  </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/que-es-la-demencia-vascular-y-en-que-se-diferencia-del-alzheimer_272442</t>
+          <t>https://eldeber.com.bo/bbc/los-traficantes-que-se-hacen-pasar-por-falsos-voluntarios-para-captar-refugiadas-ucranianas_272441</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2a82cd08cd07816b0138d6c1eb5e05dc</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>66</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>144446f9eafcf0f296f046aabeb77937</t>
+        </is>
       </c>
       <c r="G61" t="n">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>('demencia', 2)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>('vascular', 1)</t>
+          <t>('depredadores', 1)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>('segundo', 1)</t>
+          <t>('sexuales', 1)</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>('traficantes', 1)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>comida reconfortante</t>
+          <t>caso cotas uribe fue sobreseído del proceso la auditoría dice que tiene responsabilidad</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">existen platos que tanto al cocinarlos como al probarlos son capaces de proporcionarnos emociones y una sensación de bienestar te compartimos algunas de sus recetas  ese tipo de comida que nos reconforta tanto el cuerpo como el espíritu  yo cocino  pasta con tomate ingredientes preparación coliflor gratinada ingredientes preparación escondidinho ingredientes para las papas preparación ese tipo de comida que nos reconforta tanto el cuerpo como el espíritu  yo cocino  pasta con tomate ingredientes preparación coliflor gratinada ingredientes preparación escondidinho ingredientes para las papas preparación  ﻿ °c  °c  ﻿ °c  °c </t>
+          <t xml:space="preserve">el expresidente de cotas dice que la auditoría es sesgada e incompleta y que “pasar por la institución fue la peor experiencia de su vida” alega que es inocente y otros involucrados cuestionan que fuera apartado del caso  respuesta de cotas cuestionamientos respuesta de cotas cuestionamientos         </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/edicion-impresa/comida-reconfortante_272339</t>
+          <t>https://eldeber.com.bo/dinero/caso-cotas-uribe-fue-sobreseido-del-proceso-la-auditoria-dice-que-tiene-responsabilidad_272300</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>8e666cb68e51fbf36b9360bdd222d215</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>20</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>336318302110aa6607e4bedde62393b6</t>
+        </is>
       </c>
       <c r="G62" t="n">
-        <v>630</v>
+        <v>87</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="I62" t="n">
-        <v>61</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>('ingredientes', 6)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>24</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>('preparación', 6)</t>
+          <t>('cotas', 3)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>('°c', 4)</t>
+          <t>('respuesta', 2)</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>('cuestionamientos', 2)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>china confina shanghái ante el importante repunte de los casos de coronavirus</t>
+          <t>prevén alza de tarifas en transporte aéreo por ajuste en precio del crudo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">la mayoría de los 25 millones de habitantes de shanghai ya se han sometido a las pruebas en las últimas semanas  shanghái divide la ciudad en dos y confina su parte este para frenar el repunte de la variante ómicron de coronavirus shanghái se ha divido en dos este y oeste a lo largo del rio huangpu donde se concentra el mayor número de infecciones los puentes y autovías que comunican las dos partes de la ciudad permanecerán cerrados shanghái se describe a menudo como la puerta de entrada al este de china por su acceso al mar de la china orienta el anuncio se produce cuando las escuelas y algunas residencias ya han sido cerradas durante los últimos días el hashtag ¿por qué china no puede levantar las medidas de seguridad sanitaria como los países extranjeros? shanghái divide la ciudad en dos y confina su parte este para frenar el repunte de la variante ómicron de coronavirus shanghái se ha divido en dos este y oeste a lo largo del rio huangpu donde se concentra el mayor número de infecciones los puentes y autovías que comunican las dos partes de la ciudad permanecerán cerrados shanghái se describe a menudo como la puerta de entrada al este de china por su acceso al mar de la china orienta el anuncio se produce cuando las escuelas y algunas residencias ya han sido cerradas durante los últimos días el hashtag ¿por qué china no puede levantar las medidas de seguridad sanitaria como los países extranjeros? </t>
+          <t xml:space="preserve">el constante incremento del precio del crudo causó el aumento del precio del diésel y jet fuel en mercados no regulados e impacta en los costos de las operaciones de la aviación y el comercio exterior del país  walter vásquez impacto en los fletes walter vásquez impacto en los fletes     </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/rfi/china-confina-shanghai-ante-el-importante-repunte-de-los-casos-de-coronavirus_272444</t>
+          <t>https://eldeber.com.bo/dinero/preven-alza-de-tarifas-en-transporte-aereo-por-ajuste-en-precio-del-crudo_272294</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3ff9a7961dac010f99f655cac388f301</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>77</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10d18bfca8a61b584ec105ed198d8d32</t>
+        </is>
       </c>
       <c r="G63" t="n">
-        <v>1425</v>
+        <v>73</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="I63" t="n">
-        <v>128</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>('shanghái', 6)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>27</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>('china', 6)</t>
+          <t>('precio', 2)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>('ciudad', 4)</t>
+          <t>('walter', 2)</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>('vásquez', 2)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>covid19 en bolivia se aplicaron 1175615 dosis con esquema completo a niños de 5 a 11 años</t>
+          <t>llegó en micro y salió en un auto 0 km</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>los nuevos contagios de esta jornada son santa cruz 16 cochabamba 7 la paz 39 chuquisaca 2 tarija 1 potosí 10 oruro 0 beni 0 y pando 0  aplicaron 1175615 dosis con esquema completo a niños de 5 a 11 años aplicaron 13064425 dosis entre la primera segunda tercera unidosis  el reporte establece que se aplicó 720865 primeras dosis y 454750 segundas dosis a niños de 5 a 11 años el total de las vacunas gestionadas y adquiridas por el gobierno nacional alcanza a 23815500 dosis casos nuevos se realizaron 2500 pruebas de las que 75 dieron resultado positivo y 2425 fueron descartadas el acumulado nacional de pacientes recuperados hasta esta jornada asciende a 831184 el registro de pacientes recuperados por departamento es el siguiente 104 en santa cruz los nuevos contagios de esta jornada son santa cruz 16 cochabamba 7 la paz 39   no se registraron personas fallecidas a causa del coronavirus  aplicaron 1175615 dosis con esquema completo a niños de 5 a 11 años aplicaron 13064425 dosis entre la primera segunda tercera unidosis  el reporte establece que se aplicó 720865 primeras dosis y 454750 segundas dosis a niños de 5 a 11 años el total de las vacunas gestionadas y adquiridas por el gobierno nacional alcanza a 23815500 dosis casos nuevos se realizaron 2500 pruebas de las que 75 dieron resultado positivo y 2425 fueron descartadas el acumulado nacional de pacientes recuperados hasta esta jornada asciende a 831184 el registro de pacientes recuperados por departamento es el siguiente 104 en santa cruz los nuevos contagios de esta jornada son santa cruz 16 cochabamba 7 la paz 39   no se registraron personas fallecidas a causa del coronavirus   el reporte de vacunación contra el covid19 establece que hasta la fecha se   según datos divulgados este domingo por el ministerio de salud y deportes a través de un boletín de prensa el reporte de vacunación contra el covid19 establece que hasta la fecha se   según datos divulgados este domingo por el ministerio de salud y deportes a través de un boletín de prensa</t>
+          <t xml:space="preserve">daniela zelada soliz fue premiada por imcruz y fexpocruz por visitar la expoauto  expoauto marca tu suerte daniela zelada 25 años micro desde el octavo anillo y avenida virgen de guadalupe arribó justo al momento del sorteo chevrolet onix plus ltz expoauto marca tu suerte daniela zelada 25 años micro desde el octavo anillo y avenida virgen de guadalupe arribó justo al momento del sorteo chevrolet onix plus ltz </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/covid-19-en-bolivia-se-aplicaron-1175615-dosis-con-esquema-completo-a-ninos-de-5-a-11-anos_272424</t>
+          <t>https://eldeber.com.bo/sociales/llego-en-micro-y-salio-en-un-auto-0-km_272169</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>25/3/2022</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>30e07c27716985e3370f5ac8ec185026</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>89</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>c522de141e67ccd893f69afa1301693b</t>
+        </is>
       </c>
       <c r="G64" t="n">
-        <v>2024</v>
+        <v>38</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="I64" t="n">
-        <v>213</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>('dosis', 10)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>52</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>('nuevos', 5)</t>
+          <t>('daniela', 3)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>('jornada', 5)</t>
+          <t>('zelada', 3)</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>('expoauto', 3)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>desayuno en 5 minutos</t>
+          <t xml:space="preserve">en desaguadero amplían horario de atención a transportistas tras ocho días de bloqueo </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">dos recetas perfectas para los que no disponen de mucho tiempo por las mañanas solo necesitarás un poco de avena leche o tu bebida vegetal favorita y algunas frutas para darle más sabor ¡apunta las indicaciones!   d esayunos y las recetas fáciles ¡apunta las indicaciones! puré de avena clásico ingredientes preparación puré de avena con chocolate ingredientes preparación ideas divertidas  d esayunos y las recetas fáciles ¡apunta las indicaciones! puré de avena clásico ingredientes preparación puré de avena con chocolate ingredientes preparación ideas divertidas  para los amantes de los  queremos compartirles estas dos recetas que además de riquísimas son extremadamente fáciles perfectas para los que no disponen de mucho tiempo por las mañanas solo necesitarás un poco de avena leche o tu bebida vegetal favorita y algunas frutas para darle más sabor  para los amantes de los  queremos compartirles estas dos recetas que además de riquísimas son extremadamente fáciles perfectas para los que no disponen de mucho tiempo por las mañanas solo necesitarás un poco de avena leche o tu bebida vegetal favorita y algunas frutas para darle más sabor </t>
+          <t>hasta el mediodía del sábado se atendió el ingreso de 463 camiones a territorio boliviano con mercancía de importación  luego de ocho días de bloqueo las autoridades de la aduana de bolivia y de perú decidieron ampliar el horario de atención a operadores de transporte este acuerdo se logró gracias a gestiones de la presidenta ejecutiva de la aduana nacional de bolivia anb karina serrudo  el centro binacional de atención en frontera cebaf de perú que atenderán hasta las 0200 en hora peruana y 0300 en hora boliviana hasta el mediodía del sábado 26 de marzo se atendió el ingreso de 463 camiones a territorio boliviano con mercancía de importación estas arduas labores de logística gestionadas por la aduana nacional están resultando un éxito la medida de extensión de horarios será evaluada este domingo de acuerdo a la cantidad de motorizados  luego de ocho días de bloqueo las autoridades de la aduana de bolivia y de perú decidieron ampliar el horario de atención a operadores de transporte este acuerdo se logró gracias a gestiones de la presidenta ejecutiva de la aduana nacional de bolivia anb karina serrudo  el centro binacional de atención en frontera cebaf de perú que atenderán hasta las 0200 en hora peruana y 0300 en hora boliviana hasta el mediodía del sábado 26 de marzo se atendió el ingreso de 463 camiones a territorio boliviano con mercancía de importación estas arduas labores de logística gestionadas por la aduana nacional están resultando un éxito la medida de extensión de horarios será evaluada este domingo de acuerdo a la cantidad de motorizados    internacional en desaguadero hasta las 0300 de la madrugada con la finalidad de facilitar la importación y exportación de mercancías por esa ruta señala un reporte de la agencia abi  internacional en desaguadero hasta las 0300 de la madrugada con la finalidad de facilitar la importación y exportación de mercancías por esa ruta señala un reporte de la agencia abi</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/edicion-impresa/desayuno-en-5-minutos_272341</t>
+          <t>https://eldeber.com.bo/economia/en-desaguadero-amplian-horario-de-atencion-a-transportistas-tras-ocho-dias-de-bloqueo_272347</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>25e7d8f9ef4e14a95c3ae121a3fff4f0</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>21</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>a314e32a0c29f73c1f5133702f16204e</t>
+        </is>
       </c>
       <c r="G65" t="n">
-        <v>1151</v>
+        <v>86</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>1944</v>
       </c>
       <c r="I65" t="n">
-        <v>111</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>('avena', 7)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>176</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>('recetas', 5)</t>
+          <t>('aduana', 6)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>('fáciles', 4)</t>
+          <t>('importación', 5)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>('bolivia', 4)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mexicanísimo comida que tienes que probar</t>
+          <t xml:space="preserve">el actor george clooney quiere comprar un club inglés </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">lo bueno nunca pasa de moda por eso te compartimos dos recetas muy famosas de la cocina mexicana  quesadilla de pollo ingredientes condimentos preparación quesadilla de carne ingredientes condimentos preparación tip quesadilla de pollo ingredientes condimentos preparación quesadilla de carne ingredientes condimentos preparación tip </t>
+          <t xml:space="preserve">el derby country bicampeón inglés está en la mira del actor cuya fortuna está valorada en 500 millones de dólares  derby country club de segunda división del fútbol inglés podría tener un nuevo dueño george clooney dijo en una entrevista con the sun que está pensando en comprarlo “derby tiene un gran club de fútbol con una historia fantástica y estoy seguro de que también hay un gran futuro el derby cuyo actual entrenador es el ex futbolista wayne rooney es dos veces campeón de inglaterra 1971/72 y 1974/75 la fortuna de clooney está valorada en un total de 500 millones de dólares el equivalente a más de dos mil millones de reales derby country club de segunda división del fútbol inglés podría tener un nuevo dueño george clooney dijo en una entrevista con the sun que está pensando en comprarlo “derby tiene un gran club de fútbol con una historia fantástica y estoy seguro de que también hay un gran futuro el derby cuyo actual entrenador es el ex futbolista wayne rooney es dos veces campeón de inglaterra 1971/72 y 1974/75 la fortuna de clooney está valorada en un total de 500 millones de dólares el equivalente a más de dos mil millones de reales  el   la estrella de cine estadounidense  el   la estrella de cine estadounidense </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/edicion-impresa/mexicanisimo-comida-que-tienes-que-probar_272338</t>
+          <t>https://eldeber.com.bo/futbol/el-actor-george-clooney-quiere-comprar-un-club-ingles_272354</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5ea6edae32353fc76c7dda0036a077e4</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>41</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>020b164fd5265810e7106acdb26b8084</t>
+        </is>
       </c>
       <c r="G66" t="n">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>1243</v>
       </c>
       <c r="I66" t="n">
-        <v>34</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>('quesadilla', 4)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>124</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>('ingredientes', 4)</t>
+          <t>('derby', 5)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>('condimentos', 4)</t>
+          <t>('millones', 5)</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>('club', 4)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>eeuu goleó 51 a la ya eliminada panamá y acaricia el billete a catar 2022</t>
+          <t>rusia y ucrania por qué biden cruzó una peligrosa línea al comentar que putin no puede seguir en el poder</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>con un triplete de su estrella christian pulisic el equipo estadounidense se impuso a la selección de rolando blackburn y dio un paso de gigante hacia el mundial   estados unidos goleó este domingo 51 a panamá  pulisic delantero del chelsea  estados unidos se mantiene en el segundo lugar  en una noche en la que necesitábamos conseguir una victoria contundente lo hicimos solo tiene que evitar una catastrófica goleada  el primero en clasificar mientras méxico ostenta el tercer billete  costa rica con 22 unidades ocupa la cuarta plaza panamá por su parte se queda en el quinto puesto con 18 unidades  un abatido thomas christiansen yo ya he demostrado que quiero quedarme  triplete de pulisic  disfrutó el domingo de su mejor noche de las eliminatorias  pulisic que convirtió un penal  se elevó por encima de los centrales panameños  el joven punta jesús ferreira nacido en colombia puso el 30  panamá se fue al descanso totalmente noqueada pulisic completó su hat trick  p ulisic fue sustituido en el minuto 71  aníbal godoy logró el gol de consolación para panamá  estados unidos goleó este domingo 51 a panamá  pulisic delantero del chelsea  estados unidos se mantiene en el segundo lugar  en una noche en la que necesitábamos conseguir una victoria contundente lo hicimos solo tiene que evitar una catastrófica goleada  el primero en clasificar mientras méxico ostenta el tercer billete  costa rica con 22 unidades ocupa la cuarta plaza panamá por su parte se queda en el quinto puesto con 18 unidades  un abatido thomas christiansen yo ya he demostrado que quiero quedarme  triplete de pulisic  disfrutó el domingo de su mejor noche de las eliminatorias  pulisic que convirtió un penal  se elevó por encima de los centrales panameños  el joven punta jesús ferreira nacido en colombia puso el 30  panamá se fue al descanso totalmente noqueada pulisic completó su hat trick  p ulisic fue sustituido en el minuto 71  aníbal godoy logró el gol de consolación para panamá   con un triplete de su estrella christian pulisic  y dio un paso de gigante hacia el mundial de catar2022 mientras la selección centroamericana se quedó fuera de la pelea por los boletos  convirtió dos goles de penal en los minutos 17 y 45 y otro en el 65 mientras paul arriola en el 23 y jesús ferreira en el 27 anotaron también para estados unidos mientras aníbal godoy descontó para panamá en el 86  con esta goleada ante su afición en orlando florida de las eliminatorias de la concacaf con 25 puntos y tiene casi en su mano uno de los tres boletos directos de la concacaf  se felicitó el seleccionador gregg berhalter panamá estaba luchando por su vida y los chicos hicieron un gran trabajo el equipo norteamericano   perder por al menos 6 goles en la última jornada ante costa rica en san josé para celebrar el pase el líder canadá 28 puntos gran sorpresa de las eliminatorias fue este domingo con 25 puntos   que da derecho a un repechaje ante un equipo de oceanía y ya no tiene opciones ni siquiera de alcanzar el cupo del repechaje frustrando el sueño de clasificar a su segundo mundial después del de rusia2018  seleccionador panameño reconoció que la eliminación ha hecho mucho daño y tardarán en reponerse de ella pero expresó su voluntad de seguir al mando del equipo  así se lo he hecho saber a la federación incluso a mis agentes que no recibieran ofertas de nadie porque mi primera opción es panamá vamos a ver cómo va más no puedo decir afirmó el ex jugador hispanodanés todavía traumado por el fracaso de la clasificación a rusia2018 estados unidos  ante una versión muy floja de panamá el juego se le puso de cara al equipo local con la primera diana de  cometido por michael murillo con un manotazo en la cara sobre el central walker zimmerman poco después fue paul arriola quien con su 170 m de estatura  para peinar la pelota a la escuadra sin tiempo para la reacción panameña  al alcanzar un rechace en el área rival y remachar a placer  con el cuarto gol estadounidense anotado de nuevo por pulisic tras otro penal por manotazo de godoy a miles robinson esta vez con una espectacular diana en la que compensó un mal control en el área con un caño a andrés andrade y un remate cruzado inalcanzable para luis mejía después de sostener varios enfrentamientos con jugadores panameños y ver una tarjeta amarilla  entre una gran ovación del público del explora stadium en medio del festejo estadounidense  al cabecear un centro de falta desde la derecha de eric davis con un triplete de su estrella christian pulisic  y dio un paso de gigante hacia el mundial de catar2022 mientras la selección centroamericana se quedó fuera de la pelea por los boletos  convirtió dos goles de penal en los minutos 17 y 45 y otro en el 65 mientras paul arriola en el 23 y jesús ferreira en el 27 anotaron también para estados unidos mientras aníbal godoy descontó para panamá en el 86  con esta goleada ante su afición en orlando florida de las eliminatorias de la concacaf con 25 puntos y tiene casi en su mano uno de los tres boletos directos de la concacaf  se felicitó el seleccionador gregg berhalter panamá estaba luchando por su vida y los chicos hicieron un gran trabajo el equipo norteamericano   perder por al menos 6 goles en la última jornada ante costa rica en san josé para celebrar el pase el líder canadá 28 puntos gran sorpresa de las eliminatorias fue este domingo con 25 puntos   que da derecho a un repechaje ante un equipo de oceanía y ya no tiene opciones ni siquiera de alcanzar el cupo del repechaje frustrando el sueño de clasificar a su segundo mundial después del de rusia2018  seleccionador panameño reconoció que la eliminación ha hecho mucho daño y tardarán en reponerse de ella pero expresó su voluntad de seguir al mando del equipo  así se lo he hecho saber a la federación incluso a mis agentes que no recibieran ofertas de nadie porque mi primera opción es panamá vamos a ver cómo va más no puedo decir afirmó el ex jugador hispanodanés todavía traumado por el fracaso de la clasificación a rusia2018 estados unidos  ante una versión muy floja de panamá el juego se le puso de cara al equipo local con la primera diana de  cometido por michael murillo con un manotazo en la cara sobre el central walker zimmerman poco después fue paul arriola quien con su 170 m de estatura  para peinar la pelota a la escuadra sin tiempo para la reacción panameña  al alcanzar un rechace en el área rival y remachar a placer  con el cuarto gol estadounidense anotado de nuevo por pulisic tras otro penal por manotazo de godoy a miles robinson esta vez con una espectacular diana en la que compensó un mal control en el área con un caño a andrés andrade y un remate cruzado inalcanzable para luis mejía después de sostener varios enfrentamientos con jugadores panameños y ver una tarjeta amarilla  entre una gran ovación del público del explora stadium en medio del festejo estadounidense  al cabecear un centro de falta desde la derecha de eric davis</t>
+          <t xml:space="preserve">las declaraciones fuera de guion del presidente estadounidense sobre su homólogo ruso han tensado las relaciones entre ambos países  </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/futbol/eeuu-goleo-5-1-a-la-ya-eliminada-panama-y-acaricia-el-billete-a-catar-2022_272450</t>
+          <t>https://eldeber.com.bo/bbc/rusia-y-ucrania-por-que-biden-cruzo-una-peligrosa-linea-al-comentar-que-putin-no-puede-seguir-en-el-_272465</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>24b09b117cfa11dac7efc8d9ade20255</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>73</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>fdaa5e140147df9ca7754ae307abfd64</t>
+        </is>
       </c>
       <c r="G67" t="n">
-        <v>6946</v>
+        <v>105</v>
       </c>
       <c r="H67" t="n">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I67" t="n">
-        <v>685</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>('panamá', 16)</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>('pulisic', 13)</t>
+          <t>('declaraciones', 1)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>('equipo', 9)</t>
+          <t>('fuera', 1)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>('guion', 1)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ucrania cifra en más de 500000 millones de dólares las pérdidas económicas por la guerra</t>
+          <t>por qué puerto rico se convirtió en el destino elegido por criptomillonarios e inversionistas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>las mayores pérdidas se produjeron en las infraestructuras dijo la ministra con casi 8000 kilómetros de carreteras dañadas o destruidas así como decenas de estaciones de tren y aeropuertos con un coste total de 119000 millones de dólares  el gobierno ucraniano estimó que las pérdidas económicas causadas por la guerra con rusia ascienden a más de 500000 millones de dólares la ministra cifró en 564900 millones de dólares hay que tener en cuenta que cada día las cifras cambian y por desgracia las mayores pérdidas se produjeron en las infraestructuras dijo la ministra con casi 8000 kilómetros de carreteras dañadas o destruidas svyrydenko estimó que el pib caería de 112000 millones de dólares en 2022 el gobierno ucraniano estimó que las pérdidas económicas causadas por la guerra con rusia ascienden a más de 500000 millones de dólares la ministra cifró en 564900 millones de dólares hay que tener en cuenta que cada día las cifras cambian y por desgracia las mayores pérdidas se produjeron en las infraestructuras dijo la ministra con casi 8000 kilómetros de carreteras dañadas o destruidas svyrydenko estimó que el pib caería de 112000 millones de dólares en 2022   anunció el lunes en facebook la ministra de economía ucraniana yulia svyrydenko  anunció el lunes en facebook la ministra de economía ucraniana yulia svyrydenko</t>
+          <t xml:space="preserve">los beneficios fiscales que otorga el gobierno promueven la llegada de nuevos empresarios pero los residentes denuncian que son desplazados de sus comunidades  </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/mundo/ucrania-cifra-en-mas-de-500000-millones-de-dolares-las-perdidas-economicas-por-la-guerra_272474</t>
+          <t>https://eldeber.com.bo/bbc/por-que-puerto-rico-se-convirtio-en-el-destino-elegido-por-criptomillonarios-e-inversionistas_272466</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9ddc6856c5715289e21ed22b11397623</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>88</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>34880cb2d6b1bc901590ebf6949ea04d</t>
+        </is>
       </c>
       <c r="G68" t="n">
-        <v>1333</v>
+        <v>93</v>
       </c>
       <c r="H68" t="n">
+        <v>160</v>
+      </c>
+      <c r="I68" t="n">
         <v>8</v>
       </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>('ministra', 7)</t>
-        </is>
+      <c r="J68" t="n">
+        <v>12</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>('millones', 7)</t>
+          <t>('beneficios', 1)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>('dólares', 7)</t>
+          <t>('fiscales', 1)</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>('otorga', 1)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>los mejores looks de la alfombra roja de los óscar 2022</t>
+          <t>al menos 19 muertos en tiroteo en el centro de méxico</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>las estrellas vuelven a brillar con toda su intensidad en la alfombra roja más importante del año  cerca de 2500 invitados que han abarrotado el teatro dolby de los ángeles eeu zoë kravitz los vestidos más míticos de la historia  cerca de 2500 invitados que han abarrotado el teatro dolby de los ángeles eeu zoë kravitz los vestidos más míticos de la historia   los premios óscar vuelven a escena cumplen su 94º edición y la gala ha vuelto a ser presencial por completo con   lady gaga uma thurman ariana debose y jamie lee curtis  las estrellas han recorrido los 300 metros de la red carpet de los óscar dejando  algunos estilismos que se han sumado a la lista de  jada pinkett smith la mejor compañía de will smith llegó con una obra de arte de jean paul gaultier couture con la cola más larga de la cita kristen stewart nominada a mejor actriz protagónica por spencer se vistió con chanel bastante cómoda y juvenil los premios óscar vuelven a escena cumplen su 94º edición y la gala ha vuelto a ser presencial por completo con   lady gaga uma thurman ariana debose y jamie lee curtis  las estrellas han recorrido los 300 metros de la red carpet de los óscar dejando  algunos estilismos que se han sumado a la lista de  jada pinkett smith la mejor compañía de will smith llegó con una obra de arte de jean paul gaultier couture con la cola más larga de la cita kristen stewart nominada a mejor actriz protagónica por spencer se vistió con chanel bastante cómoda y juvenil</t>
+          <t>méxico está inmerso en una espiral de violencia que deja unos 340000 muerto  al menos 19 personas murieron en un tiroteo registrado el domingo por la noche en zinapécuaro la fiscalía fue informada a las 22h30 locales 04h30 gmt del lunes de una agresión perpetrada contra los asistentes a un palenque varias personas resultaron heridas y fueron trasladadas a nosocomios el estado de michoacán y el vecino guanajuato el 10 de marzo el alcalde del municipio de aguililla en michoacán césar valencia fue asesinado a tiro al menos 19 personas murieron en un tiroteo registrado el domingo por la noche en zinapécuaro la fiscalía fue informada a las 22h30 locales 04h30 gmt del lunes de una agresión perpetrada contra los asistentes a un palenque varias personas resultaron heridas y fueron trasladadas a nosocomios el estado de michoacán y el vecino guanajuato el 10 de marzo el alcalde del municipio de aguililla en michoacán césar valencia fue asesinado a tiro   en el centro de méxico indicó este lunes la fiscalía general del estado de michoacán fge en un comunicado  en el centro de méxico indicó este lunes la fiscalía general del estado de michoacán fge en un comunicado</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/sociales/los-mejores-looks-de-la-alfombra-roja-de-los-oscar-2022_272475</t>
+          <t>https://eldeber.com.bo/mundo/al-menos-19-muertos-en-tiroteo-en-el-centro-de-mexico_272468</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>fb420015c067d80e56dddd5dfb86f5de</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>55</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5d2632ee98e352d92d370741a0da1202</t>
+        </is>
       </c>
       <c r="G69" t="n">
-        <v>1473</v>
+        <v>53</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>1171</v>
       </c>
       <c r="I69" t="n">
-        <v>162</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>('han', 6)</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>110</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>('óscar', 4)</t>
+          <t>('michoacán', 6)</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>('smith', 4)</t>
+          <t>('personas', 4)</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>('fiscalía', 4)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>interrupciones gritos y fallas técnicas en el intento de instalar el juicio contra jeanine áñez que se descompensa</t>
+          <t>rusia analiza restringir el acceso a su territorio a ciudadanos de países inamistosos lavrov</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la expresidenta debe ser procesada dentro del caso denominado golpe ii los abogados exigen que los participantes enciendan sus cámaras y las otras partes que los jueces instituyan orden  se ve afectado por interrupciones gritos y problemas técnicos el tribunal primero de sentencia anticorrupción comenzó a restringir el acceso a la audiencia el primero exigía que todos los participantes enciendas sus cámaras como manda el tribunal supremo de justicia delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes tuit de su hija lunes 28 de marzo de 2022 dieron inicio al juicio mas vergonzoso nefasto e ilegal de la historia de bolivia un juicio sin delito en un tribunal sin competencia con jueces designados a dedo…🧵  — caroriberañez @caroriberanez    exige una pena de 10 años de cárcel contra áñez que cumple más de un año detenida preventivamente la exmandataria sufrió una nueva descompensación médica y que tuvieron que intervenir galenos momento de la descompensación se ve afectado por interrupciones gritos y problemas técnicos el tribunal primero de sentencia anticorrupción comenzó a restringir el acceso a la audiencia el primero exigía que todos los participantes enciendas sus cámaras como manda el tribunal supremo de justicia delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes tuit de su hija lunes 28 de marzo de 2022 dieron inicio al juicio mas vergonzoso nefasto e ilegal de la historia de bolivia un juicio sin delito en un tribunal sin competencia con jueces designados a dedo…🧵  — caroriberañez @caroriberanez    exige una pena de 10 años de cárcel contra áñez que cumple más de un año detenida preventivamente la exmandataria sufrió una nueva descompensación médica y que tuvieron que intervenir galenos momento de la descompensación </t>
+          <t xml:space="preserve">en la lista de países inamistosos están estados unidos los miembros de la unión europea el reino unido japón canadá suiza taiwán corea del sur noruega y australia  el jefe de la diplomacia rusa informó este lunes que moscú estaba preparando un decreto para limitar   estados unidos los miembros de la unión europea el reino unido japón canadá suiza taiwán corea del sur noruega y australi el jefe de la diplomacia rusa informó este lunes que moscú estaba preparando un decreto para limitar   estados unidos los miembros de la unión europea el reino unido japón canadá suiza taiwán corea del sur noruega y australi </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/interrupciones-gritos-y-fallas-tecnicas-en-el-intento-de-instalar-el-juicio-contra-jeanine-anez-que-_272458</t>
+          <t>https://eldeber.com.bo/mundo/rusia-analiza-restringir-el-acceso-a-su-territorio-a-ciudadanos-de-paises-inamistosos-lavrov_272470</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cf88126e257807d3150aa0e930babba8</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>114</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>91f9960e16ad6193311fa0292f244182</t>
+        </is>
       </c>
       <c r="G70" t="n">
-        <v>1836</v>
+        <v>92</v>
       </c>
       <c r="H70" t="n">
-        <v>11</v>
+        <v>614</v>
       </c>
       <c r="I70" t="n">
-        <v>171</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>('tribunal', 6)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>69</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>('primero', 4)</t>
+          <t>('estados', 3)</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>('juicio', 4)</t>
+          <t>('unidos', 3)</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>('miembros', 3)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>los momentos más importantes de los óscar</t>
+          <t>exportadores “éste podría ser el peor panorama para bolivia”</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">marcada por sorpresas se llevó a cabo la 94 edición de los premios oscar incluyendo el momento en el actor will smith abofeteó al comediante chris rock  la 94 edición de los óscar    will smith y la bofetada que no fue actuada abofeteó  chris rock  confusión e no aprueba la violencia en ninguna de sus formas además de felicitar a sus ganadores la crítica respecto a ese momento es mixta seis estatuillas de diez nominaciones   a película proviene de una plataforma de streaming jane campion  en un siglo solo cinco mujeres han sido nominadas para este galardón la 94 edición de los óscar    will smith y la bofetada que no fue actuada abofeteó  chris rock  confusión e no aprueba la violencia en ninguna de sus formas además de felicitar a sus ganadores la crítica respecto a ese momento es mixta seis estatuillas de diez nominaciones   a película proviene de una plataforma de streaming jane campion  en un siglo solo cinco mujeres han sido nominadas para este galardón  jada no puedo esperar a gi jane 2 dijo en referencia a gi jane la película de 1997 en la que demi moore interpretó el papel principal con la cabeza rapada aunque al principio smith sonrió el chiste no terminó bien momentos después will smith recibió el premio a mejor actor en el cual ofreció una disculpa por el incidente     chloé zhao por la cinta  jada no puedo esperar a gi jane 2 dijo en referencia a gi jane la película de 1997 en la que demi moore interpretó el papel principal con la cabeza rapada aunque al principio smith sonrió el chiste no terminó bien momentos después will smith recibió el premio a mejor actor en el cual ofreció una disculpa por el incidente     chloé zhao por la cinta </t>
+          <t xml:space="preserve">el aumento del petróleo debido al covid ya ha causado la subida en los costos del transporte marítimo  walter vásquez walter vásquez     </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/sociales/los-momentos-mas-importantes-de-los-oscar_272461</t>
+          <t>https://eldeber.com.bo/dinero/exportadores-este-podria-ser-el-peor-panorama-para-bolivia_272295</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>d3d82e25b3067f03e5713ecf4927ce6c</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>41</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3dbb5fc80d0880086182ca464edb362d</t>
+        </is>
       </c>
       <c r="G71" t="n">
-        <v>1677</v>
+        <v>60</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="I71" t="n">
-        <v>175</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>('smith', 7)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>13</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>('jane', 6)</t>
+          <t>('walter', 2)</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>('will', 5)</t>
+          <t>('vásquez', 2)</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>('aumento', 1)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>el gobierno anticipa un movimiento de carga de hasta 200000 toneladas por el puerto de ilo para 2022</t>
+          <t>ucrania cifra en más de 500000 millones de dólares las pérdidas económicas por la guerra</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>hasta febrero el flujo de carga superó las 60000 toneladas en el primer trimestre se superarán los registros de 2021  mercadería boliviana de importación y exportación llegó a las 60000 toneladas el viceministro de comercio exterior benjamín blanco detalló que 2020 se registró un movimiento de 27462 toneladas  en esa línea sostuvo que de enero a la fecha este movimiento llegó al menos 60000 toneladas si ya estamos llegando a las 60000 toneladas esperamos al menos llegar a las 20000 toneladas manejada s  donde tanto bolivia como perú establecieron como política de estado incrementar el flujo de carga por este puerto se han logrado mejores condiciones en estos meses a partir de la reunión binacional blanco aseguró que el puerto de ilo será una importante alternativa para potenciar el comercio exterior boliviano mercadería boliviana de importación y exportación llegó a las 60000 toneladas el viceministro de comercio exterior benjamín blanco detalló que 2020 se registró un movimiento de 27462 toneladas  en esa línea sostuvo que de enero a la fecha este movimiento llegó al menos 60000 toneladas si ya estamos llegando a las 60000 toneladas esperamos al menos llegar a las 20000 toneladas manejada s  donde tanto bolivia como perú establecieron como política de estado incrementar el flujo de carga por este puerto se han logrado mejores condiciones en estos meses a partir de la reunión binacional blanco aseguró que el puerto de ilo será una importante alternativa para potenciar el comercio exterior boliviano  el puerto de ilo en perú gana protagonismo en el comercio exterior boliviano hasta febrero de este año el flujo de     los cálculos estatales prevén que en el primer trimestre de este año el movimiento supere los registros del año pasado para la presente gestión el gobierno prevé que el tránsito de carga supere las 200000 toneladas el puerto de ilo en perú gana protagonismo en el comercio exterior boliviano hasta febrero de este año el flujo de     los cálculos estatales prevén que en el primer trimestre de este año el movimiento supere los registros del año pasado para la presente gestión el gobierno prevé que el tránsito de carga supere las 200000 toneladas</t>
+          <t>las mayores pérdidas se produjeron en las infraestructuras dijo la ministra con casi 8000 kilómetros de carreteras dañadas o destruidas así como decenas de estaciones de tren y aeropuertos con un coste total de 119000 millones de dólares  el gobierno ucraniano estimó que las pérdidas económicas causadas por la guerra con rusia ascienden a más de 500000 millones de dólares la ministra cifró en 564900 millones de dólares hay que tener en cuenta que cada día las cifras cambian y por desgracia las mayores pérdidas se produjeron en las infraestructuras dijo la ministra con casi 8000 kilómetros de carreteras dañadas o destruidas svyrydenko estimó que el pib caería de 112000 millones de dólares en 2022 el gobierno ucraniano estimó que las pérdidas económicas causadas por la guerra con rusia ascienden a más de 500000 millones de dólares la ministra cifró en 564900 millones de dólares hay que tener en cuenta que cada día las cifras cambian y por desgracia las mayores pérdidas se produjeron en las infraestructuras dijo la ministra con casi 8000 kilómetros de carreteras dañadas o destruidas svyrydenko estimó que el pib caería de 112000 millones de dólares en 2022   anunció el lunes en facebook la ministra de economía ucraniana yulia svyrydenko  anunció el lunes en facebook la ministra de economía ucraniana yulia svyrydenko</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/economia/el-gobierno-anticipa-un-movimiento-de-carga-de-hasta-200000-toneladas-por-el-puerto-de-ilo-para-2022_272471</t>
+          <t>https://eldeber.com.bo/mundo/ucrania-cifra-en-mas-de-500000-millones-de-dolares-las-perdidas-economicas-por-la-guerra_272474</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2edaf104c22faa3562945a266f525742</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>100</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9ddc6856c5715289e21ed22b11397623</t>
+        </is>
       </c>
       <c r="G72" t="n">
-        <v>2192</v>
+        <v>88</v>
       </c>
       <c r="H72" t="n">
-        <v>9</v>
+        <v>1333</v>
       </c>
       <c r="I72" t="n">
-        <v>203</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>('toneladas', 13)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>126</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>('60000', 7)</t>
+          <t>('ministra', 7)</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>('comercio', 6)</t>
+          <t>('millones', 7)</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>('dólares', 7)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rusia y ucrania por qué biden cruzó una peligrosa línea al comentar que putin no puede seguir en el poder</t>
+          <t>la onu buscará implementar un cese el fuego humanitario entre rusia y ucrania</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">las declaraciones fuera de guion del presidente estadounidense sobre su homólogo ruso han tensado las relaciones entre ambos países  </t>
+          <t xml:space="preserve">la onu buscará “estudiar inmediatamente con las partes implicadas la posibilidad de acuerdos y convenios para un cese el fuego humanitario en ucrania”  cese el fuego humanitario estudiar inmediatamente con las partes implicadas la posibilidad de acuerdos y convenios para un cese el fuego humanitario en ucrania pérdida de miles de vidas el desplazamiento de millones de personas esencialmente mujeres y niños aplastante mayoría de 140  cese el fuego humanitario estudiar inmediatamente con las partes implicadas la posibilidad de acuerdos y convenios para un cese el fuego humanitario en ucrania pérdida de miles de vidas el desplazamiento de millones de personas esencialmente mujeres y niños aplastante mayoría de 140  </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/rusia-y-ucrania-por-que-biden-cruzo-una-peligrosa-linea-al-comentar-que-putin-no-puede-seguir-en-el-_272465</t>
+          <t>https://eldeber.com.bo/mundo/la-onu-buscara-implementar-un-cese-el-fuego-humanitario-entre-rusia-y-ucrania_272490</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>fdaa5e140147df9ca7754ae307abfd64</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>105</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>64c7335d4340b31747b7863febc7b328</t>
+        </is>
       </c>
       <c r="G73" t="n">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="H73" t="n">
-        <v>12</v>
+        <v>722</v>
       </c>
       <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>('declaraciones', 1)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>62</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>('fuera', 1)</t>
+          <t>('cese', 5)</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>('guion', 1)</t>
+          <t>('fuego', 5)</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>('humanitario', 5)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>por qué puerto rico se convirtió en el destino elegido por criptomillonarios e inversionistas</t>
+          <t>candidata opositora a la vicepresidencia denuncia amenazas de muerte en colombia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">los beneficios fiscales que otorga el gobierno promueven la llegada de nuevos empresarios pero los residentes denuncian que son desplazados de sus comunidades  </t>
+          <t xml:space="preserve">la candidata a vicepresidenta del frente opositor que lidera las encuestas en colombia denunció que fue amenazada de muerte dos veces en menos de un mes   francia márquez denunció amenazas de muerte  lidera las encuestas de intención de voto para las presidenciales del 29 de mayo  en menos de un mes me han amenazado  2 veces  águilas negras  objetivo militar ultraizquierda armada remanentes de los paramilitares de ultraderecha   garantizar su integridad física y la de su familia está garantizada posee esquema de protección robusto para todo premio goldman también conocido como nobel del medioambiente francia márquez denunció amenazas de muerte  lidera las encuestas de intención de voto para las presidenciales del 29 de mayo  en menos de un mes me han amenazado  2 veces  águilas negras  objetivo militar ultraizquierda armada remanentes de los paramilitares de ultraderecha   garantizar su integridad física y la de su familia está garantizada posee esquema de protección robusto para todo premio goldman también conocido como nobel del medioambiente </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/por-que-puerto-rico-se-convirtio-en-el-destino-elegido-por-criptomillonarios-e-inversionistas_272466</t>
+          <t>https://eldeber.com.bo/mundo/candidata-opositora-a-la-vicepresidencia-denuncia-amenazas-de-muerte-en-colombia_272491</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>34880cb2d6b1bc901590ebf6949ea04d</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>93</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>fa3dcd972b3010d7968ac198c76df7e4</t>
+        </is>
       </c>
       <c r="G74" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>8</v>
+        <v>1061</v>
       </c>
       <c r="I74" t="n">
-        <v>13</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>('beneficios', 1)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>92</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>('fiscales', 1)</t>
+          <t>('lidera', 3)</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>('otorga', 1)</t>
+          <t>('encuestas', 3)</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>('denunció', 3)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rusia analiza restringir el acceso a su territorio a ciudadanos de países inamistosos lavrov</t>
+          <t>congreso de perú debate destitución de castillo en juicio político relámpago</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">en la lista de países inamistosos están estados unidos los miembros de la unión europea el reino unido japón canadá suiza taiwán corea del sur noruega y australia  el jefe de la diplomacia rusa informó este lunes que moscú estaba preparando un decreto para limitar   estados unidos los miembros de la unión europea el reino unido japón canadá suiza taiwán corea del sur noruega y australi el jefe de la diplomacia rusa informó este lunes que moscú estaba preparando un decreto para limitar   estados unidos los miembros de la unión europea el reino unido japón canadá suiza taiwán corea del sur noruega y australi </t>
+          <t xml:space="preserve">se trata de la segunda moción de vacancia en ocho meses contra castillo que asumió la presidencia en julio tras ganar un apretado balotaje  moción de destitución contra el presidente izquierdista pedro castillo  con el fin de debatir y votar el pedido de vacancia de la presidencia de la república de los 130 legisladores los opositores suman unos 80  para ser honesta no existen todavía los votos hay aproximadamente 76 votos  discurso de castillo se cierre esta página juicio político falta de rumbo y permitir una presunta corrupción en su entorno destituir al presidente  declárese la permanente incapacidad moral del presidente de la república el 79% de los peruanos reprueba el desempeño del congreso la vacancia presidencial por incapacidad moral permanente  respetar la voluntad popular moción de destitución contra el presidente izquierdista pedro castillo  con el fin de debatir y votar el pedido de vacancia de la presidencia de la república de los 130 legisladores los opositores suman unos 80  para ser honesta no existen todavía los votos hay aproximadamente 76 votos  discurso de castillo se cierre esta página juicio político falta de rumbo y permitir una presunta corrupción en su entorno destituir al presidente  declárese la permanente incapacidad moral del presidente de la república el 79% de los peruanos reprueba el desempeño del congreso la vacancia presidencial por incapacidad moral permanente  respetar la voluntad popular               </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/mundo/rusia-analiza-restringir-el-acceso-a-su-territorio-a-ciudadanos-de-paises-inamistosos-lavrov_272470</t>
+          <t>https://eldeber.com.bo/mundo/congreso-de-peru-debate-destitucion-de-castillo-en-juicio-politico-relampago_272492</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>91f9960e16ad6193311fa0292f244182</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>92</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>f854dc50adde925dc87b98ab3b07f131</t>
+        </is>
       </c>
       <c r="G75" t="n">
-        <v>614</v>
+        <v>76</v>
       </c>
       <c r="H75" t="n">
-        <v>9</v>
+        <v>1464</v>
       </c>
       <c r="I75" t="n">
-        <v>69</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>('estados', 3)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>134</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>('unidos', 3)</t>
+          <t>('presidente', 6)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>('miembros', 3)</t>
+          <t>('vacancia', 5)</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>('castillo', 5)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>morbius la nueva leyenda de marvel se apoderará de la gran pantalla</t>
+          <t>crecida en el río piraí provoca un boquete que pone en riesgo al municipio de san pedro</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">esta película de acción y ciencia ficción tiene una duración de 108 minutos y es un spinoff de uno de los villanos más conocidos de spiderman se estrena el 31 de marzo  michael morbius llega a la gran pantalla el jueves 31 de marzo  ¿se sobrepondrá el bien al mal o acaso morbius sucumbirá antes sus nuevas y misteriosas necesidades? cuando morbius descubre su bestia interior ésta le aterra y como tiene miedo sus poderes también le aterran el viaje de morbius consiste en aceptar que seguirá siendo la persona que solía ser e s un spinoff de uno de los villanos más conocidos de spiderman michael morbius llega a la gran pantalla el jueves 31 de marzo  ¿se sobrepondrá el bien al mal o acaso morbius sucumbirá antes sus nuevas y misteriosas necesidades? cuando morbius descubre su bestia interior ésta le aterra y como tiene miedo sus poderes también le aterran el viaje de morbius consiste en aceptar que seguirá siendo la persona que solía ser e s un spinoff de uno de los villanos más conocidos de spiderman  ﻿    ﻿   </t>
+          <t>la gobernación de santa cruz realizó una inspección en la zona están en peligro las comunidades de hardemann y litoral  una crecida en el río piraí originó un boquete cerca de los defensivos ubicados en el municipio productivo de san pedro del departamento cruceño la comitiva llegó hasta la comunidad de hardemann adentrándose a 10 kilómetros en la zona de remanso según el equipo técnico de la gobernación este boquete pone en riesgo las comunidades vecinas y áreas productivas como hardemann y litoral  aclaró que desde hace meses se viene trabajando en este sector donde la sección del río no soporta el caudal del mismo se tiene previsto que una vez calmen las aguas se verá qué solución dar de emergencia o de manera paliativa el secretario de desarrollo sostenible y medio ambiente jhonny rojas exhortó a las autoridades locales y nacionales a trabajar de manera conjunta  que se encuentran listos para salvaguardar a los pobladores ante cualquier emergencia lea también santa cruz searpi reporta crecidas extraordinarias en ríos cruceños a causa de la intensa lluvia se registran crecidas en la angostura en ichilo y en la cuenca alta del río piraí en la cuenca media y baja del río grande en el río yapacaní y en el parapetí se están registrando pequeñas crecidas una crecida en el río piraí originó un boquete cerca de los defensivos ubicados en el municipio productivo de san pedro del departamento cruceño la comitiva llegó hasta la comunidad de hardemann adentrándose a 10 kilómetros en la zona de remanso según el equipo técnico de la gobernación este boquete pone en riesgo las comunidades vecinas y áreas productivas como hardemann y litoral  aclaró que desde hace meses se viene trabajando en este sector donde la sección del río no soporta el caudal del mismo se tiene previsto que una vez calmen las aguas se verá qué solución dar de emergencia o de manera paliativa el secretario de desarrollo sostenible y medio ambiente jhonny rojas exhortó a las autoridades locales y nacionales a trabajar de manera conjunta  que se encuentran listos para salvaguardar a los pobladores ante cualquier emergencia lea también santa cruz searpi reporta crecidas extraordinarias en ríos cruceños a causa de la intensa lluvia se registran crecidas en la angostura en ichilo y en la cuenca alta del río piraí en la cuenca media y baja del río grande en el río yapacaní y en el parapetí se están registrando pequeñas crecidas   el daño fue evaluado por la gobernación de santa cruz que desplazó una comisión hasta la zona afectada por el rebalse  el daño fue evaluado por la gobernación de santa cruz que desplazó una comisión hasta la zona afectada por el rebalse</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/te-puede-interesar/morbius-la-nueva-leyenda-de-marvel-se-apoderara-de-la-gran-pantalla_272469</t>
+          <t>https://eldeber.com.bo/economia/crecida-en-el-rio-pirai-provoca-un-boquete-que-pone-en-riesgo-al-municipio-de-san-pedro_272351</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0654202577783c2a52421bcec276202b</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>67</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3e389a468f31e8f6c87bce13583b8962</t>
+        </is>
       </c>
       <c r="G76" t="n">
-        <v>1023</v>
+        <v>87</v>
       </c>
       <c r="H76" t="n">
-        <v>7</v>
+        <v>2664</v>
       </c>
       <c r="I76" t="n">
-        <v>103</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>('morbius', 8)</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>253</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>('tiene', 3)</t>
+          <t>('río', 10)</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>('spinoff', 3)</t>
+          <t>('crecidas', 6)</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>('gobernación', 5)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>inédita reunión de israel y países árabes para abordar el acuerdo nuclear con irán</t>
+          <t xml:space="preserve">oligarca ruso abramovich y negociadores ucranianos sufrieron posible envenenamiento </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">el secretario de estado estadounidense antony blinken afirmó que su país está comprometido y decidido a que irán nunca obtenga una bomba nuclear  el secretario de estado estadounidense antony blinken y los jefes de la diplomacia de israel después de condenar unánimemente el ataque terrorista de la noche anterior en la ciudad israelí de hadera es un nuevo rostro de medio oriente blinken afirmó que su país está comprometido y decidido a que irán nunca obtenga una bomba nuclear los países de la región comparten temores y exigen muchas respuestas  la cumbre se produce en un momento en que estados unidos y sus aliados europeos el secretario de estado estadounidense antony blinken y los jefes de la diplomacia de israel después de condenar unánimemente el ataque terrorista de la noche anterior en la ciudad israelí de hadera es un nuevo rostro de medio oriente blinken afirmó que su país está comprometido y decidido a que irán nunca obtenga una bomba nuclear los países de la región comparten temores y exigen muchas respuestas  la cumbre se produce en un momento en que estados unidos y sus aliados europeos </t>
+          <t>presentaban ojos rojos lagrimeo constante y descamación de la piel en la cara y las manos  roman abramovich  dos negociadores ucranianos han sufrido síntomas que apuntan a un posible envenenamiento desarrollaron síntomas ojos enrojecidos y llorosos descamación de la cara y las manos sus vidas no corren peligro presuntos partidarios de la línea dura en moscú  los expertos occidentales no pudieron determinar la causa de los síntomas volodimir zelenski  no sancionara a abramovich argumentando que podría desempeñar un papel en las negociaciones no figura en este momento en la lista de oligarcas  sancionados  roman abramovich  dos negociadores ucranianos han sufrido síntomas que apuntan a un posible envenenamiento desarrollaron síntomas ojos enrojecidos y llorosos descamación de la cara y las manos sus vidas no corren peligro presuntos partidarios de la línea dura en moscú  los expertos occidentales no pudieron determinar la causa de los síntomas volodimir zelenski  no sancionara a abramovich argumentando que podría desempeñar un papel en las negociaciones no figura en este momento en la lista de oligarcas  sancionados   por washington ampliada varias veces desde la ofensiva rusa lanzada el 24 de febrero la última el jueves pasado por washington ampliada varias veces desde la ofensiva rusa lanzada el 24 de febrero la última el jueves pasado</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/rfi/inedita-reunion-de-israel-y-paises-arabes-para-abordar-el-acuerdo-nuclear-con-iran_272443</t>
+          <t>https://eldeber.com.bo/mundo/oligarca-ruso-abramovich-y-negociadores-ucranianos-sufrieron-posible-envenenamiento_272489</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>879e2a4cc45c725545800329e6f078d1</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>82</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>512ce63f2b351e397ce9190193398133</t>
+        </is>
       </c>
       <c r="G77" t="n">
-        <v>1114</v>
+        <v>84</v>
       </c>
       <c r="H77" t="n">
-        <v>9</v>
+        <v>1357</v>
       </c>
       <c r="I77" t="n">
-        <v>106</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>('blinken', 5)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J77" t="n">
+        <v>125</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>('secretario', 3)</t>
+          <t>('síntomas', 6)</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>('estado', 3)</t>
+          <t>('abramovich', 4)</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>('ojos', 3)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bolivia registra 184 casos positivos de covid19</t>
+          <t>covid19 dos nuevos casos y dos recuperados este martes en oruro</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la desescalada de casos persiste en el país al igual que el incremento de pacientes recuperados con 1963 registrados la presente jornada además de no reportarse decesos por el virus en bolivia se registraron 184 casos positivos de coronavirus este sábado según los datos del ministerio de salud y deportes santa cruz 33 cochabamba 18 la paz 107 chuquisaca cinco tarija uno potosí 18 oruro dos beni ninguno y pando ninguno total el país registra hasta el momento un total de 901292 casos positivos de coronavirus de los cuales 829710 son pacientes recuperados el número de decesos asciende a 21487 y actualmente hay 50095 casos activos vacunados el reporte de vacunación diario del ministerio de salud detalla que hasta la fecha 6074507 personas recibieron la primera dosis de éstas 4784783 tienen la segunda y 1208408 la tercera además 994961 ciudadanos cuentan con la vacuna janssen de una sola dosis desde la cartera de salud y deportes anuncian que hasta el sábado se aplicaron 13062659 dosis de las vacunas sputnikv astrazeneca sinopharm pfizer y janssen en todo el territorio nacional</t>
+          <t xml:space="preserve"> los nuevos contagios de covid19 este martes en oruro fueron dos cifra similar se tuvo de pacientes recuperados además se cumplieron 14 días es decir dos semanas que no hay fallecidos con esta enfermedad en el departamento el reporte del servicio departamental de salud sedes precisa que las dos personas recuperadas son del municipio de oruro al igual que uno de los contagiados con el virus mientras que el restante nuevo caso es de challapata las bajas cifras se registraron a pesar de que se hicieron 339 pruebas el martes de las cuales 330 se descartaron porque dieron negativo dos fueron positivo dos sirvieron para dar alta médica y de las cinco restantes aún se aguarda su resultado   hasta el momento en el departamento de oruro se registraron 42260 casos de coronavirus además 40583 pacientes se recuperaron 1594 fallecieron y hay 83 personas que todavía tienen el virus con los nuevos contagios la ciudad capital suma 35525 casos seguida de huanuni con 1530 challapata 1143 machacamarca 392 caracollo 359 sabaya 288 turco 267 salinas de garci mendoza 238 antequera 218 eucaliptus 213 toledo 210 poopó 209 curahuara de carangas 196 huari 185 huachacalla 163 santiago de andamarca 154 pazña 149 corque 133 pampa aullagas 103 el choro 87 quillacas 83 en tanto totora 67 huayllamarca 66 soracachi 56 esmeralda 43 yunguyo de litoral 37 belén de andamarca 28 choquecota 26 cruz de machacamarca 25 escara 23 chipaya 21 coipasa 15 la rivera cinco carangas y todos santos uno el municipio de oruro acumula 34156 personas recuperadas huanuni 1466 challapata 1055 machacamarca 374 caracollo 335 sabaya 284 turco 264 salinas de garci mendoza 233 antequera 212 eucaliptus 201 toledo 201 poopó 194 curahuara de carangas 178 huari 177 huachacalla 157 santiago de andamarca 148 pazña 146 corque 131 pampa aullagas 101 el choro 87 quillacas 80 huayllamarca 65 finalmente totora 62 soracachi 55 esmeralda 42 yunguyo de litoral 36 belén de andamarca 28 choquecota 25 cruz de machacamarca 24 escara 23 chipaya 21 coipasa 15 la rivera cinco todos santos uno y carangas uno</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/26/bolivia-registra-184-casos-positivos-de-covid-19/</t>
+          <t>https://lapatria.bo/2022/03/23/covid-19-dos-nuevos-casos-y-dos-recuperados-este-martes-en-oruro/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>2022/03/23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0577f82b653a440188bea2ca0351b10d</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>47</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>375aedc5e999e438019a11c3ca4c8aea</t>
+        </is>
       </c>
       <c r="G78" t="n">
-        <v>1090</v>
+        <v>63</v>
       </c>
       <c r="H78" t="n">
+        <v>2062</v>
+      </c>
+      <c r="I78" t="n">
         <v>5</v>
       </c>
-      <c r="I78" t="n">
-        <v>105</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>('salud', 3)</t>
-        </is>
+      <c r="J78" t="n">
+        <v>243</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>('dosis', 3)</t>
+          <t>('oruro', 4)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>('país', 2)</t>
+          <t>('machacamarca', 4)</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>('carangas', 4)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>último periódico crítico ruso suspende publicaciones hasta el final del conflicto</t>
+          <t>emiratos árabes unidos el mercado energético necesita del petróleo ruso</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> después de haber recibido el segundo y definitivo aviso de las autoridades por haber incumplido la ley ‘antifake’ “novaya gazeta” anunció la presente jornada la paralización de sus actividades hasta que concluyan las operaciones militares en ucrania “novaya gazeta” era el último periódico crítico del kremlin que se encontraba en funcionamiento tras las leyes aprobadas por el gobierno ruso la adjunta al director nadia prusenkova dijo la presente jornada que ya no pueden brindar información por su seguridad según lo informó abc internacional la dirección del medio confirmó en su página web que el organismo regulador de las comunicaciones roskomnadzor les envió una segunda advertencia respecto a la manera en que ejercían sus funciones es así que decidieron suspender las actividades del periódico en sus formatos impreso y digital “novaya gazeta” informó que esta determinación se mantendrá vigente hasta que el conflicto entre ambos países europeos culmine o al menos que las operaciones militares en ucrania cesen lo que significa que no tienen una fecha específica para retomar actividades después de que el presidente de rusia vladimir putin ordenara el inicio de las operaciones militares en ucrania “novaya gazeta” se convirtió en el medio independiente más leído por los rusos registraron más de cuatro millones de usuarios al día y más de 100000 lectores para seguir publicando el periódico decidió comenzar a usar palabras como “operación especial” y suprimir otras como “guerra” o “invasión” términos cuyo uso está penalizado por el kremlin el periódico ya mantenía una cobertura mesurada del conflicto en su formato impreso se publicaban dos hojas en blanco junto con un mensaje que decía “estas páginas deberían ser para informar sobre ucrania pero no podemos” esto fue interpretado como un reconocimiento público de los periodistas de que no se arriesgarían a ir a la cárcel el periodista denis muratov premio nobel de la paz en 2021 y fundador de ‘novaya gazeta’ anunció la semana precedente que donaría la medalla que ganó en oslo para ayudar a los refugiados ucranianos un acto con el que pretendió poner el foco sobre las millones de personas desplazadas por el conflicto / lmpt</t>
+          <t xml:space="preserve"> el mercado energético necesita del petróleo ruso indicó la mañana de hoy el ministro de energía de emiratos árabes unidos suhail al mazrouei durante el foro global de energía del consejo atlántico en dubái actualmente ningún productor es capaz de sustituir la producción de diez millones de barriles diarios de petróleo “dejando de lado la política este volumen es necesario hoy en día a no ser que alguien esté dispuesto a venir y traer diez millones de barriles no vemos a nadie que pueda sustituir a rusia” afirmó al mazrouei al mismo tiempo el ministro reiteró la necesidad de mantener estable el mercado energético y que si bien su país trata de subir la producción hasta cinco millones de barriles ello no significa que planee emprender similares pasos a los de rusia estados unidos europa japón y otras naciones instaron a los países del golfo pérsico a aumentar la producción y los suministros de crudo a fin de sustituir el petróleo ruso y bajar los precios que subieron por encima de 100 dólares por barril indicó el ministro suhail al mazrouei asimismo dijo que a mediados de marzo el primer ministro británico boris johnson visitó emiratos árabes unidos y arabia saudita en un intento de convencer a sus líderes de que bombearan más crudo / svl</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/ultimo-periodico-critico-ruso-suspende-publicaciones-hasta-el-final-del-conflicto/</t>
+          <t>https://lapatria.bo/2022/03/28/emiratos-arabes-unidos-el-mercado-energetico-necesita-del-petroleo-ruso/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>fc0373b0b1e1f523c859e5ab27785954</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>81</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>64b8ebf69993a391040edb39b6fe5c5b</t>
+        </is>
       </c>
       <c r="G79" t="n">
-        <v>2203</v>
+        <v>71</v>
       </c>
       <c r="H79" t="n">
+        <v>1257</v>
+      </c>
+      <c r="I79" t="n">
         <v>8</v>
       </c>
-      <c r="I79" t="n">
-        <v>195</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>('“novaya', 4)</t>
-        </is>
+      <c r="J79" t="n">
+        <v>130</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>('gazeta”', 4)</t>
+          <t>('ministro', 4)</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>('ucrania', 4)</t>
+          <t>('petróleo', 3)</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>('unidos', 3)</t>
         </is>
       </c>
     </row>
@@ -4725,37 +5120,42 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>2022/03/24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>a9c33eb5a34006163637b2e83aaf4e96</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>70</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>2049</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>9</v>
       </c>
-      <c r="I80" t="n">
-        <v>238</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="n">
+        <v>237</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>('oruro', 5)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>('coronavirus', 4)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>('machacamarca', 4)</t>
         </is>
@@ -4764,1404 +5164,3009 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>normas falta de granos y bloqueos ahogan producción en tres regiones</t>
+          <t>la paz envían a la cárcel a militar acusado de ayudar a escapar a su hijo presunto feminicida de vania</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">limitación de maíz condiciona carga animal en granjas avícolas de mairana y las brechas en santa cruz arroceros de beni registran pérdidas millonarias cañeros se reúnen con gobierno sin conseguir resultados  además condicionan la cosecha de arroz y soya en zonas productivas de santa cruz beni y cochabamba  ocasiona que el pollo y el huevo se acumulen en las granjas y luego se tenga que bajar el precio para poder venderlos instó al gobierno a importar maíz alertando que si no acelera este proceso más adelante el país puede sufrir una ruptura en la provisión porque perjuicios en el agro según el presidente de la asociación de productores agrícolas de beni adepab david pérez un promedio de 200 camiones cargados de arroz  se reunió con los ministros de desarrollo productivo y de desarrollo rural y tierras néstor huanca y remmy gonzales además condicionan la cosecha de arroz y soya en zonas productivas de santa cruz beni y cochabamba  ocasiona que el pollo y el huevo se acumulen en las granjas y luego se tenga que bajar el precio para poder venderlos instó al gobierno a importar maíz alertando que si no acelera este proceso más adelante el país puede sufrir una ruptura en la provisión porque perjuicios en el agro según el presidente de la asociación de productores agrícolas de beni adepab david pérez un promedio de 200 camiones cargados de arroz  se reunió con los ministros de desarrollo productivo y de desarrollo rural y tierras néstor huanca y remmy gonzales </t>
+          <t xml:space="preserve"> el teniente coronel del ejército iván li padre del presunto feminicida de vania t b fue enviado a la cárcel de san pedro de la ciudad de la paz con detención preventiva mientras duran las investigaciones del caso el plazo de la detención preventiva es de cinco meses mientras se realiza la investigación informó el coronel jhonny vega director de la fuerza especial de lucha contra la violencia felcv “el militar está acusado de autoría mediata en el caso puesto que habría ayudado a la fuga de su hijo” indicó el coronel vega el caso de feminicidio de vania fue registrado el 18 de febrero según la investigación el presunto autor vladimir iv hijo del militar detenido habría dicho que la víctima falleció por ingerir una sustancia tóxica pero se evidenció que fue estrangulada el pasado viernes el militar fue aprehendido y se realizó un allanamiento en su domicilio en la cual se secuestraron dos celulares informó el coronel vega la policía continúa en la búsqueda del prófugo vladimir iv /hnf/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/economia/normas-falta-de-granos-y-bloqueos-ahogan-produccion-en-tres-regiones_272410</t>
+          <t>https://lapatria.bo/2022/03/21/la-paz-envian-a-la-carcel-a-militar-acusado-de-ayudar-a-escapar-a-su-hijo-presunto-feminicida-de-vania/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/21</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>56e82b044ed56c6d2c4bb51cdbc757de</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>68</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>101ab6d3a2944285f73df6c296524788</t>
+        </is>
       </c>
       <c r="G81" t="n">
-        <v>1480</v>
+        <v>102</v>
       </c>
       <c r="H81" t="n">
-        <v>7</v>
+        <v>999</v>
       </c>
       <c r="I81" t="n">
-        <v>143</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>('beni', 5)</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>98</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>('arroz', 4)</t>
+          <t>('coronel', 4)</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>('desarrollo', 4)</t>
+          <t>('caso', 3)</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>('vega', 3)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>con un ajustado resultado en un referéndum el gobierno uruguayo logra mantener su ley clave</t>
+          <t>por bloqueos empresarios piden al gobierno solucionar conflictos que dañan a exportadores y pequeños productores</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">la luc que entró en vigencia en julio de 2020 tiene en total 476 artículos sobre áreas tan diversas como seguridad educación vivienda y economía que reflejan los principales puntos del programa de gobierno de la coalición oficialista  más de 26 millones de uruguayos estaban llamados a sufragar para mantener o derogar 135 de los 476 artículos de la ley de urgente consideración luc la opción sí a favor de derogar alcanzó el 488% de los votos válidos mientras que la papeleta del no una etapa superada una ley que queda firme d el sí tiene motivos para festejar porque tuvo una votación muy buena   la oposición logra capitalizar la elección saldrá fortalecida la luc que entró en vigencia en julio de 2020 tiene en total 476 artículos sobre áreas tan diversas como seguridad educación vivienda y economía el referéndum fue impulsado por organizaciones sociales la central sindical pitcnt y el opositor frente amplio izquierda dada la heterogeneidad y complejidad de asuntos tratados  más de 26 millones de uruguayos estaban llamados a sufragar para mantener o derogar 135 de los 476 artículos de la ley de urgente consideración luc la opción sí a favor de derogar alcanzó el 488% de los votos válidos mientras que la papeleta del no una etapa superada una ley que queda firme d el sí tiene motivos para festejar porque tuvo una votación muy buena   la oposición logra capitalizar la elección saldrá fortalecida la luc que entró en vigencia en julio de 2020 tiene en total 476 artículos sobre áreas tan diversas como seguridad educación vivienda y economía el referéndum fue impulsado por organizaciones sociales la central sindical pitcnt y el opositor frente amplio izquierda dada la heterogeneidad y complejidad de asuntos tratados  </t>
+          <t>esta semana se registraron tres bloqueos dos ya fueron suspendidos uno sigue activo en buena vista  sino a los pequeños productores y exportadores que generan importantes ingresos y empleo en el país  este llamado fue planteado por el oswaldo barriga presidente de la cámara de exportadores de santa cruz cadex y freddy garcía segundo vicepresidente de la cámara agropecuaria del oriente cao  la medida de presión se levantó el sábado cuando el gobierno se comprometió atender a este sector el segundo se produjo también la anterior semana en la localidad de desaguadero frontera con perú desde el jueves un grupo de padres de familia del municipio de buena vista bloquearon la ruta santa cruz – cochabamba en demanda de un bono escolar a la alcaldía se deja que las cosas vayan agrandándose hasta convertirse en temas más grandes  caso de guarayos bordea más allá de una reivindicación legal penal y jurídico que tiene ser solucionado no es posible que en bolivia se tenga que transgredir los derechos de los demás solo por tener un interés personal en la misma línea garcía sostuvo que el bloqueo en guarayos impidió el flujo comercial entre los departamentos de beni y santa cruz  la obstrucción del paso vehicular frenó la cosecha de arroz en la provincia de marbán beni y en la localidad de san pablo guarayos hay pérdidas cuantiosas y freno en el flujo de comercial a beni nosotros siempre hemos pedido que a medida que pasen estos problemas se deban de solucionar de inmediato “estas dos palabras no le significan gastos para el estado por eso hemos pedido al gobierno  sacar su leche lo medianos y los grandes tienen la capacidad de almacenar sino a los pequeños productores y exportadores que generan importantes ingresos y empleo en el país  este llamado fue planteado por el oswaldo barriga presidente de la cámara de exportadores de santa cruz cadex y freddy garcía segundo vicepresidente de la cámara agropecuaria del oriente cao  la medida de presión se levantó el sábado cuando el gobierno se comprometió atender a este sector el segundo se produjo también la anterior semana en la localidad de desaguadero frontera con perú desde el jueves un grupo de padres de familia del municipio de buena vista bloquearon la ruta santa cruz – cochabamba en demanda de un bono escolar a la alcaldía se deja que las cosas vayan agrandándose hasta convertirse en temas más grandes  caso de guarayos bordea más allá de una reivindicación legal penal y jurídico que tiene ser solucionado no es posible que en bolivia se tenga que transgredir los derechos de los demás solo por tener un interés personal en la misma línea garcía sostuvo que el bloqueo en guarayos impidió el flujo comercial entre los departamentos de beni y santa cruz  la obstrucción del paso vehicular frenó la cosecha de arroz en la provincia de marbán beni y en la localidad de san pablo guarayos hay pérdidas cuantiosas y freno en el flujo de comercial a beni nosotros siempre hemos pedido que a medida que pasen estos problemas se deban de solucionar de inmediato “estas dos palabras no le significan gastos para el estado por eso hemos pedido al gobierno  sacar su leche lo medianos y los grandes tienen la capacidad de almacenar  ante el perjuicio generado por los bloqueo de caminos el sector empresarial pidió al gobierno tratar de solucionar los conflictos de forma inmediata porque terminan perjudicando no solo a los grandes empresarios  distintas movilizaciones entraron en cuarto intermedio en las últimas horas  el programa ¡qué semana! que se emite por el deber radio ante el perjuicio generado por los bloqueo de caminos el sector empresarial pidió al gobierno tratar de solucionar los conflictos de forma inmediata porque terminan perjudicando no solo a los grandes empresarios  distintas movilizaciones entraron en cuarto intermedio en las últimas horas  el programa ¡qué semana! que se emite por el deber radio</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/rfi/con-un-ajustado-resultado-en-un-referendum-el-gobierno-uruguayo-logra-mantener-su-ley-clave_272446</t>
+          <t>https://eldeber.com.bo/economia/por-bloqueos-empresarios-piden-al-gobierno-solucionar-conflictos-que-danan-a-exportadores-y-pequenos_272280</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3d3ce832e7f3c0b01b8c9b588b2597be</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>91</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>c83b00a9ab2d8a03ff9e88e015b77fb3</t>
+        </is>
       </c>
       <c r="G82" t="n">
-        <v>1737</v>
+        <v>112</v>
       </c>
       <c r="H82" t="n">
-        <v>9</v>
+        <v>3896</v>
       </c>
       <c r="I82" t="n">
-        <v>182</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>('luc', 5)</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>365</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>('tiene', 5)</t>
+          <t>('santa', 6)</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>('476', 5)</t>
+          <t>('cruz', 6)</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>('gobierno', 6)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>rodaria comercializa en bolivia la renovada camioneta zna rich 6</t>
+          <t>¿qué es la alopecia areata? causas de la enfermedad y lo que ha dicho jada pinkett smith al respecto</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>zna rich 6 es la más robusta y económica de su tipo ideal para personas diferentes que buscan seguridad y confort  rodaria        zna rich                 zna rich 6 rodaria zhengzhou nissan automobile rodaria ltda  zna dongfeng randon    zna rich 6 la transmisión es manual de cinco velocidades + reversa mcpherson estabilidad superior gracias al sistema de control de estabilidad esp representan un sistema de seguridad activo que mejora la visibilidad del vehículo detalles exteriores cromados de lujo en los jaladores de puertas y retrovisores on garantía de seis años o 150000 kilómetros respalda y garantiza rodaria ltda rodaria        zna rich                 zna rich 6 rodaria zhengzhou nissan automobile rodaria ltda  zna dongfeng randon    zna rich 6 la transmisión es manual de cinco velocidades + reversa mcpherson estabilidad superior gracias al sistema de control de estabilidad esp representan un sistema de seguridad activo que mejora la visibilidad del vehículo detalles exteriores cromados de lujo en los jaladores de puertas y retrovisores on garantía de seis años o 150000 kilómetros respalda y garantiza rodaria ltda  en el marco de la expoauto 2022 la empresa automotriz  presento al mercado boliviano la renovada  apta para personas diferentes que merecen una camioneta extraordinaria en el marco de la expoauto 2022 la empresa automotriz  presento al mercado boliviano la renovada  apta para personas diferentes que merecen una camioneta extraordinaria</t>
+          <t xml:space="preserve">una broma relacionada con la alopecia de jada pinkett por parte de chris rock uno de los conductores de la gala de los óscar provocó que will smith esposo de la actriz se levantara y lo abofeteara   la esposa del actor will smith podría estar originada por una predisposición genética  alopecia areata enfermedad poco común es una pérdida de pelo circunscrita a un área lo que se conoce como placa generalmente en el cuero cabelludo según el dermatólogo la pérdida de pelo puede afectar a la mitad de la extensión del cuero cabelludo alopecia de jada pinkett smith trastorno genético y autoinmune esa pérdida acontece de forma brusca aunque no siempre hay una destrucción irreversible del folículo piloso alteraciones de tipo emocional pueden agravar la alopecia puede afectar tanto a hombres como a mujeres  jada pinkett smith temblaba de miedo pinkett smith reveló en 2018 que fue diagnosticada con alopecia  mucha gente me ha preguntado por qué he estado usando turbantes hay gente con cáncer con niños enfermos veo que el poder superior se lleva cosas todos los días   la esposa del actor will smith podría estar originada por una predisposición genética  alopecia areata enfermedad poco común es una pérdida de pelo circunscrita a un área lo que se conoce como placa generalmente en el cuero cabelludo según el dermatólogo la pérdida de pelo puede afectar a la mitad de la extensión del cuero cabelludo alopecia de jada pinkett smith trastorno genético y autoinmune esa pérdida acontece de forma brusca aunque no siempre hay una destrucción irreversible del folículo piloso alteraciones de tipo emocional pueden agravar la alopecia puede afectar tanto a hombres como a mujeres  jada pinkett smith temblaba de miedo pinkett smith reveló en 2018 que fue diagnosticada con alopecia  mucha gente me ha preguntado por qué he estado usando turbantes hay gente con cáncer con niños enfermos veo que el poder superior se lleva cosas todos los días  </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/te-puede-interesar/rodaria-comercializa-en-bolivia-la-renovada-camioneta-zna-rich-6_272046</t>
+          <t>https://eldeber.com.bo/dw/que-es-la-alopecia-areata-causas-de-la-enfermedad-y-lo-que-ha-dicho-jada-pinkett-smith-al-respecto_272495</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>64e66f4bfb11650214bddda3ce7688cd</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>64</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4239c479ad526caa77bb14937ee67490</t>
+        </is>
       </c>
       <c r="G83" t="n">
-        <v>1477</v>
+        <v>100</v>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>1946</v>
       </c>
       <c r="I83" t="n">
-        <v>154</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>('zna', 9)</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="J83" t="n">
+        <v>197</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>('rodaria', 8)</t>
+          <t>('alopecia', 9)</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>('rich', 7)</t>
+          <t>('smith', 9)</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>('pinkett', 7)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>pinturas coral apoyó en la restauración del mercado 4 de noviembre aportando color y protección</t>
+          <t>ana lucía y alberto tienen una boda de revista</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">a dos meses del incendio en el mercado 4 de noviembre pinturas coral contribuyó en la transformación y nueva puesta en valor de este emblemático espacio de la comunidad de santa cruz   pinturas coral transformación del mercado 4 de noviembre llenando de color y vida los locales el apoyo se enmarca dentro de la iniciativa “vení al color” de la marca coral compromiso y la responsabilidad que implica la protección de un simbólico espacio acerca de pinturas coral bolivia coral marca del grupo akzonobel  su fábrica localizada en el parque industrial desde 1994 en la paz y cochabamba también se pueden encontrar sus productos en gladymar visite las cuentas de coral en redes sociales acerca de akzonobel propósito de people planet paint personas planeta pintura nombres como coral dulux international sikkens e interpon entre muchas otras pinturas coral transformación del mercado 4 de noviembre llenando de color y vida los locales el apoyo se enmarca dentro de la iniciativa “vení al color” de la marca coral compromiso y la responsabilidad que implica la protección de un simbólico espacio acerca de pinturas coral bolivia coral marca del grupo akzonobel  su fábrica localizada en el parque industrial desde 1994 en la paz y cochabamba también se pueden encontrar sus productos en gladymar visite las cuentas de coral en redes sociales acerca de akzonobel propósito de people planet paint personas planeta pintura nombres como coral dulux international sikkens e interpon entre muchas otras  una vez más   una marca del grupo akzonobel participa activamente en la   devolviéndole su color y atractivo la pintura además de otorgar protección tiene el poder de transformar e impactar en las comunidades con el uso del color revitalizando espacios emblemáticos y valiosos para las comunidades            una vez más   una marca del grupo akzonobel participa activamente en la   devolviéndole su color y atractivo la pintura además de otorgar protección tiene el poder de transformar e impactar en las comunidades con el uso del color revitalizando espacios emblemáticos y valiosos para las comunidades           </t>
+          <t xml:space="preserve">después de una década de noviazgo ana lucía gutiérrez y alberto sottocorno se unieron en matrimonio en una noche encantadora  ana lucía gutiérrez alberto sottocorno enamorar por 10 años encantadora museo de historia y la religiosa en la iglesia la macarena  180 invitados  ana lucía gutiérrez alberto sottocorno enamorar por 10 años encantadora museo de historia y la religiosa en la iglesia la macarena  180 invitados  </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/te-puede-interesar/pinturas-coral-apoyo-en-la-restauracion-del-mercado-4-de-noviembre-aportando-color-y-proteccion_272174</t>
+          <t>https://eldeber.com.bo/sociales/ana-lucia-y-alberto-tienen-una-boda-de-revista_272278</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>849779555b550d3ca37a252584be5b6a</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>95</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3b22c1dbea93f58e9309159adbad5499</t>
+        </is>
       </c>
       <c r="G84" t="n">
-        <v>2113</v>
+        <v>46</v>
       </c>
       <c r="H84" t="n">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="I84" t="n">
-        <v>195</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>('coral', 13)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>44</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>('color', 6)</t>
+          <t>('ana', 3)</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>('marca', 6)</t>
+          <t>('lucía', 3)</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>('gutiérrez', 3)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nayib bukele casi 600 capturas en solo dos días en el salvador</t>
+          <t>la magnífica interpretación de munasquechay por la guitarra de piraí vaca</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>si la comunidad internacional está preocupada por sus angelitos vengan y tráiganles comida expresó el presidente porque dijo no quitará presupuesto en las escuelas para darle de comer a estos terroristas  presidente de el salvador nayib bukele  régimen de excepción restringiendo las libertades civiles y ampliando los poderes de la policía  el gobierno atribuye a las pandillas de ms13 y de   haber desatado una ola de violencia en el país  pandilleros les toca el cementerio cárcel o la cama de un hospital  para la inmensa mayoría de personas la vida continúa normal decretar emergencia máxima en todas las cárceles donde permanecen más de 17000 de los 70000 miembros de las pandillas ms13 y barrio 18   si la comunidad internacional está preocupada por sus angelitos vengan y tráiganles comida gobierno proteja a la población con medidas sostenibles y respetuosas de los ddhh el departamento del tesoro de estados unidos sancionó a dos funcionarios de su g obierno por presuntamente haber negociado con pandillas mandatario es señalado por sus opositores de tener actitudes autoritarias presidente de el salvador nayib bukele  régimen de excepción restringiendo las libertades civiles y ampliando los poderes de la policía  el gobierno atribuye a las pandillas de ms13 y de   haber desatado una ola de violencia en el país  pandilleros les toca el cementerio cárcel o la cama de un hospital  para la inmensa mayoría de personas la vida continúa normal decretar emergencia máxima en todas las cárceles donde permanecen más de 17000 de los 70000 miembros de las pandillas ms13 y barrio 18   si la comunidad internacional está preocupada por sus angelitos vengan y tráiganles comida gobierno proteja a la población con medidas sostenibles y respetuosas de los ddhh el departamento del tesoro de estados unidos sancionó a dos funcionarios de su g obierno por presuntamente haber negociado con pandillas mandatario es señalado por sus opositores de tener actitudes autoritarias  ﻿ ﻿</t>
+          <t xml:space="preserve"> el guitarrista cruceño grabó la canción de los kjarkas desde el taller de lorgio vaca próximamente presentará una trilogía camba   piraí vaca repertorio exquisito  munasquechay que significa mi buen amor mágicamente  guitarra  videoclip ya está disponible en youtube elmer y gonzalo hermosa  la rueda  trilogía camba el guajojó jumechi y lamento yuqui  piraí vaca repertorio exquisito  munasquechay que significa mi buen amor mágicamente  guitarra  videoclip ya está disponible en youtube elmer y gonzalo hermosa  la rueda  trilogía camba el guajojó jumechi y lamento yuqui  y el orgullo boliviano tenía que estar en él  ​ y el orgullo boliviano tenía que estar en él  ​</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/dw/nayib-bukele-casi-600-capturas-en-solo-dos-dias-en-el-salvador_272449</t>
+          <t>https://eldeber.com.bo/escenas/la-magnifica-interpretacion-de-munasquechay-por-la-guitarra-de-pirai-vaca_272355</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>198f9c81dc518ab14bb1d2b7b9f8da4f</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>62</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>d37b6c9e2ee7e81ff67502585c9b3a27</t>
+        </is>
       </c>
       <c r="G85" t="n">
-        <v>1981</v>
+        <v>73</v>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>671</v>
       </c>
       <c r="I85" t="n">
-        <v>177</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>('pandillas', 6)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>73</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>('gobierno', 4)</t>
+          <t>('vaca', 3)</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>('ms13', 4)</t>
+          <t>('trilogía', 3)</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>('camba', 3)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>los traficantes que se hacen pasar por falsos voluntarios para captar refugiadas ucranianas</t>
+          <t>cruceña camila soruco busca sus sueños en reality de canto estadounidense</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">para depredadores sexuales y traficantes de personas conflictos como los de ucrania son una oportunidad para cazar a refugiadas y menores de edad  </t>
+          <t xml:space="preserve">la cantante boliviana medirá su talento en el programa de la cadena televisiva estrella tv  camila soruco  mpulsar su carrera musical  tengo talento mucho talento este lunes a las 2300 ana bárbara y carolina ross   pepe garza don cheto el yaki dejar una huella imborrable durante tres meses camila soruco  mpulsar su carrera musical  tengo talento mucho talento este lunes a las 2300 ana bárbara y carolina ross   pepe garza don cheto el yaki dejar una huella imborrable durante tres meses  cadena televisiva estrella tv la audición de la cantante cruceña saldrá al aire   y se podrá ver en bolivia a través de la página web de estrella tv  el presentador de tv   y el ex vocalista de banda el recodo luis alfonso partida   la temporada número 26 del concurso de canto arrancó el 21 de marzo  cadena televisiva estrella tv la audición de la cantante cruceña saldrá al aire   y se podrá ver en bolivia a través de la página web de estrella tv  el presentador de tv   y el ex vocalista de banda el recodo luis alfonso partida   la temporada número 26 del concurso de canto arrancó el 21 de marzo </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/los-traficantes-que-se-hacen-pasar-por-falsos-voluntarios-para-captar-refugiadas-ucranianas_272441</t>
+          <t>https://eldeber.com.bo/sociales/crucena-camila-soruco-busca-sus-suenos-en-reality-de-canto-estadounidense_272360</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>144446f9eafcf0f296f046aabeb77937</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>91</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0c9f3f1ad2d5f6af2992770a9bc07f23</t>
+        </is>
       </c>
       <c r="G86" t="n">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="H86" t="n">
+        <v>1094</v>
+      </c>
+      <c r="I86" t="n">
         <v>8</v>
       </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>('depredadores', 1)</t>
-        </is>
+      <c r="J86" t="n">
+        <v>127</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>('sexuales', 1)</t>
+          <t>('tv', 7)</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>('traficantes', 1)</t>
+          <t>('talento', 5)</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>('estrella', 5)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>los principios de empoderamiento de las mujeres cumplen un año en bolivia</t>
+          <t>gabriela martins comparte conmovedor video de su hermano marcelo y su padre</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">en el país las mujeres ocupan el 319% de los cargos directivos en empresas pequeñas el 108% en las empresas medianas y el 42% en empresas grandes   una iniciativa de cainco y onu mujeres que ayuda a las empresas a promover la equidad de género  todavía persiste una predominancia masculina a la hora de traducir esa educación en oportunidades laborales  tres de cada diez investigadores científicos ya son mujeres diversas empresas en el país tomaron cartas en el asunto alineándose a la agenda de desarrollo sostenible contamos con un 29% de mujeres que ocupan un cargo de jerarquía entre los directivos de la empresa la primera mujer en llegar a un cargo de jerarquía dentro del sector de las telecomunicaciones en bolivia  una iniciativa de cainco y onu mujeres que ayuda a las empresas a promover la equidad de género  todavía persiste una predominancia masculina a la hora de traducir esa educación en oportunidades laborales  tres de cada diez investigadores científicos ya son mujeres diversas empresas en el país tomaron cartas en el asunto alineándose a la agenda de desarrollo sostenible contamos con un 29% de mujeres que ocupan un cargo de jerarquía entre los directivos de la empresa la primera mujer en llegar a un cargo de jerarquía dentro del sector de las telecomunicaciones en bolivia </t>
+          <t xml:space="preserve">cuando presumo a mi hermano es para compartir con todos ustedes lo grandioso que es él escribió junto a un video en el que el futbolista cuida a su padre enfermo   marcelo martins  mauro martins de salud espero de corazón que me puedan ayudar a orar y a tener mucha fe necesita con urgencia un trasplante de hígado  conmovedor momento de su hermano futbolista y su padre acaricia besa y abraza cuando presumo a mi hermano que por cierto lo hago con mucho orgullo es para compartir con todos ustedes lo grandioso que es él marcelo martins  mauro martins de salud espero de corazón que me puedan ayudar a orar y a tener mucha fe necesita con urgencia un trasplante de hígado  conmovedor momento de su hermano futbolista y su padre acaricia besa y abraza cuando presumo a mi hermano que por cierto lo hago con mucho orgullo es para compartir con todos ustedes lo grandioso que es él </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/te-puede-interesar/los-principios-de-empoderamiento-de-las-mujeres-cumplen-un-ano-en-bolivia_272216</t>
+          <t>https://eldeber.com.bo/sociales/gabriela-martins-comparte-conmovedor-video-de-su-hermano-marcelo-y-su-padre_272345</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>f39837ec70c479789e77567fd363d97f</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>73</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>03adaf99fc93fcd2ec5813dbbd3f6719</t>
+        </is>
       </c>
       <c r="G87" t="n">
-        <v>1303</v>
+        <v>75</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>880</v>
       </c>
       <c r="I87" t="n">
-        <v>116</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>('mujeres', 7)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>92</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>('empresas', 7)</t>
+          <t>('hermano', 5)</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>('cargo', 4)</t>
+          <t>('martins', 4)</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>('cuando', 3)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>un extraditable fue liberado en 2019 en un operativo realizado en el aeródromo la cruceña</t>
+          <t>¿cómo quitar la barriga de papá?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fueron capturados 13 hombres entre ellos el extraditable rolin gonzalo parada gutiérrez el resto de los aprehendidos quedaron libres porque la felcn no presentó pruebas también devolvieron las avionetas  se capturó a 14 hombres entre ellos un extraditable solicitado por brasil por delito de tráfico internacional de drogas por esa razón los 13 capturados fueron liberados y las avionetas que habían sido precintadas se devolvieron  de la misma forma todos salieron libres por órdenes del entonces jefe nacional de la felcn maximiliano dávila pérez hoy preso en la cárcel de san pedro de la paz traficantes liberados  general de la felcn coronel edwin pérez mendieta y participaron la jefatura departamental de felcn de santa cruz los grupos gisuqoriente giaeforiente y umoparoriente sin pruebas tras el operativo e informó que el resultado fue negativo es decir que no hallaron restos de droga las naves fueron devueltas a sus propietarios el extraditable en el grupo mientras se completaban los trámites para hacer efectiva la extradición quién es rolín gonzalo parada el reporte señalaba que esta persona era buscada desde 2013 en brasil en junio de 2013 rolín gonzalo estuvo en campo grande mato grosso do sul brasil para actividades de la organización habiéndose encontrado con sus amigos iván fernández carvalho y adalto martins ferreira cayó preso y salió libre  la exautoridad informó que rolín gonzalo paradaalias de ‘federi’ fue capturado cuando caminaba por la zona de equipetrol él pesaba una notificación roja de interpol de brasil acusado por tráfico internacional de drogas y asociación criminal  por daño calificado asociación delictuosa amenazas coacción allanamiento y robo agravado en la propiedad ‘la colita’ agentes de la felcn que pidieron anonimato se preguntaron ¿qué hacía en el aeródromo el extraditable   fiscalía abrió investigación  del extraditable rolín gonzalo parada en este aeródromo sus vínculos con los 13 hombres que fueron capturados en el lugar entre ellos figuraban rolín gonzalo parada gutiérrez pedro montenegro paz tres avionetas aterrizan en el aeródromo le cambiaron de nombre y se observa alto tráfico según registros de la dirección general de aeronáutica civil dgac el aeródromo ubicado  se llamaba aeródromo mundaka pero cambió de nombre y ahora se llama aeroparque la cruceña  realizan investigaciones en torno a un megaoperativo realizado en julio de 2019 se capturó a 14 hombres entre ellos un extraditable solicitado por brasil por delito de tráfico internacional de drogas por esa razón los 13 capturados fueron liberados y las avionetas que habían sido precintadas se devolvieron  de la misma forma todos salieron libres por órdenes del entonces jefe nacional de la felcn maximiliano dávila pérez hoy preso en la cárcel de san pedro de la paz traficantes liberados  general de la felcn coronel edwin pérez mendieta y participaron la jefatura departamental de felcn de santa cruz los grupos gisuqoriente giaeforiente y umoparoriente sin pruebas tras el operativo e informó que el resultado fue negativo es decir que no hallaron restos de droga las naves fueron devueltas a sus propietarios el extraditable en el grupo mientras se completaban los trámites para hacer efectiva la extradición quién es rolín gonzalo parada el reporte señalaba que esta persona era buscada desde 2013 en brasil en junio de 2013 rolín gonzalo estuvo en campo grande mato grosso do sul brasil para actividades de la organización habiéndose encontrado con sus amigos iván fernández carvalho y adalto martins ferreira cayó preso y salió libre  la exautoridad informó que rolín gonzalo paradaalias de ‘federi’ fue capturado cuando caminaba por la zona de equipetrol él pesaba una notificación roja de interpol de brasil acusado por tráfico internacional de drogas y asociación criminal  por daño calificado asociación delictuosa amenazas coacción allanamiento y robo agravado en la propiedad ‘la colita’ agentes de la felcn que pidieron anonimato se preguntaron ¿qué hacía en el aeródromo el extraditable   fiscalía abrió investigación  del extraditable rolín gonzalo parada en este aeródromo sus vínculos con los 13 hombres que fueron capturados en el lugar entre ellos figuraban rolín gonzalo parada gutiérrez pedro montenegro paz tres avionetas aterrizan en el aeródromo le cambiaron de nombre y se observa alto tráfico según registros de la dirección general de aeronáutica civil dgac el aeródromo ubicado  se llamaba aeródromo mundaka pero cambió de nombre y ahora se llama aeroparque la cruceña  realizan investigaciones en torno a un megaoperativo realizado en julio de 2019  asimismo en una audiencia se hizo conocer al juzgador que al menos 10 avionetas precintadas durante el operativo con sospechas de haber sido usadas para el transporte de cocaína de alta pureza fueron sometidas al aspirado pero tras una pericia realizada por especialistas químicos s según romero era buscado para su extradición a brasil por ser considerado un capo narcotraficante dijo que se lo capturó gracias a a investigaciones desarrolladas por el centro regional de inteligencia antinarcóticos cerian señaló que era parte de una célula criminal y que sobre   cerca de cotoca opera desde 2014 el aeroparque cuenta con varios hangares a lo largo de la pista de tierra de 580 metros de largo por 18 de ancho autorizado por la dgac con el registro 023 en el ingreso al aeródromo un letrero informa de que todas las operaciones tienen el control de la felcn y de la dgac además del aeropuerto de el trompillo y de viru viru policías de la felcn afirman que este aeródromo presenta un alto tráfico aéreo desde sus inicios el deber evidenció que en menos de una hora aterrizaron tres avionetas en la pista de este aeródromo luego en tierra las naves fueron escoltadas hasta sus hangares por civiles de pantalones cortos en sus motocicletas el director nacional de la felcn coronel josé maría velasco informó que se   aseguró que en esta gestión no se permitirá actos irregulares pero que ese aeródromo está bajo control asimismo en una audiencia se hizo conocer al juzgador que al menos 10 avionetas precintadas durante el operativo con sospechas de haber sido usadas para el transporte de cocaína de alta pureza fueron sometidas al aspirado pero tras una pericia realizada por especialistas químicos s según romero era buscado para su extradición a brasil por ser considerado un capo narcotraficante dijo que se lo capturó gracias a a investigaciones desarrolladas por el centro regional de inteligencia antinarcóticos cerian señaló que era parte de una célula criminal y que sobre   cerca de cotoca opera desde 2014 el aeroparque cuenta con varios hangares a lo largo de la pista de tierra de 580 metros de largo por 18 de ancho autorizado por la dgac con el registro 023 en el ingreso al aeródromo un letrero informa de que todas las operaciones tienen el control de la felcn y de la dgac además del aeropuerto de el trompillo y de viru viru policías de la felcn afirman que este aeródromo presenta un alto tráfico aéreo desde sus inicios el deber evidenció que en menos de una hora aterrizaron tres avionetas en la pista de este aeródromo luego en tierra las naves fueron escoltadas hasta sus hangares por civiles de pantalones cortos en sus motocicletas el director nacional de la felcn coronel josé maría velasco informó que se   aseguró que en esta gestión no se permitirá actos irregulares pero que ese aeródromo está bajo control</t>
+          <t xml:space="preserve">el abdomen prominente significa mayor riesgo de sufrir diabetes y enfermedades cardiovasculares  cuando el exceso de grasa se acumula de forma preferente en la cavidad abdominal hablamos de obesidad abdominal o central o sea los típicos barrigones obesidad abdominal un adulto que solo presenta obesidad abdominal puede encontrar la solución a su problema en un plan de alimentación adecuado menos azúcar menos barriga es imprescindible que haya una ausencia de carbohidratos simples monosacáridos como el azúcar de mesa sacarosa y los productos que la incluyen como postres helados galletas bollerías gaseosas plan alimentario se toma en cuenta un ritmo de ejercicios de acuerdo con su condición física edad y sobre todo su estado metabólico debe empezar poco a poco cuidado con la masa corporal en el caso de los hombres el riesgo aumenta si la circunferencia de cintura mide más de 90 centímetros cuando el exceso de grasa se acumula de forma preferente en la cavidad abdominal hablamos de obesidad abdominal o central o sea los típicos barrigones obesidad abdominal un adulto que solo presenta obesidad abdominal puede encontrar la solución a su problema en un plan de alimentación adecuado menos azúcar menos barriga es imprescindible que haya una ausencia de carbohidratos simples monosacáridos como el azúcar de mesa sacarosa y los productos que la incluyen como postres helados galletas bollerías gaseosas plan alimentario se toma en cuenta un ritmo de ejercicios de acuerdo con su condición física edad y sobre todo su estado metabólico debe empezar poco a poco cuidado con la masa corporal en el caso de los hombres el riesgo aumenta si la circunferencia de cintura mide más de 90 centímetros </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/un-extraditable-fue-liberado-en-2019-en-un-operativo-realizado-en-el-aerodromo-la-crucena_272401</t>
+          <t>https://eldeber.com.bo/salud-y-bienestar/como-quitar-la-barriga-de-papa_271357</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>18/3/2022</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>d2f108fa076d5f3e80c52302f8bbccaa</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>89</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5ca756475a2fb142602f183b8739c51b</t>
+        </is>
       </c>
       <c r="G88" t="n">
-        <v>7448</v>
+        <v>32</v>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>1703</v>
       </c>
       <c r="I88" t="n">
-        <v>708</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>('aeródromo', 18)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>163</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>('felcn', 15)</t>
+          <t>('abdominal', 8)</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>('fueron', 11)</t>
+          <t>('obesidad', 6)</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>('plan', 4)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gobernación exige respeto a concurso de méritos y examen de competencia para acceder a 234 ítems de salud</t>
+          <t>patra privé con emana la revolución de la ropa deportiva</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>el ministerio de salud envió una nota a la gobernación en la que indica que no reconoce ese proceso que fue iniciado hace más de un año según erwin viruez es la tercera vez desde el viernes que la gobernación reclama al gobierno por falta de atención a demandas de salud   cumpla con la institucionalización de 234 ítems para los cuales lanzó un concurso de méritos no reconoce el mencionado concurso de méritos y competencias para  tribunal de garantías que le exige al ministerio que concluya el proceso  exigir ante el ministerio que estos memorándums se emitan  personal administrativo que trabajará en el hospital de montero puede contribuir a aliviar la situación de hacinamiento   cumpla con la institucionalización de 234 ítems para los cuales lanzó un concurso de méritos no reconoce el mencionado concurso de méritos y competencias para  tribunal de garantías que le exige al ministerio que concluya el proceso  exigir ante el ministerio que estos memorándums se emitan  personal administrativo que trabajará en el hospital de montero puede contribuir a aliviar la situación de hacinamiento    el servicio departamental de salud sedes de santa cruz nuevamente arremete en contra del gobierno nacional por cuestiones relacionadas con la salud este lunes exigió a través de su director erwin viruez que el ministerio del ramo   y competencias hace más de un año viruez explicó que recibieron una nota del ministerio de salud en el sentido de que   médicos enfermeras y bioquímicos que según dijo está enmarcado en la ley 3131 de ejercicio profesional médico “el ministerio hoy no quiere concluir con este proceso y emitir los memorándums para estos colegas profesionales que han ganado estos concursos de méritos y examen de competencia … desconociendo la tutela que se le ha concedido a través de un  con la emisión de los memorándums para estos ganadores del concurso” manifestó viruez se comprometió a hacer la representación correspondiente y  para que los profesionales puedan fortalecer el sistema de salud el viernes pasado la gobernación pidió al presidente luis arce que los ministerios de salud y economía firmaran la resolución biministerial que permitirá la creación de ítems para el  que debe abrir cuanto antes según una sentencia constitucional  además pidió al ministerio de salud la firma de convenios con centros privados para que puedan atender pacientes del sistema único de salud lo que  en la sala de terapia intensiva para neonatos de la maternidad percy boland el servicio departamental de salud sedes de santa cruz nuevamente arremete en contra del gobierno nacional por cuestiones relacionadas con la salud este lunes exigió a través de su director erwin viruez que el ministerio del ramo   y competencias hace más de un año viruez explicó que recibieron una nota del ministerio de salud en el sentido de que   médicos enfermeras y bioquímicos que según dijo está enmarcado en la ley 3131 de ejercicio profesional médico “el ministerio hoy no quiere concluir con este proceso y emitir los memorándums para estos colegas profesionales que han ganado estos concursos de méritos y examen de competencia … desconociendo la tutela que se le ha concedido a través de un  con la emisión de los memorándums para estos ganadores del concurso” manifestó viruez se comprometió a hacer la representación correspondiente y  para que los profesionales puedan fortalecer el sistema de salud el viernes pasado la gobernación pidió al presidente luis arce que los ministerios de salud y economía firmaran la resolución biministerial que permitirá la creación de ítems para el  que debe abrir cuanto antes según una sentencia constitucional  además pidió al ministerio de salud la firma de convenios con centros privados para que puedan atender pacientes del sistema único de salud lo que  en la sala de terapia intensiva para neonatos de la maternidad percy boland</t>
+          <t xml:space="preserve">la ropa que une moda con tecnología para embellecer la silueta y beneficiar la salud  la nueva colección patra privé confeccionada con emana sus microgránulos activan la circulación contribuyendo a la eliminación de toxinas esta es una gran apuesta de la creadora de la línea amelia solórzano subelza que ha logrado afianzar su empresa a lo largo de 28 años queremos acompañar a la mujer actual en sus logros y metas la colección de patra privé en emana incluye lotes reducidos para exclusividad de la clientela visita la tienda de patra en la av santa cruz #899 la nueva colección patra privé confeccionada con emana sus microgránulos activan la circulación contribuyendo a la eliminación de toxinas esta es una gran apuesta de la creadora de la línea amelia solórzano subelza que ha logrado afianzar su empresa a lo largo de 28 años queremos acompañar a la mujer actual en sus logros y metas la colección de patra privé en emana incluye lotes reducidos para exclusividad de la clientela visita la tienda de patra en la av santa cruz #899 </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/gobernacion-exige-respeto-a-concurso-de-meritos-y-examen-de-competencia-para-acceder-a-234-items-de-_272460</t>
+          <t>https://eldeber.com.bo/te-puede-interesar/patra-prive-con-emana-la-revolucion-de-la-ropa-deportiva_271681</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>23/3/2022</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>aa433fbfacaf3dc81337f65236b71459</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>105</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>002f13b9c3c68ab35e5f88ae873dd903</t>
+        </is>
       </c>
       <c r="G89" t="n">
-        <v>3881</v>
+        <v>56</v>
       </c>
       <c r="H89" t="n">
-        <v>11</v>
+        <v>1040</v>
       </c>
       <c r="I89" t="n">
-        <v>329</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>('salud', 16)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>102</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>('ministerio', 13)</t>
+          <t>('patra', 6)</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>('viruez', 7)</t>
+          <t>('colección', 4)</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>('privé', 4)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>el ine asegura que se cumple el cronograma del censo y pide que instituciones cruceñas “dejen de mentir”</t>
+          <t>eldita pitiga suruby “eldita salón es mi proyecto de vida”</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> el director del instituto nacional de estadística señala que el estudio ofrecido por la alcaldía de santa cruz solo son datos de planimetría urbana esta semana inicia la actualización cartográfica  aseguró este lunes que se cumplen con los tiempos previstos para la organización del censo  exigió que la universidad autónoma gabriel rené moreno uagrm y la asamblea legislativa departamental de santa cruz dejen de mentir demostrar que lo único que tienen ellos es un interés político y no técnico la preparación de los componentes de la encuesta nacional llega a un 95 por ciento la entrevista se está llevando adelante todas las etapas técnicas necesarias en los tiempos que estamos manejando agradeció que la alcaldía cruceña ponga a disposición del ine un estudio de planimetría urbana lo que nos ofrecieron es el catastro que nos permitirá verificar nuestras imágenes satelitales no hubo ningún tipo de restricción a los eventos de socialización que se desarrollaron en tarija y santa cruz estamos garantizando llevar adelante este proceso con calidad aseguró este lunes que se cumplen con los tiempos previstos para la organización del censo  exigió que la universidad autónoma gabriel rené moreno uagrm y la asamblea legislativa departamental de santa cruz dejen de mentir demostrar que lo único que tienen ellos es un interés político y no técnico la preparación de los componentes de la encuesta nacional llega a un 95 por ciento la entrevista se está llevando adelante todas las etapas técnicas necesarias en los tiempos que estamos manejando agradeció que la alcaldía cruceña ponga a disposición del ine un estudio de planimetría urbana lo que nos ofrecieron es el catastro que nos permitirá verificar nuestras imágenes satelitales no hubo ningún tipo de restricción a los eventos de socialización que se desarrollaron en tarija y santa cruz estamos garantizando llevar adelante este proceso con calidad </t>
+          <t>la estilista de belleza trabaja en el rubro de la peluquería desde los 15 años empezó ayudando a su madre “mi pasión es ser estilista y seguir creciendo en mi negocio”  “mi mamá concepción lorenza es mi ejemplo desde que empezó con su peluquería el año 2000” cada día amanece con más ganas de emprender en el rubro de la belleza y avanzar en su negocio quiero seguir especializándome y una de mis metas es adquirir un local comercial propio para poder ampliar las instalaciones y los servicios del salón personal altamente calificado en las últimas tendencias de belleza todos los instrumentos de trabajos que se usan cumplen con los cuidados de higiene y asepsia antes y después de utilizarse “mi mamá concepción lorenza es mi ejemplo desde que empezó con su peluquería el año 2000” cada día amanece con más ganas de emprender en el rubro de la belleza y avanzar en su negocio quiero seguir especializándome y una de mis metas es adquirir un local comercial propio para poder ampliar las instalaciones y los servicios del salón personal altamente calificado en las últimas tendencias de belleza todos los instrumentos de trabajos que se usan cumplen con los cuidados de higiene y asepsia antes y después de utilizarse  eldita irene pitiga suruby tiene 34 años y nació en una familia de estilistas   trabajar en el rubro de la belleza es su pasión a los 15 años le ayudaba a su madre a la vez que buscaba las oportunidades de capacitación en las principales escuelas de la ciudad asistiendo a eventos y congresos en santa cruz a nivel nacional y fuera de bolivia recuerda con cariño las enseñanzas de su tío javier también estilista que la impulsó hace 10 años a abrir ‘eldita salón’  sostiene que   “tengo a mi familia mi madre mi esposo alex cabrera que siempre me han apoyado en el crecimiento del salón y mi inspiración de mamá mi hijo fabricio de 9 años” entre sus proyectos a corto y largo plazo comenta que ahora está culminando una capacitación en wella con expertos coloristas “estoy planificando una especialización en brasil sobre lo más nuevo en maquillaje que es lo que más amo hacer   quiero seguir creciendo con alguna sucursal en un futuro próximo todo con la bendición de dios”   el centro de belleza cuenta con   ofreciendo los servicios de manicure pedicure uñas de gel tinte color tratamientos capilares corte maquillaje profesional maquillaje de fantasía depilación y masajes de relajación tiene servicios y paquetes especiales para novias y sus familias quinceañeras con pruebas de maquillaje peinado sesión fotográfica promociones de colegios agrupaciones de damas comparsas fraternidades y azafatas la idea es brindar comodidad en cada una de sus instalaciones que han sido adecuadas a las normas de bioseguridad   y así están garantizando la salud y haciendo que el tiempo de atención pase de forma amena y ágil para todos eldita dedica alma y corazón a su emprendimiento y cuenta con un gran equipo de profesionales que siguen las últimas tendencias en cabello uñas y maquillaje ‘eldita salón’ está ubicado frente al mercado el trompillo comparte su whatsapp 75574346 especialmente para la previa reserva de atención de sus clientes eldita irene pitiga suruby tiene 34 años y nació en una familia de estilistas   trabajar en el rubro de la belleza es su pasión a los 15 años le ayudaba a su madre a la vez que buscaba las oportunidades de capacitación en las principales escuelas de la ciudad asistiendo a eventos y congresos en santa cruz a nivel nacional y fuera de bolivia recuerda con cariño las enseñanzas de su tío javier también estilista que la impulsó hace 10 años a abrir ‘eldita salón’  sostiene que   “tengo a mi familia mi madre mi esposo alex cabrera que siempre me han apoyado en el crecimiento del salón y mi inspiración de mamá mi hijo fabricio de 9 años” entre sus proyectos a corto y largo plazo comenta que ahora está culminando una capacitación en wella con expertos coloristas “estoy planificando una especialización en brasil sobre lo más nuevo en maquillaje que es lo que más amo hacer   quiero seguir creciendo con alguna sucursal en un futuro próximo todo con la bendición de dios”   el centro de belleza cuenta con   ofreciendo los servicios de manicure pedicure uñas de gel tinte color tratamientos capilares corte maquillaje profesional maquillaje de fantasía depilación y masajes de relajación tiene servicios y paquetes especiales para novias y sus familias quinceañeras con pruebas de maquillaje peinado sesión fotográfica promociones de colegios agrupaciones de damas comparsas fraternidades y azafatas la idea es brindar comodidad en cada una de sus instalaciones que han sido adecuadas a las normas de bioseguridad   y así están garantizando la salud y haciendo que el tiempo de atención pase de forma amena y ágil para todos eldita dedica alma y corazón a su emprendimiento y cuenta con un gran equipo de profesionales que siguen las últimas tendencias en cabello uñas y maquillaje ‘eldita salón’ está ubicado frente al mercado el trompillo comparte su whatsapp 75574346 especialmente para la previa reserva de atención de sus clientes</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/pais/el-ine-asegura-que-se-cumple-el-cronograma-del-censo-y-pide-que-instituciones-crucenas-dejen-de-ment_272456</t>
+          <t>https://eldeber.com.bo/para-ellas/eldita-pitiga-suruby-eldita-salon-es-mi-proyecto-de-vida_271962</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>24/3/2022</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4051b55bc8e78351ba97361814907aff</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>104</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>98a49dc949f6797210b6c3d6d47dc9b5</t>
+        </is>
       </c>
       <c r="G90" t="n">
-        <v>1915</v>
+        <v>58</v>
       </c>
       <c r="H90" t="n">
-        <v>10</v>
+        <v>5097</v>
       </c>
       <c r="I90" t="n">
-        <v>173</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>('santa', 5)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>496</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>('cruz', 5)</t>
+          <t>('mi', 13)</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>('tiempos', 4)</t>
+          <t>('maquillaje', 10)</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>('belleza', 9)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>covid19 dos nuevos casos y dos recuperados este martes en oruro</t>
+          <t>a comer milanesas</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> los nuevos contagios de covid19 este martes en oruro fueron dos cifra similar se tuvo de pacientes recuperados además se cumplieron 14 días es decir dos semanas que no hay fallecidos con esta enfermedad en el departamento el reporte del servicio departamental de salud sedes precisa que las dos personas recuperadas son del municipio de oruro al igual que uno de los contagiados con el virus mientras que el restante nuevo caso es de challapata las bajas cifras se registraron a pesar de que se hicieron 339 pruebas el martes de las cuales 330 se descartaron porque dieron negativo dos fueron positivo dos sirvieron para dar alta médica y de las cinco restantes aún se aguarda su resultado   hasta el momento en el departamento de oruro se registraron 42260 casos de coronavirus además 40583 pacientes se recuperaron 1594 fallecieron y hay 83 personas que todavía tienen el virus con los nuevos contagios la ciudad capital suma 35525 casos seguida de huanuni con 1530 challapata 1143 machacamarca 392 caracollo 359 sabaya 288 turco 267 salinas de garci mendoza 238 antequera 218 eucaliptus 213 toledo 210 poopó 209 curahuara de carangas 196 huari 185 huachacalla 163 santiago de andamarca 154 pazña 149 corque 133 pampa aullagas 103 el choro 87 quillacas 83 en tanto totora 67 huayllamarca 66 soracachi 56 esmeralda 43 yunguyo de litoral 37 belén de andamarca 28 choquecota 26 cruz de machacamarca 25 escara 23 chipaya 21 coipasa 15 la rivera cinco carangas y todos santos uno el municipio de oruro acumula 34156 personas recuperadas huanuni 1466 challapata 1055 machacamarca 374 caracollo 335 sabaya 284 turco 264 salinas de garci mendoza 233 antequera 212 eucaliptus 201 toledo 201 poopó 194 curahuara de carangas 178 huari 177 huachacalla 157 santiago de andamarca 148 pazña 146 corque 131 pampa aullagas 101 el choro 87 quillacas 80 huayllamarca 65 finalmente totora 62 soracachi 55 esmeralda 42 yunguyo de litoral 36 belén de andamarca 28 choquecota 25 cruz de machacamarca 24 escara 23 chipaya 21 coipasa 15 la rivera cinco todos santos uno y carangas uno</t>
+          <t>la opción más saludable permite cocinarlas al horno y también reemplazar el pan rallado por harina de maíz avena o polenta  milanesa de cerdo con salsa ingredientes preparación  milanesa de res al horno con yuca y arroz integral ingredientes preparación milanesa de cerdo con salsa ingredientes preparación  milanesa de res al horno con yuca y arroz integral ingredientes preparación  el mítico filete empanado argentino admite infinitas variaciones éste es un paseo por recetas con res y cerdo huevo ajo perejil sal mostaza leche agua orégano ají molido y un poco de comino batir todo eso sumergir la carne de ahí al pan rallado y al final a cocinar con este mejunje mágico de ingredientes hay otros elementos en juego “para mí el secreto es limpiar bien la carne y hacerlo casero artesanal para que no queden nervios ni grasa desde el primero al último producto tiene que ser todo de primera calidad” asegura la chef nicole wille  4 chuletas de cerdo deshuesadas 1/4 taza de harina 1 pizca de sal y pimienta negra 1 huevo batido 2 cucharadas de leche 1 taza de pan rallado o panko 1 1/4 cucharaditas de pimentón en polvo páprika 3 cucharadas de aceite de oliva virgen extra o aceite de canola 1 taza de caldo de pollo 1/2 cucharadita de eneldo seco picado 1/2 taza de crema agria  golpee las chuletas hasta quedar finitas y corta pequeñas hendiduras alrededor de los bordes para evitar que se enrosquen en un plato coloque harina sal y pimienta en tazón bate el huevo y la leche en otro plato combine el pan rallado o panko y la páprika caliente el aceite de oliva a fuego medio pase las chuletas primero por la harina sazonada luego en la mezcla de huevo y por la harina de pan rallado con páprika en una sartén sofreírlas rápidamente y pasarlas a una bandeja de horno cocinarlas a 225º c con calor superior grill 4 minutos por cada lado probar la cocción  poner el caldo de pollo a la sartén para desglasar raspando el fondo para aflojar los trozos marrones luego mezcla el eneldo con la crema agria en el caldo de pollo probando la sal y cocinar hasta empezar a espesar servir las chuletas con ensalada verde y acompañar con la salsa opcional servir la milanesa en tazones con salsa si lo deseas decora con cebollita verde  300 gr de bollo cortado en filetes bien finos 2 cucharadas perejil picado 4 dientes de ajo rallados sal y pimienta negra al gusto 2 huevos 1 ½ tazas de harina de pan integral rallado opcional harina de avena o polenta   sazonar con sal pimienta negra perejil y ajo los filetes de bollo colgadura lomo por ambos lados  en una fuente poner los huevos sazonarlos y batirlos bien empanar los filetes con harina de pan avena o polenta luego pasarlos por el huevo y otra vez por el pan rallado por ambos lados aceitar un poco el fondo de una bandeja de horno  colocar las milanesas sobre la bandeja y rociarlas con un poco de aceite hornear a 225º c con calor superior grill 4 minutos ambos lados emplatar la milanesa con yuca asada y arroz integral con verduras el mítico filete empanado argentino admite infinitas variaciones éste es un paseo por recetas con res y cerdo huevo ajo perejil sal mostaza leche agua orégano ají molido y un poco de comino batir todo eso sumergir la carne de ahí al pan rallado y al final a cocinar con este mejunje mágico de ingredientes hay otros elementos en juego “para mí el secreto es limpiar bien la carne y hacerlo casero artesanal para que no queden nervios ni grasa desde el primero al último producto tiene que ser todo de primera calidad” asegura la chef nicole wille  4 chuletas de cerdo deshuesadas 1/4 taza de harina 1 pizca de sal y pimienta negra 1 huevo batido 2 cucharadas de leche 1 taza de pan rallado o panko 1 1/4 cucharaditas de pimentón en polvo páprika 3 cucharadas de aceite de oliva virgen extra o aceite de canola 1 taza de caldo de pollo 1/2 cucharadita de eneldo seco picado 1/2 taza de crema agria  golpee las chuletas hasta quedar finitas y corta pequeñas hendiduras alrededor de los bordes para evitar que se enrosquen en un plato coloque harina sal y pimienta en tazón bate el huevo y la leche en otro plato combine el pan rallado o panko y la páprika caliente el aceite de oliva a fuego medio pase las chuletas primero por la harina sazonada luego en la mezcla de huevo y por la harina de pan rallado con páprika en una sartén sofreírlas rápidamente y pasarlas a una bandeja de horno cocinarlas a 225º c con calor superior grill 4 minutos por cada lado probar la cocción  poner el caldo de pollo a la sartén para desglasar raspando el fondo para aflojar los trozos marrones luego mezcla el eneldo con la crema agria en el caldo de pollo probando la sal y cocinar hasta empezar a espesar servir las chuletas con ensalada verde y acompañar con la salsa opcional servir la milanesa en tazones con salsa si lo deseas decora con cebollita verde  300 gr de bollo cortado en filetes bien finos 2 cucharadas perejil picado 4 dientes de ajo rallados sal y pimienta negra al gusto 2 huevos 1 ½ tazas de harina de pan integral rallado opcional harina de avena o polenta   sazonar con sal pimienta negra perejil y ajo los filetes de bollo colgadura lomo por ambos lados  en una fuente poner los huevos sazonarlos y batirlos bien empanar los filetes con harina de pan avena o polenta luego pasarlos por el huevo y otra vez por el pan rallado por ambos lados aceitar un poco el fondo de una bandeja de horno  colocar las milanesas sobre la bandeja y rociarlas con un poco de aceite hornear a 225º c con calor superior grill 4 minutos ambos lados emplatar la milanesa con yuca asada y arroz integral con verduras</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/23/covid-19-dos-nuevos-casos-y-dos-recuperados-este-martes-en-oruro/</t>
+          <t>https://eldeber.com.bo/para-ellas/a-comer-milanesas_271967</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>24/3/2022</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>375aedc5e999e438019a11c3ca4c8aea</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>63</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>becb0ac82805dbad6e47cf919102d9a4</t>
+        </is>
       </c>
       <c r="G91" t="n">
-        <v>2062</v>
+        <v>17</v>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
+        <v>5586</v>
       </c>
       <c r="I91" t="n">
-        <v>244</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>('oruro', 4)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>646</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>('machacamarca', 4)</t>
+          <t>('pan', 15)</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>('carangas', 4)</t>
+          <t>('harina', 15)</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>('rallado', 13)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>evangélicos piden incluir pregunta sobre la religión que profesa cada boliviano en el censo</t>
+          <t>ella es sandra</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> que incluya la consulta sobre religión que practica cada boliviano en el censo de población y vivienda previsto para el 16 de noviembre fue el pedido del consejo nacional cristiano de las iglesias evangélicas de bolivia que realizó este lunes al gobierno asimismo el presidente de dicho consejo luis aruquipa manifestó que con esta iniciativa de preguntar el dogma de fe que profesan los bolivianos se pretende conocer cuántas personas creen en jesucristo y así evitar que sean discriminadas en la toma de decisiones estatales “necesitamos saber cuántos católicos hay cuántos cristianos evangélicos hay con 90% más del 95% de judeocristianos en bolivia bolivia dejaría de ser un estado laico y nos convertiremos en un estado judeocristiano” declaró aruquipa de esa manera el pastor afirmó que en el censo de 2012 se omitió esa pregunta por la baja cantidad de personas que no practican un dogma de fe “no queremos ser discriminados no queremos que nos aparten de las decisiones” recalcó el líder evangélico finalmente explicó que en la actualidad se toman decisiones a nivel estatal y se emiten leyes que marginan y discriminan a su sector como ejemplo mencionó la ley municipal de la paz que obliga a portar carnet de vacunación anticovid /mdcb</t>
+          <t>abogada empresaria y coach de salud belleza y bienestar  el libro ‘yo soy sandra’ es fruto de una situación de salud imprevista que se suscitó al inicio de la pandemia y la privó de atención médica inmediata estudió administración de empresas y se graduó con honores del summa cum laude en eeuu ¿qué enseñanza le dejó este problema de salud? ¿cuándo empezó a ser coach y conferencista? ¿cuáles son sus éxitos como consultora en leyes? ¿este fue el desafío más grande de su vida? ¿qué aprendió? el libro ‘yo soy sandra’ es fruto de una situación de salud imprevista que se suscitó al inicio de la pandemia y la privó de atención médica inmediata estudió administración de empresas y se graduó con honores del summa cum laude en eeuu ¿qué enseñanza le dejó este problema de salud? ¿cuándo empezó a ser coach y conferencista? ¿cuáles son sus éxitos como consultora en leyes? ¿este fue el desafío más grande de su vida? ¿qué aprendió?   sufrió un infarto cerebral en el momento en que viajaba en avión de houston a miami estados unidos a las 32 horas regresó a su residencia en houston donde acudió con su maestro el máster dasifu monje del templo shaolin quien le salvó la vida según su testimonio  sandra aliaga czerniewicz es bachiller del colegio franco boliviano graduada por excelencia hija del médico carlos santos aliaga doria medina y de emmy czerniewicz chávez madre de andrea y claudia la segunda le dio dos nietos aryan e ilan estudió leyes en la uagrm donde también cursó ciencias políticas con postgrado en derecho tributario en la universidad franz tamayo   graduada de la escuela de modelaje jhon casablanca en usa tiene su residencia en estados unidos    a ver la vida de otra forma a controlar mi mente mis emociones cuidar mi salud y crecer espiritualmente soy una nueva y mejor persona pero para llegar a esto tuve que sobrepasar mis límites y aprendí que la peor época de mi vida resultó ser la mejor temporada que tuve en plena pandemia se me abrieron las puertas del templo desde las 500 todos los días el maestro me atendía con técnicas y tratamientos milenarios por el periodo de diez semanas ininterrumpidas  estas experiencias que se dieron en ese proceso de recuperación de casi dos años decidí contarlas en mi libro ‘yo soy sandra’ para ayudar a las personas que deseen prevenir problemas de salud destaco que este mal se suscitó por el exceso de trabajo la mala alimentación no dormir bien no tener una vida en equilibrio y ordenada lo que genera estrés ansiedad depresión y mucha angustia desde 1984 he sido coach y motiva dora al crear la empresa de eventos de belleza y modelaje berchs international donde trabajé con niñas adolescentes jóvenes y señoras especialmente en el aspecto de la belleza integral que comprende el amor propio y la superación personal desde esa época me di cuenta que podía cambiar la vida de muchas personas para bien me sentía feliz y orgullosa de ser parte de este cambio y darles la oportunidad de que triunfen y se superen   al recibirme de abogada dejé de lado los concursos de belleza y decidí ser consultora internacional lo que me valió viajar por diferentes países y ser testigo del sufrimiento de los seres humanos sin excepción de raza creencias religiosas o colores políticos donde todos solo quieren vivir en paz contar con salud para progresar tener educación y una vida digna dentro de sus posibilidades  de esta manera empecé a darme cuenta que respetando a las personas tal como son aceptándolas y aceptándome a mí misma sabiendo que no somos perfectos realicé conversaciones consejos y sugerencias especialmente en el campo de la violencia doméstica donde es importante reconocer el amor propio para alcanzar la superación y cambié la vida de muchas personas  soy activista y lucho por la mujer contra la violencia y esto se puede superar primero amándose segundo respetándose y dejar de lado al abusador  soy abogada y empresaria el trabajo está en mis genes es mi forma de ser y lo seguiré haciendo de una forma más selectiva debido al cambio de vida que he tomado por motivos de salud y gracias a dios ya está superado    de noche y en un avión sufrí un infarto cerebral que comenzó con una parálisis facial no le di importancia y al día siguiente la mitad de mi rostro se paralizó para mi sorpresa cuando busqué atención médica no la obtuve porque solo atendían pacientes con covid19 ahí me di cuenta de que estaba en peligro y mi caso era de vida o muerte recordé las palabras de mi padre que me dijo alguna vez “al momento de empezar a sentir esos síntomas necesitás atención medica inmediata que te muevan el cuerpo o sea la fisioterapia” pero estábamos en pleno inicio del covid y nadie se quería hacerse tocar y nadie quería tocarte    a tener un estilo de vida diferente donde la parte de la salud la nutrición el ejercicio y dormir bien son fundamentales en la vida la mente da poder a los pensamientos y a las palabras la parte espiritual y la conexión con dios es vital soy católica y respeto todas las religiones hay que aprender a controlar las emociones ya que todo está conectado y al trabajar con disciplina en nosotros mismos logramos llevar una vida en equilibrio y paz interior  cabe destacar que parte de mi salvación estuvo a cargo del médico josé luis ballivián aquí en santa cruz quien con todo profesionalismo y técnicas obró en mi recuperación total estoy dando testimonio y brindando en mi libro todo lo aprendido el libro te ayudará a entender el poder de la mente podés adquirirlo en amazon  sufrió un infarto cerebral en el momento en que viajaba en avión de houston a miami estados unidos a las 32 horas regresó a su residencia en houston donde acudió con su maestro el máster dasifu monje del templo shaolin quien le salvó la vida según su testimonio  sandra aliaga czerniewicz es bachiller del colegio franco boliviano graduada por excelencia hija del médico carlos santos aliaga doria medina y de emmy czerniewicz chávez madre de andrea y claudia la segunda le dio dos nietos aryan e ilan estudió leyes en la uagrm donde también cursó ciencias políticas con postgrado en derecho tributario en la universidad franz tamayo   graduada de la escuela de modelaje jhon casablanca en usa tiene su residencia en estados unidos    a ver la vida de otra forma a controlar mi mente mis emociones cuidar mi salud y crecer espiritualmente soy una nueva y mejor persona pero para llegar a esto tuve que sobrepasar mis límites y aprendí que la peor época de mi vida resultó ser la mejor temporada que tuve en plena pandemia se me abrieron las puertas del templo desde las 500 todos los días el maestro me atendía con técnicas y tratamientos milenarios por el periodo de diez semanas ininterrumpidas  estas experiencias que se dieron en ese proceso de recuperación de casi dos años decidí contarlas en mi libro ‘yo soy sandra’ para ayudar a las personas que deseen prevenir problemas de salud destaco que este mal se suscitó por el exceso de trabajo la mala alimentación no dormir bien no tener una vida en equilibrio y ordenada lo que genera estrés ansiedad depresión y mucha angustia desde 1984 he sido coach y motiva dora al crear la empresa de eventos de belleza y modelaje berchs international donde trabajé con niñas adolescentes jóvenes y señoras especialmente en el aspecto de la belleza integral que comprende el amor propio y la superación personal desde esa época me di cuenta que podía cambiar la vida de muchas personas para bien me sentía feliz y orgullosa de ser parte de este cambio y darles la oportunidad de que triunfen y se superen   al recibirme de abogada dejé de lado los concursos de belleza y decidí ser consultora internacional lo que me valió viajar por diferentes países y ser testigo del sufrimiento de los seres humanos sin excepción de raza creencias religiosas o colores políticos donde todos solo quieren vivir en paz contar con salud para progresar tener educación y una vida digna dentro de sus posibilidades  de esta manera empecé a darme cuenta que respetando a las personas tal como son aceptándolas y aceptándome a mí misma sabiendo que no somos perfectos realicé conversaciones consejos y sugerencias especialmente en el campo de la violencia doméstica donde es importante reconocer el amor propio para alcanzar la superación y cambié la vida de muchas personas  soy activista y lucho por la mujer contra la violencia y esto se puede superar primero amándose segundo respetándose y dejar de lado al abusador  soy abogada y empresaria el trabajo está en mis genes es mi forma de ser y lo seguiré haciendo de una forma más selectiva debido al cambio de vida que he tomado por motivos de salud y gracias a dios ya está superado    de noche y en un avión sufrí un infarto cerebral que comenzó con una parálisis facial no le di importancia y al día siguiente la mitad de mi rostro se paralizó para mi sorpresa cuando busqué atención médica no la obtuve porque solo atendían pacientes con covid19 ahí me di cuenta de que estaba en peligro y mi caso era de vida o muerte recordé las palabras de mi padre que me dijo alguna vez “al momento de empezar a sentir esos síntomas necesitás atención medica inmediata que te muevan el cuerpo o sea la fisioterapia” pero estábamos en pleno inicio del covid y nadie se quería hacerse tocar y nadie quería tocarte    a tener un estilo de vida diferente donde la parte de la salud la nutrición el ejercicio y dormir bien son fundamentales en la vida la mente da poder a los pensamientos y a las palabras la parte espiritual y la conexión con dios es vital soy católica y respeto todas las religiones hay que aprender a controlar las emociones ya que todo está conectado y al trabajar con disciplina en nosotros mismos logramos llevar una vida en equilibrio y paz interior  cabe destacar que parte de mi salvación estuvo a cargo del médico josé luis ballivián aquí en santa cruz quien con todo profesionalismo y técnicas obró en mi recuperación total estoy dando testimonio y brindando en mi libro todo lo aprendido el libro te ayudará a entender el poder de la mente podés adquirirlo en amazon</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/evangelicos-piden-incluir-pregunta-sobre-la-religion-que-profesa-cada-boliviano-en-el-censo/</t>
+          <t>https://eldeber.com.bo/para-ellas/ella-es-sandra_271864</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>23/3/2022</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>51be14e36b1efd0e2bc368ff1487673f</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>91</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4647b6d8636c6414c74007ce432e643d</t>
+        </is>
       </c>
       <c r="G92" t="n">
-        <v>1246</v>
+        <v>14</v>
       </c>
       <c r="H92" t="n">
-        <v>10</v>
+        <v>10055</v>
       </c>
       <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>('bolivia', 3)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1034</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>('censo', 2)</t>
+          <t>('vida', 24)</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>('consejo', 2)</t>
+          <t>('mi', 24)</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>('salud', 13)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>una venezolana y un bebé boliviano mueren al cruzar la frontera norte de chile</t>
+          <t>hugo dellien “éste es mi mejor momento”</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> una mujer de 78 años y un bebé de seis meses murieron el fin de semana reciente mientras trataban de ingresar a chile por la frontera norte con bolivia donde se vive en los últimos años una crisis migratoria y humanitaria a consecuencia de la mala administración de nicolás maduro que origina el éxodo de sus habitantes a otros países la mujer de nacionalidad venezolana falleció la noche del sábado 26 de marzo mientras personal médico le atendía en una zona fronteriza de la comuna de colchane a casi 2000 kilómetros al norte de la capital luego de la alerta de los familiares quienes afirmaron que se encontraba mal la segunda víctima es un bebé de seis meses de nacionalidad boliviana quien falleció en otra zona de colchane tras cruzar con su familia “la menor fue trasladada por su madre a la posta lugar en el cual la facultativa de turno constató la defunción del lactante explicando que mantenía antecedentes médicos por hidrocefalia” explicaron el precedente domingo las autoridades de la zona a la agencia efe en los últimos años chile posee una fuerte crisis migratoria por la llegada masiva de personas al paso fronterizo de forma clandestina la mayoría de nacionalidad venezolana lo que provoca el colapso de pequeñas localidades fronterizas en lo que va del año los inclementes pasos altiplánicos siguen formando la principal ruta irregular de ingreso a chile que sigue siendo uno de los países más atractivos para migrar dentro de américa latina por su estabilidad económica pese a la crisis de la pandemia y la crisis social de 2019 han muerto al menos cinco personas este año tratando de cruzar la frontera mientras que en 2021 hubo uno veintena de muertes hasta el momento chile tiene a 14 millones de migrantes lo que equivale a más del siete por ciento de la población y los venezolanos son los más numerosos seguidos de peruanos haitianos y colombianos /abh</t>
+          <t>el mejor tenista del país se siente un jugador distinto al de antes más maduro y con un rendimiento mucho más regular por eso está entre los mejores 100 del mundo  por chino tapia  hoy disfruta de uno de sus mejores momentos en el tenis tuvo un gran arranque en el presente año  actual número 90 en el ranking de la atp  el beniano se atreve a comparar estos eventos suyos con la clasificación a un mundial de fútbol a medvedev lo enfrenté en el us open 29 agosto 2019  ¿cómo te sentías?  ¿y la experiencia de enfrentar a rafael nadal?  ¿cuál es la sensación en esos momentos al enterarse de enfrentar a un rival como el español?  ¿ y en el momento de salir a la cancha y jugar el partido?  ¿sentías algo especial o uno se olvida de todo en ese instante?  después te tocó jugar con novak djokovic en julio de 2021  ¿y cuál fue tu reacción al enterarte que él era el rival?  en ese momento djokovic ya era el número uno   ¿y cómo fue el partido?  el presente nos muestra a un hugo dellien jugando muy bien ¿es este el mejor momento de tu carrera?  ¿cuál considerás que fue el cambio?  esa es la madurez a la que te referías  para llegar al nivel actual tenés que estar bien preparado ¿qué significa que te entrenés en la argentina por ejemplo?  ¿no hay punto de comparación?  te sentís muy cómodo por lo visto  la curiosidad periodística me lleva a tus orígenes cuando eras un adolescente en esa época ¿a quién admirabas como tenista? por chino tapia  hoy disfruta de uno de sus mejores momentos en el tenis tuvo un gran arranque en el presente año  actual número 90 en el ranking de la atp  el beniano se atreve a comparar estos eventos suyos con la clasificación a un mundial de fútbol a medvedev lo enfrenté en el us open 29 agosto 2019  ¿cómo te sentías?  ¿y la experiencia de enfrentar a rafael nadal?  ¿cuál es la sensación en esos momentos al enterarse de enfrentar a un rival como el español?  ¿ y en el momento de salir a la cancha y jugar el partido?  ¿sentías algo especial o uno se olvida de todo en ese instante?  después te tocó jugar con novak djokovic en julio de 2021  ¿y cuál fue tu reacción al enterarte que él era el rival?  en ese momento djokovic ya era el número uno   ¿y cómo fue el partido?  el presente nos muestra a un hugo dellien jugando muy bien ¿es este el mejor momento de tu carrera?  ¿cuál considerás que fue el cambio?  esa es la madurez a la que te referías  para llegar al nivel actual tenés que estar bien preparado ¿qué significa que te entrenés en la argentina por ejemplo?  ¿no hay punto de comparación?  te sentís muy cómodo por lo visto  la curiosidad periodística me lleva a tus orígenes cuando eras un adolescente en esa época ¿a quién admirabas como tenista?  hugo dellien vivió inolvidables experiencias y grandes éxitos en 2021 y  su participación en la copa davis roland garros wimbledon el us open los juegos olímpicos y los triunfos en lima montevideo y santiago lo ubican en un sitial especial entre los sudamericanos y le dieron mayor popularidad dentro del país que le permitió retornar a los top 100 de la atp y en esa condición asegurar su participación en los torneos más importantes gracias a ello volverá a competir en roland garros y wimbledon a dellien  y que en enero del 2020 llegó a ocupar el puesto 72 del escalafón mundial diez le puso un freno a su casi alocada agenda de actividades para que él cuente sus experiencias sobre lo que fue enfrentar a los tres “monstruos” del tenis mundial que han llegado a liderar este ranking daniil medvedev rafael nadal y roger federer  le llegan los recuerdos a su mente y le cuesta muchísimo no emocionarse se le nota un brillo diferente en sus ojos cuando comenta esos partidos que lo marcaron de por vida puf… sintió que tocó el cielo sin estar allí evoca estos hechos ahora cuando él dice que se siente en el mejor momento de su historia en el tenis  después que gané la primera ronda y fue un hecho increíble porque él venía de ganar como tres torneos seguidos consiguiendo un salto de calidad muy grande en su juego me parece que no le habían sacado ni un set en los últimos tres torneos  yo estaba con mucha confianza porque gané en primera ronda y desde ya me llego a enfrentar en una cancha principal con él que era el número 3 del mundo en ese momento empecé un poco nervioso pero después del segundo set comencé a encontrarme con más confianza y jugué de una manera tal que lo hice jugar incómodo duró casi 3 horas ese duelo y él empieza a sentir el partido se comenzó a acalambrar por la presión y el calor que hacía 40º en cancha de cemento se siente mucho más el calor que jugar en arcilla fue un partido increíble porque puse en aprietos a un jugador como él que luego fue número uno del mundo e hizo final contra rafa rafael nadal perdiendo la final en un choque de unas 5 horas yo estaba en un restaurante de australia y ahí me enteré de primera mano porque cuando lo programan o se sortea un número uno del mundo lo primero que se sabe es contra quién va a jugar…nos enteramos por twitter  lo bueno en ese caso fue que tuve tres días para poder pensar en el partido para poder pasar ese momento de ansiedad nerviosismo y toda esa situación que te provoca enfrentar a este tipo de jugadores mucha gente lo tomó como un poco exagerado pero yo sentía como que si hubiésemos llegado a un mundial de fútbol fue un momento especial porque de pronto comencé a recibir mensajes de todo el mundo miles de mensajes de felicitaciones como que si ya hubiera ganado…y nada más me tocaba jugar contra rafa…no es que gané nada sólo gané el sorteo pero fue muy especial porque siempre quise enfrentar a rafa federer y djokovic no pude enfrentar aún a federer pero cuando me tocó versus rafa 20 enero 2020 la pasé muy lindo los primeros días no podía dormir pero después fui poniéndome más tranquilo menos ansioso desde el momento donde hay un pasillo largo que es para entrar al court central donde están las fotos de todos los ganadores…vos vas caminando pero sabés que el tipo de atrás está en una dos tres cuatro cinco fotos risas que ha ganado 6 ó 7 veces el campeonato de australia entonces es increíble llegar a enfrentar a ese tipo de jugadores que los has visto en la tele años y años levantando ese trofeo y vos llegás a jugar contra él en un lugar especial yo sentí que estaba como en un videojuego…la gente la emoción se me puso la piel de gallina de ver tantas banderas bolivianas en un lugar que vos decís ‘qué hacen acá tan lejos de nuestra casa’…en verdad fue algo impresionante  fue una historia muy especial pues yo no tenía previsto ir a las olimpíadas porque no había clasificado pero los jugadores se fueron borrando y borrando hasta que llegó el momento de que en mi ranking ya estaba clasificado para ir a los juegos olímpicos sin embargo fue una decisión que debí tomar porque estaba metido en un atp en austria entonces me dicen ‘tenés que bajarte del atp para ir a las olimpíadas ¿qué decisión vas a tomar?’ yo les respondí que obviamente prefería ir a las olimpíadas porque nunca en mi vida pensé que podía llegar a unos juegos olímpicos siempre soñé jugar unas olimpíadas porque para mí era lo más importante que podía lograr los grand slam los veía posibles pero los juegos olímpicos parecían algo imposible pero de pronto de la nada me encuentro con este momento entonces le digo a mi kinesiólogo ‘lo mejor que me puede pasar ahora es jugar contra djokovic’…se lo dije tomando el avión de suiza a japón cuando llegamos al otro día a japón me dicen ‘te toca djokovic’… ‘no la puedo creer’ le digo a mi padre…para que veas cómo es la vida que te da ese tipo de regalos después de tanto tiempo y el buscar estar entre los mejores del mundo y buscar después lograr tus sueños el destino te da regalos como éste que para mí fue de ensueño sí venía de ganar absolutamente todo y todo el año venía empatando en gran slam con nadal y federer o sea que si ganaba la olimpíada y el us open pasaba a ser el mayor ganador de la historia…y yo tenía que jugar contra él… fue único  lo mismo que en los otros partidos son experiencias únicas momentos hermosos que me quedarán para siempre en el recuerdo personalmente pienso que sí porque siento que soy otro tipo de jugador otro tipo de persona siento que he evolucionado y he madurado mucho más en ese momento cuando estuve 72 del mundo las cosas me vinieron muy de golpe y no supe manejarlas más allá de que creo que siempre me manejé con mucho respeto con el público con los sponsors y todos los que me apoyaron es que internamente dejé de ser la persona que era me encontré con mil cambios que no me llegaron a ayudar en su momento y eso hizo que llegara a tener tantos altibajos y el bajón que tuve en los últimos dos años hoy por hoy creo que ya me he llegado a conocer mucho más tomo decisiones mucho más certeras por así decirlo porque todas las cosas que viví en el pasado me han ayudado a cuidarme de cosas que me pudieran llegar a pasar de ahora en adelante otra vez es que siempre uno va conociendo y experimentando cosas nuevas pero ya uno tiene diferentes tipos de herramientas para poder manejarse diferente creo que hoy mi caja de herramientas es mucho más amplia a la que era antes por eso considero que hoy por hoy estoy en un momento mucho más favorable para mi vida  nunca me habían hecho esa pregunta bebe agua mientras piensa antes de responder es una parte linda y otra parte fea porque si me preguntás a mí me encantaría vivir acá entrenar acá y poder hacer todas mis cosas acá lamentablemente en nuestro país no tenemos las condiciones para hacerlo tanto de instalaciones de jugadores profesionales y de muchas cosas más acá los clubes son privados y por más que tengo acceso a todos que les quedo agradecido pero no es lo mismo que estar en un lugar donde están todos los jugadores donde podés entrenar con diferentes tipos de jugadores contar con varios equipos de trabajo donde podés cambiar si no te sentís cómodo es que en argentina hay muchas cosas que acá no las hay pero que esperemos que algún día tengamos pero después vivir en argentina a mí en un principio me costó muchísimo porque es otra sociedad sobre todo que es una sociedad que es muy diferente a la nuestra la ciudad es muy hermosa y tengo una calidad de vida muy buena en comparación a lo que estuve hace 10 años cuando empecé a vivir allá lo estoy disfrutando desde otro punto de vista y hoy siento que argentina es como un lugar de descanso para mí antes no lo sentía así sentía que si quería descansar tenía que venir a bolivia sí o sí hoy estar con toda mi familia allá con mi mujer y mi hija suma muchísimo por ahora me toca vivir allá pero espero que en el futuro pueda vivir acá también en esa época era roger federer pero hoy son todos en realidad cuando comencé a ir conociendo y mirando ya como un tenista y no simplemente como un fan del tenis viéndolos como colegas y cómo es el sacrificio que cada uno toma en la cancha y cómo lo afronta para mí estos tres tipos nadal djokovic y federer son ejemplos que no nos podemos llegar a imaginar cuánto hugo dellien vivió inolvidables experiencias y grandes éxitos en 2021 y  su participación en la copa davis roland garros wimbledon el us open los juegos olímpicos y los triunfos en lima montevideo y santiago lo ubican en un sitial especial entre los sudamericanos y le dieron mayor popularidad dentro del país que le permitió retornar a los top 100 de la atp y en esa condición asegurar su participación en los torneos más importantes gracias a ello volverá a competir en roland garros y wimbledon a dellien  y que en enero del 2020 llegó a ocupar el puesto 72 del escalafón mundial diez le puso un freno a su casi alocada agenda de actividades para que él cuente sus experiencias sobre lo que fue enfrentar a los tres “monstruos” del tenis mundial que han llegado a liderar este ranking daniil medvedev rafael nadal y roger federer  le llegan los recuerdos a su mente y le cuesta muchísimo no emocionarse se le nota un brillo diferente en sus ojos cuando comenta esos partidos que lo marcaron de por vida puf… sintió que tocó el cielo sin estar allí evoca estos hechos ahora cuando él dice que se siente en el mejor momento de su historia en el tenis  después que gané la primera ronda y fue un hecho increíble porque él venía de ganar como tres torneos seguidos consiguiendo un salto de calidad muy grande en su juego me parece que no le habían sacado ni un set en los últimos tres torneos  yo estaba con mucha confianza porque gané en primera ronda y desde ya me llego a enfrentar en una cancha principal con él que era el número 3 del mundo en ese momento empecé un poco nervioso pero después del segundo set comencé a encontrarme con más confianza y jugué de una manera tal que lo hice jugar incómodo duró casi 3 horas ese duelo y él empieza a sentir el partido se comenzó a acalambrar por la presión y el calor que hacía 40º en cancha de cemento se siente mucho más el calor que jugar en arcilla fue un partido increíble porque puse en aprietos a un jugador como él que luego fue número uno del mundo e hizo final contra rafa rafael nadal perdiendo la final en un choque de unas 5 horas yo estaba en un restaurante de australia y ahí me enteré de primera mano porque cuando lo programan o se sortea un número uno del mundo lo primero que se sabe es contra quién va a jugar…nos enteramos por twitter  lo bueno en ese caso fue que tuve tres días para poder pensar en el partido para poder pasar ese momento de ansiedad nerviosismo y toda esa situación que te provoca enfrentar a este tipo de jugadores mucha gente lo tomó como un poco exagerado pero yo sentía como que si hubiésemos llegado a un mundial de fútbol fue un momento especial porque de pronto comencé a recibir mensajes de todo el mundo miles de mensajes de felicitaciones como que si ya hubiera ganado…y nada más me tocaba jugar contra rafa…no es que gané nada sólo gané el sorteo pero fue muy especial porque siempre quise enfrentar a rafa federer y djokovic no pude enfrentar aún a federer pero cuando me tocó versus rafa 20 enero 2020 la pasé muy lindo los primeros días no podía dormir pero después fui poniéndome más tranquilo menos ansioso desde el momento donde hay un pasillo largo que es para entrar al court central donde están las fotos de todos los ganadores…vos vas caminando pero sabés que el tipo de atrás está en una dos tres cuatro cinco fotos risas que ha ganado 6 ó 7 veces el campeonato de australia entonces es increíble llegar a enfrentar a ese tipo de jugadores que los has visto en la tele años y años levantando ese trofeo y vos llegás a jugar contra él en un lugar especial yo sentí que estaba como en un videojuego…la gente la emoción se me puso la piel de gallina de ver tantas banderas bolivianas en un lugar que vos decís ‘qué hacen acá tan lejos de nuestra casa’…en verdad fue algo impresionante  fue una historia muy especial pues yo no tenía previsto ir a las olimpíadas porque no había clasificado pero los jugadores se fueron borrando y borrando hasta que llegó el momento de que en mi ranking ya estaba clasificado para ir a los juegos olímpicos sin embargo fue una decisión que debí tomar porque estaba metido en un atp en austria entonces me dicen ‘tenés que bajarte del atp para ir a las olimpíadas ¿qué decisión vas a tomar?’ yo les respondí que obviamente prefería ir a las olimpíadas porque nunca en mi vida pensé que podía llegar a unos juegos olímpicos siempre soñé jugar unas olimpíadas porque para mí era lo más importante que podía lograr los grand slam los veía posibles pero los juegos olímpicos parecían algo imposible pero de pronto de la nada me encuentro con este momento entonces le digo a mi kinesiólogo ‘lo mejor que me puede pasar ahora es jugar contra djokovic’…se lo dije tomando el avión de suiza a japón cuando llegamos al otro día a japón me dicen ‘te toca djokovic’… ‘no la puedo creer’ le digo a mi padre…para que veas cómo es la vida que te da ese tipo de regalos después de tanto tiempo y el buscar estar entre los mejores del mundo y buscar después lograr tus sueños el destino te da regalos como éste que para mí fue de ensueño sí venía de ganar absolutamente todo y todo el año venía empatando en gran slam con nadal y federer o sea que si ganaba la olimpíada y el us open pasaba a ser el mayor ganador de la historia…y yo tenía que jugar contra él… fue único  lo mismo que en los otros partidos son experiencias únicas momentos hermosos que me quedarán para siempre en el recuerdo personalmente pienso que sí porque siento que soy otro tipo de jugador otro tipo de persona siento que he evolucionado y he madurado mucho más en ese momento cuando estuve 72 del mundo las cosas me vinieron muy de golpe y no supe manejarlas más allá de que creo que siempre me manejé con mucho respeto con el público con los sponsors y todos los que me apoyaron es que internamente dejé de ser la persona que era me encontré con mil cambios que no me llegaron a ayudar en su momento y eso hizo que llegara a tener tantos altibajos y el bajón que tuve en los últimos dos años hoy por hoy creo que ya me he llegado a conocer mucho más tomo decisiones mucho más certeras por así decirlo porque todas las cosas que viví en el pasado me han ayudado a cuidarme de cosas que me pudieran llegar a pasar de ahora en adelante otra vez es que siempre uno va conociendo y experimentando cosas nuevas pero ya uno tiene diferentes tipos de herramientas para poder manejarse diferente creo que hoy mi caja de herramientas es mucho más amplia a la que era antes por eso considero que hoy por hoy estoy en un momento mucho más favorable para mi vida  nunca me habían hecho esa pregunta bebe agua mientras piensa antes de responder es una parte linda y otra parte fea porque si me preguntás a mí me encantaría vivir acá entrenar acá y poder hacer todas mis cosas acá lamentablemente en nuestro país no tenemos las condiciones para hacerlo tanto de instalaciones de jugadores profesionales y de muchas cosas más acá los clubes son privados y por más que tengo acceso a todos que les quedo agradecido pero no es lo mismo que estar en un lugar donde están todos los jugadores donde podés entrenar con diferentes tipos de jugadores contar con varios equipos de trabajo donde podés cambiar si no te sentís cómodo es que en argentina hay muchas cosas que acá no las hay pero que esperemos que algún día tengamos pero después vivir en argentina a mí en un principio me costó muchísimo porque es otra sociedad sobre todo que es una sociedad que es muy diferente a la nuestra la ciudad es muy hermosa y tengo una calidad de vida muy buena en comparación a lo que estuve hace 10 años cuando empecé a vivir allá lo estoy disfrutando desde otro punto de vista y hoy siento que argentina es como un lugar de descanso para mí antes no lo sentía así sentía que si quería descansar tenía que venir a bolivia sí o sí hoy estar con toda mi familia allá con mi mujer y mi hija suma muchísimo por ahora me toca vivir allá pero espero que en el futuro pueda vivir acá también en esa época era roger federer pero hoy son todos en realidad cuando comencé a ir conociendo y mirando ya como un tenista y no simplemente como un fan del tenis viéndolos como colegas y cómo es el sacrificio que cada uno toma en la cancha y cómo lo afronta para mí estos tres tipos nadal djokovic y federer son ejemplos que no nos podemos llegar a imaginar cuánto</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/una-venezolana-y-un-bebe-boliviano-mueren-al-cruzar-la-frontera-norte-de-chile/</t>
+          <t>https://eldeber.com.bo/multideportivo/hugo-dellien-este-es-mi-mejor-momento_272467</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ab5e1aa1c52bbef3224f8deb5d80891d</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>78</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>48995d1998b0d63dbcb0df61369fcf9a</t>
+        </is>
       </c>
       <c r="G93" t="n">
-        <v>1880</v>
+        <v>39</v>
       </c>
       <c r="H93" t="n">
-        <v>8</v>
+        <v>19342</v>
       </c>
       <c r="I93" t="n">
-        <v>178</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>('chile', 4)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2041</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>('crisis', 4)</t>
+          <t>('porque', 28)</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>('años', 3)</t>
+          <t>('momento', 26)</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>('muy', 20)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>coronavirus seis nuevos casos en oruro y tres pacientes recuperados</t>
+          <t>rally vuelta a marbán aprehenden a corredor que atropelló a un menor</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> las cifras de covid19 en oruro continúan bajas después del feriado de carnaval este jueves se tuvieron seis nuevos contagios y tres pacientes recuperados además ya son 16 días que no se reportan decesos por esta enfermedad el reporte del servicio departamental de salud sedes indica que tanto los seis casos nuevos como las tres personas recuperadas son del municipio de oruro total hasta el momento en el departamento de oruro se registraron 42268 casos de coronavirus además 40587 pacientes se recuperaron 1594 fallecieron y hay 87 personas que todavía tienen el virus contagios con los nuevos contagios la ciudad capital suma 35543 casos seguida de huanuni con 1521 challapata 1143 machacamarca 392 caracollo 359 sabaya 288 turco 266 salinas de garci mendoza 238 antequera 218 eucaliptus 214 toledo 210 poopó 209 curahuara de carangas 196 huari 185 huachacalla 163 santiago de andamarca 154 pazña 149 corque 133 pampa aullagas 103 el choro 87 quillacas 83 en tanto totora 67 huayllamarca 66 soracachi 56 esmeralda 43 yunguyo de litoral 37 belén de andamarca 28 choquecota 26 cruz de machacamarca 26 escara 23 chipaya 21 coipasa 15 la rivera cinco carangas y todos santos uno recuperados el municipio de oruro acumula 34130 personas recuperadas huanuni 1469 challapata 1081 machacamarca 374 caracollo 335 sabaya 284 turco 264 salinas de garci mendoza 233 antequera 212 eucaliptus 202 toledo 201 poopó 194 curahuara de carangas 178 huari 177 huachacalla 157 santiago de andamarca 148 pazña 146 corque 131 pampa aullagas 101 el choro 87 quillacas 80 huayllamarca 65 finalmente totora 62 soracachi 55 esmeralda 42 yunguyo de litoral 36 belén de andamarca 28 choquecota 25 cruz de machacamarca 24 escara 23 chipaya 21 coipasa 15 la rivera cinco todos santos uno y carangas uno</t>
+          <t xml:space="preserve"> el motociclista que atropelló a un menor de edad en el rally vuelta a marbán fue aprehendido informó el director de tránsito del beni coronel marcos céspedes el conductor fue identificado como antonio chemo cuellar de 33 años de edad arrolló al menor la tarde de este domingo cuando cruzaba la ruta del rally en la población de sachojere la competencia fue organizada por novena vez por la asociación beniana de motociclismo y sus representantes aseguraron que están al pendiente del estado de salud tanto del menor como del motociclista céspedes detalló que el conductor sufrió un tec leve y fractura de falange de tercer grado en la mano derecha y está internado en una clínica privada reportó la red erbol “él chemo también se encuentra internado pero además se encuentra aprehendido por disposición del ministerio público” señaló el diagnóstico del menor es reservado sin embargo se conoce que fue intervenido quirúrgicamente en el hospital obrero sufrió un fuerte golpe en la cabeza y tiene una de sus piernas fracturadas el caso fue clasificado por la dirección de tránsito como atropello a peatón en competencia deportiva “sí se debe investigar porque hay lesiones gravísimas o graves y obviamente en el transcurso de la investigación se van a determinar las situaciones que se vayan a seguir posteriormente no porque nosotros hayamos visto que no hay responsabilidad se va a dejar de investigar se tiene que investigar y si el caso amerita obviamente se va a archivar y se va a rechazar” manifestó el coronel /jdlf/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/25/coronavirus-seis-nuevos-casos-en-oruro-y-tres-pacientes-recuperados/</t>
+          <t>https://lapatria.bo/2022/03/21/rally-vuelta-a-marban-aprehenden-a-corredor-que-atropello-a-un-menor/</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>2022/03/21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>lapatria.bo</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>36a7cde7d7d990cff2e7a206f6095c19</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>67</v>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>38627075644f3e58c9cf8ae402d5652e</t>
+        </is>
       </c>
       <c r="G94" t="n">
-        <v>1775</v>
+        <v>68</v>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>1524</v>
       </c>
       <c r="I94" t="n">
-        <v>219</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>('oruro', 4)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>133</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>('machacamarca', 4)</t>
+          <t>('menor', 4)</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>('carangas', 4)</t>
+          <t>('investigar', 3)</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>('motociclista', 2)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>el torneo apertura de la división profesional se reanudará el viernes con dos partidos</t>
+          <t>policía aprehende a vladimir irahola villanueva presunto feminicida de vania</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>nacional potosíaurora y bloomingalways ready son los encuentros programados para el viernes por la séptima fecha en el reinicio del campeonato   días y horarios de las próximas fechas del torneo apertura de la división profesional en potosí por el grupo a nacional recibirá la visita de aurora blooming y always ready que se jugará desde las 2030 la séptima fecha continuará el sábado con cuatro encuentros viernes 1 de abril sábado 2 de abril domingo 3 de abril viernes 8 de abril sábado 9 de abril domingo 10 de abril lunes 11 de abril  días y horarios de las próximas fechas del torneo apertura de la división profesional en potosí por el grupo a nacional recibirá la visita de aurora blooming y always ready que se jugará desde las 2030 la séptima fecha continuará el sábado con cuatro encuentros viernes 1 de abril sábado 2 de abril domingo 3 de abril viernes 8 de abril sábado 9 de abril domingo 10 de abril lunes 11 de abril  la comisión de competiciones de la federación boliviana de fútbol fbf definió  que va desde la séptima jornada hasta la fecha número 14 que es la última el viernes 1 de abril se reanudará el campeonato con dos partidos   a partir de las 1800 el partido se jugará en el estadio víctor agustín ugarte una vez finalizado el cotejo en la villa imperial se dará paso al choque entre   en el estadio tahuichi aguilera de santa cruz este partido corresponde a la serie b  y proseguirá el domingo con otros dos nacional p 1800 aurora blooming 2030 always ready real sc 1500 oriente p ‘u’ de vinto 1500 independiente wilstermann 1715 real tomayapo ‘u’ de sucre 1930 plamaflor guabirá 1500 the strongest bolívar 1715 royal pari always ready 1500 ‘u’ de vinto royal pari 1500 independiente palmaflor 1500 real sc bolívar 1715 wilstermann oriente p 1930 nacional p ‘u’ de sucre 1500 guabirá real tomayapo 1715 blooming aurora 1830 the strongest la comisión de competiciones de la federación boliviana de fútbol fbf definió  que va desde la séptima jornada hasta la fecha número 14 que es la última el viernes 1 de abril se reanudará el campeonato con dos partidos   a partir de las 1800 el partido se jugará en el estadio víctor agustín ugarte una vez finalizado el cotejo en la villa imperial se dará paso al choque entre   en el estadio tahuichi aguilera de santa cruz este partido corresponde a la serie b  y proseguirá el domingo con otros dos nacional p 1800 aurora blooming 2030 always ready real sc 1500 oriente p ‘u’ de vinto 1500 independiente wilstermann 1715 real tomayapo ‘u’ de sucre 1930 plamaflor guabirá 1500 the strongest bolívar 1715 royal pari always ready 1500 ‘u’ de vinto royal pari 1500 independiente palmaflor 1500 real sc bolívar 1715 wilstermann oriente p 1930 nacional p ‘u’ de sucre 1500 guabirá real tomayapo 1715 blooming aurora 1830 the strongest</t>
+          <t xml:space="preserve"> la policía informó que luego de un trabajo investigativo en poblaciones fronterizas del beni se ha logrado aprehender a vladimir irahola villanueva principal acusado del feminicidio de su pareja vania trujillo crimen ocurrido en febrero en la ciudad de la paz “informamos a la población que después de un arduo trabajo investigativo en poblaciones fronterizas del beni nuestros servidores policiales procedieron a la aprehensión de vladimir irahola villanueva principal acusado del feminicidio de su esposa vania trujillo” se lee en el comunicado de la policía en sus redes sociales el caso cobró relevancia después de que la activista maría galindo protestó en el estado mayor y la fiscalía reclamando que se había dejado escapar a vladimir irahola presunto autor del feminicidio de vania trujillo el feminicidio se registró el 18 de febrero según las investigaciones el autor del crimen quiso fingir que la víctima había fallecido por ingerir una sustancia tóxica pero se evidenció que fue estrangulada el padre del presunto feminicida de profesión militar fue aprehendido y enviado a la cárcel acusado de haber ayudado a escapar a su hijo con el pasar de los días las investigaciones se volcaron al beni donde vive un amigo del principal sospechoso quien aparentemente sabía del crimen y cobijó al presunto feminicida por lo cual fue aprehendido vladimir irahola se comunicó con su amigo moisés quien se encontraba en beni y le contó que le quitó la vida a su pareja el amigo le pidió fotos y ambos se enviaron audios “por eso que se llega a estas conversaciones y se tiene la aprehensión de moisés vaquero que sería el amigo a quien denominaba ‘yunta o bro’” afirmo la coordinadora de la fiscalía de la paz nilda calle vania trujillo fue asesinada el 18 de febrero en la zona de bajo san antonio de la ciudad de la paz presuntamente en manos de su concubino vladimir de quien se presume que le puso en la boca un líquido usado para limpiar hornos y de esa forma hacer creer que la joven se suicidó sin embargo tras la autopsia se develó que el deceso fue por estrangulamiento /hnf/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/futbol/el-torneo-apertura-de-la-division-profesional-se-reanudara-el-viernes-con-dos-partidos_272480</t>
+          <t>https://lapatria.bo/2022/03/23/policia-aprehende-a-vladimir-irahola-villanueva-presunto-feminicida-de-vania/</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/23</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>f47a2d62992a2be5ea5c7350e9e42cf1</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>86</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>57e927df02d32b98814406604e0e832f</t>
+        </is>
       </c>
       <c r="G95" t="n">
-        <v>2798</v>
+        <v>76</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>2086</v>
       </c>
       <c r="I95" t="n">
-        <v>326</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>('abril', 16)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>195</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>('1500', 14)</t>
+          <t>('vladimir', 5)</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>('p', 8)</t>
+          <t>('beni', 4)</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>('irahola', 4)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>concejala terrazas “la anulación del segundo contrato de aseo urbano ha sido un gol a la corrupción”</t>
+          <t>cochabamba policía investiga muerte de una niña que llegó al hospital con signos de violencia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la concejala de comunidad autonómica dijo que existe un daño económico menor al municipio considera que los funcionarios involucrados deben ser procesados conozca en detalle sus observaciones   la anulación del segundo contrato del servicio de aseo urbano ha sido “un gol a la corrupción”  el viernes de la anterior semana el alcalde jhonny fernández anuló la licitación para la adjudicación del servicio de aseo urbano “no están administrando su casa sino los recursos de más de un millón de ciudadanos” violación del decreto supremo 181  ley municipal de aseo urbano no modificación de la metodología de selección transferencia de residuos sólidos    la anulación del segundo contrato del servicio de aseo urbano ha sido “un gol a la corrupción”  el viernes de la anterior semana el alcalde jhonny fernández anuló la licitación para la adjudicación del servicio de aseo urbano “no están administrando su casa sino los recursos de más de un millón de ciudadanos” violación del decreto supremo 181  ley municipal de aseo urbano no modificación de la metodología de selección transferencia de residuos sólidos    “los funcionarios que han hecho estos procesos deben responderle al pueblo y a las leyes por la mentira y por el engaño que le estaban queriendo hacer a santa cruz” aseveró terrazas que espera que el tercer contrato no caiga en la vulneración de la norma en la parcialización de una empresa y que los profesionales actúen con pulcritud y profesionalidad porque  en la anterior licitación la metodología para evaluar a la empresa era de menor costo en esta segunda licitación una enmienda establece un incremento de más de 45 millones de dólares en el primer contrato en el sector a y b además de un incremento de más de bs 17 millones en el tercer contrato del relleno sanitario  contempla la poda de pasto para la empresa con experiencia el costo estipulado en el contrato anulado era de más de bs 114 millones la secretaria de equipamiento social se encarga del mantenimiento de las áreas verdes   no estaba garantizado en este proceso de licitación pese a estar incluida en las especificaciones técnicas del requerimiento de servicio estaba como una posibilidad a modificarse en el tiempo del contrato la norma establece que los únicos puntos que se pueden modificar una vez aprobado el contrato es el plazo y costo del mismo “los funcionarios que han hecho estos procesos deben responderle al pueblo y a las leyes por la mentira y por el engaño que le estaban queriendo hacer a santa cruz” aseveró terrazas que espera que el tercer contrato no caiga en la vulneración de la norma en la parcialización de una empresa y que los profesionales actúen con pulcritud y profesionalidad porque  en la anterior licitación la metodología para evaluar a la empresa era de menor costo en esta segunda licitación una enmienda establece un incremento de más de 45 millones de dólares en el primer contrato en el sector a y b además de un incremento de más de bs 17 millones en el tercer contrato del relleno sanitario  contempla la poda de pasto para la empresa con experiencia el costo estipulado en el contrato anulado era de más de bs 114 millones la secretaria de equipamiento social se encarga del mantenimiento de las áreas verdes   no estaba garantizado en este proceso de licitación pese a estar incluida en las especificaciones técnicas del requerimiento de servicio estaba como una posibilidad a modificarse en el tiempo del contrato la norma establece que los únicos puntos que se pueden modificar una vez aprobado el contrato es el plazo y costo del mismo</t>
+          <t xml:space="preserve"> este viernes una madre y el padrastro llevaron el cuerpo sin vida de una niña de 1 año y 9 meses a un hospital de la zona sur de cochabamba ambos explicaron que la menor se había caído de una fuente la policía tras evidenciar que la niña tenía signos de violencia de larga data los arrestó a ambos con fines investigativos según información de los medios de comunicación la niña fue llevada al centro de salud de cerro verde cerca de las 0800 horas de hoy el servicio de emergencia realizó el examen correspondiente y no encontró signos vitales por lo que se realizó maniobras de resucitación sin resultados «al no encontrarse signos vitales se le realiza la resucitación cardiopulmonar por parte del médico de turno pero no fue factible porque no tuvimos una respuesta favorable se le diagnosticó un tec grave y sospecha de fractura de base de cráneo» informó la responsable del hospital la médico jaqueline mamani a red uno los médicos encontraron un hematoma a nivel de la cabeza en la región parietal además un ojo que estaba equimótico y edematizado había lesiones en el lado izquierdo y también un edema y equimosis hasta la región mandibular «el padre refiere que la menor se cayó de una altura de más o menos un metro él dijo que se cayó de la fuente y no se despertó al llegar la menor al hospital ya estaba sin signos vitales sin respuesta alguna» afirmó la responsable del hospital al tratarse de una menor de edad el servicio médico comunicó el hecho a la defensoría y a la felcc quienes llegaron al lugar y retiraron el cuerpo según red uno la fiscal departamental de cochabamba nuria gonzales informó que el ministerio público tomó conocimiento del caso y envió personal para los exámenes correspondientes «la menor en el examen físico registra lesiones de data antigua y una posible situación de agresión sexual por lo cual toda actividad investigativa se está desplegando» dijo gonzales el director de la fuerza especial de lucha contra el crimen felcc ronald tapia informó que el cuerpo de la niña presentaba lesiones de data antigua de hace siete u ocho días a nivel del rostro aparentemente por una caída «estamos a la espera de la autopsia el resultado nos ayudará a determinar lo que podría haber pasado con la menor momentáneamente y con fines investigativos tenemos a dos personas arrestadas que es la mamá y el padrastro posteriormente se determinará la situación legal de ambos» argumentó tapia /hnf/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/santa-cruz/concejala-terrazas-la-anulacion-del-segundo-contrato-de-aseo-urbano-ha-sido-un-gol-a-la-corrupcion_272472</t>
+          <t>https://lapatria.bo/2022/03/25/cochabamba-policia-investiga-muerte-de-una-nina-que-llego-al-hospital-con-signos-de-violencia/</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>2022/03/25</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>fefbfb5c6e32af9a68e6bf05c13e69c7</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>100</v>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5cba75a780eb856f0ecd14d3aecead15</t>
+        </is>
       </c>
       <c r="G96" t="n">
-        <v>3570</v>
+        <v>93</v>
       </c>
       <c r="H96" t="n">
-        <v>11</v>
+        <v>2426</v>
       </c>
       <c r="I96" t="n">
-        <v>317</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>('contrato', 14)</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>222</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>('licitación', 8)</t>
+          <t>('menor', 6)</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>('servicio', 6)</t>
+          <t>('niña', 4)</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>('hospital', 4)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>coda gana el premio óscar a mejor película</t>
+          <t>los momentos más importantes de los óscar</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">la película sigue la vida de hijos de personas adultas que son sordas la película cuenta con la participación del actor mexicano eugenio derbez  padres sordos y una hija oyente recibió este domingo el óscar a la mejor película frente a pesos pesados del cine sian heder ganó la estatuilla al mejor guión adaptado y el actor troy kotsur sordo de nacimiento la de mejor actor de reparto padres sordos y una hija oyente recibió este domingo el óscar a la mejor película frente a pesos pesados del cine sian heder ganó la estatuilla al mejor guión adaptado y el actor troy kotsur sordo de nacimiento la de mejor actor de reparto </t>
+          <t xml:space="preserve">marcada por sorpresas se llevó a cabo la 94 edición de los premios oscar incluyendo el momento en el actor will smith abofeteó al comediante chris rock  la 94 edición de los óscar    will smith y la bofetada que no fue actuada abofeteó  chris rock  confusión e no aprueba la violencia en ninguna de sus formas además de felicitar a sus ganadores la crítica respecto a ese momento es mixta seis estatuillas de diez nominaciones   a película proviene de una plataforma de streaming jane campion  en un siglo solo cinco mujeres han sido nominadas para este galardón la 94 edición de los óscar    will smith y la bofetada que no fue actuada abofeteó  chris rock  confusión e no aprueba la violencia en ninguna de sus formas además de felicitar a sus ganadores la crítica respecto a ese momento es mixta seis estatuillas de diez nominaciones   a película proviene de una plataforma de streaming jane campion  en un siglo solo cinco mujeres han sido nominadas para este galardón  jada no puedo esperar a gi jane 2 dijo en referencia a gi jane la película de 1997 en la que demi moore interpretó el papel principal con la cabeza rapada aunque al principio smith sonrió el chiste no terminó bien momentos después will smith recibió el premio a mejor actor en el cual ofreció una disculpa por el incidente     chloé zhao por la cinta  jada no puedo esperar a gi jane 2 dijo en referencia a gi jane la película de 1997 en la que demi moore interpretó el papel principal con la cabeza rapada aunque al principio smith sonrió el chiste no terminó bien momentos después will smith recibió el premio a mejor actor en el cual ofreció una disculpa por el incidente     chloé zhao por la cinta </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/tendencias/coda-gana-el-premio-oscar-a-mejor-pelicula_272436</t>
+          <t>https://eldeber.com.bo/sociales/los-momentos-mas-importantes-de-los-oscar_272461</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>beefcb956238e2876732b3e33aadd337</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>42</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>d3d82e25b3067f03e5713ecf4927ce6c</t>
+        </is>
       </c>
       <c r="G97" t="n">
-        <v>625</v>
+        <v>41</v>
       </c>
       <c r="H97" t="n">
-        <v>6</v>
+        <v>1677</v>
       </c>
       <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>('mejor', 6)</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>173</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>('actor', 5)</t>
+          <t>('smith', 7)</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>('película', 4)</t>
+          <t>('jane', 6)</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>('will', 5)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>“esa fue la mejor noche en la historia de la televisión” la reacción de chris rock a la bofetada de will smith</t>
+          <t>hagamos burritos mexicanos</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">will smith golpeó a rock y le dijo que mantuviera el nombre de su esposa “fuera de su boca” después de que el comediante se burlara de jada pinkett por su cabeza rapada  </t>
+          <t xml:space="preserve">los burritos de carne picada son un plato típico de las fronteras de méxico esta es una receta ‘cruceñizada’ que envió la lectora martha gallardo  el burrito mexicano original suele llevar frejoles refritos como en este caso ingrediente s paso 1 paso 2 paso 3 paso 4 paso 5 el burrito mexicano original suele llevar frejoles refritos como en este caso ingrediente s paso 1 paso 2 paso 3 paso 4 paso 5 </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/esa-fue-la-mejor-noche-en-la-historia-de-la-television-la-reaccion-de-chris-rock-a-la-bofetada-de-wi_272439</t>
+          <t>https://eldeber.com.bo/para-ellas/hagamos-burritos-mexicanos_271865</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>23/3/2022</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>cb9578844fafb7feb24803796d44cece</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>110</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6a5310d94bd643a7c71917ce63b6b3aa</t>
+        </is>
       </c>
       <c r="G98" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="H98" t="n">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>('will', 1)</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>53</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>('smith', 1)</t>
+          <t>('paso', 10)</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>('golpeó', 1)</t>
+          <t>('burrito', 2)</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>('mexicano', 2)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>la ira y las lágrimas de will smith y otros momentos clave de los óscar</t>
+          <t>los mejores looks de la alfombra roja de los óscar 2022</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">además de la bofetada de will smith hubo pedidos a favor de ucrania se recordaron los 60 años de la primera película de james bond y los 50 años de el padrino  will smith un golpe un óscar y lágrimas el amor te hace hacer locuras la policía de los ángeles aclaró que chris rock no había presentado una denuncia pedido de ayuda para ucrania  amy schumer propuso que el presidente ucraniano volodimir zelenski hablara durante la velada presidente joe biden traiga a casa a brittney griner _ una velada musical concluida por liza minelli  minnelli de 76 años apareció sonriente otra estatuilla para anita hace 60 años la legendaria rita moreno ganó el óscar a la mejor actriz james bond cumple 60 años el padrino 50 will smith un golpe un óscar y lágrimas el amor te hace hacer locuras la policía de los ángeles aclaró que chris rock no había presentado una denuncia pedido de ayuda para ucrania  amy schumer propuso que el presidente ucraniano volodimir zelenski hablara durante la velada presidente joe biden traiga a casa a brittney griner _ una velada musical concluida por liza minelli  minnelli de 76 años apareció sonriente otra estatuilla para anita hace 60 años la legendaria rita moreno ganó el óscar a la mejor actriz james bond cumple 60 años el padrino 50 </t>
+          <t>las estrellas vuelven a brillar con toda su intensidad en la alfombra roja más importante del año  cerca de 2500 invitados que han abarrotado el teatro dolby de los ángeles eeu zoë kravitz los vestidos más míticos de la historia  cerca de 2500 invitados que han abarrotado el teatro dolby de los ángeles eeu zoë kravitz los vestidos más míticos de la historia   los premios óscar vuelven a escena cumplen su 94º edición y la gala ha vuelto a ser presencial por completo con   lady gaga uma thurman ariana debose y jamie lee curtis  las estrellas han recorrido los 300 metros de la red carpet de los óscar dejando  algunos estilismos que se han sumado a la lista de  jada pinkett smith la mejor compañía de will smith llegó con una obra de arte de jean paul gaultier couture con la cola más larga de la cita kristen stewart nominada a mejor actriz protagónica por spencer se vistió con chanel bastante cómoda y juvenil los premios óscar vuelven a escena cumplen su 94º edición y la gala ha vuelto a ser presencial por completo con   lady gaga uma thurman ariana debose y jamie lee curtis  las estrellas han recorrido los 300 metros de la red carpet de los óscar dejando  algunos estilismos que se han sumado a la lista de  jada pinkett smith la mejor compañía de will smith llegó con una obra de arte de jean paul gaultier couture con la cola más larga de la cita kristen stewart nominada a mejor actriz protagónica por spencer se vistió con chanel bastante cómoda y juvenil</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/rfi/la-ira-y-las-lagrimas-de-will-smith-y-otros-momentos-clave-de-los-oscar_272454</t>
+          <t>https://eldeber.com.bo/sociales/los-mejores-looks-de-la-alfombra-roja-de-los-oscar-2022_272475</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>8b2f3e0556653555701b3d6c6448283b</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>71</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>fb420015c067d80e56dddd5dfb86f5de</t>
+        </is>
       </c>
       <c r="G99" t="n">
-        <v>1266</v>
+        <v>55</v>
       </c>
       <c r="H99" t="n">
-        <v>7</v>
+        <v>1473</v>
       </c>
       <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>('años', 8)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>156</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>('60', 5)</t>
+          <t>('óscar', 4)</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>('óscar', 4)</t>
+          <t>('smith', 4)</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>('mejor', 4)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>jada pinkett la lucha de la esposa de will smith para aceptar y visibilizar la alopecia femenina</t>
+          <t>will smith golpea al comediante chris rock en la ceremonia y recoge su premio entre lágrimas</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">la actriz y presentadora empezó con problemas de pérdida de cabello hace al menos cuatro años  </t>
+          <t xml:space="preserve">will smith golpeó a rock y le dijo que mantuviera el nombre de su esposa “fuera de su boca” después de que el comediante se burlara de jada pinkett por su cabeza rapada  </t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/jada-pinkett-la-lucha-de-la-esposa-de-will-smith-para-aceptar-y-visibilizar-la-alopecia-femenina_272463</t>
+          <t>https://eldeber.com.bo/bbc/will-smith-golpea-al-comediante-chris-rock-en-la-ceremonia-y-recoge-su-premio-entre-lagrimas_272438</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>b553c893718b04ed9a49068e2ed918e0</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>96</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>559301bb359197ac18d2f660441d567f</t>
+        </is>
       </c>
       <c r="G100" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H100" t="n">
+        <v>170</v>
+      </c>
+      <c r="I100" t="n">
         <v>10</v>
       </c>
-      <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>('actriz', 1)</t>
-        </is>
+      <c r="J100" t="n">
+        <v>17</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>('presentadora', 1)</t>
+          <t>('will', 1)</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>('empezó', 1)</t>
+          <t>('smith', 1)</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>('golpeó', 1)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>óscar 2022 la lista completa de los ganadores de los premios de la academia</t>
+          <t>coda gana el premio óscar a mejor película</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">dune fue la película más premiada de la noche al hacerse con galardones en seis de las 10 categorías a las que aspiraba  </t>
+          <t xml:space="preserve">la película sigue la vida de hijos de personas adultas que son sordas la película cuenta con la participación del actor mexicano eugenio derbez  padres sordos y una hija oyente recibió este domingo el óscar a la mejor película frente a pesos pesados del cine sian heder ganó la estatuilla al mejor guión adaptado y el actor troy kotsur sordo de nacimiento la de mejor actor de reparto padres sordos y una hija oyente recibió este domingo el óscar a la mejor película frente a pesos pesados del cine sian heder ganó la estatuilla al mejor guión adaptado y el actor troy kotsur sordo de nacimiento la de mejor actor de reparto </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/bbc/oscar-2022-la-lista-completa-de-los-ganadores-de-los-premios-de-la-academia_272440</t>
+          <t>https://eldeber.com.bo/tendencias/coda-gana-el-premio-oscar-a-mejor-pelicula_272436</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>27/3/2022</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>29b73a244cc052b3e919003de7747833</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>75</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>beefcb956238e2876732b3e33aadd337</t>
+        </is>
       </c>
       <c r="G101" t="n">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="H101" t="n">
-        <v>7</v>
+        <v>625</v>
       </c>
       <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>('dune', 1)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>70</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>('película', 1)</t>
+          <t>('mejor', 6)</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>('premiada', 1)</t>
+          <t>('actor', 5)</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>('película', 4)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>hugo dellien “éste es mi mejor momento”</t>
+          <t>“esa fue la mejor noche en la historia de la televisión” la reacción de chris rock a la bofetada de will smith</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>el mejor tenista del país se siente un jugador distinto al de antes más maduro y con un rendimiento mucho más regular por eso está entre los mejores 100 del mundo  por chino tapia  hoy disfruta de uno de sus mejores momentos en el tenis tuvo un gran arranque en el presente año  actual número 90 en el ranking de la atp  el beniano se atreve a comparar estos eventos suyos con la clasificación a un mundial de fútbol a medvedev lo enfrenté en el us open 29 agosto 2019  ¿cómo te sentías?  ¿y la experiencia de enfrentar a rafael nadal?  ¿cuál es la sensación en esos momentos al enterarse de enfrentar a un rival como el español?  ¿ y en el momento de salir a la cancha y jugar el partido?  ¿sentías algo especial o uno se olvida de todo en ese instante?  después te tocó jugar con novak djokovic en julio de 2021  ¿y cuál fue tu reacción al enterarte que él era el rival?  en ese momento djokovic ya era el número uno   ¿y cómo fue el partido?  el presente nos muestra a un hugo dellien jugando muy bien ¿es este el mejor momento de tu carrera?  ¿cuál considerás que fue el cambio?  esa es la madurez a la que te referías  para llegar al nivel actual tenés que estar bien preparado ¿qué significa que te entrenés en la argentina por ejemplo?  ¿no hay punto de comparación?  te sentís muy cómodo por lo visto  la curiosidad periodística me lleva a tus orígenes cuando eras un adolescente en esa época ¿a quién admirabas como tenista? por chino tapia  hoy disfruta de uno de sus mejores momentos en el tenis tuvo un gran arranque en el presente año  actual número 90 en el ranking de la atp  el beniano se atreve a comparar estos eventos suyos con la clasificación a un mundial de fútbol a medvedev lo enfrenté en el us open 29 agosto 2019  ¿cómo te sentías?  ¿y la experiencia de enfrentar a rafael nadal?  ¿cuál es la sensación en esos momentos al enterarse de enfrentar a un rival como el español?  ¿ y en el momento de salir a la cancha y jugar el partido?  ¿sentías algo especial o uno se olvida de todo en ese instante?  después te tocó jugar con novak djokovic en julio de 2021  ¿y cuál fue tu reacción al enterarte que él era el rival?  en ese momento djokovic ya era el número uno   ¿y cómo fue el partido?  el presente nos muestra a un hugo dellien jugando muy bien ¿es este el mejor momento de tu carrera?  ¿cuál considerás que fue el cambio?  esa es la madurez a la que te referías  para llegar al nivel actual tenés que estar bien preparado ¿qué significa que te entrenés en la argentina por ejemplo?  ¿no hay punto de comparación?  te sentís muy cómodo por lo visto  la curiosidad periodística me lleva a tus orígenes cuando eras un adolescente en esa época ¿a quién admirabas como tenista?  hugo dellien vivió inolvidables experiencias y grandes éxitos en 2021 y  su participación en la copa davis roland garros wimbledon el us open los juegos olímpicos y los triunfos en lima montevideo y santiago lo ubican en un sitial especial entre los sudamericanos y le dieron mayor popularidad dentro del país que le permitió retornar a los top 100 de la atp y en esa condición asegurar su participación en los torneos más importantes gracias a ello volverá a competir en roland garros y wimbledon a dellien  y que en enero del 2020 llegó a ocupar el puesto 72 del escalafón mundial diez le puso un freno a su casi alocada agenda de actividades para que él cuente sus experiencias sobre lo que fue enfrentar a los tres “monstruos” del tenis mundial que han llegado a liderar este ranking daniil medvedev rafael nadal y roger federer  le llegan los recuerdos a su mente y le cuesta muchísimo no emocionarse se le nota un brillo diferente en sus ojos cuando comenta esos partidos que lo marcaron de por vida puf… sintió que tocó el cielo sin estar allí evoca estos hechos ahora cuando él dice que se siente en el mejor momento de su historia en el tenis  después que gané la primera ronda y fue un hecho increíble porque él venía de ganar como tres torneos seguidos consiguiendo un salto de calidad muy grande en su juego me parece que no le habían sacado ni un set en los últimos tres torneos  yo estaba con mucha confianza porque gané en primera ronda y desde ya me llego a enfrentar en una cancha principal con él que era el número 3 del mundo en ese momento empecé un poco nervioso pero después del segundo set comencé a encontrarme con más confianza y jugué de una manera tal que lo hice jugar incómodo duró casi 3 horas ese duelo y él empieza a sentir el partido se comenzó a acalambrar por la presión y el calor que hacía 40º en cancha de cemento se siente mucho más el calor que jugar en arcilla fue un partido increíble porque puse en aprietos a un jugador como él que luego fue número uno del mundo e hizo final contra rafa rafael nadal perdiendo la final en un choque de unas 5 horas yo estaba en un restaurante de australia y ahí me enteré de primera mano porque cuando lo programan o se sortea un número uno del mundo lo primero que se sabe es contra quién va a jugar…nos enteramos por twitter  lo bueno en ese caso fue que tuve tres días para poder pensar en el partido para poder pasar ese momento de ansiedad nerviosismo y toda esa situación que te provoca enfrentar a este tipo de jugadores mucha gente lo tomó como un poco exagerado pero yo sentía como que si hubiésemos llegado a un mundial de fútbol fue un momento especial porque de pronto comencé a recibir mensajes de todo el mundo miles de mensajes de felicitaciones como que si ya hubiera ganado…y nada más me tocaba jugar contra rafa…no es que gané nada sólo gané el sorteo pero fue muy especial porque siempre quise enfrentar a rafa federer y djokovic no pude enfrentar aún a federer pero cuando me tocó versus rafa 20 enero 2020 la pasé muy lindo los primeros días no podía dormir pero después fui poniéndome más tranquilo menos ansioso desde el momento donde hay un pasillo largo que es para entrar al court central donde están las fotos de todos los ganadores…vos vas caminando pero sabés que el tipo de atrás está en una dos tres cuatro cinco fotos risas que ha ganado 6 ó 7 veces el campeonato de australia entonces es increíble llegar a enfrentar a ese tipo de jugadores que los has visto en la tele años y años levantando ese trofeo y vos llegás a jugar contra él en un lugar especial yo sentí que estaba como en un videojuego…la gente la emoción se me puso la piel de gallina de ver tantas banderas bolivianas en un lugar que vos decís ‘qué hacen acá tan lejos de nuestra casa’…en verdad fue algo impresionante  fue una historia muy especial pues yo no tenía previsto ir a las olimpíadas porque no había clasificado pero los jugadores se fueron borrando y borrando hasta que llegó el momento de que en mi ranking ya estaba clasificado para ir a los juegos olímpicos sin embargo fue una decisión que debí tomar porque estaba metido en un atp en austria entonces me dicen ‘tenés que bajarte del atp para ir a las olimpíadas ¿qué decisión vas a tomar?’ yo les respondí que obviamente prefería ir a las olimpíadas porque nunca en mi vida pensé que podía llegar a unos juegos olímpicos siempre soñé jugar unas olimpíadas porque para mí era lo más importante que podía lograr los grand slam los veía posibles pero los juegos olímpicos parecían algo imposible pero de pronto de la nada me encuentro con este momento entonces le digo a mi kinesiólogo ‘lo mejor que me puede pasar ahora es jugar contra djokovic’…se lo dije tomando el avión de suiza a japón cuando llegamos al otro día a japón me dicen ‘te toca djokovic’… ‘no la puedo creer’ le digo a mi padre…para que veas cómo es la vida que te da ese tipo de regalos después de tanto tiempo y el buscar estar entre los mejores del mundo y buscar después lograr tus sueños el destino te da regalos como éste que para mí fue de ensueño sí venía de ganar absolutamente todo y todo el año venía empatando en gran slam con nadal y federer o sea que si ganaba la olimpíada y el us open pasaba a ser el mayor ganador de la historia…y yo tenía que jugar contra él… fue único  lo mismo que en los otros partidos son experiencias únicas momentos hermosos que me quedarán para siempre en el recuerdo personalmente pienso que sí porque siento que soy otro tipo de jugador otro tipo de persona siento que he evolucionado y he madurado mucho más en ese momento cuando estuve 72 del mundo las cosas me vinieron muy de golpe y no supe manejarlas más allá de que creo que siempre me manejé con mucho respeto con el público con los sponsors y todos los que me apoyaron es que internamente dejé de ser la persona que era me encontré con mil cambios que no me llegaron a ayudar en su momento y eso hizo que llegara a tener tantos altibajos y el bajón que tuve en los últimos dos años hoy por hoy creo que ya me he llegado a conocer mucho más tomo decisiones mucho más certeras por así decirlo porque todas las cosas que viví en el pasado me han ayudado a cuidarme de cosas que me pudieran llegar a pasar de ahora en adelante otra vez es que siempre uno va conociendo y experimentando cosas nuevas pero ya uno tiene diferentes tipos de herramientas para poder manejarse diferente creo que hoy mi caja de herramientas es mucho más amplia a la que era antes por eso considero que hoy por hoy estoy en un momento mucho más favorable para mi vida  nunca me habían hecho esa pregunta bebe agua mientras piensa antes de responder es una parte linda y otra parte fea porque si me preguntás a mí me encantaría vivir acá entrenar acá y poder hacer todas mis cosas acá lamentablemente en nuestro país no tenemos las condiciones para hacerlo tanto de instalaciones de jugadores profesionales y de muchas cosas más acá los clubes son privados y por más que tengo acceso a todos que les quedo agradecido pero no es lo mismo que estar en un lugar donde están todos los jugadores donde podés entrenar con diferentes tipos de jugadores contar con varios equipos de trabajo donde podés cambiar si no te sentís cómodo es que en argentina hay muchas cosas que acá no las hay pero que esperemos que algún día tengamos pero después vivir en argentina a mí en un principio me costó muchísimo porque es otra sociedad sobre todo que es una sociedad que es muy diferente a la nuestra la ciudad es muy hermosa y tengo una calidad de vida muy buena en comparación a lo que estuve hace 10 años cuando empecé a vivir allá lo estoy disfrutando desde otro punto de vista y hoy siento que argentina es como un lugar de descanso para mí antes no lo sentía así sentía que si quería descansar tenía que venir a bolivia sí o sí hoy estar con toda mi familia allá con mi mujer y mi hija suma muchísimo por ahora me toca vivir allá pero espero que en el futuro pueda vivir acá también en esa época era roger federer pero hoy son todos en realidad cuando comencé a ir conociendo y mirando ya como un tenista y no simplemente como un fan del tenis viéndolos como colegas y cómo es el sacrificio que cada uno toma en la cancha y cómo lo afronta para mí estos tres tipos nadal djokovic y federer son ejemplos que no nos podemos llegar a imaginar cuánto hugo dellien vivió inolvidables experiencias y grandes éxitos en 2021 y  su participación en la copa davis roland garros wimbledon el us open los juegos olímpicos y los triunfos en lima montevideo y santiago lo ubican en un sitial especial entre los sudamericanos y le dieron mayor popularidad dentro del país que le permitió retornar a los top 100 de la atp y en esa condición asegurar su participación en los torneos más importantes gracias a ello volverá a competir en roland garros y wimbledon a dellien  y que en enero del 2020 llegó a ocupar el puesto 72 del escalafón mundial diez le puso un freno a su casi alocada agenda de actividades para que él cuente sus experiencias sobre lo que fue enfrentar a los tres “monstruos” del tenis mundial que han llegado a liderar este ranking daniil medvedev rafael nadal y roger federer  le llegan los recuerdos a su mente y le cuesta muchísimo no emocionarse se le nota un brillo diferente en sus ojos cuando comenta esos partidos que lo marcaron de por vida puf… sintió que tocó el cielo sin estar allí evoca estos hechos ahora cuando él dice que se siente en el mejor momento de su historia en el tenis  después que gané la primera ronda y fue un hecho increíble porque él venía de ganar como tres torneos seguidos consiguiendo un salto de calidad muy grande en su juego me parece que no le habían sacado ni un set en los últimos tres torneos  yo estaba con mucha confianza porque gané en primera ronda y desde ya me llego a enfrentar en una cancha principal con él que era el número 3 del mundo en ese momento empecé un poco nervioso pero después del segundo set comencé a encontrarme con más confianza y jugué de una manera tal que lo hice jugar incómodo duró casi 3 horas ese duelo y él empieza a sentir el partido se comenzó a acalambrar por la presión y el calor que hacía 40º en cancha de cemento se siente mucho más el calor que jugar en arcilla fue un partido increíble porque puse en aprietos a un jugador como él que luego fue número uno del mundo e hizo final contra rafa rafael nadal perdiendo la final en un choque de unas 5 horas yo estaba en un restaurante de australia y ahí me enteré de primera mano porque cuando lo programan o se sortea un número uno del mundo lo primero que se sabe es contra quién va a jugar…nos enteramos por twitter  lo bueno en ese caso fue que tuve tres días para poder pensar en el partido para poder pasar ese momento de ansiedad nerviosismo y toda esa situación que te provoca enfrentar a este tipo de jugadores mucha gente lo tomó como un poco exagerado pero yo sentía como que si hubiésemos llegado a un mundial de fútbol fue un momento especial porque de pronto comencé a recibir mensajes de todo el mundo miles de mensajes de felicitaciones como que si ya hubiera ganado…y nada más me tocaba jugar contra rafa…no es que gané nada sólo gané el sorteo pero fue muy especial porque siempre quise enfrentar a rafa federer y djokovic no pude enfrentar aún a federer pero cuando me tocó versus rafa 20 enero 2020 la pasé muy lindo los primeros días no podía dormir pero después fui poniéndome más tranquilo menos ansioso desde el momento donde hay un pasillo largo que es para entrar al court central donde están las fotos de todos los ganadores…vos vas caminando pero sabés que el tipo de atrás está en una dos tres cuatro cinco fotos risas que ha ganado 6 ó 7 veces el campeonato de australia entonces es increíble llegar a enfrentar a ese tipo de jugadores que los has visto en la tele años y años levantando ese trofeo y vos llegás a jugar contra él en un lugar especial yo sentí que estaba como en un videojuego…la gente la emoción se me puso la piel de gallina de ver tantas banderas bolivianas en un lugar que vos decís ‘qué hacen acá tan lejos de nuestra casa’…en verdad fue algo impresionante  fue una historia muy especial pues yo no tenía previsto ir a las olimpíadas porque no había clasificado pero los jugadores se fueron borrando y borrando hasta que llegó el momento de que en mi ranking ya estaba clasificado para ir a los juegos olímpicos sin embargo fue una decisión que debí tomar porque estaba metido en un atp en austria entonces me dicen ‘tenés que bajarte del atp para ir a las olimpíadas ¿qué decisión vas a tomar?’ yo les respondí que obviamente prefería ir a las olimpíadas porque nunca en mi vida pensé que podía llegar a unos juegos olímpicos siempre soñé jugar unas olimpíadas porque para mí era lo más importante que podía lograr los grand slam los veía posibles pero los juegos olímpicos parecían algo imposible pero de pronto de la nada me encuentro con este momento entonces le digo a mi kinesiólogo ‘lo mejor que me puede pasar ahora es jugar contra djokovic’…se lo dije tomando el avión de suiza a japón cuando llegamos al otro día a japón me dicen ‘te toca djokovic’… ‘no la puedo creer’ le digo a mi padre…para que veas cómo es la vida que te da ese tipo de regalos después de tanto tiempo y el buscar estar entre los mejores del mundo y buscar después lograr tus sueños el destino te da regalos como éste que para mí fue de ensueño sí venía de ganar absolutamente todo y todo el año venía empatando en gran slam con nadal y federer o sea que si ganaba la olimpíada y el us open pasaba a ser el mayor ganador de la historia…y yo tenía que jugar contra él… fue único  lo mismo que en los otros partidos son experiencias únicas momentos hermosos que me quedarán para siempre en el recuerdo personalmente pienso que sí porque siento que soy otro tipo de jugador otro tipo de persona siento que he evolucionado y he madurado mucho más en ese momento cuando estuve 72 del mundo las cosas me vinieron muy de golpe y no supe manejarlas más allá de que creo que siempre me manejé con mucho respeto con el público con los sponsors y todos los que me apoyaron es que internamente dejé de ser la persona que era me encontré con mil cambios que no me llegaron a ayudar en su momento y eso hizo que llegara a tener tantos altibajos y el bajón que tuve en los últimos dos años hoy por hoy creo que ya me he llegado a conocer mucho más tomo decisiones mucho más certeras por así decirlo porque todas las cosas que viví en el pasado me han ayudado a cuidarme de cosas que me pudieran llegar a pasar de ahora en adelante otra vez es que siempre uno va conociendo y experimentando cosas nuevas pero ya uno tiene diferentes tipos de herramientas para poder manejarse diferente creo que hoy mi caja de herramientas es mucho más amplia a la que era antes por eso considero que hoy por hoy estoy en un momento mucho más favorable para mi vida  nunca me habían hecho esa pregunta bebe agua mientras piensa antes de responder es una parte linda y otra parte fea porque si me preguntás a mí me encantaría vivir acá entrenar acá y poder hacer todas mis cosas acá lamentablemente en nuestro país no tenemos las condiciones para hacerlo tanto de instalaciones de jugadores profesionales y de muchas cosas más acá los clubes son privados y por más que tengo acceso a todos que les quedo agradecido pero no es lo mismo que estar en un lugar donde están todos los jugadores donde podés entrenar con diferentes tipos de jugadores contar con varios equipos de trabajo donde podés cambiar si no te sentís cómodo es que en argentina hay muchas cosas que acá no las hay pero que esperemos que algún día tengamos pero después vivir en argentina a mí en un principio me costó muchísimo porque es otra sociedad sobre todo que es una sociedad que es muy diferente a la nuestra la ciudad es muy hermosa y tengo una calidad de vida muy buena en comparación a lo que estuve hace 10 años cuando empecé a vivir allá lo estoy disfrutando desde otro punto de vista y hoy siento que argentina es como un lugar de descanso para mí antes no lo sentía así sentía que si quería descansar tenía que venir a bolivia sí o sí hoy estar con toda mi familia allá con mi mujer y mi hija suma muchísimo por ahora me toca vivir allá pero espero que en el futuro pueda vivir acá también en esa época era roger federer pero hoy son todos en realidad cuando comencé a ir conociendo y mirando ya como un tenista y no simplemente como un fan del tenis viéndolos como colegas y cómo es el sacrificio que cada uno toma en la cancha y cómo lo afronta para mí estos tres tipos nadal djokovic y federer son ejemplos que no nos podemos llegar a imaginar cuánto</t>
+          <t xml:space="preserve">will smith golpeó a rock y le dijo que mantuviera el nombre de su esposa “fuera de su boca” después de que el comediante se burlara de jada pinkett por su cabeza rapada  </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/multideportivo/hugo-dellien-este-es-mi-mejor-momento_272467</t>
+          <t>https://eldeber.com.bo/bbc/esa-fue-la-mejor-noche-en-la-historia-de-la-television-la-reaccion-de-chris-rock-a-la-bofetada-de-wi_272439</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>48995d1998b0d63dbcb0df61369fcf9a</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>39</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>cb9578844fafb7feb24803796d44cece</t>
+        </is>
       </c>
       <c r="G102" t="n">
-        <v>19342</v>
+        <v>110</v>
       </c>
       <c r="H102" t="n">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="I102" t="n">
-        <v>2053</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>('porque', 28)</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="J102" t="n">
+        <v>17</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>('momento', 26)</t>
+          <t>('will', 1)</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>('muy', 20)</t>
+          <t>('smith', 1)</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>('golpeó', 1)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>grupos de personas llegan hasta el penal de miraflores mientras se desarrolla el juicio de áñez</t>
+          <t>la ira y las lágrimas de will smith y otros momentos clave de los óscar</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gente identificada como víctimas de senkata y sacaba además de otras decenas de personas llegaron hasta el penal de miraflores demandando 30 años de cárcel para jeanine áñez mientras se desarrolla el juicio denominado “golpe de estado ii” en uno de los ambientes del penal la exmandataria se presentó junto con su defensa legal de manera virtual ante el tribunal 1º de sentencia anticorrupción de la paz áñez vestía bufanda campera y una polera con su fotografía estampada en ella además de un barbijo según informó la agencia boliviana de información afuera del penal decenas de personas con pancartas se asentaron al mismo tiempo que pedían a gritos “30 años para áñez” algunos portaban carteles con las fotografías de los fallecidos en las zonas de senkata y sacaba en el alto el 15 de noviembre de 2019 a tres días de la asunción de áñez al poder denunciaron en sacaba la muerte de 11 personas y otras 120 heridas esto durante las protestas que seguían activas en el país después de la renuncia de evo morales el 19 de noviembre se presentó un caso similar en senkata donde se reportaron otros 11 civiles fallecidos y 78 heridos la comisión interamericana de derechos humanos calificó ambos acontecimientos como “masacres” el caso “golpe de estado ii” se inició la presente jornada está enfocado en las acciones de jeanine áñez cuando era la segunda vicepresidente del senado y asumió posteriormente la presidencia del país mientras se desarrollaba el juicio áñez presentó una descompensación ante las dificultades para respirar que presentaba la exmandataria se instruyó un receso para que el equipo médico del penal realizara la revisión correspondiente los médicos determinaron que la acusada sufrió un ataque de ansiedad / lmpt</t>
+          <t xml:space="preserve">además de la bofetada de will smith hubo pedidos a favor de ucrania se recordaron los 60 años de la primera película de james bond y los 50 años de el padrino  will smith un golpe un óscar y lágrimas el amor te hace hacer locuras la policía de los ángeles aclaró que chris rock no había presentado una denuncia pedido de ayuda para ucrania  amy schumer propuso que el presidente ucraniano volodimir zelenski hablara durante la velada presidente joe biden traiga a casa a brittney griner _ una velada musical concluida por liza minelli  minnelli de 76 años apareció sonriente otra estatuilla para anita hace 60 años la legendaria rita moreno ganó el óscar a la mejor actriz james bond cumple 60 años el padrino 50 will smith un golpe un óscar y lágrimas el amor te hace hacer locuras la policía de los ángeles aclaró que chris rock no había presentado una denuncia pedido de ayuda para ucrania  amy schumer propuso que el presidente ucraniano volodimir zelenski hablara durante la velada presidente joe biden traiga a casa a brittney griner _ una velada musical concluida por liza minelli  minnelli de 76 años apareció sonriente otra estatuilla para anita hace 60 años la legendaria rita moreno ganó el óscar a la mejor actriz james bond cumple 60 años el padrino 50 </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/grupos-de-personas-llegan-hasta-el-penal-de-miraflores-mientras-se-desarrolla-el-juicio-de-anez/</t>
+          <t>https://eldeber.com.bo/rfi/la-ira-y-las-lagrimas-de-will-smith-y-otros-momentos-clave-de-los-oscar_272454</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>c526ba3970f16f7c500fc0d399fe4975</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>95</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8b2f3e0556653555701b3d6c6448283b</t>
+        </is>
       </c>
       <c r="G103" t="n">
-        <v>1736</v>
+        <v>71</v>
       </c>
       <c r="H103" t="n">
-        <v>9</v>
+        <v>1266</v>
       </c>
       <c r="I103" t="n">
-        <v>165</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>('áñez', 5)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J103" t="n">
+        <v>155</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>('penal', 4)</t>
+          <t>('años', 8)</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>('senkata', 3)</t>
+          <t>('60', 5)</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>('óscar', 4)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>condolencia dr juan carlos espinoza zambrana q e p d</t>
+          <t>óscar 2022 la lista completa de los ganadores de los premios de la academia</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> spectrolab oruro se adhiere al dolor que embarga a la familia de nuestra compañera de trabajo y amiga jenny anabel espinoza zambrana por la irreparable pérdida de su hermano nuestro sentido pésame que dios les dé fortaleza y su presencia los llene de paz oruro 25 de marzo del 2022</t>
+          <t xml:space="preserve">dune fue la película más premiada de la noche al hacerse con galardones en seis de las 10 categorías a las que aspiraba  </t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/26/condolencia-dr-juan-carlos-espinoza-zambrana-q-e-p-d/</t>
+          <t>https://eldeber.com.bo/bbc/oscar-2022-la-lista-completa-de-los-ganadores-de-los-premios-de-la-academia_272440</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>efe86d61b07d57d150fa2fa323238da4</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>52</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>29b73a244cc052b3e919003de7747833</t>
+        </is>
       </c>
       <c r="G104" t="n">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="H104" t="n">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="I104" t="n">
-        <v>30</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>('oruro', 2)</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>('spectrolab', 1)</t>
+          <t>('dune', 1)</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>('adhiere', 1)</t>
+          <t>('película', 1)</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>('premiada', 1)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ine adelanta que solo puede coordinar transporte e infraestructura para el censo con alcaldías y gobernaciones</t>
+          <t>masacre en un ruedo de peleas de gallos deja al menos 20 muertos en méxico</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> desde el instituto nacional de estadísticas ine aseguraron que no pueden transferir a gobernaciones y alcaldías tareas que son exclusivas de la institución con relación al censo de población y vivienda 2022 lo único que pueden delegar es infraestructura física y transporte “el ine no puede transferir el levantamiento procesamiento y publicación de los datos del censo a ninguna entidad subnacional la coordinación con las entidades territoriales autónomas para el censo será para que apoyen con infraestructura física y de transporte y promoviendo el censo en función a los lineamientos que el ine defina” dijeron funcionarios del ine según informó la agencia de noticias fides de acuerdo con la entidad que prepara el relevamiento de la información la constitución política del estado cpe establece que los censos oficiales son una competencia privativa del nivel central la ley 1405 de estadísticas oficiales del estado plurinacional indica que “esa competencia privativa la realiza a través del ine que tiene entre sus funciones fundamentales levantar procesar y publicar con carácter de exclusividad los censos oficiales de población y vivienda del país” para la elaboración del censo de población y vivienda 2022 previsto para el 16 de noviembre todos los municipios capitales incluyendo el alto pretendieron participar aportando información técnica mapas cartográficos y otros datos con la intención de “transparentar” el proceso la semana pasada el director ejecutivo de la asociación de municipalidades de bolivia amb alfonso lema declaró “urge que se lleve el censo de manera transparente con información cartográfica actualizada y en lo posible generar la participación de los gobiernos municipales en lo que será la boleta censal porque estamos en proceso de planificación e información” el alcalde de la paz iván arias es otro de los partidarios de que los subgobiernos participen en el proceso previo al empadronamiento el domingo declaró “si no hay concertación si no hay confiablidad en los datos del censo 2022 y si se hace sin consulta va a ser un motivo más de confrontación entre los bolivianos” mientras tanto el ine trabaja en la socialización del censo de población y vivienda además de la actualización cartográfica estadística datos que se requieren para determinar cuántas viviendas existen en áreas amanzanadas y en las áreas dispersas en todo el territorio nacional para posteriormente determinar el número de agentes censales y jefes jurisdiccionales necesarios / lmpt</t>
+          <t xml:space="preserve">méxico está inmerso en una espiral de violencia que deja al menos 340000 muertos en su mayoría atribuidos a acciones del crimen organizado desde 2006 cuando se desplegó una ofensiva militar antidrogas  20 muertos en el estado mexicano de michoacán oeste un espacio destinado a las riñas de gallos fue una masacre de un grupo contra otro en un palenque clandestino ya salió un equipo del gobierno para allá para la investigación y para atender el tema camión atravesado ¡hay una balacera aquí donde hacen los bailes! se escuchan muchos gritos insultos 19 cuerpos otro hombre murió  cinco personas resultaron heridas capturar a los responsables de los hechos violentos 340000 muertos desde 2006 cuando se desplegó una ofensiva militar antidrogas un grupo armado atacó a los asistentes a un velorio en febrero pasado  es una posible venganza entre grupos vinculados a la delincuencia organizada  en 2021 michoacán registró 2732 asesinatos  20 muertos en el estado mexicano de michoacán oeste un espacio destinado a las riñas de gallos fue una masacre de un grupo contra otro en un palenque clandestino ya salió un equipo del gobierno para allá para la investigación y para atender el tema camión atravesado ¡hay una balacera aquí donde hacen los bailes! se escuchan muchos gritos insultos 19 cuerpos otro hombre murió  cinco personas resultaron heridas capturar a los responsables de los hechos violentos 340000 muertos desde 2006 cuando se desplegó una ofensiva militar antidrogas un grupo armado atacó a los asistentes a un velorio en febrero pasado  es una posible venganza entre grupos vinculados a la delincuencia organizada  en 2021 michoacán registró 2732 asesinatos  </t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://lapatria.bo/2022/03/28/ine-adelanta-que-solo-puede-coordinar-transporte-e-infraestructura-para-el-censo-con-alcaldias-y-gobernaciones/</t>
+          <t>https://eldeber.com.bo/mundo/masacre-en-un-ruedo-de-peleas-de-gallos-deja-al-menos-20-muertos-en-mexico_272503</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>lapatria.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6957bccd7d208adbf3d82c1e6e07d3f0</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>110</v>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4e499d6ee6094506b81582bdafd372b7</t>
+        </is>
       </c>
       <c r="G105" t="n">
-        <v>2499</v>
+        <v>74</v>
       </c>
       <c r="H105" t="n">
-        <v>10</v>
+        <v>1672</v>
       </c>
       <c r="I105" t="n">
-        <v>214</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>('censo', 8)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>165</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>('ine', 6)</t>
+          <t>('muertos', 5)</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>('población', 4)</t>
+          <t>('michoacán', 4)</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>('grupo', 4)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>al menos 19 muertos en tiroteo en el centro de méxico</t>
+          <t>jada pinkett la lucha de la esposa de will smith para aceptar y visibilizar la alopecia femenina</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>méxico está inmerso en una espiral de violencia que deja unos 340000 muerto  al menos 19 personas murieron en un tiroteo registrado el domingo por la noche en zinapécuaro la fiscalía fue informada a las 22h30 locales 04h30 gmt del lunes de una agresión perpetrada contra los asistentes a un palenque varias personas resultaron heridas y fueron trasladadas a nosocomios el estado de michoacán y el vecino guanajuato el 10 de marzo el alcalde del municipio de aguililla en michoacán césar valencia fue asesinado a tiro al menos 19 personas murieron en un tiroteo registrado el domingo por la noche en zinapécuaro la fiscalía fue informada a las 22h30 locales 04h30 gmt del lunes de una agresión perpetrada contra los asistentes a un palenque varias personas resultaron heridas y fueron trasladadas a nosocomios el estado de michoacán y el vecino guanajuato el 10 de marzo el alcalde del municipio de aguililla en michoacán césar valencia fue asesinado a tiro   en el centro de méxico indicó este lunes la fiscalía general del estado de michoacán fge en un comunicado  en el centro de méxico indicó este lunes la fiscalía general del estado de michoacán fge en un comunicado</t>
+          <t xml:space="preserve">la actriz y presentadora empezó con problemas de pérdida de cabello hace al menos cuatro años  </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://eldeber.com.bo/mundo/al-menos-19-muertos-en-tiroteo-en-el-centro-de-mexico_272468</t>
+          <t>https://eldeber.com.bo/bbc/jada-pinkett-la-lucha-de-la-esposa-de-will-smith-para-aceptar-y-visibilizar-la-alopecia-femenina_272463</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>eldeber.com.bo</t>
+          <t>28/3/2022</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>5d2632ee98e352d92d370741a0da1202</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>b553c893718b04ed9a49068e2ed918e0</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>96</v>
+      </c>
+      <c r="H106" t="n">
+        <v>95</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10</v>
+      </c>
+      <c r="J106" t="n">
+        <v>9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>('actriz', 1)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>('presentadora', 1)</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>('empezó', 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>trabajadores que construyen la siderúrgica mutún van al paro por 48 horas</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>la demanda es por una mejora salarial para los ayudantes que ganan bs 2164 desde la esm indicaron que el tema de los derechos laborales ya está resuelto la empresa china sinosteel analiza el caso trabajadores anuncian tres puntos de bloqueo  la mejora salarial  realicen un paro con tres puntos de bloqueo por 48 horas gilbert córdova  incumplimiento de la empresa china sinosteel del pliego petitorio  de lunes se va a realizar el paro con tres puntos de bloqueo  un ayudante sin ninguna especialización gana bs 2164 por una escala salarial que contemple bs 3000 para un ayudante sin especialización y bs 3500 para uno que sea especializado córdova observó que en la empresa no hay una categorización salarial ya se está en la etapa donde se realizan labores especializadas como la soldadura  van a ser tres puntos de bloqueo por 48 horas”  jorge alvarado la medida atrasa los avances de obras se pagan las afp se logró la mejora en la comida y en la ropa de trabajo   el tema de la escala salarial es más una negociación entre los trabajadores y el contratista sinosteel indicaron que ese punto es delicado y por ello van a mantener reuniones  la mejora salarial  realicen un paro con tres puntos de bloqueo por 48 horas gilbert córdova  incumplimiento de la empresa china sinosteel del pliego petitorio  de lunes se va a realizar el paro con tres puntos de bloqueo  un ayudante sin ninguna especialización gana bs 2164 por una escala salarial que contemple bs 3000 para un ayudante sin especialización y bs 3500 para uno que sea especializado córdova observó que en la empresa no hay una categorización salarial ya se está en la etapa donde se realizan labores especializadas como la soldadura  van a ser tres puntos de bloqueo por 48 horas”  jorge alvarado la medida atrasa los avances de obras se pagan las afp se logró la mejora en la comida y en la ropa de trabajo   el tema de la escala salarial es más una negociación entre los trabajadores y el contratista sinosteel indicaron que ese punto es delicado y por ello van a mantener reuniones    es el detonante para que los trabajadores que están construyeron la planta siderúrgica mutún santa cruz secretario ejecutivo de la central obrera regional cor de puerto suárez explicó que la medida de presión se realiza debido al  presentado por los trabajadores córdova precisó que es el punto cuatro que habla de la escala salarial el que no logró ser atendido por le contratista y por ello desde las cero horas medianoche  el dirigente precisó que  y que en la propuesta realizada a sinosteel en un principio se les pidió una mejora salarial de bs 3500 pero luego revieron sus demandas y optaron   y que a todos se les está pagando el mínimo nacional cuando   de las estructuras de metal “nos vemos obligados a realizar este tipo de medidas ante la negativa de tomar en cuenta nuestros pedidos  dijo córdova al respecto  presidente de la empresa siderúrgica mutún esm lamentó que se tenga que llegar a esta situación pues   sin embargo precisó que en todo lo que se refiere al derecho laboral la esm ayudó para que se cumpla “ los trabajadores cuentan con un seguro de salud y contra accidentes se contempla el pago por frontera” sostuvo alvarado alvarado considera que ya en  por lo que espera se llegue a un acuerdo y se puedan continuar con las obras sobre el tema desde   se mostraron cautos e  y se excusaron de brindar mayores detalles  es el detonante para que los trabajadores que están construyeron la planta siderúrgica mutún santa cruz secretario ejecutivo de la central obrera regional cor de puerto suárez explicó que la medida de presión se realiza debido al  presentado por los trabajadores córdova precisó que es el punto cuatro que habla de la escala salarial el que no logró ser atendido por le contratista y por ello desde las cero horas medianoche  el dirigente precisó que  y que en la propuesta realizada a sinosteel en un principio se les pidió una mejora salarial de bs 3500 pero luego revieron sus demandas y optaron   y que a todos se les está pagando el mínimo nacional cuando   de las estructuras de metal “nos vemos obligados a realizar este tipo de medidas ante la negativa de tomar en cuenta nuestros pedidos  dijo córdova al respecto  presidente de la empresa siderúrgica mutún esm lamentó que se tenga que llegar a esta situación pues   sin embargo precisó que en todo lo que se refiere al derecho laboral la esm ayudó para que se cumpla “ los trabajadores cuentan con un seguro de salud y contra accidentes se contempla el pago por frontera” sostuvo alvarado alvarado considera que ya en  por lo que espera se llegue a un acuerdo y se puedan continuar con las obras sobre el tema desde   se mostraron cautos e  y se excusaron de brindar mayores detalles</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/economia/trabajadores-que-construyen-la-siderurgica-mutun-van-al-paro-por-48-horas_272389</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>27/3/2022</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>a8daac3aadaa23fa52023d3329ffb195</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>73</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4742</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>431</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>('salarial', 13)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>('bs', 9)</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>('trabajadores', 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>coronavirus seis nuevos casos en oruro y tres pacientes recuperados</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> las cifras de covid19 en oruro continúan bajas después del feriado de carnaval este jueves se tuvieron seis nuevos contagios y tres pacientes recuperados además ya son 16 días que no se reportan decesos por esta enfermedad el reporte del servicio departamental de salud sedes indica que tanto los seis casos nuevos como las tres personas recuperadas son del municipio de oruro total hasta el momento en el departamento de oruro se registraron 42268 casos de coronavirus además 40587 pacientes se recuperaron 1594 fallecieron y hay 87 personas que todavía tienen el virus contagios con los nuevos contagios la ciudad capital suma 35543 casos seguida de huanuni con 1521 challapata 1143 machacamarca 392 caracollo 359 sabaya 288 turco 266 salinas de garci mendoza 238 antequera 218 eucaliptus 214 toledo 210 poopó 209 curahuara de carangas 196 huari 185 huachacalla 163 santiago de andamarca 154 pazña 149 corque 133 pampa aullagas 103 el choro 87 quillacas 83 en tanto totora 67 huayllamarca 66 soracachi 56 esmeralda 43 yunguyo de litoral 37 belén de andamarca 28 choquecota 26 cruz de machacamarca 26 escara 23 chipaya 21 coipasa 15 la rivera cinco carangas y todos santos uno recuperados el municipio de oruro acumula 34130 personas recuperadas huanuni 1469 challapata 1081 machacamarca 374 caracollo 335 sabaya 284 turco 264 salinas de garci mendoza 233 antequera 212 eucaliptus 202 toledo 201 poopó 194 curahuara de carangas 178 huari 177 huachacalla 157 santiago de andamarca 148 pazña 146 corque 131 pampa aullagas 101 el choro 87 quillacas 80 huayllamarca 65 finalmente totora 62 soracachi 55 esmeralda 42 yunguyo de litoral 36 belén de andamarca 28 choquecota 25 cruz de machacamarca 24 escara 23 chipaya 21 coipasa 15 la rivera cinco todos santos uno y carangas uno</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://lapatria.bo/2022/03/25/coronavirus-seis-nuevos-casos-en-oruro-y-tres-pacientes-recuperados/</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022/03/25</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>36a7cde7d7d990cff2e7a206f6095c19</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>67</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1775</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="n">
+        <v>217</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>('oruro', 4)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>('machacamarca', 4)</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>('carangas', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>condolencia dr juan carlos espinoza zambrana q e p d</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> spectrolab oruro se adhiere al dolor que embarga a la familia de nuestra compañera de trabajo y amiga jenny anabel espinoza zambrana por la irreparable pérdida de su hermano nuestro sentido pésame que dios les dé fortaleza y su presencia los llene de paz oruro 25 de marzo del 2022</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://lapatria.bo/2022/03/26/condolencia-dr-juan-carlos-espinoza-zambrana-q-e-p-d/</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022/03/26</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>efe86d61b07d57d150fa2fa323238da4</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>52</v>
+      </c>
+      <c r="H109" t="n">
+        <v>282</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9</v>
+      </c>
+      <c r="J109" t="n">
+        <v>30</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>('oruro', 2)</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>('spectrolab', 1)</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>('adhiere', 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>último periódico crítico ruso suspende publicaciones hasta el final del conflicto</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> después de haber recibido el segundo y definitivo aviso de las autoridades por haber incumplido la ley ‘antifake’ “novaya gazeta” anunció la presente jornada la paralización de sus actividades hasta que concluyan las operaciones militares en ucrania “novaya gazeta” era el último periódico crítico del kremlin que se encontraba en funcionamiento tras las leyes aprobadas por el gobierno ruso la adjunta al director nadia prusenkova dijo la presente jornada que ya no pueden brindar información por su seguridad según lo informó abc internacional la dirección del medio confirmó en su página web que el organismo regulador de las comunicaciones roskomnadzor les envió una segunda advertencia respecto a la manera en que ejercían sus funciones es así que decidieron suspender las actividades del periódico en sus formatos impreso y digital “novaya gazeta” informó que esta determinación se mantendrá vigente hasta que el conflicto entre ambos países europeos culmine o al menos que las operaciones militares en ucrania cesen lo que significa que no tienen una fecha específica para retomar actividades después de que el presidente de rusia vladimir putin ordenara el inicio de las operaciones militares en ucrania “novaya gazeta” se convirtió en el medio independiente más leído por los rusos registraron más de cuatro millones de usuarios al día y más de 100000 lectores para seguir publicando el periódico decidió comenzar a usar palabras como “operación especial” y suprimir otras como “guerra” o “invasión” términos cuyo uso está penalizado por el kremlin el periódico ya mantenía una cobertura mesurada del conflicto en su formato impreso se publicaban dos hojas en blanco junto con un mensaje que decía “estas páginas deberían ser para informar sobre ucrania pero no podemos” esto fue interpretado como un reconocimiento público de los periodistas de que no se arriesgarían a ir a la cárcel el periodista denis muratov premio nobel de la paz en 2021 y fundador de ‘novaya gazeta’ anunció la semana precedente que donaría la medalla que ganó en oslo para ayudar a los refugiados ucranianos un acto con el que pretendió poner el foco sobre las millones de personas desplazadas por el conflicto / lmpt</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://lapatria.bo/2022/03/28/ultimo-periodico-critico-ruso-suspende-publicaciones-hasta-el-final-del-conflicto/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>fc0373b0b1e1f523c859e5ab27785954</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>81</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2203</v>
+      </c>
+      <c r="I110" t="n">
+        <v>8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>195</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>('“novaya', 4)</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>('gazeta”', 4)</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>('ucrania', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>una venezolana y un bebé boliviano mueren al cruzar la frontera norte de chile</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> una mujer de 78 años y un bebé de seis meses murieron el fin de semana reciente mientras trataban de ingresar a chile por la frontera norte con bolivia donde se vive en los últimos años una crisis migratoria y humanitaria a consecuencia de la mala administración de nicolás maduro que origina el éxodo de sus habitantes a otros países la mujer de nacionalidad venezolana falleció la noche del sábado 26 de marzo mientras personal médico le atendía en una zona fronteriza de la comuna de colchane a casi 2000 kilómetros al norte de la capital luego de la alerta de los familiares quienes afirmaron que se encontraba mal la segunda víctima es un bebé de seis meses de nacionalidad boliviana quien falleció en otra zona de colchane tras cruzar con su familia “la menor fue trasladada por su madre a la posta lugar en el cual la facultativa de turno constató la defunción del lactante explicando que mantenía antecedentes médicos por hidrocefalia” explicaron el precedente domingo las autoridades de la zona a la agencia efe en los últimos años chile posee una fuerte crisis migratoria por la llegada masiva de personas al paso fronterizo de forma clandestina la mayoría de nacionalidad venezolana lo que provoca el colapso de pequeñas localidades fronterizas en lo que va del año los inclementes pasos altiplánicos siguen formando la principal ruta irregular de ingreso a chile que sigue siendo uno de los países más atractivos para migrar dentro de américa latina por su estabilidad económica pese a la crisis de la pandemia y la crisis social de 2019 han muerto al menos cinco personas este año tratando de cruzar la frontera mientras que en 2021 hubo uno veintena de muertes hasta el momento chile tiene a 14 millones de migrantes lo que equivale a más del siete por ciento de la población y los venezolanos son los más numerosos seguidos de peruanos haitianos y colombianos /abh</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://lapatria.bo/2022/03/28/una-venezolana-y-un-bebe-boliviano-mueren-al-cruzar-la-frontera-norte-de-chile/</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022/03/28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>lapatria.bo</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ab5e1aa1c52bbef3224f8deb5d80891d</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>78</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1880</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>176</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>('chile', 4)</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>('crisis', 4)</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>('años', 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ante desfalco millonario trabajadores de cotas exigen transparencia y pago de sueldo retrasados</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>una auditoría reveló que el daño generado por el programa cotas en cuotas llegó a $us 145 millones los funcionarios están impagos desde hace cuatro meses  después de revelarse que el desfalco generado en el programa cotas en cuotas fue de $us 145 millones los trabajadores  de la cooperativa de telecomunicaciones de santa cruz cotas exigieron transparencia peter coca dirigente del sindicato de trabajadores de cotas sostuvo que es necesario que en base a los datos arrojados por la auditoría  el programa cotas en cuotas generó un daño económico de $us 145 millones nosotros vemos que hay futuro en la cooperativa pero si sigue mal administrada será imposible n los últimos seis meses se han realizado más de 15 reuniones informativas y conciliatorias incluyendo a nivel del ministerio del trabajo  y lo más triste es que ganamos un amparo ante un juez laboral el trabajo es lo que nos sostenía después de revelarse que el desfalco generado en el programa cotas en cuotas fue de $us 145 millones los trabajadores  de la cooperativa de telecomunicaciones de santa cruz cotas exigieron transparencia peter coca dirigente del sindicato de trabajadores de cotas sostuvo que es necesario que en base a los datos arrojados por la auditoría  el programa cotas en cuotas generó un daño económico de $us 145 millones nosotros vemos que hay futuro en la cooperativa pero si sigue mal administrada será imposible n los últimos seis meses se han realizado más de 15 reuniones informativas y conciliatorias incluyendo a nivel del ministerio del trabajo  y lo más triste es que ganamos un amparo ante un juez laboral el trabajo es lo que nos sostenía   en el manejo de la institución y la cancelación de sus sueldos la operadora debe cuatro meses de salarios a sus más de 500 trabajadores  en el manejo de la institución y la cancelación de sus sueldos la operadora debe cuatro meses de salarios a sus más de 500 trabajadores</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/economia/ante-desfalco-millonario-trabajadores-de-cotas-exigen-transparencia-y-pago-de-sueldo-retrasados_272486</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4caaf078052e12b8109fbc20b20845e7</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>95</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1913</v>
+      </c>
+      <c r="I112" t="n">
+        <v>9</v>
+      </c>
+      <c r="J112" t="n">
+        <v>174</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>('cotas', 9)</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>('trabajadores', 6)</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>('programa', 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>trabajadores de la siderúrgica mutún bloquean el ingreso a la planta y van al paro indefinido</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> la mejora salarial es la principal demanda los trabajadores piden una reunión con funcionarios de la empresa china sinosteel para llegar a un acuerdo de no ser escuchados la cor no descarta bloquear la frontera y la carretera hacia santa cruz  luego de más seis horas de reunión realizar un paro con bloqueo en solidaridad con los trabajadores  d eterminó un paro movilizado con bloqueo en la entrada de la planta siderúrgica mutún indefinido  gilbert córdova debido al incumplimiento de la empresa sinosteel del pliego petitorio presentado por los trabajadores que piden una mejora salarial  las bases determinaron haya un solo punto de bloqueo ubicado en la entrada de la siderúrgica y que la medida sea indefinida los bloqueos se van a extender a la frontera y a la carretera hacia santa cruz  hoy más de 40 trabajadores se encuentran bloqueando el ingreso a la siderúrgica luego de más seis horas de reunión realizar un paro con bloqueo en solidaridad con los trabajadores  d eterminó un paro movilizado con bloqueo en la entrada de la planta siderúrgica mutún indefinido  gilbert córdova debido al incumplimiento de la empresa sinosteel del pliego petitorio presentado por los trabajadores que piden una mejora salarial  las bases determinaron haya un solo punto de bloqueo ubicado en la entrada de la siderúrgica y que la medida sea indefinida los bloqueos se van a extender a la frontera y a la carretera hacia santa cruz  hoy más de 40 trabajadores se encuentran bloqueando el ingreso a la siderúrgica   ayer por la tarde la central obrera regional cor de puerto suárez determinó como lo adelantó el deber  que construyen la planta siderúrgica mutún santa cruz en su pronunciamiento la cor de la provincia germán busch  que se lleva desde la medianoche del lunes 28 de marzo  secretario ejecutivo de la cor de puerto suárez reiteró que la medida de presión se realiza  córdova explicó que a un principio la medida iba a ser por 48 horas con tres puntos de bloqueo pero que luego de la reunión  por el momento que  el dirigente alertó que de no lograr una reunión con funcionarios de sinosteel con capacidad de decisión  desde tempranas horas de  lo que ha frenado los trabajos que se estaban realizando con normalidad hasta el domingo 27 de marzo  ayer por la tarde la central obrera regional cor de puerto suárez determinó como lo adelantó el deber  que construyen la planta siderúrgica mutún santa cruz en su pronunciamiento la cor de la provincia germán busch  que se lleva desde la medianoche del lunes 28 de marzo  secretario ejecutivo de la cor de puerto suárez reiteró que la medida de presión se realiza  córdova explicó que a un principio la medida iba a ser por 48 horas con tres puntos de bloqueo pero que luego de la reunión  por el momento que  el dirigente alertó que de no lograr una reunión con funcionarios de sinosteel con capacidad de decisión  desde tempranas horas de  lo que ha frenado los trabajos que se estaban realizando con normalidad hasta el domingo 27 de marzo</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/economia/trabajadores-de-la-siderurgica-mutun-bloquean-el-ingreso-a-la-planta-y-van-al-paro-indefinido_272455</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9e39f5f9f1b4593b07f5311c2c222ca7</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>93</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2999</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>276</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>('bloqueo', 8)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>('siderúrgica', 8)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>('trabajadores', 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>el gobierno anticipa un movimiento de carga de hasta 200000 toneladas por el puerto de ilo para 2022</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>hasta febrero el flujo de carga superó las 60000 toneladas en el primer trimestre se superarán los registros de 2021  mercadería boliviana de importación y exportación llegó a las 60000 toneladas el viceministro de comercio exterior benjamín blanco detalló que 2020 se registró un movimiento de 27462 toneladas  en esa línea sostuvo que de enero a la fecha este movimiento llegó al menos 60000 toneladas si ya estamos llegando a las 60000 toneladas esperamos al menos llegar a las 20000 toneladas manejada s  donde tanto bolivia como perú establecieron como política de estado incrementar el flujo de carga por este puerto se han logrado mejores condiciones en estos meses a partir de la reunión binacional blanco aseguró que el puerto de ilo será una importante alternativa para potenciar el comercio exterior boliviano mercadería boliviana de importación y exportación llegó a las 60000 toneladas el viceministro de comercio exterior benjamín blanco detalló que 2020 se registró un movimiento de 27462 toneladas  en esa línea sostuvo que de enero a la fecha este movimiento llegó al menos 60000 toneladas si ya estamos llegando a las 60000 toneladas esperamos al menos llegar a las 20000 toneladas manejada s  donde tanto bolivia como perú establecieron como política de estado incrementar el flujo de carga por este puerto se han logrado mejores condiciones en estos meses a partir de la reunión binacional blanco aseguró que el puerto de ilo será una importante alternativa para potenciar el comercio exterior boliviano  el puerto de ilo en perú gana protagonismo en el comercio exterior boliviano hasta febrero de este año el flujo de     los cálculos estatales prevén que en el primer trimestre de este año el movimiento supere los registros del año pasado para la presente gestión el gobierno prevé que el tránsito de carga supere las 200000 toneladas el puerto de ilo en perú gana protagonismo en el comercio exterior boliviano hasta febrero de este año el flujo de     los cálculos estatales prevén que en el primer trimestre de este año el movimiento supere los registros del año pasado para la presente gestión el gobierno prevé que el tránsito de carga supere las 200000 toneladas</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/economia/el-gobierno-anticipa-un-movimiento-de-carga-de-hasta-200000-toneladas-por-el-puerto-de-ilo-para-2022_272471</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2edaf104c22faa3562945a266f525742</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>100</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2192</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9</v>
+      </c>
+      <c r="J114" t="n">
+        <v>201</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>('toneladas', 13)</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>('60000', 7)</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>('comercio', 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>corumbá el puente para el contrabando de cerveza</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>una gran cantidad de marcas en latas pequeñas se ofrecen en la ciudad brasileña cada unidad no supera los bs 2 la organización para pasar el producto perfora los controles del lado boliviano  la devaluación del real y una producción masiva y agresiva de cerveza en lata es en una esquina donde se concentran los puntos de comercialización de cerveza no supera los bs 2 por lo que ya en el mercado nacional se las  vende entre bs 4 y bs 5 los camiones y particularmente las vagonetas noah  por uno de los tres pasos que hay hacia nuestro país los contrabandistas perforan los controles realizando pagos a determinados funcionarios  la devaluación del real y una producción masiva y agresiva de cerveza en lata es en una esquina donde se concentran los puntos de comercialización de cerveza no supera los bs 2 por lo que ya en el mercado nacional se las  vende entre bs 4 y bs 5 los camiones y particularmente las vagonetas noah  por uno de los tres pasos que hay hacia nuestro país los contrabandistas perforan los controles realizando pagos a determinados funcionarios    en brasil que logra cruzar la frontera es una presión para la producción nacional que no puede competir con los costos del producto extranjero a no más de 20 minutos de puerto quijarro santa cruz se encuentra corumbá brasil   marcas como conti skol y brahma entre otras son las más codiciadas para ser comercializadas en bolivia las latas pequeñas llamadas ‘palitos’ son de 269 cc y sus costos si se compra al por mayor   un costo que para la producción nacional es difícil de igualar o mejorar son los principales medios de transporte ya desde brasil hay todo un sistema organizado para que los contrabandistas puedan comprar el producto y tener la certeza de que el mismo cruzará la frontera   para luego ser llevado a santa cruz o a otros departamentos los detalles de esta actividad ilegal los podrá leer el próximo fin de semana en el reportaje se hace foco en como  para que miren hacia otro y dejen pasar las cargas que contienen cerveza alimentos y ropa  en brasil que logra cruzar la frontera es una presión para la producción nacional que no puede competir con los costos del producto extranjero a no más de 20 minutos de puerto quijarro santa cruz se encuentra corumbá brasil   marcas como conti skol y brahma entre otras son las más codiciadas para ser comercializadas en bolivia las latas pequeñas llamadas ‘palitos’ son de 269 cc y sus costos si se compra al por mayor   un costo que para la producción nacional es difícil de igualar o mejorar son los principales medios de transporte ya desde brasil hay todo un sistema organizado para que los contrabandistas puedan comprar el producto y tener la certeza de que el mismo cruzará la frontera   para luego ser llevado a santa cruz o a otros departamentos los detalles de esta actividad ilegal los podrá leer el próximo fin de semana en el reportaje se hace foco en como  para que miren hacia otro y dejen pasar las cargas que contienen cerveza alimentos y ropa</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/economia/corumba-el-puente-para-el-contrabando-de-cerveza_272381</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>27/3/2022</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>a4b1f463ee7662a036623608ccb81df7</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>48</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2996</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>268</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>('bs', 7)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>('producción', 6)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>('cerveza', 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>cotas convoca a asamblea extraordinaria de delegados para designar comisión revisora de informe especial</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>la reunión será el jueves 31 de marzo a las 1800 en el salón chané de fexpocruz existe una auditoría externa sobre el programa cotas en cuotas que dice que el daño económico es de $us 145 millones  asamblea general extraordinaria de delegadas y delegados asimismo la designación de la comisión revisora del informe especial se reunirá de igual forma a partir de las 1900 proveedores de ‘cotas en cuotas’ a los que el deber tuvo acceso  $us 145 millones   conminó a la cooperativa a difundir el resultado de la auditoría a sus socios solicitudes ficticias para después desviar y vender los aparatos en el mercado negro asamblea general extraordinaria de delegadas y delegados asimismo la designación de la comisión revisora del informe especial se reunirá de igual forma a partir de las 1900 proveedores de ‘cotas en cuotas’ a los que el deber tuvo acceso  $us 145 millones   conminó a la cooperativa a difundir el resultado de la auditoría a sus socios solicitudes ficticias para después desviar y vender los aparatos en el mercado negro  la convocatoria explicita que de no haber el quórum necesario fijado en la mitad más uno de los delegados la asamblea   con la cantidad de asistentes en sala fue  el daño económico a la cooperativa en 2019 cotas denunció que a través de este programa de fidelización de sus socios que facilitaba que estos compraran equipos electrónicos a crédito un grupo de funcionarios realizó   sin que estos llegaran a los afiliados de la cooperativa como estaba formalmente previsto la convocatoria explicita que de no haber el quórum necesario fijado en la mitad más uno de los delegados la asamblea   con la cantidad de asistentes en sala fue  el daño económico a la cooperativa en 2019 cotas denunció que a través de este programa de fidelización de sus socios que facilitaba que estos compraran equipos electrónicos a crédito un grupo de funcionarios realizó   sin que estos llegaran a los afiliados de la cooperativa como estaba formalmente previsto</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/economia/cotas-convoca-a-asamblea-extraordinaria-de-delegados-para-designar-comision-revisora-de-informe-espe_272396</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>27/3/2022</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4b96140f984fa83a60e3fbe9c479508b</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>104</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1982</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10</v>
+      </c>
+      <c r="J116" t="n">
+        <v>171</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>('cooperativa', 6)</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>('asamblea', 4)</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>('delegados', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>entre angustia y tristeza se viven los últimos días en el hogar teresa de los andes</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">este centro cierra sus puertas el 31 de marzo y las 89 personas entre 19 y 57años que viven en el lugar serán trasladadas a otros hogares una veintena queson los que tienen discapacidad leve son los que más sufren con este cambio  rabajadora social de ese lugar y de inmediato en silencio deja c ella ya ha vivido en carne propia el cambio de hogar están tratando de abrir espacios para reubicarlos en otros centros unas 25 personas son las que más entienden lo que sucede porque muchos enfrentan angustia y tristeza destrezas que desarrollaron donde muestra un jarrón con una variedad de flores s rondas y alerta a través de señas cuando observa algo extraño   algunas trabajadoras incluso amamantaron cuando era solo un adolescente y se adaptó rápidamente con daños más severos una crisis de años rabajadora social de ese lugar y de inmediato en silencio deja c ella ya ha vivido en carne propia el cambio de hogar están tratando de abrir espacios para reubicarlos en otros centros unas 25 personas son las que más entienden lo que sucede porque muchos enfrentan angustia y tristeza destrezas que desarrollaron donde muestra un jarrón con una variedad de flores s rondas y alerta a través de señas cuando observa algo extraño   algunas trabajadoras incluso amamantaron cuando era solo un adolescente y se adaptó rápidamente con daños más severos una crisis de años        intentan enseñarles a lidiar con la separación que tendrán que enfrentar        “tranquilos hermanos todo estará bien” les dice  ahora merodea los distintos espacios del hogar como si fuera el encargado de brindar la bienvenida           intentan enseñarles a lidiar con la separación que tendrán que enfrentar        “tranquilos hermanos todo estará bien” les dice  ahora merodea los distintos espacios del hogar como si fuera el encargado de brindar la bienvenida    </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/entre-angustia-y-tristeza-se-viven-los-ultimos-dias-en-el-hogar-teresa-de-los-andes_272403</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>656e93f9119ae98cb7bf54d2d5f82ad7</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>83</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1843</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>181</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>('hogar', 4)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>('espacios', 4)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>('cuando', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>este domingo se registraron solo 16 nuevos casos de covid19 en santa cruz</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>en lo que va de 2022 se han reportado 102189 casos de acuerdo con el sedes la vacunación en la jornada llegó a 769 personas  uevos de covid19 en el departamento de santa cruz fue de solo 16 pero no se reportó ningún fallecido  acumulados de 2022 son 102189 la inmunización de la jornada llegó a 769 personas en santa cruz  según el sedes el 57% de la población objetivo ya ha recibido su primera dosis uevos de covid19 en el departamento de santa cruz fue de solo 16 pero no se reportó ningún fallecido  acumulados de 2022 son 102189 la inmunización de la jornada llegó a 769 personas en santa cruz  según el sedes el 57% de la población objetivo ya ha recibido su primera dosis  este domingo 27 la cifra de casos n   el informe epidemiológico diario del servicio departamental de salud sedes indica además que 104 personas se recuperaron y vencieron al coronavirus a la fecha los casos de coronavirus    en la capital cruceña se habían habilitado tres puestos de vacunación que funcionaron hasta el mediodía  en tanto que el 45% la segunda las dosis únicas representan el 16% mientras que la tercera dosis solo la ha recibido el 13%  as autoridades del sedes insisten constantemente en acudir a los centros de vacunación para completar el esquema completo de las dosis y a no aflojar las medidas de bioseguridad en especial con los escolares que han vuelto a las clases presenciales este domingo 27 la cifra de casos n   el informe epidemiológico diario del servicio departamental de salud sedes indica además que 104 personas se recuperaron y vencieron al coronavirus a la fecha los casos de coronavirus    en la capital cruceña se habían habilitado tres puestos de vacunación que funcionaron hasta el mediodía  en tanto que el 45% la segunda las dosis únicas representan el 16% mientras que la tercera dosis solo la ha recibido el 13%  as autoridades del sedes insisten constantemente en acudir a los centros de vacunación para completar el esquema completo de las dosis y a no aflojar las medidas de bioseguridad en especial con los escolares que han vuelto a las clases presenciales</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/este-domingo-se-registraron-solo-16-nuevos-casos-de-covid-19-en-santa-cruz_272407</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>27/3/2022</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>d7a8471475478bf76384db654e9fe046</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>73</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2087</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>184</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>('dosis', 8)</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>('sedes', 7)</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>('vacunación', 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>gobernación exige respeto a concurso de méritos y examen de competencia para acceder a 234 ítems de salud</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>el ministerio de salud envió una nota a la gobernación en la que indica que no reconoce ese proceso que fue iniciado hace más de un año según erwin viruez es la tercera vez desde el viernes que la gobernación reclama al gobierno por falta de atención a demandas de salud   cumpla con la institucionalización de 234 ítems para los cuales lanzó un concurso de méritos no reconoce el mencionado concurso de méritos y competencias para  tribunal de garantías que le exige al ministerio que concluya el proceso  exigir ante el ministerio que estos memorándums se emitan  personal administrativo que trabajará en el hospital de montero puede contribuir a aliviar la situación de hacinamiento   cumpla con la institucionalización de 234 ítems para los cuales lanzó un concurso de méritos no reconoce el mencionado concurso de méritos y competencias para  tribunal de garantías que le exige al ministerio que concluya el proceso  exigir ante el ministerio que estos memorándums se emitan  personal administrativo que trabajará en el hospital de montero puede contribuir a aliviar la situación de hacinamiento    el servicio departamental de salud sedes de santa cruz nuevamente arremete en contra del gobierno nacional por cuestiones relacionadas con la salud este lunes exigió a través de su director erwin viruez que el ministerio del ramo   y competencias hace más de un año viruez explicó que recibieron una nota del ministerio de salud en el sentido de que   médicos enfermeras y bioquímicos que según dijo está enmarcado en la ley 3131 de ejercicio profesional médico “el ministerio hoy no quiere concluir con este proceso y emitir los memorándums para estos colegas profesionales que han ganado estos concursos de méritos y examen de competencia … desconociendo la tutela que se le ha concedido a través de un  con la emisión de los memorándums para estos ganadores del concurso” manifestó viruez se comprometió a hacer la representación correspondiente y  para que los profesionales puedan fortalecer el sistema de salud el viernes pasado la gobernación pidió al presidente luis arce que los ministerios de salud y economía firmaran la resolución biministerial que permitirá la creación de ítems para el  que debe abrir cuanto antes según una sentencia constitucional  además pidió al ministerio de salud la firma de convenios con centros privados para que puedan atender pacientes del sistema único de salud lo que  en la sala de terapia intensiva para neonatos de la maternidad percy boland el servicio departamental de salud sedes de santa cruz nuevamente arremete en contra del gobierno nacional por cuestiones relacionadas con la salud este lunes exigió a través de su director erwin viruez que el ministerio del ramo   y competencias hace más de un año viruez explicó que recibieron una nota del ministerio de salud en el sentido de que   médicos enfermeras y bioquímicos que según dijo está enmarcado en la ley 3131 de ejercicio profesional médico “el ministerio hoy no quiere concluir con este proceso y emitir los memorándums para estos colegas profesionales que han ganado estos concursos de méritos y examen de competencia … desconociendo la tutela que se le ha concedido a través de un  con la emisión de los memorándums para estos ganadores del concurso” manifestó viruez se comprometió a hacer la representación correspondiente y  para que los profesionales puedan fortalecer el sistema de salud el viernes pasado la gobernación pidió al presidente luis arce que los ministerios de salud y economía firmaran la resolución biministerial que permitirá la creación de ítems para el  que debe abrir cuanto antes según una sentencia constitucional  además pidió al ministerio de salud la firma de convenios con centros privados para que puedan atender pacientes del sistema único de salud lo que  en la sala de terapia intensiva para neonatos de la maternidad percy boland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/gobernacion-exige-respeto-a-concurso-de-meritos-y-examen-de-competencia-para-acceder-a-234-items-de-_272460</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>aa433fbfacaf3dc81337f65236b71459</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>105</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3881</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11</v>
+      </c>
+      <c r="J119" t="n">
+        <v>327</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>('salud', 16)</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>('ministerio', 13)</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>('viruez', 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">familiares de aprehendidos en ‘la cruceña’ descartan vínculos con el narcotráfico </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">entre los aprehendidos hay 36 varones y dos mujeres que son investigados por tenencia e importación de armas tráfico de sustancias controladas y asociación delictuosa en confabulación  los familiares y abogados de los investigados llegaron hasta las instalaciones de la fuerza especial de lucha contra el narcotráfico felcn  mecánico de aviación yo no conozco al señor que lo contrató pero sé que mi hijo trabaja honestamente  36 varones y dos mujeres  gróver soleto guzmán ulises ruiz dayer y el brasileño lópez da silva junior  los jueces serán quienes determinen su situación jurídica en los próximos días recibieron a los policías con disparos hallaron sustancias químicas armas de fuego y fue recién entonces que llamaron a efectivos y fiscales antidrogas los familiares y abogados de los investigados llegaron hasta las instalaciones de la fuerza especial de lucha contra el narcotráfico felcn  mecánico de aviación yo no conozco al señor que lo contrató pero sé que mi hijo trabaja honestamente  36 varones y dos mujeres  gróver soleto guzmán ulises ruiz dayer y el brasileño lópez da silva junior  los jueces serán quienes determinen su situación jurídica en los próximos días recibieron a los policías con disparos hallaron sustancias químicas armas de fuego y fue recién entonces que llamaron a efectivos y fiscales antidrogas </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/familiares-de-aprehendidos-en-la-crucena-descartan-vinculos-con-el-narcotrafico_272459</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>bacb07c78fe96fd7ea38cd8591bbc242</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>82</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1337</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7</v>
+      </c>
+      <c r="J120" t="n">
+        <v>130</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>('36', 3)</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>('varones', 3)</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>('mujeres', 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">indígenas piden al gobierno revertir todas las tierras entregadas sin permiso de los lugareños </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>representantes de comunidades originarias de san josé de chiquitos lugar de la reunión y guarayos dan un plazo de máximo 15 días para que autoridades nacionales puedan reunirse con ellos en abril se reúnen en san ignacio de velasco  el gobierno a lo largo de 15 años cometió el abuso de entregar tierras chiquitanas sin consultar con ellos los indígenas  s menos del 5 por ciento de las tierras entregadas ha sido para gente de santa cruz” el gobierno a lo largo de 15 años cometió el abuso de entregar tierras chiquitanas sin consultar con ellos los indígenas  s menos del 5 por ciento de las tierras entregadas ha sido para gente de santa cruz”  en un breve contacto con el deber radio el dirigente cívico explicó  que  egún sus datos en todos los pueblos de la chiquitania se han entregado terrenos a cerca de 2500 comunidades que no son de santa cruz  “es un atropello pero los pueblos se están levantando ya no aceptan  más avasallamientos   sostuvo serrate a tiempo de recordar que el artículo 43 de la ley inra estipula que la tierra es para quienes viven y trabajan en el lugar  para abril fue fijado un nuevo cabildo a realizarse en san ignacio de velasco están convocadas las 6 comunidades indígenas de la mancomunidad chiquitana en un breve contacto con el deber radio el dirigente cívico explicó  que  egún sus datos en todos los pueblos de la chiquitania se han entregado terrenos a cerca de 2500 comunidades que no son de santa cruz  “es un atropello pero los pueblos se están levantando ya no aceptan  más avasallamientos   sostuvo serrate a tiempo de recordar que el artículo 43 de la ley inra estipula que la tierra es para quienes viven y trabajan en el lugar  para abril fue fijado un nuevo cabildo a realizarse en san ignacio de velasco están convocadas las 6 comunidades indígenas de la mancomunidad chiquitana</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/indigenas-piden-al-gobierno-revertir-todas-las-tierras-entregadas-sin-permiso-de-los-lugarenos_272457</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2fba24ed83f1b98e84bf041d277e0349</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>95</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1831</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>176</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>('comunidades', 5)</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>('san', 4)</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>('tierras', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>expropietarios afirman que no tienen relación con aeroparque intervenido en megaoperativo</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mundaka obtuvo la certificación para la pista de la dgac pero los predios donde fueron construidos los hangares tienen distintos propietarios que se encargan de la operación de la pista de acuerdo con su vocero    certificado de inscripción y operación que indican que dicho aeródromo que actualmente se denomina “apartarme de la administración de los predios de la urbanización” nosotros denunciar y evitar toda clase de ilícitos  a pista fue certificada por la familia mundaka transacciones de compraventa realizadas “hace muchos años” de esos terrenos  administración para el mantenimiento de la pista  certificado de inscripción y operación que indican que dicho aeródromo que actualmente se denomina “apartarme de la administración de los predios de la urbanización” nosotros denunciar y evitar toda clase de ilícitos  a pista fue certificada por la familia mundaka transacciones de compraventa realizadas “hace muchos años” de esos terrenos  administración para el mantenimiento de la pista  dirección general de aeronáutica civil dgac dio a conocer documentos  como el  la cruceña  es de propiedad o es explotada por iber león gorena y maría jesús león mundaka   dirección general de aeronáutica civil dgac dio a conocer documentos  como el  la cruceña  es de propiedad o es explotada por iber león gorena y maría jesús león mundaka  </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/expropietarios-afirman-que-no-tienen-relacion-con-aeroparque-intervenido-en-megaoperativo_272483</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3e771c14ddede231c05c037d44f555a1</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>89</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1341</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7</v>
+      </c>
+      <c r="J122" t="n">
+        <v>118</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>('pista', 6)</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>('mundaka', 5)</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>('administración', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>segip asegura que una de las cédulas de perovic no figura en el sistema y se suma a la investigación</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">perovic habría tramitado una cédula para extranjero y posteriormente otra de boliviano por su enlace matrimonial con la exalcaldesa angélica sosa su defensa responsabiliza a funcionarios del segip por no registrar la cédula en el sistema  alpacino mojica informó que la entidad pública está colaborando en la investigación y que una de las cédulas no figura en el sistema  la cédula con el número sin extensión no figura en el sistema del servicio general de identificación personal segip demanda penal   a nadie le vamos a permitir que tenga una doble identidad” si existen irregularidades y estas tuvieran participación de funcionarios del segip también se iniciará un proceso vamos a pedir cárcel para todos los que hayan cometido algún delito  la responsabilidad de que una de las cédulas no aparezca en el registro del segip sería netamente responsabilidad de los funcionarios de esta institución el señor perovic ingresa a bolivia hace 30 años en su condición de argentino por lo tanto tramita su residencia temporal alpacino mojica informó que la entidad pública está colaborando en la investigación y que una de las cédulas no figura en el sistema  la cédula con el número sin extensión no figura en el sistema del servicio general de identificación personal segip demanda penal   a nadie le vamos a permitir que tenga una doble identidad” si existen irregularidades y estas tuvieran participación de funcionarios del segip también se iniciará un proceso vamos a pedir cárcel para todos los que hayan cometido algún delito  la responsabilidad de que una de las cédulas no aparezca en el registro del segip sería netamente responsabilidad de los funcionarios de esta institución el señor perovic ingresa a bolivia hace 30 años en su condición de argentino por lo tanto tramita su residencia temporal     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/segip-asegura-que-una-de-las-cedulas-de-perovic-no-figura-en-el-sistema-y-se-suma-a-la-investigacion_272473</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6e4de5b16d4b2dc94b50f5b3a798733d</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>100</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1811</v>
+      </c>
+      <c r="I123" t="n">
+        <v>8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>156</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>('segip', 7)</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>('funcionarios', 5)</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>('sistema', 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>inspeccionan oficinas administrativas de la uagrm por el caso ‘becas fantasmas’</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>la fiscalía investiga una denuncia de supuestas 2000 becas fantasmas en la universidad estatal cruceña la policía registró las oficinas de auditoría interna y recursos humanos  registro en las oficinas administrativas  supuestas 2000 becas fantasmas un hecho que representa un desfalco de bs 40 millones   revisión minuciosa de documentación y equipos electrónicos  no fue un allanamiento si no un registro para posteriormente emitir un requerimiento fiscal  vea el video entre los principales involucrados estarían funcionarios y dirigentes estudiantiles  la investigación va desde el 2012 hasta el 2021 registro en las oficinas administrativas  supuestas 2000 becas fantasmas un hecho que representa un desfalco de bs 40 millones   revisión minuciosa de documentación y equipos electrónicos  no fue un allanamiento si no un registro para posteriormente emitir un requerimiento fiscal  vea el video entre los principales involucrados estarían funcionarios y dirigentes estudiantiles  la investigación va desde el 2012 hasta el 2021  la denuncia fue presentada el mes pasado por el universitario peter beckhauser quien precisó que  pero prefirió no mencionar ningún nombre hasta que avance la investigación  cuando las máximas autoridades de la uagrm eran saúl rosas y osvaldo ulloa sin embargo beckhauser aclaró que hasta ahora ninguno de los dos figura como directo involucrado la denuncia fue presentada el mes pasado por el universitario peter beckhauser quien precisó que  pero prefirió no mencionar ningún nombre hasta que avance la investigación  cuando las máximas autoridades de la uagrm eran saúl rosas y osvaldo ulloa sin embargo beckhauser aclaró que hasta ahora ninguno de los dos figura como directo involucrado</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/inspeccionan-oficinas-administrativas-de-la-uagrm-por-el-caso-becas-fantasmas_272484</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3169313dbfacafeec61686a35652ba80</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>79</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1725</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7</v>
+      </c>
+      <c r="J124" t="n">
+        <v>153</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>('registro', 4)</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>('investigación', 4)</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>('beckhauser', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ven un presidente “atado” frente a protestas sociales</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">el comandante de la policía esperó una instrucción para poder habilitar las rutas interrumpidas por sectores sociales   el sector demandó garantías para transitar y condiciones en favor de la seguridad jurídica del país  manifestó luis fernando menacho secretario de desarrollo económico de la gobernación de santa cruz “al parecer tenemos un primer ministro y un presidente de gobierno donde el primer ministro dirige las políticas generales de gobernanza la administradora boliviana de carreteras abc llegó a reportar siete bloqueos por conflictos sociales datos escenario pérdidas siete bloqueos  el sector demandó garantías para transitar y condiciones en favor de la seguridad jurídica del país  manifestó luis fernando menacho secretario de desarrollo económico de la gobernación de santa cruz “al parecer tenemos un primer ministro y un presidente de gobierno donde el primer ministro dirige las políticas generales de gobernanza la administradora boliviana de carreteras abc llegó a reportar siete bloqueos por conflictos sociales datos escenario pérdidas siete bloqueos </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/pais/ven-un-presidente-atado-frente-a-protestas-sociales_272406</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4114e8617f46a17ea037f0d30f3cd970</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
         <v>53</v>
       </c>
-      <c r="G106" t="n">
-        <v>1171</v>
-      </c>
-      <c r="H106" t="n">
+      <c r="H125" t="n">
+        <v>1079</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>106</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>('primer', 4)</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>('ministro', 4)</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>('siete', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>grupos armados toman tierras en sitios ‘estratégicos’ para el narcotráfico</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">en la chiquitania decidieron organizarse para “desarticular” a esas organizaciones irregulares que operan en la región particularmente en guarayos advierten de la intención del mas de consolidar su “influencia geopolítica” en santa cruz  predios donde se hallaron factorías de cocaína y helicópteros que habían sido empleados para transportar esa droga ilícita amental del inra adalberto rojas se reunió con ese grupo el funcionario dijo entonces que no estaba al tanto del bullado incidente esas tierras y tras esa pugna el 20 de marzo un joven de 22 años perdió la vida por un disparo con arma de fuego  y validar nuestro derecho propietario” reclamó óscar mario justiniano presidente de la cámara agropecuaria del oriente cao de manera irregular por el medio físico del avasallamiento o del control de ciertas comunidades actúan en grupos de nueve personas como células están entrenados” afirmó en muchos sectores nos hemos encontrado con coca mecanizada” “en muchos casos los avasalladores instalan infraestructura como tinglados para almacenar insumos   en el departamento de santa cruz una región que es responsable de la producción del 70% de los alimentos del país predios donde se hallaron factorías de cocaína y helicópteros que habían sido empleados para transportar esa droga ilícita amental del inra adalberto rojas se reunió con ese grupo el funcionario dijo entonces que no estaba al tanto del bullado incidente esas tierras y tras esa pugna el 20 de marzo un joven de 22 años perdió la vida por un disparo con arma de fuego  y validar nuestro derecho propietario” reclamó óscar mario justiniano presidente de la cámara agropecuaria del oriente cao de manera irregular por el medio físico del avasallamiento o del control de ciertas comunidades actúan en grupos de nueve personas como células están entrenados” afirmó en muchos sectores nos hemos encontrado con coca mecanizada” “en muchos casos los avasalladores instalan infraestructura como tinglados para almacenar insumos   en el departamento de santa cruz una región que es responsable de la producción del 70% de los alimentos del país </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/pais/grupos-armados-toman-tierras-en-sitios-estrategicos-para-el-narcotrafico_272405</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7404ce5bd6b936536ad93fc49c76cb33</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>74</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2108</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7</v>
+      </c>
+      <c r="J126" t="n">
+        <v>199</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>('muchos', 4)</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>('esas', 3)</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>('región', 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>en las trancas hay un tarifario para que el contrabando pase sin control</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>un informe dice que están involucrados policías que son llamados los ‘tranqueros’ y que cobran para que camiones pasen sin control en challapata las mafias llegan a pagar bs 2500 por motorizado  el más alto es el puesto de challapata en oruro donde los contrabandistas pagan a policías 2500 bolivianos para que un camión pueda pasar  el deber accedió a un informe militar que revela el nexo entre contrabandistas y policías el pago más alto es el de challapata localidad que volvió a convertirse en el núcleo del contrabando  “cada camión cargado con mercadería de contrabando paga determinadas sumas de dinero  el documento también revela una red de policías que tienen contactos con clanes familiares  pagan por destinos un policía relata que a estos uniformados se los conoce como “tranqueros esos puestos son cotizados por los policías en oruro los “tranqueros” según el reporte militar en su mayoría son suboficiales y sargentos ya en 2019 se dio a conocer que un centenar de policías de oruro estaban implicados en una estructura ilegal que en el informe militar se identifican 19 puestos de control dominados por los “tranqueros”  varios pagos los clanes son dirigidos por los hijos de líderes denuncias contra mafias el más alto es el puesto de challapata en oruro donde los contrabandistas pagan a policías 2500 bolivianos para que un camión pueda pasar  el deber accedió a un informe militar que revela el nexo entre contrabandistas y policías el pago más alto es el de challapata localidad que volvió a convertirse en el núcleo del contrabando  “cada camión cargado con mercadería de contrabando paga determinadas sumas de dinero  el documento también revela una red de policías que tienen contactos con clanes familiares  pagan por destinos un policía relata que a estos uniformados se los conoce como “tranqueros esos puestos son cotizados por los policías en oruro los “tranqueros” según el reporte militar en su mayoría son suboficiales y sargentos ya en 2019 se dio a conocer que un centenar de policías de oruro estaban implicados en una estructura ilegal que en el informe militar se identifican 19 puestos de control dominados por los “tranqueros”  varios pagos los clanes son dirigidos por los hijos de líderes denuncias contra mafias  el mundo del contrabando tiene sus propias reglas sus equipos tecnológicos y hasta su propio tarifario en las trancas de control las mafias que en su mayoría son clanes familiares “acordaron” con uniformados una escala de precios para que puedan pasar su mercadería  hay 19 trancas en el departamento de oruro que tienen un precio para dejar pasar mercadería ilegal el mundo del contrabando tiene sus propias reglas sus equipos tecnológicos y hasta su propio tarifario en las trancas de control las mafias que en su mayoría son clanes familiares “acordaron” con uniformados una escala de precios para que puedan pasar su mercadería  hay 19 trancas en el departamento de oruro que tienen un precio para dejar pasar mercadería ilegal</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/pais/en-las-trancas-hay-un-tarifario-para-que-el-contrabando-pase-sin-control_272404</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9a019a848bd5e033d2bd4e41653591c7</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>72</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2987</v>
+      </c>
+      <c r="I127" t="n">
         <v>5</v>
       </c>
-      <c r="I106" t="n">
-        <v>110</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>('michoacán', 6)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>('personas', 4)</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>('fiscalía', 4)</t>
+      <c r="J127" t="n">
+        <v>264</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>('policías', 11)</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>('oruro', 8)</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>('pasar', 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>el ine asegura que se cumple el cronograma del censo y pide que instituciones cruceñas “dejen de mentir”</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> el director del instituto nacional de estadística señala que el estudio ofrecido por la alcaldía de santa cruz solo son datos de planimetría urbana esta semana inicia la actualización cartográfica  aseguró este lunes que se cumplen con los tiempos previstos para la organización del censo  exigió que la universidad autónoma gabriel rené moreno uagrm y la asamblea legislativa departamental de santa cruz dejen de mentir demostrar que lo único que tienen ellos es un interés político y no técnico la preparación de los componentes de la encuesta nacional llega a un 95 por ciento la entrevista se está llevando adelante todas las etapas técnicas necesarias en los tiempos que estamos manejando agradeció que la alcaldía cruceña ponga a disposición del ine un estudio de planimetría urbana lo que nos ofrecieron es el catastro que nos permitirá verificar nuestras imágenes satelitales no hubo ningún tipo de restricción a los eventos de socialización que se desarrollaron en tarija y santa cruz estamos garantizando llevar adelante este proceso con calidad aseguró este lunes que se cumplen con los tiempos previstos para la organización del censo  exigió que la universidad autónoma gabriel rené moreno uagrm y la asamblea legislativa departamental de santa cruz dejen de mentir demostrar que lo único que tienen ellos es un interés político y no técnico la preparación de los componentes de la encuesta nacional llega a un 95 por ciento la entrevista se está llevando adelante todas las etapas técnicas necesarias en los tiempos que estamos manejando agradeció que la alcaldía cruceña ponga a disposición del ine un estudio de planimetría urbana lo que nos ofrecieron es el catastro que nos permitirá verificar nuestras imágenes satelitales no hubo ningún tipo de restricción a los eventos de socialización que se desarrollaron en tarija y santa cruz estamos garantizando llevar adelante este proceso con calidad </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/pais/el-ine-asegura-que-se-cumple-el-cronograma-del-censo-y-pide-que-instituciones-crucenas-dejen-de-ment_272456</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4051b55bc8e78351ba97361814907aff</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>104</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1915</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J128" t="n">
+        <v>172</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>('santa', 5)</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>('cruz', 5)</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>('tiempos', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>interrupciones gritos y fallas técnicas en el intento de instalar el juicio contra jeanine áñez que se descompensa</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> la expresidenta debe ser procesada dentro del caso denominado golpe ii los abogados exigen que los participantes enciendan sus cámaras y las otras partes que los jueces instituyan orden  se ve afectado por interrupciones gritos y problemas técnicos el tribunal primero de sentencia anticorrupción comenzó a restringir el acceso a la audiencia el primero exigía que todos los participantes enciendas sus cámaras como manda el tribunal supremo de justicia delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes tuit de su hija lunes 28 de marzo de 2022 dieron inicio al juicio mas vergonzoso nefasto e ilegal de la historia de bolivia un juicio sin delito en un tribunal sin competencia con jueces designados a dedo…🧵  — caroriberañez @caroriberanez    exige una pena de 10 años de cárcel contra áñez que cumple más de un año detenida preventivamente la exmandataria sufrió una nueva descompensación médica y que tuvieron que intervenir galenos momento de la descompensación se ve afectado por interrupciones gritos y problemas técnicos el tribunal primero de sentencia anticorrupción comenzó a restringir el acceso a la audiencia el primero exigía que todos los participantes enciendas sus cámaras como manda el tribunal supremo de justicia delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes tuit de su hija lunes 28 de marzo de 2022 dieron inicio al juicio mas vergonzoso nefasto e ilegal de la historia de bolivia un juicio sin delito en un tribunal sin competencia con jueces designados a dedo…🧵  — caroriberañez @caroriberanez    exige una pena de 10 años de cárcel contra áñez que cumple más de un año detenida preventivamente la exmandataria sufrió una nueva descompensación médica y que tuvieron que intervenir galenos momento de la descompensación </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/pais/interrupciones-gritos-y-fallas-tecnicas-en-el-intento-de-instalar-el-juicio-contra-jeanine-anez-que-_272458</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>cf88126e257807d3150aa0e930babba8</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>114</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1836</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11</v>
+      </c>
+      <c r="J129" t="n">
+        <v>171</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>('tribunal', 6)</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>('primero', 4)</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>('juicio', 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sergio perovic cuenta con doble identificación y no descartan ampliar las investigaciones en su contra</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> su defensa explica que cuenta con dos cédulas de identidad ya que al llegar a bolivia tramitó una cédula para extranjero y posteriormente otra de boliviano por matrimonio con angélica sosa   sergio adolfo perovic esposo de la exalcaldesa interina angélica sosa   cuenta con doble identificación personal una con número y extensión nacional y otra con cifras distintas y sin aclaración de extensión  delito de legitimación de ganancias ilícitas   la doble identificación podría agravar su situación jurídica servicio general de identificación personal segip mediante un requerimiento fiscal   se constató que perovic registró cuatro inmuebles con la cédula de identidad de extranjero mala fe su defendido cuenta con dos cédulas de identidad ya que al llegar a bolivia tramitó una cédula tramita una cédula de extranjero con la cual adquiere los cuatro bienes que están registrados en derechos reales luego hace unos ocho años recién tramita una cédula como boliviano nacional sería la que actualmente ocupa perovic en bolivia el mes pasado perovic viajó a salta argentina del esquema de pago a 800 personas que nunca prestaron servicios en la alcaldía  sergio adolfo perovic esposo de la exalcaldesa interina angélica sosa   cuenta con doble identificación personal una con número y extensión nacional y otra con cifras distintas y sin aclaración de extensión  delito de legitimación de ganancias ilícitas   la doble identificación podría agravar su situación jurídica servicio general de identificación personal segip mediante un requerimiento fiscal   se constató que perovic registró cuatro inmuebles con la cédula de identidad de extranjero mala fe su defendido cuenta con dos cédulas de identidad ya que al llegar a bolivia tramitó una cédula tramita una cédula de extranjero con la cual adquiere los cuatro bienes que están registrados en derechos reales luego hace unos ocho años recién tramita una cédula como boliviano nacional sería la que actualmente ocupa perovic en bolivia el mes pasado perovic viajó a salta argentina del esquema de pago a 800 personas que nunca prestaron servicios en la alcaldía    perovic acusado por el caso ‘prestín’  retorno   perovic acusado por el caso ‘prestín’  retorno</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/santa-cruz/sergio-perovic-cuenta-con-doble-identificacion-y-no-descartan-ampliar-las-investigaciones-en-su-cont_272452</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>dc4c813c864f943196858d82a7fd011c</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>102</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2211</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>216</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>('perovic', 10)</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>('cédula', 9)</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>('identificación', 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>tribunal fija para el 4 de abril la reanudación del juicio contra la expresidenta jeanine áñez</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> cuatro exuniformados fueron declarados rebeldes y se instruyó su aprehensión la exjefa de estado sufrió un colapso nervioso y se dispuso un receso hasta que fuera estabilizada  reanudación del juicio contra jeanine áñez dentro del caso denominado “golpe ii” problemas técnicos gritos e interrupciones que dificultaron el proceso que debería ser público declarar en rebeldía y ordenar la aprehensión de williams kaliman excomandante de las fuerzas armadas no se ha atendido la situación médica y crítica que padece la expresidenta jeanine áñez momento del incidente en la reinstalación del procedimiento se ingresará a la fase de incidentes y excepciones reflejan una actitud obstaculizadora y contraria al derecho constitucional a contar con decisiones judiciales presunta comisión de los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes exige una pena de 10 años de cárcel contra áñez escuchando a la procuraduría instruyendo al tribunal cómo debía llevar el proceso ilegal tuit de su hija reanudación del juicio contra jeanine áñez dentro del caso denominado “golpe ii” problemas técnicos gritos e interrupciones que dificultaron el proceso que debería ser público declarar en rebeldía y ordenar la aprehensión de williams kaliman excomandante de las fuerzas armadas no se ha atendido la situación médica y crítica que padece la expresidenta jeanine áñez momento del incidente en la reinstalación del procedimiento se ingresará a la fase de incidentes y excepciones reflejan una actitud obstaculizadora y contraria al derecho constitucional a contar con decisiones judiciales presunta comisión de los delitos de incumplimiento de deberes y resoluciones contrarias a la constitución y las leyes exige una pena de 10 años de cárcel contra áñez escuchando a la procuraduría instruyendo al tribunal cómo debía llevar el proceso ilegal tuit de su hija </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://eldeber.com.bo/pais/tribunal-fija-para-el-4-de-abril-la-reanudacion-del-juicio-contra-la-expresidenta-jeanine-anez_272482</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>28/3/2022</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>eldeber.com.bo</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3230b8d8f66e132f0464f57e77c40815</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>94</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1894</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J131" t="n">
+        <v>174</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>('áñez', 6)</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>('contra', 4)</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>('jeanine', 4)</t>
         </is>
       </c>
     </row>
